--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC75203-63EF-4D08-881C-30E9DEBF22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631388B2-D301-451E-B675-7E49472B5FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>bath.txt</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -528,8 +528,17 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>150</v>
+      </c>
+      <c r="Q1">
+        <v>631.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -547,8 +556,17 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>182</v>
+      </c>
+      <c r="Q2">
+        <v>3637.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -582,8 +600,17 @@
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>89</v>
+      </c>
+      <c r="Q3">
+        <v>714.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -619,8 +646,17 @@
         <f>IF($B4=I4, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>165</v>
+      </c>
+      <c r="Q4">
+        <v>3447.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -656,8 +692,17 @@
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>168</v>
+      </c>
+      <c r="Q5">
+        <v>1174.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -693,8 +738,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>162</v>
+      </c>
+      <c r="Q6">
+        <v>1435.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -730,8 +784,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>169</v>
+      </c>
+      <c r="Q7">
+        <v>1391.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -767,8 +830,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>190</v>
+      </c>
+      <c r="Q8">
+        <v>1329.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -804,8 +876,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>166</v>
+      </c>
+      <c r="Q9">
+        <v>3240.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -841,8 +922,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>162</v>
+      </c>
+      <c r="Q10">
+        <v>3571.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -878,8 +968,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>125</v>
+      </c>
+      <c r="Q11">
+        <v>2636.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -915,8 +1014,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>214</v>
+      </c>
+      <c r="Q12">
+        <v>5236.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -952,8 +1060,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>166</v>
+      </c>
+      <c r="Q13">
+        <v>1399.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1106,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>191</v>
+      </c>
+      <c r="Q14">
+        <v>3558.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1152,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>93</v>
+      </c>
+      <c r="Q15">
+        <v>2570.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1063,8 +1198,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>128</v>
+      </c>
+      <c r="Q16">
+        <v>2018.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1100,8 +1244,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>180</v>
+      </c>
+      <c r="Q17">
+        <v>2915.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1137,8 +1290,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>104</v>
+      </c>
+      <c r="Q18">
+        <v>891.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1174,8 +1336,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>151</v>
+      </c>
+      <c r="Q19">
+        <v>1895.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1211,8 +1382,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>142</v>
+      </c>
+      <c r="Q20">
+        <v>1693.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1429,7 @@
         <v>opt</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1466,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1503,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1367,8 +1547,11 @@
         <f>COUNTIF(K4:K23, "opt")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1383,7 +1566,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1402,7 +1585,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1657,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1694,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1731,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2177,7 +2360,7 @@
         <v>opt</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2221,8 +2404,11 @@
         <f>COUNTIF(K29:K48, "opt")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>33</v>
@@ -2237,7 +2423,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>27</v>
@@ -2256,7 +2442,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2307,6 +2493,12 @@
       <c r="E54">
         <v>3608.26</v>
       </c>
+      <c r="F54">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>631.5</v>
+      </c>
       <c r="H54" t="str">
         <f>IF($B54=F54, "opt", "")</f>
         <v/>
@@ -2322,7 +2514,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2338,6 +2530,12 @@
       <c r="E55">
         <v>1985.8</v>
       </c>
+      <c r="F55">
+        <v>182</v>
+      </c>
+      <c r="G55">
+        <v>3637.73</v>
+      </c>
       <c r="H55" t="str">
         <f t="shared" ref="H55:H73" si="14">IF($B55=F55, "opt", "")</f>
         <v/>
@@ -2353,7 +2551,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2369,6 +2567,12 @@
       <c r="E56">
         <v>179.16</v>
       </c>
+      <c r="F56">
+        <v>89</v>
+      </c>
+      <c r="G56">
+        <v>714.64</v>
+      </c>
       <c r="H56" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2384,7 +2588,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2400,6 +2604,12 @@
       <c r="E57">
         <v>3631.76</v>
       </c>
+      <c r="F57">
+        <v>165</v>
+      </c>
+      <c r="G57">
+        <v>3447.42</v>
+      </c>
       <c r="H57" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2415,7 +2625,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2431,6 +2641,12 @@
       <c r="E58">
         <v>911.98</v>
       </c>
+      <c r="F58">
+        <v>168</v>
+      </c>
+      <c r="G58">
+        <v>1174.47</v>
+      </c>
       <c r="H58" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2446,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2462,6 +2678,12 @@
       <c r="E59">
         <v>3604.64</v>
       </c>
+      <c r="F59">
+        <v>162</v>
+      </c>
+      <c r="G59">
+        <v>1435.66</v>
+      </c>
       <c r="H59" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2477,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2493,6 +2715,12 @@
       <c r="E60">
         <v>3655.54</v>
       </c>
+      <c r="F60">
+        <v>169</v>
+      </c>
+      <c r="G60">
+        <v>1391.51</v>
+      </c>
       <c r="H60" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2508,7 +2736,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2524,6 +2752,12 @@
       <c r="E61">
         <v>3648.06</v>
       </c>
+      <c r="F61">
+        <v>190</v>
+      </c>
+      <c r="G61">
+        <v>1329.91</v>
+      </c>
       <c r="H61" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2539,7 +2773,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2555,6 +2789,12 @@
       <c r="E62">
         <v>329.38</v>
       </c>
+      <c r="F62">
+        <v>166</v>
+      </c>
+      <c r="G62">
+        <v>3240.09</v>
+      </c>
       <c r="H62" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2570,7 +2810,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2586,6 +2826,12 @@
       <c r="E63">
         <v>3602.38</v>
       </c>
+      <c r="F63">
+        <v>162</v>
+      </c>
+      <c r="G63">
+        <v>3571.87</v>
+      </c>
       <c r="H63" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2601,7 +2847,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2616,6 +2862,12 @@
       </c>
       <c r="E64">
         <v>338.36</v>
+      </c>
+      <c r="F64">
+        <v>125</v>
+      </c>
+      <c r="G64">
+        <v>2636.94</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="14"/>
@@ -2648,6 +2900,12 @@
       <c r="E65">
         <v>3620.36</v>
       </c>
+      <c r="F65">
+        <v>214</v>
+      </c>
+      <c r="G65">
+        <v>5236.25</v>
+      </c>
       <c r="H65" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2679,6 +2937,12 @@
       <c r="E66">
         <v>913.1</v>
       </c>
+      <c r="F66">
+        <v>166</v>
+      </c>
+      <c r="G66">
+        <v>1399.34</v>
+      </c>
       <c r="H66" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2710,6 +2974,12 @@
       <c r="E67">
         <v>236.64</v>
       </c>
+      <c r="F67">
+        <v>191</v>
+      </c>
+      <c r="G67">
+        <v>3558.47</v>
+      </c>
       <c r="H67" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2741,6 +3011,12 @@
       <c r="E68">
         <v>17.079999999999998</v>
       </c>
+      <c r="F68">
+        <v>93</v>
+      </c>
+      <c r="G68">
+        <v>2570.6</v>
+      </c>
       <c r="H68" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2772,6 +3048,12 @@
       <c r="E69">
         <v>227.07</v>
       </c>
+      <c r="F69">
+        <v>128</v>
+      </c>
+      <c r="G69">
+        <v>2018.32</v>
+      </c>
       <c r="H69" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2803,6 +3085,12 @@
       <c r="E70">
         <v>3650.96</v>
       </c>
+      <c r="F70">
+        <v>180</v>
+      </c>
+      <c r="G70">
+        <v>2915.07</v>
+      </c>
       <c r="H70" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2834,6 +3122,12 @@
       <c r="E71">
         <v>53.23</v>
       </c>
+      <c r="F71">
+        <v>104</v>
+      </c>
+      <c r="G71">
+        <v>891.9</v>
+      </c>
       <c r="H71" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2865,6 +3159,12 @@
       <c r="E72">
         <v>3637.62</v>
       </c>
+      <c r="F72">
+        <v>151</v>
+      </c>
+      <c r="G72">
+        <v>1895.86</v>
+      </c>
       <c r="H72" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2896,6 +3196,12 @@
       <c r="E73">
         <v>31.71</v>
       </c>
+      <c r="F73">
+        <v>142</v>
+      </c>
+      <c r="G73">
+        <v>1693.27</v>
+      </c>
       <c r="H73" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -2931,13 +3237,13 @@
         <f t="shared" ref="E74" si="18">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
-      <c r="F74" s="1" t="e">
+      <c r="F74" s="1">
         <f t="shared" ref="F74" si="19">AVERAGE(F54:F73)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G74" s="1" t="e">
+        <v>154.85</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" ref="G74" si="20">AVERAGE(G54:G73)</f>
-        <v>#DIV/0!</v>
+        <v>2269.5409999999997</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631388B2-D301-451E-B675-7E49472B5FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82218A-6BBD-4024-846C-28DAC540BA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>bath.txt</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -528,17 +528,8 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>150</v>
-      </c>
-      <c r="Q1">
-        <v>631.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -556,17 +547,8 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>182</v>
-      </c>
-      <c r="Q2">
-        <v>3637.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -600,17 +582,8 @@
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>89</v>
-      </c>
-      <c r="Q3">
-        <v>714.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -646,17 +619,8 @@
         <f>IF($B4=I4, "opt", "")</f>
         <v/>
       </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>165</v>
-      </c>
-      <c r="Q4">
-        <v>3447.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -692,17 +656,8 @@
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
         <v/>
       </c>
-      <c r="O5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>168</v>
-      </c>
-      <c r="Q5">
-        <v>1174.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -738,17 +693,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>162</v>
-      </c>
-      <c r="Q6">
-        <v>1435.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -784,17 +730,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>169</v>
-      </c>
-      <c r="Q7">
-        <v>1391.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -830,17 +767,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>190</v>
-      </c>
-      <c r="Q8">
-        <v>1329.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -876,17 +804,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9">
-        <v>166</v>
-      </c>
-      <c r="Q9">
-        <v>3240.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -922,17 +841,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10">
-        <v>162</v>
-      </c>
-      <c r="Q10">
-        <v>3571.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -968,17 +878,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11">
-        <v>125</v>
-      </c>
-      <c r="Q11">
-        <v>2636.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1014,17 +915,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12">
-        <v>214</v>
-      </c>
-      <c r="Q12">
-        <v>5236.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1060,17 +952,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13">
-        <v>166</v>
-      </c>
-      <c r="Q13">
-        <v>1399.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1106,17 +989,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14">
-        <v>191</v>
-      </c>
-      <c r="Q14">
-        <v>3558.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1152,17 +1026,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15">
-        <v>93</v>
-      </c>
-      <c r="Q15">
-        <v>2570.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1198,17 +1063,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16">
-        <v>128</v>
-      </c>
-      <c r="Q16">
-        <v>2018.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1244,17 +1100,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17">
-        <v>180</v>
-      </c>
-      <c r="Q17">
-        <v>2915.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1290,17 +1137,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18">
-        <v>104</v>
-      </c>
-      <c r="Q18">
-        <v>891.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1336,17 +1174,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19">
-        <v>151</v>
-      </c>
-      <c r="Q19">
-        <v>1895.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1382,17 +1211,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20">
-        <v>142</v>
-      </c>
-      <c r="Q20">
-        <v>1693.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1249,7 @@
         <v>opt</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1286,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1371,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1566,7 +1386,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1585,7 +1405,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1477,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1514,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1551,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3267,6 +3087,10 @@
     <sortCondition ref="O1:O74"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="F52:H52"/>
@@ -3275,10 +3099,6 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82218A-6BBD-4024-846C-28DAC540BA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0B681-BF33-436F-BBF0-8D10EBB52D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>bath.txt</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>k=4</t>
+  </si>
+  <si>
+    <t>VNS 14.1.2023. 23:35:20</t>
   </si>
 </sst>
 </file>
@@ -501,20 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -528,8 +531,11 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -538,17 +544,22 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -582,9 +593,18 @@
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -603,24 +623,34 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="I4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="L4">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>239.56</v>
+      </c>
+      <c r="N4" t="str">
+        <f>IF($B4=L4, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -637,28 +667,38 @@
         <v>0.74</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
         <v/>
       </c>
       <c r="I5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>2857.14</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -674,27 +714,37 @@
         <v>0.33</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>425.46</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -711,28 +761,38 @@
         <v>0.49</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>1488.4</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -751,25 +811,35 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>2772.73</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -788,25 +858,35 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>1158.5</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -822,28 +902,38 @@
         <v>0.3</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="L10">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>292.3</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -859,27 +949,37 @@
         <v>0.34</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>51</v>
+      </c>
+      <c r="M11">
+        <v>614.62</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -899,24 +999,34 @@
         <v>42</v>
       </c>
       <c r="G12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>3123.37</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -936,24 +1046,34 @@
         <v>39</v>
       </c>
       <c r="G13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>1896.54</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -970,27 +1090,37 @@
         <v>0.35</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>3563.82</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1007,28 +1137,38 @@
         <v>0.63</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>2013.71</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1047,25 +1187,35 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L16">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>792.09</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1081,27 +1231,37 @@
         <v>0.44</v>
       </c>
       <c r="F17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>46</v>
+      </c>
+      <c r="M17">
+        <v>3016.44</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1118,28 +1278,38 @@
         <v>0.13</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1158,25 +1328,35 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>180.01</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1192,28 +1372,38 @@
         <v>0.38</v>
       </c>
       <c r="F20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="L20">
+        <v>46</v>
+      </c>
+      <c r="M20">
+        <v>2892.3</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1232,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1242,15 +1432,25 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>472.69</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -1269,25 +1469,35 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>opt</v>
+      </c>
+      <c r="L22">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>1303.21</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1306,24 +1516,34 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>403.23</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1332,46 +1552,58 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:G24" si="2">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:J24" si="3">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>37.9</v>
+        <f>AVERAGE(F4:F23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(G4:G23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24" si="3">AVERAGE(I4:I23)</f>
-        <v>38.9</v>
+        <f t="shared" si="3"/>
+        <v>37.9</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ref="J24" si="4">AVERAGE(J4:J23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="3"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24" si="4">AVERAGE(L4:L23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24" si="5">AVERAGE(M4:M23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="N24" s="1">
+        <f>COUNTIF(N4:N23, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1385,8 +1617,11 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1395,17 +1630,22 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,8 +1679,17 @@
       <c r="K28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1457,27 +1706,37 @@
         <v>0.69</v>
       </c>
       <c r="F29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
         <v/>
       </c>
       <c r="I29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>76</v>
+      </c>
+      <c r="M29">
+        <v>2043.43</v>
+      </c>
+      <c r="N29" t="str">
+        <f>IF($B29=L29, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1494,27 +1753,37 @@
         <v>5.98</v>
       </c>
       <c r="F30">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>2794.12</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="6">IF($B30=F30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I30">
         <v>85</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>3605.84</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="5">IF($B30=F30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I30">
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="7">IF($B30=I30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L30">
         <v>90</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>1133.24</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="6">IF($B30=I30, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="8">IF($B30=L30, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1531,27 +1800,37 @@
         <v>0.91</v>
       </c>
       <c r="F31">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>1185.19</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I31">
         <v>44</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>3392.22</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I31">
+      <c r="K31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L31">
         <v>43</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>3591.99</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1568,27 +1847,37 @@
         <v>1.76</v>
       </c>
       <c r="F32">
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <v>766.05</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I32">
         <v>82</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>1957.88</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I32">
+      <c r="K32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L32">
         <v>81</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>2691.03</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1605,27 +1894,37 @@
         <v>0.95</v>
       </c>
       <c r="F33">
+        <v>80</v>
+      </c>
+      <c r="G33">
+        <v>1190.47</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I33">
         <v>83</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>1721.95</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I33">
+      <c r="K33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L33">
         <v>86</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>2099.84</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1642,27 +1941,37 @@
         <v>1.53</v>
       </c>
       <c r="F34">
+        <v>74</v>
+      </c>
+      <c r="G34">
+        <v>778.34</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I34">
         <v>79</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>3138.24</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I34">
+      <c r="K34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L34">
         <v>77</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>2695.42</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1679,27 +1988,37 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>140.19</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I35">
         <v>83</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>960.67</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L35">
         <v>85</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>740.86</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1716,27 +2035,37 @@
         <v>1.29</v>
       </c>
       <c r="F36">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G36">
-        <v>873.59</v>
+        <v>2182.41</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I36">
         <v>98</v>
       </c>
       <c r="J36">
+        <v>873.59</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L36">
+        <v>98</v>
+      </c>
+      <c r="M36">
         <v>3416.12</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1753,27 +2082,37 @@
         <v>1.01</v>
       </c>
       <c r="F37">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>1581.33</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I37">
         <v>87</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>2964.31</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I37">
+      <c r="K37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L37">
         <v>88</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1790,27 +2129,37 @@
         <v>7.58</v>
       </c>
       <c r="F38">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>1946.12</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I38">
         <v>84</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I38">
+      <c r="K38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L38">
         <v>85</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>2839.94</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1827,27 +2176,37 @@
         <v>1.4</v>
       </c>
       <c r="F39">
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <v>178.08</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39">
         <v>64</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>2213.38</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I39">
+      <c r="K39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L39">
         <v>63</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>1404.51</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1864,27 +2223,37 @@
         <v>24.5</v>
       </c>
       <c r="F40">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>1845.81</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I40">
         <v>106</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>4030.49</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I40">
+      <c r="K40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L40">
         <v>88</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>2235.91</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1901,27 +2270,37 @@
         <v>1.25</v>
       </c>
       <c r="F41">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G41">
-        <v>758.9</v>
+        <v>2982.1</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I41">
         <v>88</v>
       </c>
       <c r="J41">
+        <v>758.9</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L41">
+        <v>88</v>
+      </c>
+      <c r="M41">
         <v>3032.11</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1938,27 +2317,37 @@
         <v>1.23</v>
       </c>
       <c r="F42">
+        <v>85</v>
+      </c>
+      <c r="G42">
+        <v>2435.9299999999998</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I42">
         <v>92</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>2487.52</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="K42" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L42">
         <v>93</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>1500.97</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1978,24 +2367,34 @@
         <v>47</v>
       </c>
       <c r="G43">
+        <v>13.01</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="6"/>
+        <v>opt</v>
+      </c>
+      <c r="I43">
+        <v>47</v>
+      </c>
+      <c r="J43">
         <v>162.75</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="5"/>
+      <c r="K43" t="str">
+        <f t="shared" si="7"/>
         <v>opt</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>48</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>551.9</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2012,27 +2411,37 @@
         <v>0.88</v>
       </c>
       <c r="F44">
+        <v>63</v>
+      </c>
+      <c r="G44">
+        <v>3516.79</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I44">
         <v>66</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>3060.12</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I44">
+      <c r="K44" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L44">
         <v>69</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>1302.26</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2049,27 +2458,37 @@
         <v>1.77</v>
       </c>
       <c r="F45">
+        <v>86</v>
+      </c>
+      <c r="G45">
+        <v>2140.17</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I45">
         <v>90</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>2247.27</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="K45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L45">
         <v>91</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>2549.39</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2086,27 +2505,37 @@
         <v>0.45</v>
       </c>
       <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>3148.79</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I46">
         <v>52</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>2009.49</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I46">
+      <c r="K46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L46">
         <v>53</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>162.55000000000001</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2123,27 +2552,37 @@
         <v>2.54</v>
       </c>
       <c r="F47">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>248.24</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="6"/>
+        <v>opt</v>
+      </c>
+      <c r="I47">
         <v>75</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>3003.53</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I47">
+      <c r="K47" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L47">
         <v>80</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>468.54</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2160,27 +2599,37 @@
         <v>1.35</v>
       </c>
       <c r="F48">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G48">
-        <v>501.68</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I48">
-        <v>68</v>
-      </c>
-      <c r="J48">
-        <v>1847.68</v>
-      </c>
-      <c r="K48" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>70</v>
+      </c>
+      <c r="J48">
+        <v>501.68</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L48">
+        <v>68</v>
+      </c>
+      <c r="M48">
+        <v>1847.68</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2189,46 +2638,58 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="7">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="9">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="8">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="10">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49" si="9">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:G49" si="11">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ref="F49" si="10">AVERAGE(F29:F48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="11"/>
+        <v>72.3</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" ref="G49" si="11">AVERAGE(G29:G48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="11"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" ref="I49" si="12">AVERAGE(I29:I48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ref="J49" si="13">AVERAGE(J29:J48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="1">
+        <f t="shared" ref="L49" si="14">AVERAGE(L29:L48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" ref="M49" si="15">AVERAGE(M29:M48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="N49" s="1">
+        <f>COUNTIF(N29:N48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>33</v>
@@ -2242,8 +2703,11 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>27</v>
@@ -2252,17 +2716,22 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -2296,8 +2765,17 @@
       <c r="K53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2314,27 +2792,37 @@
         <v>3608.26</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="H54" t="str">
         <f>IF($B54=F54, "opt", "")</f>
         <v/>
       </c>
       <c r="I54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="K54" t="str">
         <f>IF($B54=I54, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>149</v>
+      </c>
+      <c r="M54">
+        <v>2862.68</v>
+      </c>
+      <c r="N54" t="str">
+        <f>IF($B54=L54, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2351,27 +2839,37 @@
         <v>1985.8</v>
       </c>
       <c r="F55">
+        <v>152</v>
+      </c>
+      <c r="G55">
+        <v>2672.73</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:H73" si="16">IF($B55=F55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I55">
         <v>182</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>3637.73</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="14">IF($B55=F55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I55">
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K73" si="17">IF($B55=I55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L55">
         <v>169</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>2837.51</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="15">IF($B55=I55, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N55" t="str">
+        <f t="shared" ref="N55:N73" si="18">IF($B55=L55, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2388,27 +2886,37 @@
         <v>179.16</v>
       </c>
       <c r="F56">
+        <v>82</v>
+      </c>
+      <c r="G56">
+        <v>1015.5</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I56">
         <v>89</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>714.64</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I56">
+      <c r="K56" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L56">
         <v>87</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>3470.98</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N56" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2425,27 +2933,37 @@
         <v>3631.76</v>
       </c>
       <c r="F57">
+        <v>151</v>
+      </c>
+      <c r="G57">
+        <v>1923.96</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I57">
         <v>165</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>3447.42</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I57">
+      <c r="K57" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L57">
         <v>162</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>1616.56</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N57" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2462,27 +2980,37 @@
         <v>911.98</v>
       </c>
       <c r="F58">
+        <v>160</v>
+      </c>
+      <c r="G58">
+        <v>2621.15</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I58">
         <v>168</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>1174.47</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I58">
+      <c r="K58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L58">
         <v>165</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>2670.1</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N58" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2499,27 +3027,37 @@
         <v>3604.64</v>
       </c>
       <c r="F59">
+        <v>152</v>
+      </c>
+      <c r="G59">
+        <v>1347.62</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I59">
         <v>162</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1435.66</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I59">
+      <c r="K59" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L59">
         <v>159</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>3351.26</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N59" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2536,27 +3074,37 @@
         <v>3655.54</v>
       </c>
       <c r="F60">
+        <v>160</v>
+      </c>
+      <c r="G60">
+        <v>1825.03</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I60">
         <v>169</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>1391.51</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I60">
+      <c r="K60" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L60">
         <v>172</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>2752.16</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N60" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2573,27 +3121,37 @@
         <v>3648.06</v>
       </c>
       <c r="F61">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>2940.9</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I61">
         <v>190</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>1329.91</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I61">
+      <c r="K61" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L61">
         <v>185</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>1546.74</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N61" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2610,27 +3168,37 @@
         <v>329.38</v>
       </c>
       <c r="F62">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G62">
-        <v>3240.09</v>
+        <v>1724.02</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I62">
         <v>166</v>
       </c>
       <c r="J62">
+        <v>3240.09</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L62">
+        <v>166</v>
+      </c>
+      <c r="M62">
         <v>3490.77</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2647,27 +3215,37 @@
         <v>3602.38</v>
       </c>
       <c r="F63">
+        <v>155</v>
+      </c>
+      <c r="G63">
+        <v>1856.66</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I63">
         <v>162</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>3571.87</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I63">
+      <c r="K63" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L63">
         <v>165</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2684,27 +3262,37 @@
         <v>338.36</v>
       </c>
       <c r="F64">
+        <v>114</v>
+      </c>
+      <c r="G64">
+        <v>2136.59</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I64">
         <v>125</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>2636.94</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="K64" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L64">
         <v>124</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>3155.58</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N64" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2721,27 +3309,37 @@
         <v>3620.36</v>
       </c>
       <c r="F65">
+        <v>160</v>
+      </c>
+      <c r="G65">
+        <v>956.97</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I65">
         <v>214</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>5236.25</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="K65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L65">
         <v>173</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>3430.55</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N65" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2758,27 +3356,37 @@
         <v>913.1</v>
       </c>
       <c r="F66">
+        <v>158</v>
+      </c>
+      <c r="G66">
+        <v>2765.03</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I66">
         <v>166</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>1399.34</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I66">
+      <c r="K66" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L66">
         <v>164</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>2690.94</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2795,27 +3403,37 @@
         <v>236.64</v>
       </c>
       <c r="F67">
+        <v>168</v>
+      </c>
+      <c r="G67">
+        <v>3493.09</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I67">
         <v>191</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>3558.47</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="K67" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L67">
         <v>184</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>1410.68</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2832,27 +3450,37 @@
         <v>17.079999999999998</v>
       </c>
       <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>20.65</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I68">
         <v>93</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>2570.6</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I68">
+      <c r="K68" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L68">
         <v>91</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>894.18</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N68" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2869,27 +3497,37 @@
         <v>227.07</v>
       </c>
       <c r="F69">
+        <v>121</v>
+      </c>
+      <c r="G69">
+        <v>3062.52</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I69">
         <v>128</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>2018.32</v>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I69">
+      <c r="K69" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L69">
         <v>127</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>3492.04</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N69" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2906,27 +3544,37 @@
         <v>3650.96</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G70">
-        <v>2915.07</v>
+        <v>1031.4100000000001</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I70">
         <v>180</v>
       </c>
       <c r="J70">
+        <v>2915.07</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L70">
+        <v>180</v>
+      </c>
+      <c r="M70">
         <v>2578.83</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N70" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2943,27 +3591,37 @@
         <v>53.23</v>
       </c>
       <c r="F71">
+        <v>101</v>
+      </c>
+      <c r="G71">
+        <v>351.49</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I71">
         <v>104</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>891.9</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I71">
+      <c r="K71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L71">
         <v>100</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>1374.47</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2980,27 +3638,37 @@
         <v>3637.62</v>
       </c>
       <c r="F72">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G72">
-        <v>1895.86</v>
+        <v>903.06</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I72">
         <v>151</v>
       </c>
       <c r="J72">
+        <v>1895.86</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L72">
+        <v>151</v>
+      </c>
+      <c r="M72">
         <v>3455.11</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N72" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -3017,27 +3685,37 @@
         <v>31.71</v>
       </c>
       <c r="F73">
+        <v>131</v>
+      </c>
+      <c r="G73">
+        <v>2013.01</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I73">
         <v>142</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>1693.27</v>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I73">
+      <c r="K73" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L73">
         <v>139</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>1350.2</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N73" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -3046,59 +3724,74 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="16">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="19">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="17">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="20">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74" si="18">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:G74" si="21">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ref="F74" si="19">AVERAGE(F54:F73)</f>
-        <v>154.85</v>
+        <f t="shared" si="21"/>
+        <v>142.15</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" ref="G74" si="20">AVERAGE(G54:G73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="21"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" ref="I74" si="21">AVERAGE(I54:I73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="I74" si="22">AVERAGE(I54:I73)</f>
+        <v>154.85</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" ref="J74" si="22">AVERAGE(J54:J73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="J74" si="23">AVERAGE(J54:J73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="K74" s="1">
         <f>COUNTIF(K54:K73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="L74" s="1">
+        <f t="shared" ref="L74" si="24">AVERAGE(L54:L73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" ref="M74" si="25">AVERAGE(M54:M73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="N74" s="1">
+        <f>COUNTIF(N54:N73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O1:Q74">
-    <sortCondition ref="O1:O74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q1:S74">
+    <sortCondition ref="Q1:Q74"/>
   </sortState>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B51:N51"/>
     <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0B681-BF33-436F-BBF0-8D10EBB52D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81291042-17B3-46D0-BFA2-9769AAE940A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>bath.txt</t>
   </si>
@@ -140,7 +140,10 @@
     <t>k=4</t>
   </si>
   <si>
-    <t>VNS 14.1.2023. 23:35:20</t>
+    <t>VNS d(5_30) 14.1.2023. 23:35:20</t>
+  </si>
+  <si>
+    <t>VNS d(10_40) 14.1.2023. 23:35:20</t>
   </si>
 </sst>
 </file>
@@ -184,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,20 +508,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -534,8 +541,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -544,22 +554,27 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -602,8 +617,17 @@
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -633,25 +657,35 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="L4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>opt</v>
+      </c>
+      <c r="O4">
+        <v>39</v>
+      </c>
+      <c r="P4">
+        <v>239.56</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF($B4=O4, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -667,37 +701,47 @@
         <v>0.74</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
         <v/>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>44</v>
+      </c>
+      <c r="P5">
+        <v>2857.14</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,35 +761,45 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>425.46</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -761,37 +815,47 @@
         <v>0.49</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>41</v>
+      </c>
+      <c r="P7">
+        <v>1488.4</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,7 +875,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -821,25 +885,35 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="O8">
+        <v>40</v>
+      </c>
+      <c r="P8">
+        <v>2772.73</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -858,7 +932,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -868,24 +942,34 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="O9">
+        <v>39</v>
+      </c>
+      <c r="P9">
+        <v>1158.5</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,35 +989,45 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="O10">
+        <v>44</v>
+      </c>
+      <c r="P10">
+        <v>292.3</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -952,35 +1046,45 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="O11">
+        <v>51</v>
+      </c>
+      <c r="P11">
+        <v>614.62</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -996,38 +1100,48 @@
         <v>0.47</v>
       </c>
       <c r="F12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I12">
         <v>42</v>
       </c>
       <c r="J12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="O12">
+        <v>44</v>
+      </c>
+      <c r="P12">
+        <v>3123.37</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1046,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="G13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1056,25 +1170,35 @@
         <v>39</v>
       </c>
       <c r="J13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="O13">
+        <v>41</v>
+      </c>
+      <c r="P13">
+        <v>1896.54</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1093,35 +1217,45 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="O14">
+        <v>32</v>
+      </c>
+      <c r="P14">
+        <v>3563.82</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1137,38 +1271,48 @@
         <v>0.63</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="O15">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <v>2013.71</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1184,38 +1328,48 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="I16">
         <v>44</v>
       </c>
       <c r="J16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="O16">
+        <v>47</v>
+      </c>
+      <c r="P16">
+        <v>792.09</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1234,35 +1388,45 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="O17">
+        <v>46</v>
+      </c>
+      <c r="P17">
+        <v>3016.44</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1281,35 +1445,45 @@
         <v>25</v>
       </c>
       <c r="G18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1328,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1338,24 +1512,34 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="O19">
+        <v>36</v>
+      </c>
+      <c r="P19">
+        <v>180.01</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1375,35 +1559,45 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="O20">
+        <v>46</v>
+      </c>
+      <c r="P20">
+        <v>2892.3</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1422,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -1442,14 +1636,24 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>472.69</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="3"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -1479,25 +1683,35 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="O22">
+        <v>37</v>
+      </c>
+      <c r="P22">
+        <v>1303.21</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1516,7 +1730,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1526,24 +1740,34 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="O23">
+        <v>33</v>
+      </c>
+      <c r="P23">
+        <v>403.23</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1552,58 +1776,70 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:J24" si="3">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:M24" si="4">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f>AVERAGE(F4:F23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="4"/>
+        <v>36.35</v>
       </c>
       <c r="G24" s="1">
-        <f>AVERAGE(G4:G23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="4"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>37.9</v>
+        <f>AVERAGE(I4:I23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(J4:J23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" ref="L24" si="4">AVERAGE(L4:L23)</f>
-        <v>38.9</v>
+        <f t="shared" si="4"/>
+        <v>37.9</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24" si="5">AVERAGE(M4:M23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="4"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24" si="5">AVERAGE(O4:O23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ref="P24" si="6">AVERAGE(P4:P23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>COUNTIF(Q4:Q23, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1620,8 +1856,11 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1630,22 +1869,27 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,8 +1932,17 @@
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1709,34 +1962,44 @@
         <v>73</v>
       </c>
       <c r="G29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
         <v/>
       </c>
       <c r="I29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
         <v/>
       </c>
       <c r="L29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>76</v>
+      </c>
+      <c r="P29">
+        <v>2043.43</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>IF($B29=O29, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1753,37 +2016,47 @@
         <v>5.98</v>
       </c>
       <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>103.21</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="7">IF($B30=F30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I30">
         <v>77</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>2794.12</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="6">IF($B30=F30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I30">
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="8">IF($B30=I30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L30">
         <v>85</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>3605.84</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="7">IF($B30=I30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L30">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="9">IF($B30=L30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O30">
         <v>90</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>1133.24</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="8">IF($B30=L30, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q48" si="10">IF($B30=O30, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1803,34 +2076,44 @@
         <v>42</v>
       </c>
       <c r="G31">
+        <v>2097.8200000000002</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
         <v>1185.19</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I31">
+      <c r="K31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L31">
         <v>44</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>3392.22</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L31">
+      <c r="N31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O31">
         <v>43</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>3591.99</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1847,37 +2130,47 @@
         <v>1.76</v>
       </c>
       <c r="F32">
+        <v>77</v>
+      </c>
+      <c r="G32">
+        <v>570.38</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I32">
         <v>75</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>766.05</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I32">
+      <c r="K32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L32">
         <v>82</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>1957.88</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L32">
+      <c r="N32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O32">
         <v>81</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>2691.03</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1897,34 +2190,44 @@
         <v>80</v>
       </c>
       <c r="G33">
+        <v>635.37</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I33">
+        <v>80</v>
+      </c>
+      <c r="J33">
         <v>1190.47</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I33">
+      <c r="K33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L33">
         <v>83</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>1721.95</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L33">
+      <c r="N33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O33">
         <v>86</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>2099.84</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1944,34 +2247,44 @@
         <v>74</v>
       </c>
       <c r="G34">
+        <v>3556.53</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I34">
+        <v>74</v>
+      </c>
+      <c r="J34">
         <v>778.34</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I34">
+      <c r="K34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L34">
         <v>79</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>3138.24</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L34">
+      <c r="N34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O34">
         <v>77</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>2695.42</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1988,37 +2301,47 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>78</v>
+      </c>
+      <c r="G35">
+        <v>2232.29</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I35">
         <v>77</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>140.19</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L35">
         <v>83</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>960.67</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L35">
+      <c r="N35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O35">
         <v>85</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>740.86</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2035,37 +2358,47 @@
         <v>1.29</v>
       </c>
       <c r="F36">
+        <v>94</v>
+      </c>
+      <c r="G36">
+        <v>1003.92</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I36">
         <v>95</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>2182.41</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I36">
-        <v>98</v>
-      </c>
-      <c r="J36">
-        <v>873.59</v>
-      </c>
       <c r="K36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L36">
         <v>98</v>
       </c>
       <c r="M36">
+        <v>873.59</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O36">
+        <v>98</v>
+      </c>
+      <c r="P36">
         <v>3416.12</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2082,37 +2415,47 @@
         <v>1.01</v>
       </c>
       <c r="F37">
+        <v>82</v>
+      </c>
+      <c r="G37">
+        <v>2913.24</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I37">
         <v>81</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>1581.33</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I37">
+      <c r="K37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L37">
         <v>87</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>2964.31</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L37">
+      <c r="N37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O37">
         <v>88</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2129,37 +2472,47 @@
         <v>7.58</v>
       </c>
       <c r="F38">
+        <v>78</v>
+      </c>
+      <c r="G38">
+        <v>1792.42</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I38">
         <v>76</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>1946.12</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I38">
+      <c r="K38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L38">
         <v>84</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L38">
+      <c r="N38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O38">
         <v>85</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>2839.94</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2176,37 +2529,47 @@
         <v>1.4</v>
       </c>
       <c r="F39">
+        <v>58</v>
+      </c>
+      <c r="G39">
+        <v>652.91999999999996</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I39">
         <v>60</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>178.08</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I39">
+      <c r="K39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L39">
         <v>64</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>2213.38</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L39">
+      <c r="N39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O39">
         <v>63</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>1404.51</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2226,34 +2589,44 @@
         <v>79</v>
       </c>
       <c r="G40">
+        <v>2688.82</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I40">
+        <v>79</v>
+      </c>
+      <c r="J40">
         <v>1845.81</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I40">
+      <c r="K40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L40">
         <v>106</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>4030.49</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L40">
+      <c r="N40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O40">
         <v>88</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>2235.91</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q40" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2270,37 +2643,47 @@
         <v>1.25</v>
       </c>
       <c r="F41">
+        <v>86</v>
+      </c>
+      <c r="G41">
+        <v>2125.84</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I41">
         <v>85</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>2982.1</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I41">
-        <v>88</v>
-      </c>
-      <c r="J41">
-        <v>758.9</v>
-      </c>
       <c r="K41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L41">
         <v>88</v>
       </c>
       <c r="M41">
+        <v>758.9</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O41">
+        <v>88</v>
+      </c>
+      <c r="P41">
         <v>3032.11</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2317,37 +2700,47 @@
         <v>1.23</v>
       </c>
       <c r="F42">
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <v>2935.53</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I42">
         <v>85</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>2435.9299999999998</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="K42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L42">
         <v>92</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>2487.52</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L42">
+      <c r="N42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O42">
         <v>93</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>1500.97</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2367,34 +2760,44 @@
         <v>47</v>
       </c>
       <c r="G43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>opt</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
+        <v>13.01</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+      <c r="L43">
+        <v>47</v>
+      </c>
+      <c r="M43">
         <v>162.75</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="7"/>
-        <v>opt</v>
-      </c>
-      <c r="L43">
+      <c r="N43" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
+      <c r="O43">
         <v>48</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>551.9</v>
       </c>
-      <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2414,34 +2817,44 @@
         <v>63</v>
       </c>
       <c r="G44">
+        <v>348.49</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I44">
+        <v>63</v>
+      </c>
+      <c r="J44">
         <v>3516.79</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I44">
+      <c r="K44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L44">
         <v>66</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>3060.12</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L44">
+      <c r="N44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O44">
         <v>69</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>1302.26</v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2461,34 +2874,44 @@
         <v>86</v>
       </c>
       <c r="G45">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I45">
+        <v>86</v>
+      </c>
+      <c r="J45">
         <v>2140.17</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="K45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L45">
         <v>90</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>2247.27</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L45">
+      <c r="N45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O45">
         <v>91</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>2549.39</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2505,37 +2928,47 @@
         <v>0.45</v>
       </c>
       <c r="F46">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>2167.62</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I46">
         <v>50</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>3148.79</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I46">
+      <c r="K46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L46">
         <v>52</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>2009.49</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L46">
+      <c r="N46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O46">
         <v>53</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>162.55000000000001</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q46" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2555,34 +2988,44 @@
         <v>73</v>
       </c>
       <c r="G47">
+        <v>3294.1</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="7"/>
+        <v>opt</v>
+      </c>
+      <c r="I47">
+        <v>73</v>
+      </c>
+      <c r="J47">
         <v>248.24</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="6"/>
-        <v>opt</v>
-      </c>
-      <c r="I47">
+      <c r="K47" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+      <c r="L47">
         <v>75</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>3003.53</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L47">
+      <c r="N47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O47">
         <v>80</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>468.54</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2599,37 +3042,47 @@
         <v>1.35</v>
       </c>
       <c r="F48">
+        <v>69</v>
+      </c>
+      <c r="G48">
+        <v>21.14</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I48">
         <v>68</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>32.380000000000003</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="6"/>
-        <v>opt</v>
-      </c>
-      <c r="I48">
+      <c r="K48" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+      <c r="L48">
         <v>70</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>501.68</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L48">
+      <c r="N48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O48">
         <v>68</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>1847.68</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q48" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2638,58 +3091,70 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="9">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="11">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="10">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="12">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:G49" si="11">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:J49" si="13">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="11"/>
-        <v>72.3</v>
+        <f t="shared" si="13"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="11"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="13"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" ref="I49" si="12">AVERAGE(I29:I48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="13"/>
+        <v>72.3</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49" si="13">AVERAGE(J29:J48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="13"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ref="L49" si="14">AVERAGE(L29:L48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" ref="M49" si="15">AVERAGE(M29:M48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O49" s="1">
+        <f t="shared" ref="O49" si="16">AVERAGE(O29:O48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" ref="P49" si="17">AVERAGE(P29:P48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="Q49" s="1">
+        <f>COUNTIF(Q29:Q48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>33</v>
@@ -2706,8 +3171,11 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>27</v>
@@ -2716,22 +3184,27 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -2774,8 +3247,17 @@
       <c r="N53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2792,37 +3274,47 @@
         <v>3608.26</v>
       </c>
       <c r="F54">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54">
-        <v>657.06</v>
+        <v>254.58</v>
       </c>
       <c r="H54" t="str">
         <f>IF($B54=F54, "opt", "")</f>
         <v/>
       </c>
       <c r="I54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="K54" t="str">
         <f>IF($B54=I54, "opt", "")</f>
         <v/>
       </c>
       <c r="L54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="N54" t="str">
         <f>IF($B54=L54, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>149</v>
+      </c>
+      <c r="P54">
+        <v>2862.68</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>IF($B54=O54, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2839,37 +3331,47 @@
         <v>1985.8</v>
       </c>
       <c r="F55">
+        <v>154</v>
+      </c>
+      <c r="G55">
+        <v>2386.46</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:H74" si="18">IF($B55=F55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I55">
         <v>152</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>2672.73</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="16">IF($B55=F55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I55">
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K73" si="19">IF($B55=I55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L55">
         <v>182</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>3637.73</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="17">IF($B55=I55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L55">
+      <c r="N55" t="str">
+        <f t="shared" ref="N55:N73" si="20">IF($B55=L55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O55">
         <v>169</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>2837.51</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" ref="N55:N73" si="18">IF($B55=L55, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q73" si="21">IF($B55=O55, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2886,37 +3388,47 @@
         <v>179.16</v>
       </c>
       <c r="F56">
+        <v>83</v>
+      </c>
+      <c r="G56">
+        <v>309.95999999999998</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I56">
         <v>82</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>1015.5</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I56">
+      <c r="K56" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L56">
         <v>89</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>714.64</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L56">
+      <c r="N56" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O56">
         <v>87</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>3470.98</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q56" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2933,37 +3445,47 @@
         <v>3631.76</v>
       </c>
       <c r="F57">
+        <v>154</v>
+      </c>
+      <c r="G57">
+        <v>2378.6999999999998</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I57">
         <v>151</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>1923.96</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I57">
+      <c r="K57" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L57">
         <v>165</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>3447.42</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L57">
+      <c r="N57" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O57">
         <v>162</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>1616.56</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q57" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2980,37 +3502,47 @@
         <v>911.98</v>
       </c>
       <c r="F58">
+        <v>165</v>
+      </c>
+      <c r="G58">
+        <v>648.26</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I58">
         <v>160</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>2621.15</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I58">
+      <c r="K58" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L58">
         <v>168</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>1174.47</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L58">
+      <c r="N58" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O58">
         <v>165</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>2670.1</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q58" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3027,37 +3559,47 @@
         <v>3604.64</v>
       </c>
       <c r="F59">
+        <v>154</v>
+      </c>
+      <c r="G59">
+        <v>1211.22</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I59">
         <v>152</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1347.62</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I59">
+      <c r="K59" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L59">
         <v>162</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>1435.66</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L59">
+      <c r="N59" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O59">
         <v>159</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>3351.26</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q59" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3074,37 +3616,47 @@
         <v>3655.54</v>
       </c>
       <c r="F60">
+        <v>162</v>
+      </c>
+      <c r="G60">
+        <v>1868.42</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I60">
         <v>160</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>1825.03</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I60">
+      <c r="K60" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L60">
         <v>169</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1391.51</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L60">
+      <c r="N60" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O60">
         <v>172</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>2752.16</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3121,37 +3673,47 @@
         <v>3648.06</v>
       </c>
       <c r="F61">
+        <v>177</v>
+      </c>
+      <c r="G61">
+        <v>3139.32</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I61">
         <v>180</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>2940.9</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I61">
+      <c r="K61" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L61">
         <v>190</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>1329.91</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L61">
+      <c r="N61" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O61">
         <v>185</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>1546.74</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q61" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3171,34 +3733,44 @@
         <v>156</v>
       </c>
       <c r="G62">
+        <v>1556.14</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I62">
+        <v>156</v>
+      </c>
+      <c r="J62">
         <v>1724.02</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I62">
-        <v>166</v>
-      </c>
-      <c r="J62">
-        <v>3240.09</v>
-      </c>
       <c r="K62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L62">
         <v>166</v>
       </c>
       <c r="M62">
+        <v>3240.09</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O62">
+        <v>166</v>
+      </c>
+      <c r="P62">
         <v>3490.77</v>
       </c>
-      <c r="N62" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3215,37 +3787,47 @@
         <v>3602.38</v>
       </c>
       <c r="F63">
+        <v>153</v>
+      </c>
+      <c r="G63">
+        <v>3116.66</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I63">
         <v>155</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>1856.66</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I63">
+      <c r="K63" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L63">
         <v>162</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>3571.87</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L63">
+      <c r="N63" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O63">
         <v>165</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q63" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3262,37 +3844,47 @@
         <v>338.36</v>
       </c>
       <c r="F64">
+        <v>117</v>
+      </c>
+      <c r="G64">
+        <v>1565.52</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I64">
         <v>114</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>2136.59</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="K64" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L64">
         <v>125</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>2636.94</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L64">
+      <c r="N64" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O64">
         <v>124</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>3155.58</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q64" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -3309,37 +3901,47 @@
         <v>3620.36</v>
       </c>
       <c r="F65">
+        <v>162</v>
+      </c>
+      <c r="G65">
+        <v>882.17</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I65">
         <v>160</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>956.97</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="K65" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L65">
         <v>214</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>5236.25</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L65">
+      <c r="N65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O65">
         <v>173</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>3430.55</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q65" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3356,37 +3958,47 @@
         <v>913.1</v>
       </c>
       <c r="F66">
+        <v>156</v>
+      </c>
+      <c r="G66">
+        <v>3508.34</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I66">
         <v>158</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>2765.03</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I66">
+      <c r="K66" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L66">
         <v>166</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>1399.34</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L66">
+      <c r="N66" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O66">
         <v>164</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>2690.94</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q66" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3403,37 +4015,47 @@
         <v>236.64</v>
       </c>
       <c r="F67">
+        <v>172</v>
+      </c>
+      <c r="G67">
+        <v>1535.47</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I67">
         <v>168</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>3493.09</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="K67" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L67">
         <v>191</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>3558.47</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L67">
+      <c r="N67" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O67">
         <v>184</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>1410.68</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q67" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3450,37 +4072,47 @@
         <v>17.079999999999998</v>
       </c>
       <c r="F68">
+        <v>89</v>
+      </c>
+      <c r="G68">
+        <v>1872.38</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="18"/>
+        <v>opt</v>
+      </c>
+      <c r="I68">
         <v>90</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>20.65</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I68">
+      <c r="K68" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L68">
         <v>93</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>2570.6</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L68">
+      <c r="N68" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O68">
         <v>91</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>894.18</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q68" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -3500,34 +4132,44 @@
         <v>121</v>
       </c>
       <c r="G69">
+        <v>1535.21</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I69">
+        <v>121</v>
+      </c>
+      <c r="J69">
         <v>3062.52</v>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I69">
+      <c r="K69" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L69">
         <v>128</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>2018.32</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L69">
+      <c r="N69" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O69">
         <v>127</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>3492.04</v>
       </c>
-      <c r="N69" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q69" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -3547,34 +4189,44 @@
         <v>166</v>
       </c>
       <c r="G70">
+        <v>3144.44</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I70">
+        <v>166</v>
+      </c>
+      <c r="J70">
         <v>1031.4100000000001</v>
       </c>
-      <c r="H70" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I70">
-        <v>180</v>
-      </c>
-      <c r="J70">
-        <v>2915.07</v>
-      </c>
       <c r="K70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L70">
         <v>180</v>
       </c>
       <c r="M70">
+        <v>2915.07</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O70">
+        <v>180</v>
+      </c>
+      <c r="P70">
         <v>2578.83</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q70" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3591,37 +4243,47 @@
         <v>53.23</v>
       </c>
       <c r="F71">
+        <v>99</v>
+      </c>
+      <c r="G71">
+        <v>1565.23</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I71">
         <v>101</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>351.49</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I71">
+      <c r="K71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L71">
         <v>104</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>891.9</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L71">
+      <c r="N71" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O71">
         <v>100</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>1374.47</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q71" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3641,34 +4303,44 @@
         <v>144</v>
       </c>
       <c r="G72">
+        <v>927.05</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I72">
+        <v>144</v>
+      </c>
+      <c r="J72">
         <v>903.06</v>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I72">
-        <v>151</v>
-      </c>
-      <c r="J72">
-        <v>1895.86</v>
-      </c>
       <c r="K72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L72">
         <v>151</v>
       </c>
       <c r="M72">
+        <v>1895.86</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O72">
+        <v>151</v>
+      </c>
+      <c r="P72">
         <v>3455.11</v>
       </c>
-      <c r="N72" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q72" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -3685,37 +4357,47 @@
         <v>31.71</v>
       </c>
       <c r="F73">
+        <v>132</v>
+      </c>
+      <c r="G73">
+        <v>2536.19</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I73">
         <v>131</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>2013.01</v>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I73">
+      <c r="K73" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L73">
         <v>142</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>1693.27</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L73">
+      <c r="N73" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O73">
         <v>139</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>1350.2</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q73" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -3724,74 +4406,89 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="19">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="22">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="20">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="23">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:G74" si="21">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:J74" si="24">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="21"/>
-        <v>142.15</v>
+        <f t="shared" si="24"/>
+        <v>143</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="21"/>
-        <v>1765.9225000000001</v>
+        <f t="shared" si="24"/>
+        <v>1797.086</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" ref="I74" si="22">AVERAGE(I54:I73)</f>
-        <v>154.85</v>
+        <f t="shared" si="24"/>
+        <v>142.15</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" ref="J74" si="23">AVERAGE(J54:J73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="24"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="K74" s="1">
         <f>COUNTIF(K54:K73, "opt")</f>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" ref="L74" si="24">AVERAGE(L54:L73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="L74" si="25">AVERAGE(L54:L73)</f>
+        <v>154.85</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" ref="M74" si="25">AVERAGE(M54:M73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="M74" si="26">AVERAGE(M54:M73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="N74" s="1">
         <f>COUNTIF(N54:N73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="O74" s="1">
+        <f t="shared" ref="O74" si="27">AVERAGE(O54:O73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" ref="P74" si="28">AVERAGE(P54:P73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="Q74" s="1">
+        <f>COUNTIF(Q54:Q73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q1:S74">
-    <sortCondition ref="Q1:Q74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T1:V20">
+    <sortCondition ref="T1:T20"/>
   </sortState>
-  <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B51:N51"/>
+  <mergeCells count="18">
+    <mergeCell ref="B51:Q51"/>
     <mergeCell ref="B52:E52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81291042-17B3-46D0-BFA2-9769AAE940A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3B632-FD52-4340-A337-0C582E8F5219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +510,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V1048576"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +684,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -799,7 +798,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -913,7 +912,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -1027,7 +1026,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1141,7 +1140,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1198,7 +1197,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1255,7 +1254,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1312,7 +1311,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1369,7 +1368,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1426,7 +1425,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1483,7 +1482,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1597,7 +1596,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1711,7 +1710,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -3337,7 +3336,7 @@
         <v>2386.46</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ref="H55:H74" si="18">IF($B55=F55, "opt", "")</f>
+        <f t="shared" ref="H55:H73" si="18">IF($B55=F55, "opt", "")</f>
         <v/>
       </c>
       <c r="I55">
@@ -4471,6 +4470,12 @@
     <sortCondition ref="T1:T20"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B51:Q51"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="L52:N52"/>
@@ -4483,12 +4488,6 @@
     <mergeCell ref="I52:K52"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3B632-FD52-4340-A337-0C582E8F5219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA5E9E-36F1-4A93-A505-AD344C20FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>bath.txt</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>VNS d(10_40) 14.1.2023. 23:35:20</t>
   </si>
+  <si>
+    <t>VNS d(10_40) 16.1.2023. 13:36:33</t>
+  </si>
 </sst>
 </file>
 
@@ -187,12 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,73 +514,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="W1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>72</v>
+      </c>
+      <c r="Y1">
+        <v>1136.3399999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>79</v>
+      </c>
+      <c r="Y2">
+        <v>2548.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -625,9 +660,27 @@
       <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>41</v>
+      </c>
+      <c r="Y3">
+        <v>1719.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -646,7 +699,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>865.69</v>
+        <v>862.72</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -656,7 +709,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
@@ -666,25 +719,44 @@
         <v>38</v>
       </c>
       <c r="M4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="O4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="Q4" t="str">
         <f>IF($B4=O4, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R4">
+        <v>39</v>
+      </c>
+      <c r="S4">
+        <v>239.56</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF($B4=R4, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>74</v>
+      </c>
+      <c r="Y4">
+        <v>181.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -703,45 +775,64 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>443.57</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
         <v/>
       </c>
       <c r="O5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="R5">
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>2857.14</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T23" si="4">IF($B5=R5, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>80</v>
+      </c>
+      <c r="Y5">
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -760,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>31.04</v>
+        <v>1136.19</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -770,35 +861,54 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>425.46</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>73</v>
+      </c>
+      <c r="Y6">
+        <v>568.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -817,45 +927,64 @@
         <v>37</v>
       </c>
       <c r="G7">
-        <v>377.94</v>
+        <v>129.96</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="R7">
+        <v>41</v>
+      </c>
+      <c r="S7">
+        <v>1488.4</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>79</v>
+      </c>
+      <c r="Y7">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -874,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>1589.66</v>
+        <v>22.14</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -884,7 +1013,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -894,25 +1023,44 @@
         <v>39</v>
       </c>
       <c r="M8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>2772.73</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>93</v>
+      </c>
+      <c r="Y8">
+        <v>991.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -931,7 +1079,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>802.97</v>
+        <v>234.78</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -941,7 +1089,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -951,25 +1099,44 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R9">
+        <v>39</v>
+      </c>
+      <c r="S9">
+        <v>1158.5</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W9" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>81</v>
+      </c>
+      <c r="Y9">
+        <v>694.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -988,7 +1155,7 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>221.94</v>
+        <v>212.38</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -998,35 +1165,54 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="R10">
+        <v>44</v>
+      </c>
+      <c r="S10">
+        <v>292.3</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>76</v>
+      </c>
+      <c r="Y10">
+        <v>893.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1045,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>348.19</v>
+        <v>217.78</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1055,35 +1241,54 @@
         <v>50</v>
       </c>
       <c r="J11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="R11">
+        <v>51</v>
+      </c>
+      <c r="S11">
+        <v>614.62</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>57</v>
+      </c>
+      <c r="Y11">
+        <v>1920.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1102,45 +1307,64 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>849.36</v>
+        <v>2208.9299999999998</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L12">
         <v>42</v>
       </c>
       <c r="M12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="R12">
+        <v>44</v>
+      </c>
+      <c r="S12">
+        <v>3123.37</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>78</v>
+      </c>
+      <c r="Y12">
+        <v>3577.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1159,7 +1383,7 @@
         <v>39</v>
       </c>
       <c r="G13">
-        <v>646.91999999999996</v>
+        <v>88.42</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1169,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="J13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -1179,25 +1403,44 @@
         <v>39</v>
       </c>
       <c r="M13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="R13">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>1896.54</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>84</v>
+      </c>
+      <c r="Y13">
+        <v>1653.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1216,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <v>190.4</v>
+        <v>38.58</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1226,35 +1469,54 @@
         <v>29</v>
       </c>
       <c r="J14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="R14">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>3563.82</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>86</v>
+      </c>
+      <c r="Y14">
+        <v>950.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1270,48 +1532,67 @@
         <v>0.63</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>2763.95</v>
+        <v>492.18</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15">
+        <v>2013.71</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15">
+        <v>47</v>
+      </c>
+      <c r="Y15">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1327,48 +1608,67 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>61.75</v>
+        <v>348.25</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="L16">
         <v>44</v>
       </c>
       <c r="M16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R16">
+        <v>47</v>
+      </c>
+      <c r="S16">
+        <v>792.09</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>63</v>
+      </c>
+      <c r="Y16">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1387,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>115</v>
+        <v>365.26</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1397,35 +1697,54 @@
         <v>44</v>
       </c>
       <c r="J17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="R17">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>3016.44</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W17" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17">
+        <v>84</v>
+      </c>
+      <c r="Y17">
+        <v>1204.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1441,48 +1760,67 @@
         <v>0.13</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>0.54</v>
+        <v>762.06</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I18">
         <v>25</v>
       </c>
       <c r="J18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="O18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <v>51</v>
+      </c>
+      <c r="Y18">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1501,7 +1839,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>181.26</v>
+        <v>357.74</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1511,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -1521,25 +1859,44 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R19">
+        <v>36</v>
+      </c>
+      <c r="S19">
+        <v>180.01</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W19" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>73</v>
+      </c>
+      <c r="Y19">
+        <v>274.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1558,7 +1915,7 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>1333.45</v>
+        <v>1135.8499999999999</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1568,35 +1925,54 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="R20">
+        <v>46</v>
+      </c>
+      <c r="S20">
+        <v>2892.3</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <v>68</v>
+      </c>
+      <c r="Y20">
+        <v>33.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1615,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>34.53</v>
+        <v>7.17</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1625,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -1635,7 +2011,7 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -1645,15 +2021,25 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>472.69</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -1672,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>558.71</v>
+        <v>41.48</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -1682,7 +2068,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -1692,25 +2078,35 @@
         <v>36</v>
       </c>
       <c r="M22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>opt</v>
+      </c>
+      <c r="R22">
+        <v>37</v>
+      </c>
+      <c r="S22">
+        <v>1303.21</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1729,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>284.64</v>
+        <v>1739.24</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1739,7 +2135,7 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -1749,24 +2145,34 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="R23">
+        <v>33</v>
+      </c>
+      <c r="S23">
+        <v>403.23</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1775,120 +2181,140 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:M24" si="4">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:P24" si="5">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
-        <v>36.35</v>
+        <f t="shared" si="5"/>
+        <v>36.299999999999997</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
-        <v>585.07549999999992</v>
+        <f t="shared" si="5"/>
+        <v>523.5675</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1">
-        <f>AVERAGE(I4:I23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="5"/>
+        <v>36.35</v>
       </c>
       <c r="J24" s="1">
-        <f>AVERAGE(J4:J23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="5"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="4"/>
-        <v>37.9</v>
+        <f>AVERAGE(L4:L23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="4"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(M4:M23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" ref="O24" si="5">AVERAGE(O4:O23)</f>
-        <v>38.9</v>
+        <f t="shared" si="5"/>
+        <v>37.9</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24" si="6">AVERAGE(P4:P23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="5"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="Q24" s="1">
         <f>COUNTIF(Q4:Q23, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24" si="6">AVERAGE(R4:R23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24" si="7">AVERAGE(S4:S23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="T24" s="1">
+        <f>COUNTIF(T4:T23, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1940,8 +2366,17 @@
       <c r="Q28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1958,10 +2393,10 @@
         <v>0.69</v>
       </c>
       <c r="F29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29">
-        <v>432.6</v>
+        <v>1136.3399999999999</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
@@ -1971,34 +2406,44 @@
         <v>73</v>
       </c>
       <c r="J29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
         <v/>
       </c>
       <c r="L29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
         <v/>
       </c>
       <c r="O29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="Q29" t="str">
         <f>IF($B29=O29, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>76</v>
+      </c>
+      <c r="S29">
+        <v>2043.43</v>
+      </c>
+      <c r="T29" t="str">
+        <f>IF($B29=R29, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2015,47 +2460,57 @@
         <v>5.98</v>
       </c>
       <c r="F30">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>2548.89</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="8">IF($B30=F30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I30">
         <v>81</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>103.21</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="7">IF($B30=F30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I30">
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="9">IF($B30=I30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L30">
         <v>77</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>2794.12</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="8">IF($B30=I30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L30">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="10">IF($B30=L30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O30">
         <v>85</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>3605.84</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="9">IF($B30=L30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O30">
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q48" si="11">IF($B30=O30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R30">
         <v>90</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>1133.24</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q48" si="10">IF($B30=O30, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T30" t="str">
+        <f t="shared" ref="T30:T48" si="12">IF($B30=R30, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2072,47 +2527,57 @@
         <v>0.91</v>
       </c>
       <c r="F31">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31">
-        <v>2097.8200000000002</v>
+        <v>1719.25</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I31">
         <v>42</v>
       </c>
       <c r="J31">
+        <v>2097.8200000000002</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L31">
+        <v>42</v>
+      </c>
+      <c r="M31">
         <v>1185.19</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L31">
+      <c r="N31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O31">
         <v>44</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>3392.22</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O31">
+      <c r="Q31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R31">
         <v>43</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>3591.99</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T31" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2129,47 +2594,57 @@
         <v>1.76</v>
       </c>
       <c r="F32">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>181.98</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I32">
         <v>77</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>570.38</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I32">
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L32">
         <v>75</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>766.05</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L32">
+      <c r="N32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O32">
         <v>82</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>1957.88</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O32">
+      <c r="Q32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R32">
         <v>81</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>2691.03</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2189,44 +2664,54 @@
         <v>80</v>
       </c>
       <c r="G33">
-        <v>635.37</v>
+        <v>36.42</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I33">
         <v>80</v>
       </c>
       <c r="J33">
+        <v>635.37</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L33">
+        <v>80</v>
+      </c>
+      <c r="M33">
         <v>1190.47</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L33">
+      <c r="N33" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O33">
         <v>83</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>1721.95</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O33">
+      <c r="Q33" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R33">
         <v>86</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>2099.84</v>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T33" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2243,47 +2728,57 @@
         <v>1.53</v>
       </c>
       <c r="F34">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34">
-        <v>3556.53</v>
+        <v>568.61</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I34">
         <v>74</v>
       </c>
       <c r="J34">
+        <v>3556.53</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L34">
+        <v>74</v>
+      </c>
+      <c r="M34">
         <v>778.34</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L34">
+      <c r="N34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O34">
         <v>79</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>3138.24</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O34">
+      <c r="Q34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R34">
         <v>77</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>2695.42</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T34" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2300,47 +2795,57 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>110.55</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I35">
         <v>78</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>2232.29</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L35">
         <v>77</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>140.19</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L35">
+      <c r="N35" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O35">
         <v>83</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>960.67</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O35">
+      <c r="Q35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R35">
         <v>85</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>740.86</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2357,47 +2862,57 @@
         <v>1.29</v>
       </c>
       <c r="F36">
+        <v>93</v>
+      </c>
+      <c r="G36">
+        <v>991.51</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+      <c r="I36">
         <v>94</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>1003.92</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I36">
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L36">
         <v>95</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>2182.41</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L36">
-        <v>98</v>
-      </c>
-      <c r="M36">
-        <v>873.59</v>
-      </c>
       <c r="N36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O36">
         <v>98</v>
       </c>
       <c r="P36">
+        <v>873.59</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R36">
+        <v>98</v>
+      </c>
+      <c r="S36">
         <v>3416.12</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2414,47 +2929,57 @@
         <v>1.01</v>
       </c>
       <c r="F37">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>694.69</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I37">
         <v>82</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>2913.24</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I37">
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L37">
         <v>81</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>1581.33</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L37">
+      <c r="N37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O37">
         <v>87</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>2964.31</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O37">
+      <c r="Q37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R37">
         <v>88</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2471,47 +2996,57 @@
         <v>7.58</v>
       </c>
       <c r="F38">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>893.4</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I38">
         <v>78</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>1792.42</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I38">
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L38">
         <v>76</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>1946.12</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L38">
+      <c r="N38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O38">
         <v>84</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O38">
+      <c r="Q38" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R38">
         <v>85</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>2839.94</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T38" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2528,47 +3063,57 @@
         <v>1.4</v>
       </c>
       <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>1920.49</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I39">
         <v>58</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>652.91999999999996</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I39">
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L39">
         <v>60</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>178.08</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L39">
+      <c r="N39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O39">
         <v>64</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>2213.38</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O39">
+      <c r="Q39" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R39">
         <v>63</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>1404.51</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2585,47 +3130,57 @@
         <v>24.5</v>
       </c>
       <c r="F40">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40">
-        <v>2688.82</v>
+        <v>3577.82</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I40">
         <v>79</v>
       </c>
       <c r="J40">
+        <v>2688.82</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L40">
+        <v>79</v>
+      </c>
+      <c r="M40">
         <v>1845.81</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L40">
+      <c r="N40" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O40">
         <v>106</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>4030.49</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O40">
+      <c r="Q40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R40">
         <v>88</v>
       </c>
-      <c r="P40">
+      <c r="S40">
         <v>2235.91</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2642,47 +3197,57 @@
         <v>1.25</v>
       </c>
       <c r="F41">
+        <v>84</v>
+      </c>
+      <c r="G41">
+        <v>1653.61</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I41">
         <v>86</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>2125.84</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I41">
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L41">
         <v>85</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>2982.1</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L41">
-        <v>88</v>
-      </c>
-      <c r="M41">
-        <v>758.9</v>
-      </c>
       <c r="N41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O41">
         <v>88</v>
       </c>
       <c r="P41">
+        <v>758.9</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R41">
+        <v>88</v>
+      </c>
+      <c r="S41">
         <v>3032.11</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2702,44 +3267,54 @@
         <v>86</v>
       </c>
       <c r="G42">
+        <v>950.77</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I42">
+        <v>86</v>
+      </c>
+      <c r="J42">
         <v>2935.53</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L42">
         <v>85</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>2435.9299999999998</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L42">
+      <c r="N42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O42">
         <v>92</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>2487.52</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O42">
+      <c r="Q42" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R42">
         <v>93</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>1500.97</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2759,44 +3334,54 @@
         <v>47</v>
       </c>
       <c r="G43">
-        <v>21.42</v>
+        <v>5.31</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>opt</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>opt</v>
       </c>
       <c r="L43">
         <v>47</v>
       </c>
       <c r="M43">
+        <v>13.01</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="O43">
+        <v>47</v>
+      </c>
+      <c r="P43">
         <v>162.75</v>
       </c>
-      <c r="N43" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="O43">
+      <c r="Q43" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="R43">
         <v>48</v>
       </c>
-      <c r="P43">
+      <c r="S43">
         <v>551.9</v>
       </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T43" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2816,44 +3401,54 @@
         <v>63</v>
       </c>
       <c r="G44">
-        <v>348.49</v>
+        <v>31.04</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I44">
         <v>63</v>
       </c>
       <c r="J44">
+        <v>348.49</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L44">
+        <v>63</v>
+      </c>
+      <c r="M44">
         <v>3516.79</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L44">
+      <c r="N44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O44">
         <v>66</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>3060.12</v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O44">
+      <c r="Q44" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R44">
         <v>69</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>1302.26</v>
       </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T44" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2870,47 +3465,57 @@
         <v>1.77</v>
       </c>
       <c r="F45">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45">
-        <v>160.27000000000001</v>
+        <v>1204.01</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I45">
         <v>86</v>
       </c>
       <c r="J45">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L45">
+        <v>86</v>
+      </c>
+      <c r="M45">
         <v>2140.17</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L45">
+      <c r="N45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O45">
         <v>90</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>2247.27</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O45">
+      <c r="Q45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R45">
         <v>91</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>2549.39</v>
       </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T45" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2930,44 +3535,54 @@
         <v>51</v>
       </c>
       <c r="G46">
+        <v>30.79</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I46">
+        <v>51</v>
+      </c>
+      <c r="J46">
         <v>2167.62</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I46">
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L46">
         <v>50</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>3148.79</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L46">
+      <c r="N46" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O46">
         <v>52</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>2009.49</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O46">
+      <c r="Q46" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R46">
         <v>53</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>162.55000000000001</v>
       </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T46" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2987,44 +3602,54 @@
         <v>73</v>
       </c>
       <c r="G47">
-        <v>3294.1</v>
+        <v>274.13</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>opt</v>
       </c>
       <c r="I47">
         <v>73</v>
       </c>
       <c r="J47">
+        <v>3294.1</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
+      <c r="L47">
+        <v>73</v>
+      </c>
+      <c r="M47">
         <v>248.24</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
-      <c r="L47">
+      <c r="N47" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="O47">
         <v>75</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>3003.53</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O47">
+      <c r="Q47" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R47">
         <v>80</v>
       </c>
-      <c r="P47">
+      <c r="S47">
         <v>468.54</v>
       </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T47" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3041,47 +3666,57 @@
         <v>1.35</v>
       </c>
       <c r="F48">
+        <v>68</v>
+      </c>
+      <c r="G48">
+        <v>33.49</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
+      <c r="I48">
         <v>69</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>21.14</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I48">
+      <c r="K48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L48">
         <v>68</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>32.380000000000003</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
-      <c r="L48">
+      <c r="N48" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="O48">
         <v>70</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>501.68</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O48">
+      <c r="Q48" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R48">
         <v>68</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>1847.68</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="10"/>
-        <v>opt</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T48" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -3090,120 +3725,138 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="11">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="13">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="12">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="14">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:J49" si="13">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:M49" si="15">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="13"/>
-        <v>72.849999999999994</v>
+        <f t="shared" si="15"/>
+        <v>71.95</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="13"/>
-        <v>1487.6964999999998</v>
+        <f t="shared" si="15"/>
+        <v>928.15500000000009</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="13"/>
-        <v>72.3</v>
+        <f t="shared" si="15"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="13"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="15"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" ref="L49" si="14">AVERAGE(L29:L48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="15"/>
+        <v>72.3</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" ref="M49" si="15">AVERAGE(M29:M48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="15"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" ref="O49" si="16">AVERAGE(O29:O48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" ref="P49" si="17">AVERAGE(P29:P48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="Q49" s="1">
         <f>COUNTIF(Q29:Q48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" ref="R49" si="18">AVERAGE(R29:R48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" ref="S49" si="19">AVERAGE(S29:S48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="T49" s="1">
+        <f>COUNTIF(T29:T48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3219,15 +3872,9 @@
       <c r="E53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3255,8 +3902,17 @@
       <c r="Q53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3272,48 +3928,48 @@
       <c r="E54">
         <v>3608.26</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>144</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>254.58</v>
-      </c>
-      <c r="H54" t="str">
-        <f>IF($B54=F54, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I54">
-        <v>142</v>
-      </c>
-      <c r="J54">
-        <v>657.06</v>
       </c>
       <c r="K54" t="str">
         <f>IF($B54=I54, "opt", "")</f>
         <v/>
       </c>
       <c r="L54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="N54" t="str">
         <f>IF($B54=L54, "opt", "")</f>
         <v/>
       </c>
       <c r="O54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="Q54" t="str">
         <f>IF($B54=O54, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>149</v>
+      </c>
+      <c r="S54">
+        <v>2862.68</v>
+      </c>
+      <c r="T54" t="str">
+        <f>IF($B54=R54, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3329,48 +3985,48 @@
       <c r="E55">
         <v>1985.8</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>154</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>2386.46</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="18">IF($B55=F55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I55">
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K73" si="20">IF($B55=I55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L55">
         <v>152</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>2672.73</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="19">IF($B55=I55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L55">
+      <c r="N55" t="str">
+        <f t="shared" ref="N55:N73" si="21">IF($B55=L55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O55">
         <v>182</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>3637.73</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" ref="N55:N73" si="20">IF($B55=L55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O55">
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q73" si="22">IF($B55=O55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R55">
         <v>169</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>2837.51</v>
       </c>
-      <c r="Q55" t="str">
-        <f t="shared" ref="Q55:Q73" si="21">IF($B55=O55, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T55" t="str">
+        <f t="shared" ref="T55:T73" si="23">IF($B55=R55, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3386,48 +4042,48 @@
       <c r="E56">
         <v>179.16</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>83</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>309.95999999999998</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I56">
+      <c r="K56" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L56">
         <v>82</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>1015.5</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L56">
+      <c r="N56" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O56">
         <v>89</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>714.64</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O56">
+      <c r="Q56" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R56">
         <v>87</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>3470.98</v>
       </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T56" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3443,48 +4099,48 @@
       <c r="E57">
         <v>3631.76</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>154</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>2378.6999999999998</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I57">
+      <c r="K57" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L57">
         <v>151</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>1923.96</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L57">
+      <c r="N57" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O57">
         <v>165</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>3447.42</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O57">
+      <c r="Q57" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R57">
         <v>162</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>1616.56</v>
       </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T57" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3500,48 +4156,48 @@
       <c r="E58">
         <v>911.98</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>165</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>648.26</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I58">
+      <c r="K58" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L58">
         <v>160</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>2621.15</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L58">
+      <c r="N58" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O58">
         <v>168</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>1174.47</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O58">
+      <c r="Q58" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R58">
         <v>165</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>2670.1</v>
       </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T58" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3557,48 +4213,48 @@
       <c r="E59">
         <v>3604.64</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>154</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1211.22</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I59">
+      <c r="K59" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L59">
         <v>152</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>1347.62</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L59">
+      <c r="N59" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O59">
         <v>162</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>1435.66</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O59">
+      <c r="Q59" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R59">
         <v>159</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>3351.26</v>
       </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T59" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3614,48 +4270,48 @@
       <c r="E60">
         <v>3655.54</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>162</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>1868.42</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I60">
+      <c r="K60" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L60">
         <v>160</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1825.03</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L60">
+      <c r="N60" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O60">
         <v>169</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>1391.51</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O60">
+      <c r="Q60" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R60">
         <v>172</v>
       </c>
-      <c r="P60">
+      <c r="S60">
         <v>2752.16</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T60" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3671,48 +4327,48 @@
       <c r="E61">
         <v>3648.06</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>177</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>3139.32</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I61">
+      <c r="K61" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L61">
         <v>180</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>2940.9</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L61">
+      <c r="N61" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O61">
         <v>190</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>1329.91</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O61">
+      <c r="Q61" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R61">
         <v>185</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>1546.74</v>
       </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T61" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3728,48 +4384,48 @@
       <c r="E62">
         <v>329.38</v>
       </c>
-      <c r="F62">
-        <v>156</v>
-      </c>
-      <c r="G62">
-        <v>1556.14</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="I62">
         <v>156</v>
       </c>
       <c r="J62">
+        <v>1556.14</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L62">
+        <v>156</v>
+      </c>
+      <c r="M62">
         <v>1724.02</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L62">
-        <v>166</v>
-      </c>
-      <c r="M62">
-        <v>3240.09</v>
-      </c>
       <c r="N62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O62">
         <v>166</v>
       </c>
       <c r="P62">
+        <v>3240.09</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R62">
+        <v>166</v>
+      </c>
+      <c r="S62">
         <v>3490.77</v>
       </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T62" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3785,48 +4441,48 @@
       <c r="E63">
         <v>3602.38</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>153</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>3116.66</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I63">
+      <c r="K63" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L63">
         <v>155</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>1856.66</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L63">
+      <c r="N63" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O63">
         <v>162</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>3571.87</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O63">
+      <c r="Q63" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R63">
         <v>165</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T63" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3842,48 +4498,48 @@
       <c r="E64">
         <v>338.36</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>117</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>1565.52</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="K64" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L64">
         <v>114</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>2136.59</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L64">
+      <c r="N64" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O64">
         <v>125</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>2636.94</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O64">
+      <c r="Q64" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R64">
         <v>124</v>
       </c>
-      <c r="P64">
+      <c r="S64">
         <v>3155.58</v>
       </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T64" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -3899,48 +4555,48 @@
       <c r="E65">
         <v>3620.36</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>162</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>882.17</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="K65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L65">
         <v>160</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>956.97</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L65">
+      <c r="N65" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O65">
         <v>214</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>5236.25</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O65">
+      <c r="Q65" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R65">
         <v>173</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>3430.55</v>
       </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T65" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3956,48 +4612,48 @@
       <c r="E66">
         <v>913.1</v>
       </c>
-      <c r="F66">
+      <c r="I66">
         <v>156</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>3508.34</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I66">
+      <c r="K66" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L66">
         <v>158</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>2765.03</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L66">
+      <c r="N66" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O66">
         <v>166</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>1399.34</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O66">
+      <c r="Q66" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R66">
         <v>164</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>2690.94</v>
       </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T66" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4013,48 +4669,48 @@
       <c r="E67">
         <v>236.64</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>172</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>1535.47</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="K67" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L67">
         <v>168</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>3493.09</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L67">
+      <c r="N67" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O67">
         <v>191</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>3558.47</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O67">
+      <c r="Q67" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R67">
         <v>184</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>1410.68</v>
       </c>
-      <c r="Q67" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T67" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -4070,48 +4726,48 @@
       <c r="E68">
         <v>17.079999999999998</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>89</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>1872.38</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="18"/>
-        <v>opt</v>
-      </c>
-      <c r="I68">
+      <c r="K68" t="str">
+        <f t="shared" si="20"/>
+        <v>opt</v>
+      </c>
+      <c r="L68">
         <v>90</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>20.65</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L68">
+      <c r="N68" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O68">
         <v>93</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>2570.6</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O68">
+      <c r="Q68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R68">
         <v>91</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>894.18</v>
       </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T68" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4127,48 +4783,48 @@
       <c r="E69">
         <v>227.07</v>
       </c>
-      <c r="F69">
-        <v>121</v>
-      </c>
-      <c r="G69">
-        <v>1535.21</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="I69">
         <v>121</v>
       </c>
       <c r="J69">
+        <v>1535.21</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L69">
+        <v>121</v>
+      </c>
+      <c r="M69">
         <v>3062.52</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L69">
+      <c r="N69" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O69">
         <v>128</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>2018.32</v>
       </c>
-      <c r="N69" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O69">
+      <c r="Q69" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R69">
         <v>127</v>
       </c>
-      <c r="P69">
+      <c r="S69">
         <v>3492.04</v>
       </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T69" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4184,48 +4840,48 @@
       <c r="E70">
         <v>3650.96</v>
       </c>
-      <c r="F70">
-        <v>166</v>
-      </c>
-      <c r="G70">
-        <v>3144.44</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="I70">
         <v>166</v>
       </c>
       <c r="J70">
+        <v>3144.44</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L70">
+        <v>166</v>
+      </c>
+      <c r="M70">
         <v>1031.4100000000001</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L70">
-        <v>180</v>
-      </c>
-      <c r="M70">
-        <v>2915.07</v>
-      </c>
       <c r="N70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O70">
         <v>180</v>
       </c>
       <c r="P70">
+        <v>2915.07</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R70">
+        <v>180</v>
+      </c>
+      <c r="S70">
         <v>2578.83</v>
       </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T70" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4241,48 +4897,48 @@
       <c r="E71">
         <v>53.23</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>99</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>1565.23</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I71">
+      <c r="K71" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L71">
         <v>101</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>351.49</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L71">
+      <c r="N71" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O71">
         <v>104</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>891.9</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O71">
+      <c r="Q71" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R71">
         <v>100</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>1374.47</v>
       </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T71" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4298,48 +4954,48 @@
       <c r="E72">
         <v>3637.62</v>
       </c>
-      <c r="F72">
-        <v>144</v>
-      </c>
-      <c r="G72">
-        <v>927.05</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="I72">
         <v>144</v>
       </c>
       <c r="J72">
+        <v>927.05</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L72">
+        <v>144</v>
+      </c>
+      <c r="M72">
         <v>903.06</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L72">
-        <v>151</v>
-      </c>
-      <c r="M72">
-        <v>1895.86</v>
-      </c>
       <c r="N72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O72">
         <v>151</v>
       </c>
       <c r="P72">
+        <v>1895.86</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R72">
+        <v>151</v>
+      </c>
+      <c r="S72">
         <v>3455.11</v>
       </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T72" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4355,48 +5011,48 @@
       <c r="E73">
         <v>31.71</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>132</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>2536.19</v>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I73">
+      <c r="K73" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L73">
         <v>131</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>2013.01</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L73">
+      <c r="N73" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O73">
         <v>142</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>1693.27</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O73">
+      <c r="Q73" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R73">
         <v>139</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>1350.2</v>
       </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T73" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -4405,48 +5061,39 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="22">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="24">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="23">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="25">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:J74" si="24">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:M74" si="26">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
-      <c r="F74" s="1">
-        <f t="shared" si="24"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
+        <f t="shared" si="26"/>
         <v>143</v>
       </c>
-      <c r="G74" s="1">
-        <f t="shared" si="24"/>
+      <c r="J74" s="1">
+        <f t="shared" si="26"/>
         <v>1797.086</v>
-      </c>
-      <c r="H74" s="1">
-        <f>COUNTIF(H54:H73, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="I74" s="1">
-        <f t="shared" si="24"/>
-        <v>142.15</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" si="24"/>
-        <v>1765.9225000000001</v>
       </c>
       <c r="K74" s="1">
         <f>COUNTIF(K54:K73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" ref="L74" si="25">AVERAGE(L54:L73)</f>
-        <v>154.85</v>
+        <f t="shared" si="26"/>
+        <v>142.15</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" ref="M74" si="26">AVERAGE(M54:M73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="26"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="N74" s="1">
         <f>COUNTIF(N54:N73, "opt")</f>
@@ -4454,40 +5101,54 @@
       </c>
       <c r="O74" s="1">
         <f t="shared" ref="O74" si="27">AVERAGE(O54:O73)</f>
-        <v>150.6</v>
+        <v>154.85</v>
       </c>
       <c r="P74" s="1">
         <f t="shared" ref="P74" si="28">AVERAGE(P54:P73)</f>
-        <v>2551.4195000000004</v>
+        <v>2269.5409999999997</v>
       </c>
       <c r="Q74" s="1">
         <f>COUNTIF(Q54:Q73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="R74" s="1">
+        <f t="shared" ref="R74" si="29">AVERAGE(R54:R73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" ref="S74" si="30">AVERAGE(S54:S73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="T74" s="1">
+        <f>COUNTIF(T54:T73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T1:V20">
-    <sortCondition ref="T1:T20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:Y74">
+    <sortCondition ref="W1:W74"/>
   </sortState>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B1:T1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B1:Q1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="B51:T51"/>
     <mergeCell ref="B52:E52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="B26:T26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I52:K52"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA5E9E-36F1-4A93-A505-AD344C20FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D1327-B6CD-4D3E-95D6-CBB0B9D8A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t>bath.txt</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>VNS d(10_40) 16.1.2023. 13:36:33</t>
+  </si>
+  <si>
+    <t>VNS d(1…) 19.1.15:07 new fit</t>
   </si>
 </sst>
 </file>
@@ -514,25 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>21</v>
@@ -555,17 +558,11 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>72</v>
-      </c>
-      <c r="Y1">
-        <v>1136.3399999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -574,41 +571,37 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>79</v>
-      </c>
-      <c r="Y2">
-        <v>2548.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -669,18 +662,18 @@
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>41</v>
-      </c>
-      <c r="Y3">
-        <v>1719.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -699,7 +692,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>862.72</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -709,7 +702,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>865.69</v>
+        <v>862.72</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
@@ -719,7 +712,7 @@
         <v>38</v>
       </c>
       <c r="M4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
@@ -729,33 +722,34 @@
         <v>38</v>
       </c>
       <c r="P4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="Q4" t="str">
         <f>IF($B4=O4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="R4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="T4" t="str">
         <f>IF($B4=R4, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="W4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>74</v>
-      </c>
-      <c r="Y4">
-        <v>181.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U4">
+        <v>39</v>
+      </c>
+      <c r="V4">
+        <v>239.56</v>
+      </c>
+      <c r="W4" t="str">
+        <f>IF($B4=U4, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -775,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>70.239999999999995</v>
+        <v>80.34</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
@@ -785,54 +779,55 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>443.57</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
         <v/>
       </c>
       <c r="R5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T23" si="4">IF($B5=R5, "opt", "")</f>
         <v/>
       </c>
-      <c r="W5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>80</v>
-      </c>
-      <c r="Y5">
-        <v>36.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="U5">
+        <v>44</v>
+      </c>
+      <c r="V5">
+        <v>2857.14</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ref="W5:W23" si="5">IF($B5=U5, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -851,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>1136.19</v>
+        <v>322.75</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -861,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>31.04</v>
+        <v>1136.19</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -871,43 +866,44 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>73</v>
-      </c>
-      <c r="Y6">
-        <v>568.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>23</v>
+      </c>
+      <c r="V6">
+        <v>425.46</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="G7">
-        <v>129.96</v>
+        <v>298.95999999999998</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -937,54 +933,55 @@
         <v>37</v>
       </c>
       <c r="J7">
-        <v>377.94</v>
+        <v>129.96</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>79</v>
-      </c>
-      <c r="Y7">
-        <v>110.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="U7">
+        <v>41</v>
+      </c>
+      <c r="V7">
+        <v>1488.4</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -1003,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>22.14</v>
+        <v>118.89</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1013,7 +1010,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>1589.66</v>
+        <v>22.14</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1023,7 +1020,7 @@
         <v>39</v>
       </c>
       <c r="M8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -1033,33 +1030,34 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W8" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8">
-        <v>93</v>
-      </c>
-      <c r="Y8">
-        <v>991.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="V8">
+        <v>2772.73</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>234.78</v>
+        <v>424.66</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1089,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>802.97</v>
+        <v>234.78</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -1099,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -1109,34 +1107,35 @@
         <v>38</v>
       </c>
       <c r="P9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W9" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9">
-        <v>81</v>
-      </c>
-      <c r="Y9">
-        <v>694.69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="U9">
+        <v>39</v>
+      </c>
+      <c r="V9">
+        <v>1158.5</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -1155,7 +1154,7 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>212.38</v>
+        <v>33.64</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1165,7 +1164,7 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>221.94</v>
+        <v>212.38</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -1175,43 +1174,44 @@
         <v>38</v>
       </c>
       <c r="M10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10">
-        <v>76</v>
-      </c>
-      <c r="Y10">
-        <v>893.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>44</v>
+      </c>
+      <c r="V10">
+        <v>292.3</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>217.78</v>
+        <v>674.96</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1241,7 +1241,7 @@
         <v>50</v>
       </c>
       <c r="J11">
-        <v>348.19</v>
+        <v>217.78</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -1251,44 +1251,45 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11">
-        <v>57</v>
-      </c>
-      <c r="Y11">
-        <v>1920.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="U11">
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>614.62</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1307,7 +1308,7 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>2208.9299999999998</v>
+        <v>130.81</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1317,53 +1318,54 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>849.36</v>
+        <v>2208.9299999999998</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O12">
         <v>42</v>
       </c>
       <c r="P12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12">
-        <v>78</v>
-      </c>
-      <c r="Y12">
-        <v>3577.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>44</v>
+      </c>
+      <c r="V12">
+        <v>3123.37</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1380,20 +1382,20 @@
         <v>0.34</v>
       </c>
       <c r="F13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>88.42</v>
+        <v>182.32</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I13">
         <v>39</v>
       </c>
       <c r="J13">
-        <v>646.91999999999996</v>
+        <v>88.42</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -1403,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="M13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
@@ -1413,34 +1415,35 @@
         <v>39</v>
       </c>
       <c r="P13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13">
-        <v>84</v>
-      </c>
-      <c r="Y13">
-        <v>1653.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="U13">
+        <v>41</v>
+      </c>
+      <c r="V13">
+        <v>1896.54</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1456,20 +1459,20 @@
         <v>0.35</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>38.58</v>
+        <v>361.16</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I14">
         <v>29</v>
       </c>
       <c r="J14">
-        <v>190.4</v>
+        <v>38.58</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -1479,43 +1482,44 @@
         <v>29</v>
       </c>
       <c r="M14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W14" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14">
-        <v>86</v>
-      </c>
-      <c r="Y14">
-        <v>950.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>32</v>
+      </c>
+      <c r="V14">
+        <v>3563.82</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1532,67 +1536,68 @@
         <v>0.63</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>492.18</v>
+        <v>3011.36</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="I15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>2763.95</v>
+        <v>492.18</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W15" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15">
-        <v>47</v>
-      </c>
-      <c r="Y15">
-        <v>5.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="U15">
+        <v>45</v>
+      </c>
+      <c r="V15">
+        <v>2013.71</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1611,63 +1616,64 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>348.25</v>
+        <v>68.17</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>61.75</v>
+        <v>348.25</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="O16">
         <v>44</v>
       </c>
       <c r="P16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W16" t="s">
-        <v>15</v>
-      </c>
-      <c r="X16">
-        <v>63</v>
-      </c>
-      <c r="Y16">
-        <v>31.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U16">
+        <v>47</v>
+      </c>
+      <c r="V16">
+        <v>792.09</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>365.26</v>
+        <v>110.78</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="J17">
-        <v>115</v>
+        <v>365.26</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -1707,44 +1713,45 @@
         <v>44</v>
       </c>
       <c r="M17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W17" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17">
-        <v>84</v>
-      </c>
-      <c r="Y17">
-        <v>1204.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="U17">
+        <v>46</v>
+      </c>
+      <c r="V17">
+        <v>3016.44</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1763,63 +1770,64 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>762.06</v>
+        <v>16.73</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18">
-        <v>0.54</v>
+        <v>762.06</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L18">
         <v>25</v>
       </c>
       <c r="M18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="R18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W18" t="s">
-        <v>17</v>
-      </c>
-      <c r="X18">
-        <v>51</v>
-      </c>
-      <c r="Y18">
-        <v>30.79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>357.74</v>
+        <v>84.4</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>181.26</v>
+        <v>357.74</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -1859,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -1869,34 +1877,35 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W19" t="s">
-        <v>18</v>
-      </c>
-      <c r="X19">
-        <v>73</v>
-      </c>
-      <c r="Y19">
-        <v>274.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="U19">
+        <v>36</v>
+      </c>
+      <c r="V19">
+        <v>180.01</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1915,7 +1924,7 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>1135.8499999999999</v>
+        <v>178.95</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1925,7 +1934,7 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>1333.45</v>
+        <v>1135.8499999999999</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -1935,43 +1944,44 @@
         <v>42</v>
       </c>
       <c r="M20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W20" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20">
-        <v>68</v>
-      </c>
-      <c r="Y20">
-        <v>33.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>46</v>
+      </c>
+      <c r="V20">
+        <v>2892.3</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>7.17</v>
+        <v>21.18</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2001,7 +2011,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>34.53</v>
+        <v>7.17</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2011,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -2021,7 +2031,7 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
@@ -2031,15 +2041,25 @@
         <v>25</v>
       </c>
       <c r="S21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>472.69</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="5"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -2058,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>41.48</v>
+        <v>115.93</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>558.71</v>
+        <v>41.48</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2078,7 +2098,7 @@
         <v>36</v>
       </c>
       <c r="M22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -2088,24 +2108,34 @@
         <v>36</v>
       </c>
       <c r="P22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U22">
+        <v>37</v>
+      </c>
+      <c r="V22">
+        <v>1303.21</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2155,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>1739.24</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2135,7 +2165,7 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>284.64</v>
+        <v>1739.24</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2145,7 +2175,7 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -2155,24 +2185,34 @@
         <v>32</v>
       </c>
       <c r="P23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U23">
+        <v>33</v>
+      </c>
+      <c r="V23">
+        <v>403.23</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2181,82 +2221,94 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:P24" si="5">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:S24" si="6">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="5"/>
-        <v>36.299999999999997</v>
+        <f t="shared" si="6"/>
+        <v>36.1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="5"/>
-        <v>523.5675</v>
+        <f t="shared" si="6"/>
+        <v>316.745</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="5"/>
-        <v>36.35</v>
+        <f t="shared" si="6"/>
+        <v>36.299999999999997</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
-        <v>585.07549999999992</v>
+        <f t="shared" si="6"/>
+        <v>523.5675</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L24" s="1">
-        <f>AVERAGE(L4:L23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="6"/>
+        <v>36.35</v>
       </c>
       <c r="M24" s="1">
-        <f>AVERAGE(M4:M23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="6"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="5"/>
-        <v>37.9</v>
+        <f>AVERAGE(O4:O23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(P4:P23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="Q24" s="1">
         <f>COUNTIF(Q4:Q23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24" si="6">AVERAGE(R4:R23)</f>
-        <v>38.9</v>
+        <f t="shared" si="6"/>
+        <v>37.9</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24" si="7">AVERAGE(S4:S23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="6"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="T24" s="1">
         <f>COUNTIF(T4:T23, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" ref="U24" si="7">AVERAGE(U4:U23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ref="V24" si="8">AVERAGE(V4:V23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="W24" s="1">
+        <f>COUNTIF(W4:W23, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -2279,8 +2331,11 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -2288,33 +2343,36 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2330,15 +2388,9 @@
       <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2375,9 +2427,18 @@
       <c r="T28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="U28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29">
@@ -2392,21 +2453,11 @@
       <c r="E29">
         <v>0.69</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>72</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>1136.3399999999999</v>
-      </c>
-      <c r="H29" t="str">
-        <f>IF($B29=F29, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I29">
-        <v>73</v>
-      </c>
-      <c r="J29">
-        <v>432.6</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
@@ -2416,34 +2467,44 @@
         <v>73</v>
       </c>
       <c r="M29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
         <v/>
       </c>
       <c r="O29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="Q29" t="str">
         <f>IF($B29=O29, "opt", "")</f>
         <v/>
       </c>
       <c r="R29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="T29" t="str">
         <f>IF($B29=R29, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>76</v>
+      </c>
+      <c r="V29">
+        <v>2043.43</v>
+      </c>
+      <c r="W29" t="str">
+        <f>IF($B29=U29, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2459,59 +2520,59 @@
       <c r="E30">
         <v>5.98</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>79</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>2548.89</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="8">IF($B30=F30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I30">
-        <v>81</v>
-      </c>
-      <c r="J30">
-        <v>103.21</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K48" si="9">IF($B30=I30, "opt", "")</f>
         <v/>
       </c>
       <c r="L30">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M30">
-        <v>2794.12</v>
+        <v>103.21</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" ref="N30:N48" si="10">IF($B30=L30, "opt", "")</f>
         <v/>
       </c>
       <c r="O30">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P30">
-        <v>3605.84</v>
+        <v>2794.12</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q48" si="11">IF($B30=O30, "opt", "")</f>
         <v/>
       </c>
       <c r="R30">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S30">
-        <v>1133.24</v>
+        <v>3605.84</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" ref="T30:T48" si="12">IF($B30=R30, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="U30">
+        <v>90</v>
+      </c>
+      <c r="V30">
+        <v>1133.24</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" ref="W30:W48" si="13">IF($B30=U30, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31">
@@ -2526,21 +2587,11 @@
       <c r="E31">
         <v>0.91</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>41</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>1719.25</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I31">
-        <v>42</v>
-      </c>
-      <c r="J31">
-        <v>2097.8200000000002</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="9"/>
@@ -2550,34 +2601,44 @@
         <v>42</v>
       </c>
       <c r="M31">
-        <v>1185.19</v>
+        <v>2097.8200000000002</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O31">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P31">
-        <v>3392.22</v>
+        <v>1185.19</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R31">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S31">
-        <v>3591.99</v>
+        <v>3392.22</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>43</v>
+      </c>
+      <c r="V31">
+        <v>3591.99</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2593,58 +2654,58 @@
       <c r="E32">
         <v>1.76</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>74</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>181.98</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I32">
-        <v>77</v>
-      </c>
-      <c r="J32">
-        <v>570.38</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L32">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M32">
-        <v>766.05</v>
+        <v>570.38</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O32">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P32">
-        <v>1957.88</v>
+        <v>766.05</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R32">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32">
-        <v>2691.03</v>
+        <v>1957.88</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>81</v>
+      </c>
+      <c r="V32">
+        <v>2691.03</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2660,21 +2721,11 @@
       <c r="E33">
         <v>0.95</v>
       </c>
-      <c r="F33">
-        <v>80</v>
-      </c>
-      <c r="G33">
-        <v>36.42</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="I33">
         <v>80</v>
       </c>
       <c r="J33">
-        <v>635.37</v>
+        <v>36.42</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="9"/>
@@ -2684,34 +2735,44 @@
         <v>80</v>
       </c>
       <c r="M33">
-        <v>1190.47</v>
+        <v>635.37</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O33">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P33">
-        <v>1721.95</v>
+        <v>1190.47</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R33">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S33">
-        <v>2099.84</v>
+        <v>1721.95</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>86</v>
+      </c>
+      <c r="V33">
+        <v>2099.84</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2727,21 +2788,11 @@
       <c r="E34">
         <v>1.53</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>73</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>568.61</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I34">
-        <v>74</v>
-      </c>
-      <c r="J34">
-        <v>3556.53</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="9"/>
@@ -2751,34 +2802,44 @@
         <v>74</v>
       </c>
       <c r="M34">
-        <v>778.34</v>
+        <v>3556.53</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O34">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P34">
-        <v>3138.24</v>
+        <v>778.34</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R34">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S34">
-        <v>2695.42</v>
+        <v>3138.24</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>77</v>
+      </c>
+      <c r="V34">
+        <v>2695.42</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2794,58 +2855,58 @@
       <c r="E35">
         <v>0.68</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>79</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>110.55</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I35">
-        <v>78</v>
-      </c>
-      <c r="J35">
-        <v>2232.29</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L35">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M35">
-        <v>140.19</v>
+        <v>2232.29</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O35">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P35">
-        <v>960.67</v>
+        <v>140.19</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R35">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S35">
-        <v>740.86</v>
+        <v>960.67</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>85</v>
+      </c>
+      <c r="V35">
+        <v>740.86</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2861,41 +2922,31 @@
       <c r="E36">
         <v>1.29</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>93</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>991.51</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
-      <c r="I36">
-        <v>94</v>
-      </c>
-      <c r="J36">
-        <v>1003.92</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L36">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M36">
-        <v>2182.41</v>
+        <v>1003.92</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O36">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P36">
-        <v>873.59</v>
+        <v>2182.41</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="11"/>
@@ -2905,14 +2956,24 @@
         <v>98</v>
       </c>
       <c r="S36">
-        <v>3416.12</v>
+        <v>873.59</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>98</v>
+      </c>
+      <c r="V36">
+        <v>3416.12</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2928,58 +2989,58 @@
       <c r="E37">
         <v>1.01</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>81</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>694.69</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I37">
-        <v>82</v>
-      </c>
-      <c r="J37">
-        <v>2913.24</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M37">
-        <v>1581.33</v>
+        <v>2913.24</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O37">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P37">
-        <v>2964.31</v>
+        <v>1581.33</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R37">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S37">
-        <v>2270.4899999999998</v>
+        <v>2964.31</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>88</v>
+      </c>
+      <c r="V37">
+        <v>2270.4899999999998</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2995,58 +3056,58 @@
       <c r="E38">
         <v>7.58</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>76</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>893.4</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I38">
-        <v>78</v>
-      </c>
-      <c r="J38">
-        <v>1792.42</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L38">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M38">
-        <v>1946.12</v>
+        <v>1792.42</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O38">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="P38">
-        <v>2067.7399999999998</v>
+        <v>1946.12</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R38">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S38">
-        <v>2839.94</v>
+        <v>2067.7399999999998</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>85</v>
+      </c>
+      <c r="V38">
+        <v>2839.94</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3062,58 +3123,58 @@
       <c r="E39">
         <v>1.4</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>57</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>1920.49</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I39">
-        <v>58</v>
-      </c>
-      <c r="J39">
-        <v>652.91999999999996</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39">
-        <v>178.08</v>
+        <v>652.91999999999996</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O39">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P39">
-        <v>2213.38</v>
+        <v>178.08</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S39">
-        <v>1404.51</v>
+        <v>2213.38</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>63</v>
+      </c>
+      <c r="V39">
+        <v>1404.51</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3129,21 +3190,11 @@
       <c r="E40">
         <v>24.5</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>78</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>3577.82</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I40">
-        <v>79</v>
-      </c>
-      <c r="J40">
-        <v>2688.82</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="9"/>
@@ -3153,34 +3204,44 @@
         <v>79</v>
       </c>
       <c r="M40">
-        <v>1845.81</v>
+        <v>2688.82</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="P40">
-        <v>4030.49</v>
+        <v>1845.81</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R40">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="S40">
-        <v>2235.91</v>
+        <v>4030.49</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>88</v>
+      </c>
+      <c r="V40">
+        <v>2235.91</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -3196,41 +3257,31 @@
       <c r="E41">
         <v>1.25</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>84</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>1653.61</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I41">
-        <v>86</v>
-      </c>
-      <c r="J41">
-        <v>2125.84</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L41">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M41">
-        <v>2982.1</v>
+        <v>2125.84</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O41">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P41">
-        <v>758.9</v>
+        <v>2982.1</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="11"/>
@@ -3240,14 +3291,24 @@
         <v>88</v>
       </c>
       <c r="S41">
-        <v>3032.11</v>
+        <v>758.9</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>88</v>
+      </c>
+      <c r="V41">
+        <v>3032.11</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3263,59 +3324,59 @@
       <c r="E42">
         <v>1.23</v>
       </c>
-      <c r="F42">
-        <v>86</v>
-      </c>
-      <c r="G42">
-        <v>950.77</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="I42">
         <v>86</v>
       </c>
       <c r="J42">
-        <v>2935.53</v>
+        <v>950.77</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L42">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M42">
-        <v>2435.9299999999998</v>
+        <v>2935.53</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O42">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P42">
-        <v>2487.52</v>
+        <v>2435.9299999999998</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R42">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S42">
-        <v>1500.97</v>
+        <v>2487.52</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="U42">
+        <v>93</v>
+      </c>
+      <c r="V42">
+        <v>1500.97</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B43">
@@ -3330,21 +3391,11 @@
       <c r="E43">
         <v>0.31</v>
       </c>
-      <c r="F43">
-        <v>47</v>
-      </c>
-      <c r="G43">
-        <v>5.31</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>21.42</v>
+        <v>5.31</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="9"/>
@@ -3354,7 +3405,7 @@
         <v>47</v>
       </c>
       <c r="M43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="10"/>
@@ -3364,24 +3415,34 @@
         <v>47</v>
       </c>
       <c r="P43">
-        <v>162.75</v>
+        <v>13.01</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="R43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S43">
-        <v>551.9</v>
+        <v>162.75</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="U43">
+        <v>48</v>
+      </c>
+      <c r="V43">
+        <v>551.9</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3397,21 +3458,11 @@
       <c r="E44">
         <v>0.88</v>
       </c>
-      <c r="F44">
-        <v>63</v>
-      </c>
-      <c r="G44">
-        <v>31.04</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="I44">
         <v>63</v>
       </c>
       <c r="J44">
-        <v>348.49</v>
+        <v>31.04</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="9"/>
@@ -3421,34 +3472,44 @@
         <v>63</v>
       </c>
       <c r="M44">
-        <v>3516.79</v>
+        <v>348.49</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O44">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P44">
-        <v>3060.12</v>
+        <v>3516.79</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R44">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S44">
-        <v>1302.26</v>
+        <v>3060.12</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>69</v>
+      </c>
+      <c r="V44">
+        <v>1302.26</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3464,21 +3525,11 @@
       <c r="E45">
         <v>1.77</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>84</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>1204.01</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I45">
-        <v>86</v>
-      </c>
-      <c r="J45">
-        <v>160.27000000000001</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="9"/>
@@ -3488,34 +3539,44 @@
         <v>86</v>
       </c>
       <c r="M45">
-        <v>2140.17</v>
+        <v>160.27000000000001</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O45">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P45">
-        <v>2247.27</v>
+        <v>2140.17</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R45">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S45">
-        <v>2549.39</v>
+        <v>2247.27</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>91</v>
+      </c>
+      <c r="V45">
+        <v>2549.39</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3531,59 +3592,59 @@
       <c r="E46">
         <v>0.45</v>
       </c>
-      <c r="F46">
-        <v>51</v>
-      </c>
-      <c r="G46">
-        <v>30.79</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="I46">
         <v>51</v>
       </c>
       <c r="J46">
-        <v>2167.62</v>
+        <v>30.79</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M46">
-        <v>3148.79</v>
+        <v>2167.62</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O46">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P46">
-        <v>2009.49</v>
+        <v>3148.79</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R46">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S46">
-        <v>162.55000000000001</v>
+        <v>2009.49</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="U46">
+        <v>53</v>
+      </c>
+      <c r="V46">
+        <v>162.55000000000001</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B47">
@@ -3598,21 +3659,11 @@
       <c r="E47">
         <v>2.54</v>
       </c>
-      <c r="F47">
-        <v>73</v>
-      </c>
-      <c r="G47">
-        <v>274.13</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
       <c r="I47">
         <v>73</v>
       </c>
       <c r="J47">
-        <v>3294.1</v>
+        <v>274.13</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="9"/>
@@ -3622,34 +3673,44 @@
         <v>73</v>
       </c>
       <c r="M47">
-        <v>248.24</v>
+        <v>3294.1</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="O47">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P47">
-        <v>3003.53</v>
+        <v>248.24</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R47">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S47">
-        <v>468.54</v>
+        <v>3003.53</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>80</v>
+      </c>
+      <c r="V47">
+        <v>468.54</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3665,58 +3726,58 @@
       <c r="E48">
         <v>1.35</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>68</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>33.49</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="8"/>
-        <v>opt</v>
-      </c>
-      <c r="I48">
-        <v>69</v>
-      </c>
-      <c r="J48">
-        <v>21.14</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L48">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M48">
-        <v>32.380000000000003</v>
+        <v>21.14</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="10"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="O48">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P48">
-        <v>501.68</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S48">
-        <v>1847.68</v>
+        <v>501.68</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="12"/>
-        <v>opt</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="U48">
+        <v>68</v>
+      </c>
+      <c r="V48">
+        <v>1847.68</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -3725,82 +3786,85 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="13">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="14">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="14">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="15">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:M49" si="15">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:P49" si="16">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="15"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
+        <f t="shared" si="16"/>
         <v>71.95</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" si="15"/>
+      <c r="J49" s="1">
+        <f t="shared" si="16"/>
         <v>928.15500000000009</v>
-      </c>
-      <c r="H49" s="1">
-        <f>COUNTIF(H29:H48, "opt")</f>
-        <v>4</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="15"/>
-        <v>72.849999999999994</v>
-      </c>
-      <c r="J49" s="1">
-        <f t="shared" si="15"/>
-        <v>1487.6964999999998</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="15"/>
-        <v>72.3</v>
+        <f t="shared" si="16"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="15"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="16"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" ref="O49" si="16">AVERAGE(O29:O48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="16"/>
+        <v>72.3</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49" si="17">AVERAGE(P29:P48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="16"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="Q49" s="1">
         <f>COUNTIF(Q29:Q48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49" si="18">AVERAGE(R29:R48)</f>
-        <v>77.5</v>
+        <f t="shared" ref="R49" si="17">AVERAGE(R29:R48)</f>
+        <v>77.599999999999994</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" ref="S49" si="19">AVERAGE(S29:S48)</f>
-        <v>1928.9090000000001</v>
+        <f t="shared" ref="S49" si="18">AVERAGE(S29:S48)</f>
+        <v>2184.5685000000003</v>
       </c>
       <c r="T49" s="1">
         <f>COUNTIF(T29:T48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U49" s="1">
+        <f t="shared" ref="U49" si="19">AVERAGE(U29:U48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" ref="V49" si="20">AVERAGE(V29:V48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="W49" s="1">
+        <f>COUNTIF(W29:W48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>33</v>
@@ -3823,8 +3887,11 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -3835,28 +3902,31 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3875,15 +3945,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3911,8 +3975,17 @@
       <c r="T53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3928,48 +4001,48 @@
       <c r="E54">
         <v>3608.26</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>144</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>254.58</v>
-      </c>
-      <c r="K54" t="str">
-        <f>IF($B54=I54, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L54">
-        <v>142</v>
-      </c>
-      <c r="M54">
-        <v>657.06</v>
       </c>
       <c r="N54" t="str">
         <f>IF($B54=L54, "opt", "")</f>
         <v/>
       </c>
       <c r="O54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="Q54" t="str">
         <f>IF($B54=O54, "opt", "")</f>
         <v/>
       </c>
       <c r="R54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="T54" t="str">
         <f>IF($B54=R54, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>149</v>
+      </c>
+      <c r="V54">
+        <v>2862.68</v>
+      </c>
+      <c r="W54" t="str">
+        <f>IF($B54=U54, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3985,48 +4058,48 @@
       <c r="E55">
         <v>1985.8</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>154</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>2386.46</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="20">IF($B55=I55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L55">
-        <v>152</v>
-      </c>
-      <c r="M55">
-        <v>2672.73</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" ref="N55:N73" si="21">IF($B55=L55, "opt", "")</f>
         <v/>
       </c>
       <c r="O55">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="P55">
-        <v>3637.73</v>
+        <v>2672.73</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" ref="Q55:Q73" si="22">IF($B55=O55, "opt", "")</f>
         <v/>
       </c>
       <c r="R55">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="S55">
-        <v>2837.51</v>
+        <v>3637.73</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" ref="T55:T73" si="23">IF($B55=R55, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>169</v>
+      </c>
+      <c r="V55">
+        <v>2837.51</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" ref="W55:W73" si="24">IF($B55=U55, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4042,48 +4115,48 @@
       <c r="E56">
         <v>179.16</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>83</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>309.95999999999998</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L56">
-        <v>82</v>
-      </c>
-      <c r="M56">
-        <v>1015.5</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O56">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P56">
-        <v>714.64</v>
+        <v>1015.5</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R56">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S56">
-        <v>3470.98</v>
+        <v>714.64</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>87</v>
+      </c>
+      <c r="V56">
+        <v>3470.98</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4099,48 +4172,48 @@
       <c r="E57">
         <v>3631.76</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>154</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>2378.6999999999998</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L57">
-        <v>151</v>
-      </c>
-      <c r="M57">
-        <v>1923.96</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O57">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P57">
-        <v>3447.42</v>
+        <v>1923.96</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R57">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S57">
-        <v>1616.56</v>
+        <v>3447.42</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>162</v>
+      </c>
+      <c r="V57">
+        <v>1616.56</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4156,48 +4229,48 @@
       <c r="E58">
         <v>911.98</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>165</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>648.26</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L58">
-        <v>160</v>
-      </c>
-      <c r="M58">
-        <v>2621.15</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O58">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P58">
-        <v>1174.47</v>
+        <v>2621.15</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R58">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S58">
-        <v>2670.1</v>
+        <v>1174.47</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>165</v>
+      </c>
+      <c r="V58">
+        <v>2670.1</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4213,48 +4286,48 @@
       <c r="E59">
         <v>3604.64</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>154</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>1211.22</v>
-      </c>
-      <c r="K59" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L59">
-        <v>152</v>
-      </c>
-      <c r="M59">
-        <v>1347.62</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O59">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P59">
-        <v>1435.66</v>
+        <v>1347.62</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R59">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S59">
-        <v>3351.26</v>
+        <v>1435.66</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>159</v>
+      </c>
+      <c r="V59">
+        <v>3351.26</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4270,48 +4343,48 @@
       <c r="E60">
         <v>3655.54</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>162</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1868.42</v>
-      </c>
-      <c r="K60" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L60">
-        <v>160</v>
-      </c>
-      <c r="M60">
-        <v>1825.03</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O60">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="P60">
-        <v>1391.51</v>
+        <v>1825.03</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R60">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S60">
-        <v>2752.16</v>
+        <v>1391.51</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>172</v>
+      </c>
+      <c r="V60">
+        <v>2752.16</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4327,48 +4400,48 @@
       <c r="E61">
         <v>3648.06</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>177</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>3139.32</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L61">
-        <v>180</v>
-      </c>
-      <c r="M61">
-        <v>2940.9</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O61">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P61">
-        <v>1329.91</v>
+        <v>2940.9</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R61">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="S61">
-        <v>1546.74</v>
+        <v>1329.91</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>185</v>
+      </c>
+      <c r="V61">
+        <v>1546.74</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4384,31 +4457,21 @@
       <c r="E62">
         <v>329.38</v>
       </c>
-      <c r="I62">
-        <v>156</v>
-      </c>
-      <c r="J62">
-        <v>1556.14</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
       <c r="L62">
         <v>156</v>
       </c>
       <c r="M62">
-        <v>1724.02</v>
+        <v>1556.14</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O62">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P62">
-        <v>3240.09</v>
+        <v>1724.02</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="22"/>
@@ -4418,14 +4481,24 @@
         <v>166</v>
       </c>
       <c r="S62">
-        <v>3490.77</v>
+        <v>3240.09</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>166</v>
+      </c>
+      <c r="V62">
+        <v>3490.77</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -4441,48 +4514,48 @@
       <c r="E63">
         <v>3602.38</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>153</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>3116.66</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L63">
-        <v>155</v>
-      </c>
-      <c r="M63">
-        <v>1856.66</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O63">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P63">
-        <v>3571.87</v>
+        <v>1856.66</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R63">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S63">
-        <v>2597.0500000000002</v>
+        <v>3571.87</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>165</v>
+      </c>
+      <c r="V63">
+        <v>2597.0500000000002</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4498,48 +4571,48 @@
       <c r="E64">
         <v>338.36</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <v>117</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>1565.52</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L64">
-        <v>114</v>
-      </c>
-      <c r="M64">
-        <v>2136.59</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O64">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P64">
-        <v>2636.94</v>
+        <v>2136.59</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R64">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S64">
-        <v>3155.58</v>
+        <v>2636.94</v>
       </c>
       <c r="T64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>124</v>
+      </c>
+      <c r="V64">
+        <v>3155.58</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4555,48 +4628,48 @@
       <c r="E65">
         <v>3620.36</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>162</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>882.17</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L65">
-        <v>160</v>
-      </c>
-      <c r="M65">
-        <v>956.97</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O65">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="P65">
-        <v>5236.25</v>
+        <v>956.97</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R65">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="S65">
-        <v>3430.55</v>
+        <v>5236.25</v>
       </c>
       <c r="T65" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>173</v>
+      </c>
+      <c r="V65">
+        <v>3430.55</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -4612,48 +4685,48 @@
       <c r="E66">
         <v>913.1</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>156</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>3508.34</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L66">
-        <v>158</v>
-      </c>
-      <c r="M66">
-        <v>2765.03</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O66">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P66">
-        <v>1399.34</v>
+        <v>2765.03</v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R66">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S66">
-        <v>2690.94</v>
+        <v>1399.34</v>
       </c>
       <c r="T66" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>164</v>
+      </c>
+      <c r="V66">
+        <v>2690.94</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4669,48 +4742,48 @@
       <c r="E67">
         <v>236.64</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>172</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>1535.47</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L67">
-        <v>168</v>
-      </c>
-      <c r="M67">
-        <v>3493.09</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O67">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="P67">
-        <v>3558.47</v>
+        <v>3493.09</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R67">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="S67">
-        <v>1410.68</v>
+        <v>3558.47</v>
       </c>
       <c r="T67" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>184</v>
+      </c>
+      <c r="V67">
+        <v>1410.68</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -4726,48 +4799,48 @@
       <c r="E68">
         <v>17.079999999999998</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>89</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>1872.38</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="20"/>
-        <v>opt</v>
-      </c>
-      <c r="L68">
-        <v>90</v>
-      </c>
-      <c r="M68">
-        <v>20.65</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O68">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P68">
-        <v>2570.6</v>
+        <v>20.65</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R68">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S68">
-        <v>894.18</v>
+        <v>2570.6</v>
       </c>
       <c r="T68" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>91</v>
+      </c>
+      <c r="V68">
+        <v>894.18</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4783,48 +4856,48 @@
       <c r="E69">
         <v>227.07</v>
       </c>
-      <c r="I69">
-        <v>121</v>
-      </c>
-      <c r="J69">
-        <v>1535.21</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
       <c r="L69">
         <v>121</v>
       </c>
       <c r="M69">
-        <v>3062.52</v>
+        <v>1535.21</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O69">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P69">
-        <v>2018.32</v>
+        <v>3062.52</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R69">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S69">
-        <v>3492.04</v>
+        <v>2018.32</v>
       </c>
       <c r="T69" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>127</v>
+      </c>
+      <c r="V69">
+        <v>3492.04</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4840,31 +4913,21 @@
       <c r="E70">
         <v>3650.96</v>
       </c>
-      <c r="I70">
-        <v>166</v>
-      </c>
-      <c r="J70">
-        <v>3144.44</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
       <c r="L70">
         <v>166</v>
       </c>
       <c r="M70">
-        <v>1031.4100000000001</v>
+        <v>3144.44</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O70">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="P70">
-        <v>2915.07</v>
+        <v>1031.4100000000001</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="22"/>
@@ -4874,14 +4937,24 @@
         <v>180</v>
       </c>
       <c r="S70">
-        <v>2578.83</v>
+        <v>2915.07</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>180</v>
+      </c>
+      <c r="V70">
+        <v>2578.83</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4897,48 +4970,48 @@
       <c r="E71">
         <v>53.23</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>99</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>1565.23</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L71">
-        <v>101</v>
-      </c>
-      <c r="M71">
-        <v>351.49</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O71">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P71">
-        <v>891.9</v>
+        <v>351.49</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R71">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S71">
-        <v>1374.47</v>
+        <v>891.9</v>
       </c>
       <c r="T71" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>100</v>
+      </c>
+      <c r="V71">
+        <v>1374.47</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4954,31 +5027,21 @@
       <c r="E72">
         <v>3637.62</v>
       </c>
-      <c r="I72">
-        <v>144</v>
-      </c>
-      <c r="J72">
-        <v>927.05</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
       <c r="L72">
         <v>144</v>
       </c>
       <c r="M72">
-        <v>903.06</v>
+        <v>927.05</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O72">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="P72">
-        <v>1895.86</v>
+        <v>903.06</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="22"/>
@@ -4988,14 +5051,24 @@
         <v>151</v>
       </c>
       <c r="S72">
-        <v>3455.11</v>
+        <v>1895.86</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>151</v>
+      </c>
+      <c r="V72">
+        <v>3455.11</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -5011,48 +5084,48 @@
       <c r="E73">
         <v>31.71</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>132</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>2536.19</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L73">
-        <v>131</v>
-      </c>
-      <c r="M73">
-        <v>2013.01</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O73">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="P73">
-        <v>1693.27</v>
+        <v>2013.01</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R73">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="S73">
-        <v>1350.2</v>
+        <v>1693.27</v>
       </c>
       <c r="T73" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>139</v>
+      </c>
+      <c r="V73">
+        <v>1350.2</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -5061,94 +5134,98 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="24">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="25">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="25">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="26">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:M74" si="26">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:P74" si="27">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1">
-        <f t="shared" si="26"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1">
+        <f t="shared" si="27"/>
         <v>143</v>
       </c>
-      <c r="J74" s="1">
-        <f t="shared" si="26"/>
+      <c r="M74" s="1">
+        <f t="shared" si="27"/>
         <v>1797.086</v>
-      </c>
-      <c r="K74" s="1">
-        <f>COUNTIF(K54:K73, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="26"/>
-        <v>142.15</v>
-      </c>
-      <c r="M74" s="1">
-        <f t="shared" si="26"/>
-        <v>1765.9225000000001</v>
       </c>
       <c r="N74" s="1">
         <f>COUNTIF(N54:N73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" ref="O74" si="27">AVERAGE(O54:O73)</f>
-        <v>154.85</v>
+        <f t="shared" si="27"/>
+        <v>142.15</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" ref="P74" si="28">AVERAGE(P54:P73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="27"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="Q74" s="1">
         <f>COUNTIF(Q54:Q73, "opt")</f>
         <v>0</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74" si="29">AVERAGE(R54:R73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="R74" si="28">AVERAGE(R54:R73)</f>
+        <v>154.85</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74" si="30">AVERAGE(S54:S73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="S74" si="29">AVERAGE(S54:S73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="T74" s="1">
         <f>COUNTIF(T54:T73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="U74" s="1">
+        <f t="shared" ref="U74" si="30">AVERAGE(U54:U73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="V74" s="1">
+        <f t="shared" ref="V74" si="31">AVERAGE(V54:V73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="W74" s="1">
+        <f>COUNTIF(W54:W73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:Y74">
-    <sortCondition ref="W1:W74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y1:AA20">
+    <sortCondition ref="Y1:Y20"/>
   </sortState>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="B1:W1"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B1:T1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B51:T51"/>
+    <mergeCell ref="B51:W51"/>
     <mergeCell ref="B52:E52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="B26:W26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="B26:T26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L52:N52"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D1327-B6CD-4D3E-95D6-CBB0B9D8A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8329C47-A419-462B-8E95-B5B6934F41DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="38">
   <si>
     <t>bath.txt</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="Y1" sqref="Y1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,9 +2343,11 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
         <v>36</v>
       </c>
@@ -2388,9 +2390,15 @@
       <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2453,6 +2461,16 @@
       <c r="E29">
         <v>0.69</v>
       </c>
+      <c r="F29">
+        <v>71</v>
+      </c>
+      <c r="G29">
+        <v>428.91</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF($B29=F29, "opt", "")</f>
+        <v>opt</v>
+      </c>
       <c r="I29">
         <v>72</v>
       </c>
@@ -2505,7 +2523,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30">
@@ -2520,6 +2538,16 @@
       <c r="E30">
         <v>5.98</v>
       </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>1378.74</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="9">IF($B30=F30, "opt", "")</f>
+        <v>opt</v>
+      </c>
       <c r="I30">
         <v>79</v>
       </c>
@@ -2527,7 +2555,7 @@
         <v>2548.89</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="9">IF($B30=I30, "opt", "")</f>
+        <f t="shared" ref="K30:K48" si="10">IF($B30=I30, "opt", "")</f>
         <v/>
       </c>
       <c r="L30">
@@ -2537,7 +2565,7 @@
         <v>103.21</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="10">IF($B30=L30, "opt", "")</f>
+        <f t="shared" ref="N30:N48" si="11">IF($B30=L30, "opt", "")</f>
         <v/>
       </c>
       <c r="O30">
@@ -2547,7 +2575,7 @@
         <v>2794.12</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q48" si="11">IF($B30=O30, "opt", "")</f>
+        <f t="shared" ref="Q30:Q48" si="12">IF($B30=O30, "opt", "")</f>
         <v/>
       </c>
       <c r="R30">
@@ -2557,7 +2585,7 @@
         <v>3605.84</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" ref="T30:T48" si="12">IF($B30=R30, "opt", "")</f>
+        <f t="shared" ref="T30:T48" si="13">IF($B30=R30, "opt", "")</f>
         <v/>
       </c>
       <c r="U30">
@@ -2567,7 +2595,7 @@
         <v>1133.24</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:W48" si="13">IF($B30=U30, "opt", "")</f>
+        <f t="shared" ref="W30:W48" si="14">IF($B30=U30, "opt", "")</f>
         <v/>
       </c>
     </row>
@@ -2587,6 +2615,16 @@
       <c r="E31">
         <v>0.91</v>
       </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>427.46</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I31">
         <v>41</v>
       </c>
@@ -2594,7 +2632,7 @@
         <v>1719.25</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L31">
@@ -2604,7 +2642,7 @@
         <v>2097.8200000000002</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O31">
@@ -2614,7 +2652,7 @@
         <v>1185.19</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R31">
@@ -2624,7 +2662,7 @@
         <v>3392.22</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U31">
@@ -2634,7 +2672,7 @@
         <v>3591.99</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2654,6 +2692,16 @@
       <c r="E32">
         <v>1.76</v>
       </c>
+      <c r="F32">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>589.64</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I32">
         <v>74</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>181.98</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L32">
@@ -2671,7 +2719,7 @@
         <v>570.38</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O32">
@@ -2681,7 +2729,7 @@
         <v>766.05</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R32">
@@ -2691,7 +2739,7 @@
         <v>1957.88</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U32">
@@ -2701,12 +2749,12 @@
         <v>2691.03</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33">
@@ -2721,6 +2769,16 @@
       <c r="E33">
         <v>0.95</v>
       </c>
+      <c r="F33">
+        <v>78</v>
+      </c>
+      <c r="G33">
+        <v>2040.22</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I33">
         <v>80</v>
       </c>
@@ -2728,7 +2786,7 @@
         <v>36.42</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L33">
@@ -2738,7 +2796,7 @@
         <v>635.37</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O33">
@@ -2748,7 +2806,7 @@
         <v>1190.47</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R33">
@@ -2758,7 +2816,7 @@
         <v>1721.95</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U33">
@@ -2768,7 +2826,7 @@
         <v>2099.84</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2788,6 +2846,16 @@
       <c r="E34">
         <v>1.53</v>
       </c>
+      <c r="F34">
+        <v>73</v>
+      </c>
+      <c r="G34">
+        <v>1008.36</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I34">
         <v>73</v>
       </c>
@@ -2795,7 +2863,7 @@
         <v>568.61</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L34">
@@ -2805,7 +2873,7 @@
         <v>3556.53</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O34">
@@ -2815,7 +2883,7 @@
         <v>778.34</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R34">
@@ -2825,7 +2893,7 @@
         <v>3138.24</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U34">
@@ -2835,12 +2903,12 @@
         <v>2695.42</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B35">
@@ -2855,6 +2923,16 @@
       <c r="E35">
         <v>0.68</v>
       </c>
+      <c r="F35">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>3453.05</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I35">
         <v>79</v>
       </c>
@@ -2862,7 +2940,7 @@
         <v>110.55</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L35">
@@ -2872,7 +2950,7 @@
         <v>2232.29</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O35">
@@ -2882,7 +2960,7 @@
         <v>140.19</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R35">
@@ -2892,7 +2970,7 @@
         <v>960.67</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U35">
@@ -2902,7 +2980,7 @@
         <v>740.86</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2922,6 +3000,16 @@
       <c r="E36">
         <v>1.29</v>
       </c>
+      <c r="F36">
+        <v>94</v>
+      </c>
+      <c r="G36">
+        <v>600.54999999999995</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I36">
         <v>93</v>
       </c>
@@ -2929,7 +3017,7 @@
         <v>991.51</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="L36">
@@ -2939,7 +3027,7 @@
         <v>1003.92</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O36">
@@ -2949,7 +3037,7 @@
         <v>2182.41</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R36">
@@ -2959,7 +3047,7 @@
         <v>873.59</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U36">
@@ -2969,7 +3057,7 @@
         <v>3416.12</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2989,6 +3077,16 @@
       <c r="E37">
         <v>1.01</v>
       </c>
+      <c r="F37">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>2058.4499999999998</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I37">
         <v>81</v>
       </c>
@@ -2996,7 +3094,7 @@
         <v>694.69</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L37">
@@ -3006,7 +3104,7 @@
         <v>2913.24</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O37">
@@ -3016,7 +3114,7 @@
         <v>1581.33</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R37">
@@ -3026,7 +3124,7 @@
         <v>2964.31</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U37">
@@ -3036,12 +3134,12 @@
         <v>2270.4899999999998</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B38">
@@ -3056,6 +3154,16 @@
       <c r="E38">
         <v>7.58</v>
       </c>
+      <c r="F38">
+        <v>75</v>
+      </c>
+      <c r="G38">
+        <v>1014.11</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I38">
         <v>76</v>
       </c>
@@ -3063,7 +3171,7 @@
         <v>893.4</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L38">
@@ -3073,7 +3181,7 @@
         <v>1792.42</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O38">
@@ -3083,7 +3191,7 @@
         <v>1946.12</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R38">
@@ -3093,7 +3201,7 @@
         <v>2067.7399999999998</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U38">
@@ -3103,7 +3211,7 @@
         <v>2839.94</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3123,6 +3231,16 @@
       <c r="E39">
         <v>1.4</v>
       </c>
+      <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>212.52</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I39">
         <v>57</v>
       </c>
@@ -3130,7 +3248,7 @@
         <v>1920.49</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L39">
@@ -3140,7 +3258,7 @@
         <v>652.91999999999996</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O39">
@@ -3150,7 +3268,7 @@
         <v>178.08</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R39">
@@ -3160,7 +3278,7 @@
         <v>2213.38</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U39">
@@ -3170,7 +3288,7 @@
         <v>1404.51</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3190,6 +3308,16 @@
       <c r="E40">
         <v>24.5</v>
       </c>
+      <c r="F40">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>467.45</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I40">
         <v>78</v>
       </c>
@@ -3197,7 +3325,7 @@
         <v>3577.82</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L40">
@@ -3207,7 +3335,7 @@
         <v>2688.82</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O40">
@@ -3217,7 +3345,7 @@
         <v>1845.81</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R40">
@@ -3227,7 +3355,7 @@
         <v>4030.49</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U40">
@@ -3237,12 +3365,12 @@
         <v>2235.91</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B41">
@@ -3257,6 +3385,16 @@
       <c r="E41">
         <v>1.25</v>
       </c>
+      <c r="F41">
+        <v>83</v>
+      </c>
+      <c r="G41">
+        <v>1723.67</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I41">
         <v>84</v>
       </c>
@@ -3264,7 +3402,7 @@
         <v>1653.61</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L41">
@@ -3274,7 +3412,7 @@
         <v>2125.84</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O41">
@@ -3284,7 +3422,7 @@
         <v>2982.1</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R41">
@@ -3294,7 +3432,7 @@
         <v>758.9</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U41">
@@ -3304,7 +3442,7 @@
         <v>3032.11</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3324,6 +3462,16 @@
       <c r="E42">
         <v>1.23</v>
       </c>
+      <c r="F42">
+        <v>85</v>
+      </c>
+      <c r="G42">
+        <v>3390.66</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I42">
         <v>86</v>
       </c>
@@ -3331,7 +3479,7 @@
         <v>950.77</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L42">
@@ -3341,7 +3489,7 @@
         <v>2935.53</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O42">
@@ -3351,7 +3499,7 @@
         <v>2435.9299999999998</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R42">
@@ -3361,7 +3509,7 @@
         <v>2487.52</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U42">
@@ -3371,7 +3519,7 @@
         <v>1500.97</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3391,6 +3539,16 @@
       <c r="E43">
         <v>0.31</v>
       </c>
+      <c r="F43">
+        <v>47</v>
+      </c>
+      <c r="G43">
+        <v>7.13</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I43">
         <v>47</v>
       </c>
@@ -3398,7 +3556,7 @@
         <v>5.31</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="L43">
@@ -3408,7 +3566,7 @@
         <v>21.42</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="O43">
@@ -3418,7 +3576,7 @@
         <v>13.01</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="R43">
@@ -3428,7 +3586,7 @@
         <v>162.75</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="U43">
@@ -3438,7 +3596,7 @@
         <v>551.9</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3458,6 +3616,16 @@
       <c r="E44">
         <v>0.88</v>
       </c>
+      <c r="F44">
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>3070.27</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I44">
         <v>63</v>
       </c>
@@ -3465,7 +3633,7 @@
         <v>31.04</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L44">
@@ -3475,7 +3643,7 @@
         <v>348.49</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O44">
@@ -3485,7 +3653,7 @@
         <v>3516.79</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R44">
@@ -3495,7 +3663,7 @@
         <v>3060.12</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U44">
@@ -3505,7 +3673,7 @@
         <v>1302.26</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3525,6 +3693,16 @@
       <c r="E45">
         <v>1.77</v>
       </c>
+      <c r="F45">
+        <v>85</v>
+      </c>
+      <c r="G45">
+        <v>541.58000000000004</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I45">
         <v>84</v>
       </c>
@@ -3532,7 +3710,7 @@
         <v>1204.01</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L45">
@@ -3542,7 +3720,7 @@
         <v>160.27000000000001</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O45">
@@ -3552,7 +3730,7 @@
         <v>2140.17</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R45">
@@ -3562,7 +3740,7 @@
         <v>2247.27</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U45">
@@ -3572,12 +3750,12 @@
         <v>2549.39</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B46">
@@ -3592,6 +3770,16 @@
       <c r="E46">
         <v>0.45</v>
       </c>
+      <c r="F46">
+        <v>49</v>
+      </c>
+      <c r="G46">
+        <v>1797.56</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I46">
         <v>51</v>
       </c>
@@ -3599,7 +3787,7 @@
         <v>30.79</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L46">
@@ -3609,7 +3797,7 @@
         <v>2167.62</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O46">
@@ -3619,7 +3807,7 @@
         <v>3148.79</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R46">
@@ -3629,7 +3817,7 @@
         <v>2009.49</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U46">
@@ -3639,7 +3827,7 @@
         <v>162.55000000000001</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3659,6 +3847,16 @@
       <c r="E47">
         <v>2.54</v>
       </c>
+      <c r="F47">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>220.51</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I47">
         <v>73</v>
       </c>
@@ -3666,7 +3864,7 @@
         <v>274.13</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="L47">
@@ -3676,7 +3874,7 @@
         <v>3294.1</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="O47">
@@ -3686,7 +3884,7 @@
         <v>248.24</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="R47">
@@ -3696,7 +3894,7 @@
         <v>3003.53</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U47">
@@ -3706,12 +3904,12 @@
         <v>468.54</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B48">
@@ -3726,6 +3924,16 @@
       <c r="E48">
         <v>1.35</v>
       </c>
+      <c r="F48">
+        <v>68</v>
+      </c>
+      <c r="G48">
+        <v>18.3</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="9"/>
+        <v>opt</v>
+      </c>
       <c r="I48">
         <v>68</v>
       </c>
@@ -3733,7 +3941,7 @@
         <v>33.49</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="L48">
@@ -3743,7 +3951,7 @@
         <v>21.14</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O48">
@@ -3753,7 +3961,7 @@
         <v>32.380000000000003</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="R48">
@@ -3763,7 +3971,7 @@
         <v>501.68</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="U48">
@@ -3773,7 +3981,7 @@
         <v>1847.68</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
     </row>
@@ -3786,26 +3994,35 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="14">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="15">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="15">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="16">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:P49" si="16">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:P49" si="17">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="17"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="17"/>
+        <v>1222.4570000000001</v>
+      </c>
+      <c r="H49" s="1">
+        <f>COUNTIF(H29:H48, "opt")</f>
+        <v>11</v>
+      </c>
       <c r="I49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>71.95</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>928.15500000000009</v>
       </c>
       <c r="K49" s="1">
@@ -3813,11 +4030,11 @@
         <v>4</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>72.849999999999994</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1487.6964999999998</v>
       </c>
       <c r="N49" s="1">
@@ -3825,11 +4042,11 @@
         <v>2</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>72.3</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1466.5520000000001</v>
       </c>
       <c r="Q49" s="1">
@@ -3837,11 +4054,11 @@
         <v>3</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49" si="17">AVERAGE(R29:R48)</f>
+        <f t="shared" ref="R49" si="18">AVERAGE(R29:R48)</f>
         <v>77.599999999999994</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" ref="S49" si="18">AVERAGE(S29:S48)</f>
+        <f t="shared" ref="S49" si="19">AVERAGE(S29:S48)</f>
         <v>2184.5685000000003</v>
       </c>
       <c r="T49" s="1">
@@ -3849,11 +4066,11 @@
         <v>1</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" ref="U49" si="19">AVERAGE(U29:U48)</f>
+        <f t="shared" ref="U49" si="20">AVERAGE(U29:U48)</f>
         <v>77.5</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" ref="V49" si="20">AVERAGE(V29:V48)</f>
+        <f t="shared" ref="V49" si="21">AVERAGE(V29:V48)</f>
         <v>1928.9090000000001</v>
       </c>
       <c r="W49" s="1">
@@ -3899,9 +4116,11 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3942,9 +4161,15 @@
       <c r="E53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3986,7 +4211,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54">
@@ -4001,6 +4226,16 @@
       <c r="E54">
         <v>3608.26</v>
       </c>
+      <c r="F54">
+        <v>139</v>
+      </c>
+      <c r="G54">
+        <v>1127.6600000000001</v>
+      </c>
+      <c r="H54" t="str">
+        <f>IF($B54=F54, "opt", "")</f>
+        <v>opt</v>
+      </c>
       <c r="L54">
         <v>144</v>
       </c>
@@ -4058,6 +4293,16 @@
       <c r="E55">
         <v>1985.8</v>
       </c>
+      <c r="F55">
+        <v>149</v>
+      </c>
+      <c r="G55">
+        <v>1195.83</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:H73" si="22">IF($B55=F55, "opt", "")</f>
+        <v/>
+      </c>
       <c r="L55">
         <v>154</v>
       </c>
@@ -4065,7 +4310,7 @@
         <v>2386.46</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" ref="N55:N73" si="21">IF($B55=L55, "opt", "")</f>
+        <f t="shared" ref="N55:N73" si="23">IF($B55=L55, "opt", "")</f>
         <v/>
       </c>
       <c r="O55">
@@ -4075,7 +4320,7 @@
         <v>2672.73</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" ref="Q55:Q73" si="22">IF($B55=O55, "opt", "")</f>
+        <f t="shared" ref="Q55:Q73" si="24">IF($B55=O55, "opt", "")</f>
         <v/>
       </c>
       <c r="R55">
@@ -4085,7 +4330,7 @@
         <v>3637.73</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" ref="T55:T73" si="23">IF($B55=R55, "opt", "")</f>
+        <f t="shared" ref="T55:T73" si="25">IF($B55=R55, "opt", "")</f>
         <v/>
       </c>
       <c r="U55">
@@ -4095,7 +4340,7 @@
         <v>2837.51</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" ref="W55:W73" si="24">IF($B55=U55, "opt", "")</f>
+        <f t="shared" ref="W55:W73" si="26">IF($B55=U55, "opt", "")</f>
         <v/>
       </c>
     </row>
@@ -4115,6 +4360,16 @@
       <c r="E56">
         <v>179.16</v>
       </c>
+      <c r="F56">
+        <v>78</v>
+      </c>
+      <c r="G56">
+        <v>183.53</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L56">
         <v>83</v>
       </c>
@@ -4122,7 +4377,7 @@
         <v>309.95999999999998</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O56">
@@ -4132,7 +4387,7 @@
         <v>1015.5</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R56">
@@ -4142,7 +4397,7 @@
         <v>714.64</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U56">
@@ -4152,7 +4407,7 @@
         <v>3470.98</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4172,6 +4427,16 @@
       <c r="E57">
         <v>3631.76</v>
       </c>
+      <c r="F57">
+        <v>148</v>
+      </c>
+      <c r="G57">
+        <v>2908.23</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L57">
         <v>154</v>
       </c>
@@ -4179,7 +4444,7 @@
         <v>2378.6999999999998</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O57">
@@ -4189,7 +4454,7 @@
         <v>1923.96</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R57">
@@ -4199,7 +4464,7 @@
         <v>3447.42</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U57">
@@ -4209,7 +4474,7 @@
         <v>1616.56</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4229,6 +4494,16 @@
       <c r="E58">
         <v>911.98</v>
       </c>
+      <c r="F58">
+        <v>159</v>
+      </c>
+      <c r="G58">
+        <v>624.89</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L58">
         <v>165</v>
       </c>
@@ -4236,7 +4511,7 @@
         <v>648.26</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O58">
@@ -4246,7 +4521,7 @@
         <v>2621.15</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R58">
@@ -4256,7 +4531,7 @@
         <v>1174.47</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U58">
@@ -4266,7 +4541,7 @@
         <v>2670.1</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4286,6 +4561,16 @@
       <c r="E59">
         <v>3604.64</v>
       </c>
+      <c r="F59">
+        <v>149</v>
+      </c>
+      <c r="G59">
+        <v>1622.87</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L59">
         <v>154</v>
       </c>
@@ -4293,7 +4578,7 @@
         <v>1211.22</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O59">
@@ -4303,7 +4588,7 @@
         <v>1347.62</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R59">
@@ -4313,7 +4598,7 @@
         <v>1435.66</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U59">
@@ -4323,7 +4608,7 @@
         <v>3351.26</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4343,6 +4628,16 @@
       <c r="E60">
         <v>3655.54</v>
       </c>
+      <c r="F60">
+        <v>157</v>
+      </c>
+      <c r="G60">
+        <v>1349.34</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L60">
         <v>162</v>
       </c>
@@ -4350,7 +4645,7 @@
         <v>1868.42</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O60">
@@ -4360,7 +4655,7 @@
         <v>1825.03</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R60">
@@ -4370,7 +4665,7 @@
         <v>1391.51</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U60">
@@ -4380,7 +4675,7 @@
         <v>2752.16</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4400,6 +4695,16 @@
       <c r="E61">
         <v>3648.06</v>
       </c>
+      <c r="F61">
+        <v>176</v>
+      </c>
+      <c r="G61">
+        <v>1061.81</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L61">
         <v>177</v>
       </c>
@@ -4407,7 +4712,7 @@
         <v>3139.32</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O61">
@@ -4417,7 +4722,7 @@
         <v>2940.9</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R61">
@@ -4427,7 +4732,7 @@
         <v>1329.91</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U61">
@@ -4437,7 +4742,7 @@
         <v>1546.74</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4457,6 +4762,16 @@
       <c r="E62">
         <v>329.38</v>
       </c>
+      <c r="F62">
+        <v>153</v>
+      </c>
+      <c r="G62">
+        <v>1347.81</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L62">
         <v>156</v>
       </c>
@@ -4464,7 +4779,7 @@
         <v>1556.14</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O62">
@@ -4474,7 +4789,7 @@
         <v>1724.02</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R62">
@@ -4484,7 +4799,7 @@
         <v>3240.09</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U62">
@@ -4494,7 +4809,7 @@
         <v>3490.77</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4514,6 +4829,16 @@
       <c r="E63">
         <v>3602.38</v>
       </c>
+      <c r="F63">
+        <v>149</v>
+      </c>
+      <c r="G63">
+        <v>1544.1</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L63">
         <v>153</v>
       </c>
@@ -4521,7 +4846,7 @@
         <v>3116.66</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O63">
@@ -4531,7 +4856,7 @@
         <v>1856.66</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R63">
@@ -4541,7 +4866,7 @@
         <v>3571.87</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U63">
@@ -4551,7 +4876,7 @@
         <v>2597.0500000000002</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4571,6 +4896,16 @@
       <c r="E64">
         <v>338.36</v>
       </c>
+      <c r="F64">
+        <v>113</v>
+      </c>
+      <c r="G64">
+        <v>2530.9</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L64">
         <v>117</v>
       </c>
@@ -4578,7 +4913,7 @@
         <v>1565.52</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O64">
@@ -4588,7 +4923,7 @@
         <v>2136.59</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R64">
@@ -4598,7 +4933,7 @@
         <v>2636.94</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U64">
@@ -4608,7 +4943,7 @@
         <v>3155.58</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4628,6 +4963,16 @@
       <c r="E65">
         <v>3620.36</v>
       </c>
+      <c r="F65">
+        <v>156</v>
+      </c>
+      <c r="G65">
+        <v>1474.89</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L65">
         <v>162</v>
       </c>
@@ -4635,7 +4980,7 @@
         <v>882.17</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O65">
@@ -4645,7 +4990,7 @@
         <v>956.97</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R65">
@@ -4655,7 +5000,7 @@
         <v>5236.25</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U65">
@@ -4665,7 +5010,7 @@
         <v>3430.55</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4685,6 +5030,16 @@
       <c r="E66">
         <v>913.1</v>
       </c>
+      <c r="F66">
+        <v>152</v>
+      </c>
+      <c r="G66">
+        <v>1319.81</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L66">
         <v>156</v>
       </c>
@@ -4692,7 +5047,7 @@
         <v>3508.34</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O66">
@@ -4702,7 +5057,7 @@
         <v>2765.03</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R66">
@@ -4712,7 +5067,7 @@
         <v>1399.34</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U66">
@@ -4722,7 +5077,7 @@
         <v>2690.94</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4742,6 +5097,16 @@
       <c r="E67">
         <v>236.64</v>
       </c>
+      <c r="F67">
+        <v>166</v>
+      </c>
+      <c r="G67">
+        <v>1197.1400000000001</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L67">
         <v>172</v>
       </c>
@@ -4749,7 +5114,7 @@
         <v>1535.47</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O67">
@@ -4759,7 +5124,7 @@
         <v>3493.09</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R67">
@@ -4769,7 +5134,7 @@
         <v>3558.47</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U67">
@@ -4779,12 +5144,12 @@
         <v>1410.68</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B68">
@@ -4799,6 +5164,16 @@
       <c r="E68">
         <v>17.079999999999998</v>
       </c>
+      <c r="F68">
+        <v>89</v>
+      </c>
+      <c r="G68">
+        <v>271.16000000000003</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="22"/>
+        <v>opt</v>
+      </c>
       <c r="L68">
         <v>89</v>
       </c>
@@ -4806,7 +5181,7 @@
         <v>1872.38</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>opt</v>
       </c>
       <c r="O68">
@@ -4816,7 +5191,7 @@
         <v>20.65</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R68">
@@ -4826,7 +5201,7 @@
         <v>2570.6</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U68">
@@ -4836,7 +5211,7 @@
         <v>894.18</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4856,6 +5231,16 @@
       <c r="E69">
         <v>227.07</v>
       </c>
+      <c r="F69">
+        <v>116</v>
+      </c>
+      <c r="G69">
+        <v>1001.59</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L69">
         <v>121</v>
       </c>
@@ -4863,7 +5248,7 @@
         <v>1535.21</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O69">
@@ -4873,7 +5258,7 @@
         <v>3062.52</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R69">
@@ -4883,7 +5268,7 @@
         <v>2018.32</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U69">
@@ -4893,7 +5278,7 @@
         <v>3492.04</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4913,6 +5298,16 @@
       <c r="E70">
         <v>3650.96</v>
       </c>
+      <c r="F70">
+        <v>161</v>
+      </c>
+      <c r="G70">
+        <v>899.57</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L70">
         <v>166</v>
       </c>
@@ -4920,7 +5315,7 @@
         <v>3144.44</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O70">
@@ -4930,7 +5325,7 @@
         <v>1031.4100000000001</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R70">
@@ -4940,7 +5335,7 @@
         <v>2915.07</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U70">
@@ -4950,7 +5345,7 @@
         <v>2578.83</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -4970,6 +5365,16 @@
       <c r="E71">
         <v>53.23</v>
       </c>
+      <c r="F71">
+        <v>98</v>
+      </c>
+      <c r="G71">
+        <v>502.15</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L71">
         <v>99</v>
       </c>
@@ -4977,7 +5382,7 @@
         <v>1565.23</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O71">
@@ -4987,7 +5392,7 @@
         <v>351.49</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R71">
@@ -4997,7 +5402,7 @@
         <v>891.9</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U71">
@@ -5007,7 +5412,7 @@
         <v>1374.47</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -5027,6 +5432,16 @@
       <c r="E72">
         <v>3637.62</v>
       </c>
+      <c r="F72">
+        <v>141</v>
+      </c>
+      <c r="G72">
+        <v>2469.15</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L72">
         <v>144</v>
       </c>
@@ -5034,7 +5449,7 @@
         <v>927.05</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O72">
@@ -5044,7 +5459,7 @@
         <v>903.06</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R72">
@@ -5054,7 +5469,7 @@
         <v>1895.86</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U72">
@@ -5064,7 +5479,7 @@
         <v>3455.11</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -5084,6 +5499,16 @@
       <c r="E73">
         <v>31.71</v>
       </c>
+      <c r="F73">
+        <v>131</v>
+      </c>
+      <c r="G73">
+        <v>442.44</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="L73">
         <v>132</v>
       </c>
@@ -5091,7 +5516,7 @@
         <v>2536.19</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O73">
@@ -5101,7 +5526,7 @@
         <v>2013.01</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R73">
@@ -5111,7 +5536,7 @@
         <v>1693.27</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U73">
@@ -5121,7 +5546,7 @@
         <v>1350.2</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -5134,29 +5559,38 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="25">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="27">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="26">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="28">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:P74" si="27">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:P74" si="29">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="F74" s="1">
+        <f t="shared" si="29"/>
+        <v>139</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="29"/>
+        <v>1253.7435</v>
+      </c>
+      <c r="H74" s="1">
+        <f>COUNTIF(H54:H73, "opt")</f>
+        <v>2</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>143</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1797.086</v>
       </c>
       <c r="N74" s="1">
@@ -5164,11 +5598,11 @@
         <v>1</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>142.15</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1765.9225000000001</v>
       </c>
       <c r="Q74" s="1">
@@ -5176,11 +5610,11 @@
         <v>0</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74" si="28">AVERAGE(R54:R73)</f>
+        <f t="shared" ref="R74" si="30">AVERAGE(R54:R73)</f>
         <v>154.85</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74" si="29">AVERAGE(S54:S73)</f>
+        <f t="shared" ref="S74" si="31">AVERAGE(S54:S73)</f>
         <v>2269.5409999999997</v>
       </c>
       <c r="T74" s="1">
@@ -5188,11 +5622,11 @@
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74" si="30">AVERAGE(U54:U73)</f>
+        <f t="shared" ref="U74" si="32">AVERAGE(U54:U73)</f>
         <v>150.6</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74" si="31">AVERAGE(V54:V73)</f>
+        <f t="shared" ref="V74" si="33">AVERAGE(V54:V73)</f>
         <v>2551.4195000000004</v>
       </c>
       <c r="W74" s="1">
@@ -5201,10 +5635,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y1:AA20">
-    <sortCondition ref="Y1:Y20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y1:AA74">
+    <sortCondition ref="Y1:Y74"/>
   </sortState>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5226,6 +5660,8 @@
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L52:N52"/>
     <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8329C47-A419-462B-8E95-B5B6934F41DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F5AA3-9679-42CC-BB2B-C3BCA3F31F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="39">
   <si>
     <t>bath.txt</t>
   </si>
@@ -151,6 +151,9 @@
   <si>
     <t>VNS d(1…) 19.1.15:07 new fit</t>
   </si>
+  <si>
+    <t>VNS d(1…) 19.1. 21:15:59 fixed nodes</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,7 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,25 +519,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AA1048576"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>21</v>
@@ -561,8 +565,20 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>139</v>
+      </c>
+      <c r="AD1">
+        <v>2079.62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -571,37 +587,51 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>149</v>
+      </c>
+      <c r="AD2">
+        <v>699.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -671,8 +701,26 @@
       <c r="W3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>78</v>
+      </c>
+      <c r="AD3">
+        <v>1350.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +740,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>33.450000000000003</v>
+        <v>222.86</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -702,7 +750,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>862.72</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
@@ -712,7 +760,7 @@
         <v>38</v>
       </c>
       <c r="M4">
-        <v>865.69</v>
+        <v>862.72</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
@@ -722,7 +770,7 @@
         <v>38</v>
       </c>
       <c r="P4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="Q4" t="str">
         <f>IF($B4=O4, "opt", "")</f>
@@ -732,25 +780,44 @@
         <v>38</v>
       </c>
       <c r="S4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="T4" t="str">
         <f>IF($B4=R4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="U4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="W4" t="str">
         <f>IF($B4=U4, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="X4">
+        <v>39</v>
+      </c>
+      <c r="Y4">
+        <v>239.56</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>IF($B4=X4, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>147</v>
+      </c>
+      <c r="AD4">
+        <v>2517.2800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -769,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>80.34</v>
+        <v>121.21</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
@@ -779,7 +846,7 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>70.239999999999995</v>
+        <v>80.34</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
@@ -789,44 +856,63 @@
         <v>39</v>
       </c>
       <c r="M5">
-        <v>443.57</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="O5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T23" si="4">IF($B5=R5, "opt", "")</f>
         <v/>
       </c>
       <c r="U5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W23" si="5">IF($B5=U5, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>44</v>
+      </c>
+      <c r="Y5">
+        <v>2857.14</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" ref="Z5:Z23" si="6">IF($B5=X5, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AB5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>158</v>
+      </c>
+      <c r="AD5">
+        <v>2815.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +932,7 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>322.75</v>
+        <v>165.37</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -856,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>1136.19</v>
+        <v>322.75</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -866,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <v>31.04</v>
+        <v>1136.19</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -876,35 +962,54 @@
         <v>21</v>
       </c>
       <c r="P6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="X6">
+        <v>23</v>
+      </c>
+      <c r="Y6">
+        <v>425.46</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>150</v>
+      </c>
+      <c r="AD6">
+        <v>920.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -923,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="G7">
-        <v>298.95999999999998</v>
+        <v>586.29</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -933,7 +1038,7 @@
         <v>37</v>
       </c>
       <c r="J7">
-        <v>129.96</v>
+        <v>298.95999999999998</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -943,44 +1048,63 @@
         <v>37</v>
       </c>
       <c r="M7">
-        <v>377.94</v>
+        <v>129.96</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>41</v>
+      </c>
+      <c r="Y7">
+        <v>1488.4</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>159</v>
+      </c>
+      <c r="AD7">
+        <v>663.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1124,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>118.89</v>
+        <v>78.45</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1010,7 +1134,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>22.14</v>
+        <v>118.89</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1020,7 +1144,7 @@
         <v>39</v>
       </c>
       <c r="M8">
-        <v>1589.66</v>
+        <v>22.14</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -1030,7 +1154,7 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
@@ -1040,25 +1164,44 @@
         <v>39</v>
       </c>
       <c r="S8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="X8">
+        <v>40</v>
+      </c>
+      <c r="Y8">
+        <v>2772.73</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>176</v>
+      </c>
+      <c r="AD8">
+        <v>2346.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -1077,7 +1220,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>424.66</v>
+        <v>695.13</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1087,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>234.78</v>
+        <v>424.66</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -1097,7 +1240,7 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <v>802.97</v>
+        <v>234.78</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -1107,7 +1250,7 @@
         <v>38</v>
       </c>
       <c r="P9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
@@ -1117,24 +1260,43 @@
         <v>38</v>
       </c>
       <c r="S9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="X9">
+        <v>39</v>
+      </c>
+      <c r="Y9">
+        <v>1158.5</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>154</v>
+      </c>
+      <c r="AD9">
+        <v>1784.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>33.64</v>
+        <v>36.04</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1164,7 +1326,7 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>212.38</v>
+        <v>33.64</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -1174,7 +1336,7 @@
         <v>38</v>
       </c>
       <c r="M10">
-        <v>221.94</v>
+        <v>212.38</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -1184,35 +1346,54 @@
         <v>38</v>
       </c>
       <c r="P10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="X10">
+        <v>44</v>
+      </c>
+      <c r="Y10">
+        <v>292.3</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10">
+        <v>151</v>
+      </c>
+      <c r="AD10">
+        <v>2212.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1231,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>674.96</v>
+        <v>710.07</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1241,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="J11">
-        <v>217.78</v>
+        <v>674.96</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -1251,7 +1432,7 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>348.19</v>
+        <v>217.78</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -1261,34 +1442,53 @@
         <v>50</v>
       </c>
       <c r="P11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <v>51</v>
+      </c>
+      <c r="Y11">
+        <v>614.62</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>112</v>
+      </c>
+      <c r="AD11">
+        <v>1582.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>130.81</v>
+        <v>286.18</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1318,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>2208.9299999999998</v>
+        <v>130.81</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -1328,45 +1528,64 @@
         <v>40</v>
       </c>
       <c r="M12">
-        <v>849.36</v>
+        <v>2208.9299999999998</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R12">
         <v>42</v>
       </c>
       <c r="S12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="X12">
+        <v>44</v>
+      </c>
+      <c r="Y12">
+        <v>3123.37</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC12">
+        <v>155</v>
+      </c>
+      <c r="AD12">
+        <v>1804.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1385,27 +1604,27 @@
         <v>38</v>
       </c>
       <c r="G13">
-        <v>182.32</v>
+        <v>47.41</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
-        <v>88.42</v>
+        <v>182.32</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L13">
         <v>39</v>
       </c>
       <c r="M13">
-        <v>646.91999999999996</v>
+        <v>88.42</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
@@ -1415,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="P13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
@@ -1425,24 +1644,43 @@
         <v>39</v>
       </c>
       <c r="S13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="Y13">
+        <v>1896.54</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>152</v>
+      </c>
+      <c r="AD13">
+        <v>2573.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,27 +1700,27 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>361.16</v>
+        <v>548.39</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14">
-        <v>38.58</v>
+        <v>361.16</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L14">
         <v>29</v>
       </c>
       <c r="M14">
-        <v>190.4</v>
+        <v>38.58</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
@@ -1492,35 +1730,54 @@
         <v>29</v>
       </c>
       <c r="P14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="X14">
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>3563.82</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14">
+        <v>167</v>
+      </c>
+      <c r="AD14">
+        <v>2644.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1539,64 +1796,83 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>3011.36</v>
+        <v>844.41</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>opt</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15">
-        <v>492.18</v>
+        <v>3011.36</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>2763.95</v>
+        <v>492.18</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="S15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="V15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>45</v>
+      </c>
+      <c r="Y15">
+        <v>2013.71</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15">
+        <v>89</v>
+      </c>
+      <c r="AD15">
+        <v>395.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1892,7 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>68.17</v>
+        <v>83.85</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -1626,55 +1902,74 @@
         <v>44</v>
       </c>
       <c r="J16">
-        <v>348.25</v>
+        <v>68.17</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>61.75</v>
+        <v>348.25</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="R16">
         <v>44</v>
       </c>
       <c r="S16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="X16">
+        <v>47</v>
+      </c>
+      <c r="Y16">
+        <v>792.09</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC16">
+        <v>116</v>
+      </c>
+      <c r="AD16">
+        <v>1425.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1693,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>110.78</v>
+        <v>145.57</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1703,7 +1998,7 @@
         <v>44</v>
       </c>
       <c r="J17">
-        <v>365.26</v>
+        <v>110.78</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -1713,7 +2008,7 @@
         <v>44</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>365.26</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
@@ -1723,34 +2018,53 @@
         <v>44</v>
       </c>
       <c r="P17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>46</v>
+      </c>
+      <c r="Y17">
+        <v>3016.44</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17">
+        <v>161</v>
+      </c>
+      <c r="AD17">
+        <v>2542.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1770,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>16.73</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -1780,55 +2094,74 @@
         <v>24</v>
       </c>
       <c r="J18">
-        <v>762.06</v>
+        <v>16.73</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>0.54</v>
+        <v>762.06</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O18">
         <v>25</v>
       </c>
       <c r="P18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="4"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="U18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="X18">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC18">
+        <v>97</v>
+      </c>
+      <c r="AD18">
+        <v>2929.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1847,7 +2180,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>84.4</v>
+        <v>273.27999999999997</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1857,7 +2190,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>357.74</v>
+        <v>84.4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -1867,7 +2200,7 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <v>181.26</v>
+        <v>357.74</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -1877,7 +2210,7 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
@@ -1887,24 +2220,43 @@
         <v>31</v>
       </c>
       <c r="S19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="X19">
+        <v>36</v>
+      </c>
+      <c r="Y19">
+        <v>180.01</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19">
+        <v>141</v>
+      </c>
+      <c r="AD19">
+        <v>1246.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>178.95</v>
+        <v>104.04</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1934,7 +2286,7 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>1135.8499999999999</v>
+        <v>178.95</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -1944,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="M20">
-        <v>1333.45</v>
+        <v>1135.8499999999999</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
@@ -1954,35 +2306,54 @@
         <v>42</v>
       </c>
       <c r="P20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="X20">
+        <v>46</v>
+      </c>
+      <c r="Y20">
+        <v>2892.3</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC20">
+        <v>130</v>
+      </c>
+      <c r="AD20">
+        <v>1434.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -2001,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>21.18</v>
+        <v>12.33</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2011,7 +2382,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>7.17</v>
+        <v>21.18</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2021,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>34.53</v>
+        <v>7.17</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -2031,7 +2402,7 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
@@ -2041,7 +2412,7 @@
         <v>25</v>
       </c>
       <c r="S21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="4"/>
@@ -2051,14 +2422,24 @@
         <v>25</v>
       </c>
       <c r="V21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>472.69</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="6"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2078,7 +2459,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>115.93</v>
+        <v>266.16000000000003</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2088,7 +2469,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>41.48</v>
+        <v>115.93</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2098,7 +2479,7 @@
         <v>36</v>
       </c>
       <c r="M22">
-        <v>558.71</v>
+        <v>41.48</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -2108,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="P22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
@@ -2118,25 +2499,35 @@
         <v>36</v>
       </c>
       <c r="S22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="X22">
+        <v>37</v>
+      </c>
+      <c r="Y22">
+        <v>1303.21</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -2155,7 +2546,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>65.459999999999994</v>
+        <v>15.4</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2165,7 +2556,7 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>1739.24</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2175,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>284.64</v>
+        <v>1739.24</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -2185,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="P23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
@@ -2195,24 +2586,34 @@
         <v>32</v>
       </c>
       <c r="S23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>opt</v>
+      </c>
+      <c r="X23">
+        <v>33</v>
+      </c>
+      <c r="Y23">
+        <v>403.23</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2221,94 +2622,106 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:S24" si="6">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:V24" si="7">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="6"/>
-        <v>316.745</v>
+        <f t="shared" si="7"/>
+        <v>263.01249999999993</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
         <v>20</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>36.299999999999997</v>
+        <f t="shared" si="7"/>
+        <v>36.1</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
-        <v>523.5675</v>
+        <f t="shared" si="7"/>
+        <v>316.745</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="6"/>
-        <v>36.35</v>
+        <f t="shared" si="7"/>
+        <v>36.299999999999997</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="6"/>
-        <v>585.07549999999992</v>
+        <f t="shared" si="7"/>
+        <v>523.5675</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O24" s="1">
-        <f>AVERAGE(O4:O23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="7"/>
+        <v>36.35</v>
       </c>
       <c r="P24" s="1">
-        <f>AVERAGE(P4:P23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="7"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="Q24" s="1">
         <f>COUNTIF(Q4:Q23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="6"/>
-        <v>37.9</v>
+        <f>AVERAGE(R4:R23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="6"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(S4:S23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="T24" s="1">
         <f>COUNTIF(T4:T23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24" si="7">AVERAGE(U4:U23)</f>
-        <v>38.9</v>
+        <f t="shared" si="7"/>
+        <v>37.9</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ref="V24" si="8">AVERAGE(V4:V23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="7"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="W24" s="1">
         <f>COUNTIF(W4:W23, "opt")</f>
+        <v>9</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24" si="8">AVERAGE(X4:X23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" ref="Y24" si="9">AVERAGE(Y4:Y23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>COUNTIF(Z4:Z23, "opt")</f>
         <v>1</v>
       </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -2334,8 +2747,11 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -2344,37 +2760,42 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2444,8 +2865,17 @@
       <c r="W28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,27 +2895,27 @@
         <v>71</v>
       </c>
       <c r="G29">
-        <v>428.91</v>
+        <v>3572.81</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="I29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29">
-        <v>1136.3399999999999</v>
+        <v>428.91</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29">
-        <v>432.6</v>
+        <v>1136.3399999999999</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
@@ -2495,34 +2925,44 @@
         <v>73</v>
       </c>
       <c r="P29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="Q29" t="str">
         <f>IF($B29=O29, "opt", "")</f>
         <v/>
       </c>
       <c r="R29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="T29" t="str">
         <f>IF($B29=R29, "opt", "")</f>
         <v/>
       </c>
       <c r="U29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="W29" t="str">
         <f>IF($B29=U29, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>76</v>
+      </c>
+      <c r="Y29">
+        <v>2043.43</v>
+      </c>
+      <c r="Z29" t="str">
+        <f>IF($B29=X29, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2539,67 +2979,77 @@
         <v>5.98</v>
       </c>
       <c r="F30">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>446.66</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="10">IF($B30=F30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I30">
         <v>76</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>1378.74</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="9">IF($B30=F30, "opt", "")</f>
-        <v>opt</v>
-      </c>
-      <c r="I30">
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="11">IF($B30=I30, "opt", "")</f>
+        <v>opt</v>
+      </c>
+      <c r="L30">
         <v>79</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>2548.89</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="10">IF($B30=I30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L30">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="12">IF($B30=L30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O30">
         <v>81</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>103.21</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="11">IF($B30=L30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O30">
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q48" si="13">IF($B30=O30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R30">
         <v>77</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>2794.12</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q48" si="12">IF($B30=O30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R30">
+      <c r="T30" t="str">
+        <f t="shared" ref="T30:T48" si="14">IF($B30=R30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U30">
         <v>85</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>3605.84</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" ref="T30:T48" si="13">IF($B30=R30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U30">
+      <c r="W30" t="str">
+        <f t="shared" ref="W30:W48" si="15">IF($B30=U30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X30">
         <v>90</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>1133.24</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" ref="W30:W48" si="14">IF($B30=U30, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z30" t="str">
+        <f t="shared" ref="Z30:Z48" si="16">IF($B30=X30, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2619,64 +3069,74 @@
         <v>40</v>
       </c>
       <c r="G31">
+        <v>169.42</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
         <v>427.46</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I31">
+      <c r="K31" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="L31">
         <v>41</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>1719.25</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L31">
-        <v>42</v>
-      </c>
-      <c r="M31">
-        <v>2097.8200000000002</v>
-      </c>
       <c r="N31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O31">
         <v>42</v>
       </c>
       <c r="P31">
+        <v>2097.8200000000002</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R31">
+        <v>42</v>
+      </c>
+      <c r="S31">
         <v>1185.19</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R31">
+      <c r="T31" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U31">
         <v>44</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>3392.22</v>
       </c>
-      <c r="T31" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U31">
+      <c r="W31" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X31">
         <v>43</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
         <v>3591.99</v>
       </c>
-      <c r="W31" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z31" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2693,67 +3153,77 @@
         <v>1.76</v>
       </c>
       <c r="F32">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32">
-        <v>589.64</v>
+        <v>3346.15</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I32">
         <v>74</v>
       </c>
       <c r="J32">
+        <v>589.64</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L32">
+        <v>74</v>
+      </c>
+      <c r="M32">
         <v>181.98</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L32">
+      <c r="N32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O32">
         <v>77</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>570.38</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O32">
+      <c r="Q32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R32">
         <v>75</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>766.05</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R32">
+      <c r="T32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U32">
         <v>82</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1957.88</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U32">
+      <c r="W32" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X32">
         <v>81</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
         <v>2691.03</v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z32" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2773,64 +3243,74 @@
         <v>78</v>
       </c>
       <c r="G33">
+        <v>3295.55</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="I33">
+        <v>78</v>
+      </c>
+      <c r="J33">
         <v>2040.22</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I33">
-        <v>80</v>
-      </c>
-      <c r="J33">
-        <v>36.42</v>
-      </c>
       <c r="K33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>opt</v>
       </c>
       <c r="L33">
         <v>80</v>
       </c>
       <c r="M33">
-        <v>635.37</v>
+        <v>36.42</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O33">
         <v>80</v>
       </c>
       <c r="P33">
+        <v>635.37</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R33">
+        <v>80</v>
+      </c>
+      <c r="S33">
         <v>1190.47</v>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R33">
+      <c r="T33" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U33">
         <v>83</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1721.95</v>
       </c>
-      <c r="T33" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U33">
+      <c r="W33" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X33">
         <v>86</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>2099.84</v>
       </c>
-      <c r="W33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z33" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2850,64 +3330,74 @@
         <v>73</v>
       </c>
       <c r="G34">
-        <v>1008.36</v>
+        <v>538.98</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I34">
         <v>73</v>
       </c>
       <c r="J34">
+        <v>1008.36</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L34">
+        <v>73</v>
+      </c>
+      <c r="M34">
         <v>568.61</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L34">
-        <v>74</v>
-      </c>
-      <c r="M34">
-        <v>3556.53</v>
-      </c>
       <c r="N34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O34">
         <v>74</v>
       </c>
       <c r="P34">
+        <v>3556.53</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R34">
+        <v>74</v>
+      </c>
+      <c r="S34">
         <v>778.34</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R34">
+      <c r="T34" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U34">
         <v>79</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>3138.24</v>
       </c>
-      <c r="T34" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U34">
+      <c r="W34" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X34">
         <v>77</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>2695.42</v>
       </c>
-      <c r="W34" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z34" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2924,67 +3414,77 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>148.04</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I35">
         <v>76</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>3453.05</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="L35">
         <v>79</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>110.55</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L35">
+      <c r="N35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O35">
         <v>78</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>2232.29</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O35">
+      <c r="Q35" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R35">
         <v>77</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>140.19</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R35">
+      <c r="T35" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U35">
         <v>83</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>960.67</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U35">
+      <c r="W35" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X35">
         <v>85</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>740.86</v>
       </c>
-      <c r="W35" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z35" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3004,64 +3504,74 @@
         <v>94</v>
       </c>
       <c r="G36">
+        <v>510.11</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I36">
+        <v>94</v>
+      </c>
+      <c r="J36">
         <v>600.54999999999995</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I36">
+      <c r="K36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L36">
         <v>93</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>991.51</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="10"/>
-        <v>opt</v>
-      </c>
-      <c r="L36">
+      <c r="N36" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="O36">
         <v>94</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>1003.92</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O36">
+      <c r="Q36" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R36">
         <v>95</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>2182.41</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R36">
-        <v>98</v>
-      </c>
-      <c r="S36">
-        <v>873.59</v>
-      </c>
       <c r="T36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="U36">
         <v>98</v>
       </c>
       <c r="V36">
+        <v>873.59</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X36">
+        <v>98</v>
+      </c>
+      <c r="Y36">
         <v>3416.12</v>
       </c>
-      <c r="W36" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z36" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3081,64 +3591,74 @@
         <v>79</v>
       </c>
       <c r="G37">
+        <v>2631.16</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I37">
+        <v>79</v>
+      </c>
+      <c r="J37">
         <v>2058.4499999999998</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I37">
+      <c r="K37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L37">
         <v>81</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>694.69</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L37">
+      <c r="N37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O37">
         <v>82</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>2913.24</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O37">
+      <c r="Q37" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R37">
         <v>81</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>1581.33</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R37">
+      <c r="T37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U37">
         <v>87</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>2964.31</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U37">
+      <c r="W37" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X37">
         <v>88</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="W37" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z37" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3158,64 +3678,74 @@
         <v>75</v>
       </c>
       <c r="G38">
+        <v>826.19</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="I38">
+        <v>75</v>
+      </c>
+      <c r="J38">
         <v>1014.11</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I38">
+      <c r="K38" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="L38">
         <v>76</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>893.4</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L38">
+      <c r="N38" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O38">
         <v>78</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>1792.42</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O38">
+      <c r="Q38" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R38">
         <v>76</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>1946.12</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R38">
+      <c r="T38" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U38">
         <v>84</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U38">
+      <c r="W38" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X38">
         <v>85</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
         <v>2839.94</v>
       </c>
-      <c r="W38" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z38" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3235,64 +3765,74 @@
         <v>57</v>
       </c>
       <c r="G39">
-        <v>212.52</v>
+        <v>464.02</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I39">
         <v>57</v>
       </c>
       <c r="J39">
+        <v>212.52</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L39">
+        <v>57</v>
+      </c>
+      <c r="M39">
         <v>1920.49</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L39">
+      <c r="N39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O39">
         <v>58</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>652.91999999999996</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O39">
+      <c r="Q39" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R39">
         <v>60</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>178.08</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R39">
+      <c r="T39" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U39">
         <v>64</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>2213.38</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U39">
+      <c r="W39" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X39">
         <v>63</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>1404.51</v>
       </c>
-      <c r="W39" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z39" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3309,67 +3849,77 @@
         <v>24.5</v>
       </c>
       <c r="F40">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40">
-        <v>467.45</v>
+        <v>1218.69</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40">
         <v>78</v>
       </c>
       <c r="J40">
+        <v>467.45</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L40">
+        <v>78</v>
+      </c>
+      <c r="M40">
         <v>3577.82</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L40">
-        <v>79</v>
-      </c>
-      <c r="M40">
-        <v>2688.82</v>
-      </c>
       <c r="N40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O40">
         <v>79</v>
       </c>
       <c r="P40">
+        <v>2688.82</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R40">
+        <v>79</v>
+      </c>
+      <c r="S40">
         <v>1845.81</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R40">
+      <c r="T40" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U40">
         <v>106</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>4030.49</v>
       </c>
-      <c r="T40" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U40">
+      <c r="W40" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X40">
         <v>88</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
         <v>2235.91</v>
       </c>
-      <c r="W40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z40" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3386,67 +3936,77 @@
         <v>1.25</v>
       </c>
       <c r="F41">
+        <v>84</v>
+      </c>
+      <c r="G41">
+        <v>737.61</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I41">
         <v>83</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>1723.67</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I41">
+      <c r="K41" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="L41">
         <v>84</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>1653.61</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L41">
+      <c r="N41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O41">
         <v>86</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>2125.84</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O41">
+      <c r="Q41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R41">
         <v>85</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>2982.1</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R41">
-        <v>88</v>
-      </c>
-      <c r="S41">
-        <v>758.9</v>
-      </c>
       <c r="T41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="U41">
         <v>88</v>
       </c>
       <c r="V41">
+        <v>758.9</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X41">
+        <v>88</v>
+      </c>
+      <c r="Y41">
         <v>3032.11</v>
       </c>
-      <c r="W41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3463,67 +4023,77 @@
         <v>1.23</v>
       </c>
       <c r="F42">
+        <v>84</v>
+      </c>
+      <c r="G42">
+        <v>2760.42</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I42">
         <v>85</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>3390.66</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I42">
-        <v>86</v>
-      </c>
-      <c r="J42">
-        <v>950.77</v>
-      </c>
       <c r="K42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L42">
         <v>86</v>
       </c>
       <c r="M42">
+        <v>950.77</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O42">
+        <v>86</v>
+      </c>
+      <c r="P42">
         <v>2935.53</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O42">
+      <c r="Q42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R42">
         <v>85</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>2435.9299999999998</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R42">
+      <c r="T42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U42">
         <v>92</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>2487.52</v>
       </c>
-      <c r="T42" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U42">
+      <c r="W42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X42">
         <v>93</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
         <v>1500.97</v>
       </c>
-      <c r="W42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z42" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -3543,64 +4113,74 @@
         <v>47</v>
       </c>
       <c r="G43">
-        <v>7.13</v>
+        <v>30.7</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>5.31</v>
+        <v>7.13</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="L43">
         <v>47</v>
       </c>
       <c r="M43">
-        <v>21.42</v>
+        <v>5.31</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="O43">
         <v>47</v>
       </c>
       <c r="P43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="R43">
         <v>47</v>
       </c>
       <c r="S43">
+        <v>13.01</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="U43">
+        <v>47</v>
+      </c>
+      <c r="V43">
         <v>162.75</v>
       </c>
-      <c r="T43" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="U43">
+      <c r="W43" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="X43">
         <v>48</v>
       </c>
-      <c r="V43">
+      <c r="Y43">
         <v>551.9</v>
       </c>
-      <c r="W43" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3617,67 +4197,77 @@
         <v>0.88</v>
       </c>
       <c r="F44">
+        <v>62</v>
+      </c>
+      <c r="G44">
+        <v>203.29</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I44">
         <v>61</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>3070.27</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I44">
-        <v>63</v>
-      </c>
-      <c r="J44">
-        <v>31.04</v>
-      </c>
       <c r="K44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L44">
         <v>63</v>
       </c>
       <c r="M44">
-        <v>348.49</v>
+        <v>31.04</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O44">
         <v>63</v>
       </c>
       <c r="P44">
+        <v>348.49</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R44">
+        <v>63</v>
+      </c>
+      <c r="S44">
         <v>3516.79</v>
       </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R44">
+      <c r="T44" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U44">
         <v>66</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>3060.12</v>
       </c>
-      <c r="T44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U44">
+      <c r="W44" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X44">
         <v>69</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
         <v>1302.26</v>
       </c>
-      <c r="W44" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z44" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3694,67 +4284,77 @@
         <v>1.77</v>
       </c>
       <c r="F45">
+        <v>84</v>
+      </c>
+      <c r="G45">
+        <v>2564.61</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I45">
         <v>85</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>541.58000000000004</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="K45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L45">
         <v>84</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>1204.01</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L45">
-        <v>86</v>
-      </c>
-      <c r="M45">
-        <v>160.27000000000001</v>
-      </c>
       <c r="N45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O45">
         <v>86</v>
       </c>
       <c r="P45">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R45">
+        <v>86</v>
+      </c>
+      <c r="S45">
         <v>2140.17</v>
       </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R45">
+      <c r="T45" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U45">
         <v>90</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>2247.27</v>
       </c>
-      <c r="T45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U45">
+      <c r="W45" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X45">
         <v>91</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
         <v>2549.39</v>
       </c>
-      <c r="W45" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z45" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -3774,64 +4374,74 @@
         <v>49</v>
       </c>
       <c r="G46">
+        <v>891.37</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="10"/>
+        <v>opt</v>
+      </c>
+      <c r="I46">
+        <v>49</v>
+      </c>
+      <c r="J46">
         <v>1797.56</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="9"/>
-        <v>opt</v>
-      </c>
-      <c r="I46">
-        <v>51</v>
-      </c>
-      <c r="J46">
-        <v>30.79</v>
-      </c>
       <c r="K46" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>opt</v>
       </c>
       <c r="L46">
         <v>51</v>
       </c>
       <c r="M46">
+        <v>30.79</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O46">
+        <v>51</v>
+      </c>
+      <c r="P46">
         <v>2167.62</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O46">
+      <c r="Q46" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R46">
         <v>50</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>3148.79</v>
       </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R46">
+      <c r="T46" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U46">
         <v>52</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>2009.49</v>
       </c>
-      <c r="T46" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U46">
+      <c r="W46" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X46">
         <v>53</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>162.55000000000001</v>
       </c>
-      <c r="W46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z46" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -3851,64 +4461,74 @@
         <v>73</v>
       </c>
       <c r="G47">
-        <v>220.51</v>
+        <v>1058.1300000000001</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="I47">
         <v>73</v>
       </c>
       <c r="J47">
-        <v>274.13</v>
+        <v>220.51</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="L47">
         <v>73</v>
       </c>
       <c r="M47">
-        <v>3294.1</v>
+        <v>274.13</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="O47">
         <v>73</v>
       </c>
       <c r="P47">
+        <v>3294.1</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="R47">
+        <v>73</v>
+      </c>
+      <c r="S47">
         <v>248.24</v>
       </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="12"/>
-        <v>opt</v>
-      </c>
-      <c r="R47">
+      <c r="T47" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="U47">
         <v>75</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>3003.53</v>
       </c>
-      <c r="T47" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U47">
+      <c r="W47" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X47">
         <v>80</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
         <v>468.54</v>
       </c>
-      <c r="W47" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z47" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -3928,64 +4548,74 @@
         <v>68</v>
       </c>
       <c r="G48">
-        <v>18.3</v>
+        <v>81.7</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>opt</v>
       </c>
       <c r="I48">
         <v>68</v>
       </c>
       <c r="J48">
+        <v>18.3</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="L48">
+        <v>68</v>
+      </c>
+      <c r="M48">
         <v>33.49</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="10"/>
-        <v>opt</v>
-      </c>
-      <c r="L48">
+      <c r="N48" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="O48">
         <v>69</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>21.14</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O48">
+      <c r="Q48" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R48">
         <v>68</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>32.380000000000003</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="12"/>
-        <v>opt</v>
-      </c>
-      <c r="R48">
+      <c r="T48" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="U48">
         <v>70</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>501.68</v>
       </c>
-      <c r="T48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U48">
+      <c r="W48" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X48">
         <v>68</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
         <v>1847.68</v>
       </c>
-      <c r="W48" t="str">
-        <f t="shared" si="14"/>
-        <v>opt</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z48" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -3994,94 +4624,106 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="15">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="17">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="16">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="18">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:P49" si="17">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:S49" si="19">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>71.099999999999994</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="17"/>
-        <v>1222.4570000000001</v>
+        <f t="shared" si="19"/>
+        <v>1274.7805000000003</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="17"/>
-        <v>71.95</v>
+        <f t="shared" si="19"/>
+        <v>71.099999999999994</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="17"/>
-        <v>928.15500000000009</v>
+        <f t="shared" si="19"/>
+        <v>1222.4570000000001</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="17"/>
-        <v>72.849999999999994</v>
+        <f t="shared" si="19"/>
+        <v>71.95</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="17"/>
-        <v>1487.6964999999998</v>
+        <f t="shared" si="19"/>
+        <v>928.15500000000009</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="17"/>
-        <v>72.3</v>
+        <f t="shared" si="19"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="17"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="19"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="Q49" s="1">
         <f>COUNTIF(Q29:Q48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49" si="18">AVERAGE(R29:R48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="19"/>
+        <v>72.3</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" ref="S49" si="19">AVERAGE(S29:S48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="19"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="T49" s="1">
         <f>COUNTIF(T29:T48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" ref="U49" si="20">AVERAGE(U29:U48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" ref="V49" si="21">AVERAGE(V29:V48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="W49" s="1">
         <f>COUNTIF(W29:W48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X49" s="1">
+        <f t="shared" ref="X49" si="22">AVERAGE(X29:X48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" ref="Y49" si="23">AVERAGE(Y29:Y48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="Z49" s="1">
+        <f>COUNTIF(Z29:Z48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>33</v>
@@ -4107,8 +4749,11 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -4117,35 +4762,40 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="3" t="s">
+      <c r="I52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -4170,18 +4820,18 @@
       <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
         <v>22</v>
       </c>
@@ -4209,8 +4859,17 @@
       <c r="W53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4230,54 +4889,64 @@
         <v>139</v>
       </c>
       <c r="G54">
-        <v>1127.6600000000001</v>
+        <v>2079.62</v>
       </c>
       <c r="H54" t="str">
         <f>IF($B54=F54, "opt", "")</f>
         <v>opt</v>
       </c>
-      <c r="L54">
+      <c r="I54">
+        <v>139</v>
+      </c>
+      <c r="J54">
+        <v>1127.6600000000001</v>
+      </c>
+      <c r="K54" t="str">
+        <f>IF($B54=I54, "opt", "")</f>
+        <v>opt</v>
+      </c>
+      <c r="O54">
         <v>144</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>254.58</v>
-      </c>
-      <c r="N54" t="str">
-        <f>IF($B54=L54, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O54">
-        <v>142</v>
-      </c>
-      <c r="P54">
-        <v>657.06</v>
       </c>
       <c r="Q54" t="str">
         <f>IF($B54=O54, "opt", "")</f>
         <v/>
       </c>
       <c r="R54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="S54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="T54" t="str">
         <f>IF($B54=R54, "opt", "")</f>
         <v/>
       </c>
       <c r="U54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="W54" t="str">
         <f>IF($B54=U54, "opt", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X54">
+        <v>149</v>
+      </c>
+      <c r="Y54">
+        <v>2862.68</v>
+      </c>
+      <c r="Z54" t="str">
+        <f>IF($B54=X54, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4297,54 +4966,64 @@
         <v>149</v>
       </c>
       <c r="G55">
+        <v>699.74</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55:H73" si="24">IF($B55=F55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I55">
+        <v>149</v>
+      </c>
+      <c r="J55">
         <v>1195.83</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="22">IF($B55=F55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L55">
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K73" si="25">IF($B55=I55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O55">
         <v>154</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>2386.46</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" ref="N55:N73" si="23">IF($B55=L55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O55">
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q73" si="26">IF($B55=O55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R55">
         <v>152</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>2672.73</v>
       </c>
-      <c r="Q55" t="str">
-        <f t="shared" ref="Q55:Q73" si="24">IF($B55=O55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R55">
+      <c r="T55" t="str">
+        <f t="shared" ref="T55:T73" si="27">IF($B55=R55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U55">
         <v>182</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>3637.73</v>
       </c>
-      <c r="T55" t="str">
-        <f t="shared" ref="T55:T73" si="25">IF($B55=R55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U55">
+      <c r="W55" t="str">
+        <f t="shared" ref="W55:W73" si="28">IF($B55=U55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X55">
         <v>169</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
         <v>2837.51</v>
       </c>
-      <c r="W55" t="str">
-        <f t="shared" ref="W55:W73" si="26">IF($B55=U55, "opt", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z55" t="str">
+        <f t="shared" ref="Z55:Z73" si="29">IF($B55=X55, "opt", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4364,54 +5043,64 @@
         <v>78</v>
       </c>
       <c r="G56">
+        <v>1350.66</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I56">
+        <v>78</v>
+      </c>
+      <c r="J56">
         <v>183.53</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L56">
+      <c r="K56" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O56">
         <v>83</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>309.95999999999998</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O56">
+      <c r="Q56" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R56">
         <v>82</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>1015.5</v>
       </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R56">
+      <c r="T56" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U56">
         <v>89</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>714.64</v>
       </c>
-      <c r="T56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U56">
+      <c r="W56" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X56">
         <v>87</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
         <v>3470.98</v>
       </c>
-      <c r="W56" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z56" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4428,57 +5117,67 @@
         <v>3631.76</v>
       </c>
       <c r="F57">
+        <v>147</v>
+      </c>
+      <c r="G57">
+        <v>2517.2800000000002</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I57">
         <v>148</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>2908.23</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L57">
+      <c r="K57" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O57">
         <v>154</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>2378.6999999999998</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O57">
+      <c r="Q57" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R57">
         <v>151</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>1923.96</v>
       </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R57">
+      <c r="T57" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U57">
         <v>165</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>3447.42</v>
       </c>
-      <c r="T57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U57">
+      <c r="W57" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X57">
         <v>162</v>
       </c>
-      <c r="V57">
+      <c r="Y57">
         <v>1616.56</v>
       </c>
-      <c r="W57" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z57" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4495,57 +5194,67 @@
         <v>911.98</v>
       </c>
       <c r="F58">
+        <v>158</v>
+      </c>
+      <c r="G58">
+        <v>2815.96</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I58">
         <v>159</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>624.89</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L58">
+      <c r="K58" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O58">
         <v>165</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>648.26</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O58">
+      <c r="Q58" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R58">
         <v>160</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>2621.15</v>
       </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R58">
+      <c r="T58" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U58">
         <v>168</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1174.47</v>
       </c>
-      <c r="T58" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U58">
+      <c r="W58" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X58">
         <v>165</v>
       </c>
-      <c r="V58">
+      <c r="Y58">
         <v>2670.1</v>
       </c>
-      <c r="W58" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z58" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4562,57 +5271,67 @@
         <v>3604.64</v>
       </c>
       <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>920.01</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I59">
         <v>149</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1622.87</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L59">
+      <c r="K59" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O59">
         <v>154</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>1211.22</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O59">
+      <c r="Q59" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R59">
         <v>152</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>1347.62</v>
       </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R59">
+      <c r="T59" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U59">
         <v>162</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1435.66</v>
       </c>
-      <c r="T59" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U59">
+      <c r="W59" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X59">
         <v>159</v>
       </c>
-      <c r="V59">
+      <c r="Y59">
         <v>3351.26</v>
       </c>
-      <c r="W59" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z59" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4629,57 +5348,67 @@
         <v>3655.54</v>
       </c>
       <c r="F60">
+        <v>159</v>
+      </c>
+      <c r="G60">
+        <v>663.08</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I60">
         <v>157</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>1349.34</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L60">
+      <c r="K60" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O60">
         <v>162</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>1868.42</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O60">
+      <c r="Q60" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R60">
         <v>160</v>
       </c>
-      <c r="P60">
+      <c r="S60">
         <v>1825.03</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R60">
+      <c r="T60" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U60">
         <v>169</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1391.51</v>
       </c>
-      <c r="T60" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U60">
+      <c r="W60" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X60">
         <v>172</v>
       </c>
-      <c r="V60">
+      <c r="Y60">
         <v>2752.16</v>
       </c>
-      <c r="W60" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z60" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4699,54 +5428,64 @@
         <v>176</v>
       </c>
       <c r="G61">
+        <v>2346.75</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I61">
+        <v>176</v>
+      </c>
+      <c r="J61">
         <v>1061.81</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L61">
+      <c r="K61" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O61">
         <v>177</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>3139.32</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O61">
+      <c r="Q61" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R61">
         <v>180</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>2940.9</v>
       </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R61">
+      <c r="T61" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U61">
         <v>190</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>1329.91</v>
       </c>
-      <c r="T61" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U61">
+      <c r="W61" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X61">
         <v>185</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
         <v>1546.74</v>
       </c>
-      <c r="W61" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z61" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4763,57 +5502,67 @@
         <v>329.38</v>
       </c>
       <c r="F62">
+        <v>154</v>
+      </c>
+      <c r="G62">
+        <v>1784.28</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I62">
         <v>153</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>1347.81</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L62">
-        <v>156</v>
-      </c>
-      <c r="M62">
-        <v>1556.14</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="23"/>
+      <c r="K62" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O62">
         <v>156</v>
       </c>
       <c r="P62">
+        <v>1556.14</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R62">
+        <v>156</v>
+      </c>
+      <c r="S62">
         <v>1724.02</v>
       </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R62">
-        <v>166</v>
-      </c>
-      <c r="S62">
-        <v>3240.09</v>
-      </c>
       <c r="T62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U62">
         <v>166</v>
       </c>
       <c r="V62">
+        <v>3240.09</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X62">
+        <v>166</v>
+      </c>
+      <c r="Y62">
         <v>3490.77</v>
       </c>
-      <c r="W62" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -4830,57 +5579,67 @@
         <v>3602.38</v>
       </c>
       <c r="F63">
+        <v>151</v>
+      </c>
+      <c r="G63">
+        <v>2212.6</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I63">
         <v>149</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>1544.1</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L63">
+      <c r="K63" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O63">
         <v>153</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>3116.66</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O63">
+      <c r="Q63" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R63">
         <v>155</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>1856.66</v>
       </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R63">
+      <c r="T63" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U63">
         <v>162</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>3571.87</v>
       </c>
-      <c r="T63" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U63">
+      <c r="W63" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X63">
         <v>165</v>
       </c>
-      <c r="V63">
+      <c r="Y63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="W63" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z63" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4897,57 +5656,67 @@
         <v>338.36</v>
       </c>
       <c r="F64">
+        <v>112</v>
+      </c>
+      <c r="G64">
+        <v>1582.14</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I64">
         <v>113</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>2530.9</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L64">
+      <c r="K64" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O64">
         <v>117</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>1565.52</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O64">
+      <c r="Q64" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R64">
         <v>114</v>
       </c>
-      <c r="P64">
+      <c r="S64">
         <v>2136.59</v>
       </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R64">
+      <c r="T64" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U64">
         <v>125</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>2636.94</v>
       </c>
-      <c r="T64" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U64">
+      <c r="W64" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X64">
         <v>124</v>
       </c>
-      <c r="V64">
+      <c r="Y64">
         <v>3155.58</v>
       </c>
-      <c r="W64" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z64" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4964,57 +5733,67 @@
         <v>3620.36</v>
       </c>
       <c r="F65">
+        <v>155</v>
+      </c>
+      <c r="G65">
+        <v>1804.07</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I65">
         <v>156</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>1474.89</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L65">
+      <c r="K65" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O65">
         <v>162</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>882.17</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O65">
+      <c r="Q65" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R65">
         <v>160</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>956.97</v>
       </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R65">
+      <c r="T65" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U65">
         <v>214</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>5236.25</v>
       </c>
-      <c r="T65" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U65">
+      <c r="W65" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X65">
         <v>173</v>
       </c>
-      <c r="V65">
+      <c r="Y65">
         <v>3430.55</v>
       </c>
-      <c r="W65" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z65" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -5034,54 +5813,64 @@
         <v>152</v>
       </c>
       <c r="G66">
+        <v>2573.63</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I66">
+        <v>152</v>
+      </c>
+      <c r="J66">
         <v>1319.81</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L66">
+      <c r="K66" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O66">
         <v>156</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>3508.34</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O66">
+      <c r="Q66" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R66">
         <v>158</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>2765.03</v>
       </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R66">
+      <c r="T66" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U66">
         <v>166</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1399.34</v>
       </c>
-      <c r="T66" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U66">
+      <c r="W66" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X66">
         <v>164</v>
       </c>
-      <c r="V66">
+      <c r="Y66">
         <v>2690.94</v>
       </c>
-      <c r="W66" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z66" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5098,57 +5887,67 @@
         <v>236.64</v>
       </c>
       <c r="F67">
+        <v>167</v>
+      </c>
+      <c r="G67">
+        <v>2644.98</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I67">
         <v>166</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>1197.1400000000001</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L67">
+      <c r="K67" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O67">
         <v>172</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>1535.47</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O67">
+      <c r="Q67" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R67">
         <v>168</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>3493.09</v>
       </c>
-      <c r="Q67" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R67">
+      <c r="T67" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U67">
         <v>191</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>3558.47</v>
       </c>
-      <c r="T67" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U67">
+      <c r="W67" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X67">
         <v>184</v>
       </c>
-      <c r="V67">
+      <c r="Y67">
         <v>1410.68</v>
       </c>
-      <c r="W67" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z67" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -5168,54 +5967,64 @@
         <v>89</v>
       </c>
       <c r="G68">
+        <v>395.04</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="24"/>
+        <v>opt</v>
+      </c>
+      <c r="I68">
+        <v>89</v>
+      </c>
+      <c r="J68">
         <v>271.16000000000003</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="22"/>
-        <v>opt</v>
-      </c>
-      <c r="L68">
+      <c r="K68" t="str">
+        <f t="shared" si="25"/>
+        <v>opt</v>
+      </c>
+      <c r="O68">
         <v>89</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>1872.38</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="23"/>
-        <v>opt</v>
-      </c>
-      <c r="O68">
+      <c r="Q68" t="str">
+        <f t="shared" si="26"/>
+        <v>opt</v>
+      </c>
+      <c r="R68">
         <v>90</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>20.65</v>
       </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R68">
+      <c r="T68" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U68">
         <v>93</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2570.6</v>
       </c>
-      <c r="T68" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U68">
+      <c r="W68" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X68">
         <v>91</v>
       </c>
-      <c r="V68">
+      <c r="Y68">
         <v>894.18</v>
       </c>
-      <c r="W68" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z68" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -5235,54 +6044,64 @@
         <v>116</v>
       </c>
       <c r="G69">
+        <v>1425.41</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I69">
+        <v>116</v>
+      </c>
+      <c r="J69">
         <v>1001.59</v>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L69">
-        <v>121</v>
-      </c>
-      <c r="M69">
-        <v>1535.21</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="23"/>
+      <c r="K69" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O69">
         <v>121</v>
       </c>
       <c r="P69">
+        <v>1535.21</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R69">
+        <v>121</v>
+      </c>
+      <c r="S69">
         <v>3062.52</v>
       </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R69">
+      <c r="T69" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U69">
         <v>128</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>2018.32</v>
       </c>
-      <c r="T69" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U69">
+      <c r="W69" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X69">
         <v>127</v>
       </c>
-      <c r="V69">
+      <c r="Y69">
         <v>3492.04</v>
       </c>
-      <c r="W69" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z69" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -5302,54 +6121,64 @@
         <v>161</v>
       </c>
       <c r="G70">
+        <v>2542.58</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I70">
+        <v>161</v>
+      </c>
+      <c r="J70">
         <v>899.57</v>
       </c>
-      <c r="H70" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L70">
-        <v>166</v>
-      </c>
-      <c r="M70">
-        <v>3144.44</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="23"/>
+      <c r="K70" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O70">
         <v>166</v>
       </c>
       <c r="P70">
+        <v>3144.44</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R70">
+        <v>166</v>
+      </c>
+      <c r="S70">
         <v>1031.4100000000001</v>
       </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R70">
-        <v>180</v>
-      </c>
-      <c r="S70">
-        <v>2915.07</v>
-      </c>
       <c r="T70" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U70">
         <v>180</v>
       </c>
       <c r="V70">
+        <v>2915.07</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X70">
+        <v>180</v>
+      </c>
+      <c r="Y70">
         <v>2578.83</v>
       </c>
-      <c r="W70" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z70" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -5366,57 +6195,67 @@
         <v>53.23</v>
       </c>
       <c r="F71">
+        <v>97</v>
+      </c>
+      <c r="G71">
+        <v>2929.37</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I71">
         <v>98</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>502.15</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L71">
+      <c r="K71" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O71">
         <v>99</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>1565.23</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O71">
+      <c r="Q71" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R71">
         <v>101</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>351.49</v>
       </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R71">
+      <c r="T71" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U71">
         <v>104</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>891.9</v>
       </c>
-      <c r="T71" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U71">
+      <c r="W71" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X71">
         <v>100</v>
       </c>
-      <c r="V71">
+      <c r="Y71">
         <v>1374.47</v>
       </c>
-      <c r="W71" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z71" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -5436,54 +6275,64 @@
         <v>141</v>
       </c>
       <c r="G72">
+        <v>1246.8</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I72">
+        <v>141</v>
+      </c>
+      <c r="J72">
         <v>2469.15</v>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L72">
-        <v>144</v>
-      </c>
-      <c r="M72">
-        <v>927.05</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="23"/>
+      <c r="K72" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O72">
         <v>144</v>
       </c>
       <c r="P72">
+        <v>927.05</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R72">
+        <v>144</v>
+      </c>
+      <c r="S72">
         <v>903.06</v>
       </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R72">
-        <v>151</v>
-      </c>
-      <c r="S72">
-        <v>1895.86</v>
-      </c>
       <c r="T72" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U72">
         <v>151</v>
       </c>
       <c r="V72">
+        <v>1895.86</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X72">
+        <v>151</v>
+      </c>
+      <c r="Y72">
         <v>3455.11</v>
       </c>
-      <c r="W72" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z72" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -5500,57 +6349,67 @@
         <v>31.71</v>
       </c>
       <c r="F73">
+        <v>130</v>
+      </c>
+      <c r="G73">
+        <v>1434.5</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I73">
         <v>131</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>442.44</v>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L73">
+      <c r="K73" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O73">
         <v>132</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>2536.19</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O73">
+      <c r="Q73" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R73">
         <v>131</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>2013.01</v>
       </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R73">
+      <c r="T73" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U73">
         <v>142</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1693.27</v>
       </c>
-      <c r="T73" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U73">
+      <c r="W73" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X73">
         <v>139</v>
       </c>
-      <c r="V73">
+      <c r="Y73">
         <v>1350.2</v>
       </c>
-      <c r="W73" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z73" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -5559,109 +6418,124 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="27">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="30">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="28">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="31">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:P74" si="29">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:S74" si="32">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="29"/>
-        <v>139</v>
+        <f t="shared" si="32"/>
+        <v>139.05000000000001</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="29"/>
-        <v>1253.7435</v>
+        <f t="shared" si="32"/>
+        <v>1798.4250000000004</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>
         <v>2</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1">
-        <f t="shared" si="29"/>
+      <c r="I74" s="1">
+        <f t="shared" si="32"/>
+        <v>139</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="32"/>
+        <v>1253.7435</v>
+      </c>
+      <c r="K74" s="1">
+        <f>COUNTIF(K54:K73, "opt")</f>
+        <v>2</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1">
+        <f t="shared" si="32"/>
         <v>143</v>
       </c>
-      <c r="M74" s="1">
-        <f t="shared" si="29"/>
+      <c r="P74" s="1">
+        <f t="shared" si="32"/>
         <v>1797.086</v>
-      </c>
-      <c r="N74" s="1">
-        <f>COUNTIF(N54:N73, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="29"/>
-        <v>142.15</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="29"/>
-        <v>1765.9225000000001</v>
       </c>
       <c r="Q74" s="1">
         <f>COUNTIF(Q54:Q73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74" si="30">AVERAGE(R54:R73)</f>
-        <v>154.85</v>
+        <f t="shared" si="32"/>
+        <v>142.15</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74" si="31">AVERAGE(S54:S73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="32"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="T74" s="1">
         <f>COUNTIF(T54:T73, "opt")</f>
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74" si="32">AVERAGE(U54:U73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="U74" si="33">AVERAGE(U54:U73)</f>
+        <v>154.85</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74" si="33">AVERAGE(V54:V73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="V74" si="34">AVERAGE(V54:V73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="W74" s="1">
         <f>COUNTIF(W54:W73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="X74" s="1">
+        <f t="shared" ref="X74" si="35">AVERAGE(X54:X73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" ref="Y74" si="36">AVERAGE(Y54:Y73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="Z74" s="1">
+        <f>COUNTIF(Z54:Z73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y1:AA74">
-    <sortCondition ref="Y1:Y74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AB1:AD74">
+    <sortCondition ref="AB1:AB74"/>
   </sortState>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B51:Z51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="B26:Z26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="B1:Z1"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="B1:W1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B51:W51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="B26:W26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F5AA3-9679-42CC-BB2B-C3BCA3F31F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48437A2-FAD7-448C-807D-D77B3C957415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
   <si>
     <t>bath.txt</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>VNS d(1…) 19.1. 21:15:59 fixed nodes</t>
+  </si>
+  <si>
+    <t>VNS d(1…) 21.1. 11:09:19 fixed nodes</t>
   </si>
 </sst>
 </file>
@@ -519,27 +522,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
     <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>21</v>
@@ -568,17 +572,20 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AB1" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AE1" t="s">
         <v>0</v>
       </c>
-      <c r="AC1">
+      <c r="AF1">
         <v>139</v>
       </c>
-      <c r="AD1">
-        <v>2079.62</v>
+      <c r="AG1">
+        <v>3128.3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -587,51 +594,56 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AB2" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AE2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>149</v>
       </c>
-      <c r="AD2">
-        <v>699.74</v>
+      <c r="AG2">
+        <v>771.27</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -710,17 +722,26 @@
       <c r="Z3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>78</v>
       </c>
-      <c r="AD3">
-        <v>1350.66</v>
+      <c r="AG3">
+        <v>174.01</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +761,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>222.86</v>
+        <v>40.04</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -750,7 +771,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>33.450000000000003</v>
+        <v>222.86</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
@@ -760,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="M4">
-        <v>862.72</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
@@ -770,7 +791,7 @@
         <v>38</v>
       </c>
       <c r="P4">
-        <v>865.69</v>
+        <v>862.72</v>
       </c>
       <c r="Q4" t="str">
         <f>IF($B4=O4, "opt", "")</f>
@@ -780,7 +801,7 @@
         <v>38</v>
       </c>
       <c r="S4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="T4" t="str">
         <f>IF($B4=R4, "opt", "")</f>
@@ -790,33 +811,43 @@
         <v>38</v>
       </c>
       <c r="V4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="W4" t="str">
         <f>IF($B4=U4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="X4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="Z4" t="str">
         <f>IF($B4=X4, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="AB4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA4">
+        <v>39</v>
+      </c>
+      <c r="AB4">
+        <v>239.56</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>IF($B4=AA4, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AE4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4">
-        <v>147</v>
-      </c>
-      <c r="AD4">
-        <v>2517.2800000000002</v>
+      <c r="AF4">
+        <v>148</v>
+      </c>
+      <c r="AG4">
+        <v>3048.54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -836,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>121.21</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
@@ -846,7 +877,7 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>80.34</v>
+        <v>121.21</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
@@ -856,7 +887,7 @@
         <v>39</v>
       </c>
       <c r="M5">
-        <v>70.239999999999995</v>
+        <v>80.34</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
@@ -866,53 +897,63 @@
         <v>39</v>
       </c>
       <c r="P5">
-        <v>443.57</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="R5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T23" si="4">IF($B5=R5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W23" si="5">IF($B5=U5, "opt", "")</f>
         <v/>
       </c>
       <c r="X5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" ref="Z5:Z23" si="6">IF($B5=X5, "opt", "")</f>
         <v/>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5">
+        <v>44</v>
+      </c>
+      <c r="AB5">
+        <v>2857.14</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" ref="AC5:AC23" si="7">IF($B5=AA5, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AE5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5">
-        <v>158</v>
-      </c>
-      <c r="AD5">
-        <v>2815.96</v>
+      <c r="AF5">
+        <v>159</v>
+      </c>
+      <c r="AG5">
+        <v>1607.49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>165.37</v>
+        <v>324.19</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -942,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>322.75</v>
+        <v>165.37</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -952,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <v>1136.19</v>
+        <v>322.75</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -962,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="P6">
-        <v>31.04</v>
+        <v>1136.19</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
@@ -972,43 +1013,53 @@
         <v>21</v>
       </c>
       <c r="S6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6">
+        <v>23</v>
+      </c>
+      <c r="AB6">
+        <v>425.46</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE6" t="s">
         <v>5</v>
       </c>
-      <c r="AC6">
-        <v>150</v>
-      </c>
-      <c r="AD6">
-        <v>920.01</v>
+      <c r="AF6">
+        <v>149</v>
+      </c>
+      <c r="AG6">
+        <v>1678.19</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="G7">
-        <v>586.29</v>
+        <v>300.91000000000003</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1038,7 +1089,7 @@
         <v>37</v>
       </c>
       <c r="J7">
-        <v>298.95999999999998</v>
+        <v>586.29</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -1048,7 +1099,7 @@
         <v>37</v>
       </c>
       <c r="M7">
-        <v>129.96</v>
+        <v>298.95999999999998</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
@@ -1058,53 +1109,63 @@
         <v>37</v>
       </c>
       <c r="P7">
-        <v>377.94</v>
+        <v>129.96</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7">
+        <v>41</v>
+      </c>
+      <c r="AB7">
+        <v>1488.4</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE7" t="s">
         <v>6</v>
       </c>
-      <c r="AC7">
-        <v>159</v>
-      </c>
-      <c r="AD7">
-        <v>663.08</v>
+      <c r="AF7">
+        <v>158</v>
+      </c>
+      <c r="AG7">
+        <v>1770.57</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>78.45</v>
+        <v>128.33000000000001</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1195,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>118.89</v>
+        <v>78.45</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1144,7 +1205,7 @@
         <v>39</v>
       </c>
       <c r="M8">
-        <v>22.14</v>
+        <v>118.89</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -1154,7 +1215,7 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>1589.66</v>
+        <v>22.14</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
@@ -1164,7 +1225,7 @@
         <v>39</v>
       </c>
       <c r="S8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
@@ -1174,33 +1235,43 @@
         <v>39</v>
       </c>
       <c r="V8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB8" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA8">
+        <v>40</v>
+      </c>
+      <c r="AB8">
+        <v>2772.73</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE8" t="s">
         <v>7</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>176</v>
       </c>
-      <c r="AD8">
-        <v>2346.75</v>
+      <c r="AG8">
+        <v>2557.77</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1291,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>695.13</v>
+        <v>429.98</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1230,7 +1301,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>424.66</v>
+        <v>695.13</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -1240,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <v>234.78</v>
+        <v>424.66</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -1250,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="P9">
-        <v>802.97</v>
+        <v>234.78</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
@@ -1260,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="S9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
@@ -1270,33 +1341,43 @@
         <v>38</v>
       </c>
       <c r="V9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB9" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA9">
+        <v>39</v>
+      </c>
+      <c r="AB9">
+        <v>1158.5</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE9" t="s">
         <v>8</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>154</v>
       </c>
-      <c r="AD9">
-        <v>1784.28</v>
+      <c r="AG9">
+        <v>3201.24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>36.04</v>
+        <v>34.54</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1407,7 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>33.64</v>
+        <v>36.04</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -1336,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="M10">
-        <v>212.38</v>
+        <v>33.64</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -1346,7 +1427,7 @@
         <v>38</v>
       </c>
       <c r="P10">
-        <v>221.94</v>
+        <v>212.38</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
@@ -1356,43 +1437,53 @@
         <v>38</v>
       </c>
       <c r="S10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10">
+        <v>44</v>
+      </c>
+      <c r="AB10">
+        <v>292.3</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE10" t="s">
         <v>9</v>
       </c>
-      <c r="AC10">
-        <v>151</v>
-      </c>
-      <c r="AD10">
-        <v>2212.6</v>
+      <c r="AF10">
+        <v>150</v>
+      </c>
+      <c r="AG10">
+        <v>3078.57</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>710.07</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1422,7 +1513,7 @@
         <v>50</v>
       </c>
       <c r="J11">
-        <v>674.96</v>
+        <v>710.07</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -1432,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>217.78</v>
+        <v>674.96</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -1442,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="P11">
-        <v>348.19</v>
+        <v>217.78</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
@@ -1452,43 +1543,53 @@
         <v>50</v>
       </c>
       <c r="S11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11">
+        <v>51</v>
+      </c>
+      <c r="AB11">
+        <v>614.62</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE11" t="s">
         <v>10</v>
       </c>
-      <c r="AC11">
-        <v>112</v>
-      </c>
-      <c r="AD11">
-        <v>1582.14</v>
+      <c r="AF11">
+        <v>114</v>
+      </c>
+      <c r="AG11">
+        <v>980.8</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1609,7 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>286.18</v>
+        <v>422.36</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1518,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>130.81</v>
+        <v>286.18</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -1528,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="M12">
-        <v>2208.9299999999998</v>
+        <v>130.81</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
@@ -1538,53 +1639,63 @@
         <v>40</v>
       </c>
       <c r="P12">
-        <v>849.36</v>
+        <v>2208.9299999999998</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U12">
         <v>42</v>
       </c>
       <c r="V12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12">
+        <v>44</v>
+      </c>
+      <c r="AB12">
+        <v>3123.37</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE12" t="s">
         <v>11</v>
       </c>
-      <c r="AC12">
-        <v>155</v>
-      </c>
-      <c r="AD12">
-        <v>1804.07</v>
+      <c r="AF12">
+        <v>156</v>
+      </c>
+      <c r="AG12">
+        <v>1521.91</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +1715,7 @@
         <v>38</v>
       </c>
       <c r="G13">
-        <v>47.41</v>
+        <v>180.14</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1614,27 +1725,27 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>182.32</v>
+        <v>47.41</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>88.42</v>
+        <v>182.32</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O13">
         <v>39</v>
       </c>
       <c r="P13">
-        <v>646.91999999999996</v>
+        <v>88.42</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
@@ -1644,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="S13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
@@ -1654,33 +1765,43 @@
         <v>39</v>
       </c>
       <c r="V13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB13" t="s">
+      <c r="AA13">
+        <v>41</v>
+      </c>
+      <c r="AB13">
+        <v>1896.54</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE13" t="s">
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AF13">
         <v>152</v>
       </c>
-      <c r="AD13">
-        <v>2573.63</v>
+      <c r="AG13">
+        <v>1669.07</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>548.39</v>
+        <v>378.51</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1710,27 +1831,27 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>361.16</v>
+        <v>548.39</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>38.58</v>
+        <v>361.16</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O14">
         <v>29</v>
       </c>
       <c r="P14">
-        <v>190.4</v>
+        <v>38.58</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
@@ -1740,43 +1861,53 @@
         <v>29</v>
       </c>
       <c r="S14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB14" t="s">
+      <c r="AA14">
+        <v>32</v>
+      </c>
+      <c r="AB14">
+        <v>3563.82</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE14" t="s">
         <v>13</v>
       </c>
-      <c r="AC14">
-        <v>167</v>
-      </c>
-      <c r="AD14">
-        <v>2644.98</v>
+      <c r="AF14">
+        <v>168</v>
+      </c>
+      <c r="AG14">
+        <v>2545.58</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1927,7 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>844.41</v>
+        <v>3046.92</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -1806,73 +1937,83 @@
         <v>38</v>
       </c>
       <c r="J15">
-        <v>3011.36</v>
+        <v>844.41</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v>opt</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>492.18</v>
+        <v>3011.36</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15">
-        <v>2763.95</v>
+        <v>492.18</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="V15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Y15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB15" t="s">
+      <c r="AA15">
+        <v>45</v>
+      </c>
+      <c r="AB15">
+        <v>2013.71</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE15" t="s">
         <v>14</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>89</v>
       </c>
-      <c r="AD15">
-        <v>395.04</v>
+      <c r="AG15">
+        <v>405.01</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1892,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>83.85</v>
+        <v>94.82</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -1902,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="J16">
-        <v>68.17</v>
+        <v>83.85</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -1912,63 +2053,73 @@
         <v>44</v>
       </c>
       <c r="M16">
-        <v>348.25</v>
+        <v>68.17</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16">
-        <v>61.75</v>
+        <v>348.25</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="U16">
         <v>44</v>
       </c>
       <c r="V16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB16" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA16">
+        <v>47</v>
+      </c>
+      <c r="AB16">
+        <v>792.09</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE16" t="s">
         <v>15</v>
       </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>116</v>
       </c>
-      <c r="AD16">
-        <v>1425.41</v>
+      <c r="AG16">
+        <v>2786.62</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +2139,7 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>145.57</v>
+        <v>108.89</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1998,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="J17">
-        <v>110.78</v>
+        <v>145.57</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -2008,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="M17">
-        <v>365.26</v>
+        <v>110.78</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
@@ -2018,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="P17">
-        <v>115</v>
+        <v>365.26</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
@@ -2028,43 +2179,53 @@
         <v>44</v>
       </c>
       <c r="S17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB17" t="s">
+      <c r="AA17">
+        <v>46</v>
+      </c>
+      <c r="AB17">
+        <v>3016.44</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE17" t="s">
         <v>16</v>
       </c>
-      <c r="AC17">
+      <c r="AF17">
         <v>161</v>
       </c>
-      <c r="AD17">
-        <v>2542.58</v>
+      <c r="AG17">
+        <v>2607.14</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2084,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>17.809999999999999</v>
+        <v>44.63</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -2094,7 +2255,7 @@
         <v>24</v>
       </c>
       <c r="J18">
-        <v>16.73</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -2104,63 +2265,73 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <v>762.06</v>
+        <v>16.73</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18">
-        <v>0.54</v>
+        <v>762.06</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R18">
         <v>25</v>
       </c>
       <c r="S18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="5"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="X18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB18" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA18">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE18" t="s">
         <v>17</v>
       </c>
-      <c r="AC18">
-        <v>97</v>
-      </c>
-      <c r="AD18">
-        <v>2929.37</v>
+      <c r="AF18">
+        <v>98</v>
+      </c>
+      <c r="AG18">
+        <v>918.64</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2180,7 +2351,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>273.27999999999997</v>
+        <v>86.14</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -2190,7 +2361,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>84.4</v>
+        <v>273.27999999999997</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -2200,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <v>357.74</v>
+        <v>84.4</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -2210,7 +2381,7 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>181.26</v>
+        <v>357.74</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
@@ -2220,7 +2391,7 @@
         <v>31</v>
       </c>
       <c r="S19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="4"/>
@@ -2230,33 +2401,43 @@
         <v>31</v>
       </c>
       <c r="V19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB19" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AA19">
+        <v>36</v>
+      </c>
+      <c r="AB19">
+        <v>180.01</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE19" t="s">
         <v>18</v>
       </c>
-      <c r="AC19">
-        <v>141</v>
-      </c>
-      <c r="AD19">
-        <v>1246.8</v>
+      <c r="AF19">
+        <v>140</v>
+      </c>
+      <c r="AG19">
+        <v>2099.4899999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2457,7 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>104.04</v>
+        <v>183.2</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -2286,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>178.95</v>
+        <v>104.04</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -2296,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="M20">
-        <v>1135.8499999999999</v>
+        <v>178.95</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
@@ -2306,7 +2487,7 @@
         <v>42</v>
       </c>
       <c r="P20">
-        <v>1333.45</v>
+        <v>1135.8499999999999</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
@@ -2316,43 +2497,53 @@
         <v>42</v>
       </c>
       <c r="S20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AB20" t="s">
+      <c r="AA20">
+        <v>46</v>
+      </c>
+      <c r="AB20">
+        <v>2892.3</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE20" t="s">
         <v>19</v>
       </c>
-      <c r="AC20">
+      <c r="AF20">
         <v>130</v>
       </c>
-      <c r="AD20">
-        <v>1434.5</v>
+      <c r="AG20">
+        <v>1894.94</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2563,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>12.33</v>
+        <v>20.69</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2382,7 +2573,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>21.18</v>
+        <v>12.33</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2392,7 +2583,7 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>7.17</v>
+        <v>21.18</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -2402,7 +2593,7 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <v>34.53</v>
+        <v>7.17</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
@@ -2412,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="S21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="4"/>
@@ -2422,7 +2613,7 @@
         <v>25</v>
       </c>
       <c r="V21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="5"/>
@@ -2432,14 +2623,24 @@
         <v>25</v>
       </c>
       <c r="Y21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
+      <c r="AA21">
+        <v>25</v>
+      </c>
+      <c r="AB21">
+        <v>472.69</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="7"/>
+        <v>opt</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2459,7 +2660,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>266.16000000000003</v>
+        <v>120.37</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2469,7 +2670,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>115.93</v>
+        <v>266.16000000000003</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2479,7 +2680,7 @@
         <v>36</v>
       </c>
       <c r="M22">
-        <v>41.48</v>
+        <v>115.93</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -2489,7 +2690,7 @@
         <v>36</v>
       </c>
       <c r="P22">
-        <v>558.71</v>
+        <v>41.48</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
@@ -2499,7 +2700,7 @@
         <v>36</v>
       </c>
       <c r="S22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="4"/>
@@ -2509,24 +2710,34 @@
         <v>36</v>
       </c>
       <c r="V22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="6"/>
+        <v>opt</v>
+      </c>
+      <c r="AA22">
+        <v>37</v>
+      </c>
+      <c r="AB22">
+        <v>1303.21</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2757,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>15.4</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2556,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>65.459999999999994</v>
+        <v>15.4</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>1739.24</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -2576,7 +2787,7 @@
         <v>32</v>
       </c>
       <c r="P23">
-        <v>284.64</v>
+        <v>1739.24</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
@@ -2586,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="S23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="4"/>
@@ -2596,24 +2807,34 @@
         <v>32</v>
       </c>
       <c r="V23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" si="6"/>
+        <v>opt</v>
+      </c>
+      <c r="AA23">
+        <v>33</v>
+      </c>
+      <c r="AB23">
+        <v>403.23</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2622,106 +2843,118 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:V24" si="7">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:Y24" si="8">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.1</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="7"/>
-        <v>263.01249999999993</v>
+        <f t="shared" si="8"/>
+        <v>331.31899999999996</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
         <v>20</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.1</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="7"/>
-        <v>316.745</v>
+        <f t="shared" si="8"/>
+        <v>263.01249999999993</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
         <v>20</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="7"/>
-        <v>36.299999999999997</v>
+        <f t="shared" si="8"/>
+        <v>36.1</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="7"/>
-        <v>523.5675</v>
+        <f t="shared" si="8"/>
+        <v>316.745</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="7"/>
-        <v>36.35</v>
+        <f t="shared" si="8"/>
+        <v>36.299999999999997</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="7"/>
-        <v>585.07549999999992</v>
+        <f t="shared" si="8"/>
+        <v>523.5675</v>
       </c>
       <c r="Q24" s="1">
         <f>COUNTIF(Q4:Q23, "opt")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R24" s="1">
-        <f>AVERAGE(R4:R23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="8"/>
+        <v>36.35</v>
       </c>
       <c r="S24" s="1">
-        <f>AVERAGE(S4:S23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="8"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="T24" s="1">
         <f>COUNTIF(T4:T23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="7"/>
-        <v>37.9</v>
+        <f>AVERAGE(U4:U23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="7"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(V4:V23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="W24" s="1">
         <f>COUNTIF(W4:W23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ref="X24" si="8">AVERAGE(X4:X23)</f>
-        <v>38.9</v>
+        <f t="shared" si="8"/>
+        <v>37.9</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ref="Y24" si="9">AVERAGE(Y4:Y23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="8"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="Z24" s="1">
         <f>COUNTIF(Z4:Z23, "opt")</f>
+        <v>9</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" ref="AA24" si="9">AVERAGE(AA4:AA23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24" si="10">AVERAGE(AB4:AB23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="AC24" s="1">
+        <f>COUNTIF(AC4:AC23, "opt")</f>
         <v>1</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -2750,8 +2983,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -2760,42 +2996,47 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2874,8 +3115,17 @@
       <c r="Z28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AA28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +3145,7 @@
         <v>71</v>
       </c>
       <c r="G29">
-        <v>3572.81</v>
+        <v>2818.06</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
@@ -2905,27 +3155,27 @@
         <v>71</v>
       </c>
       <c r="J29">
-        <v>428.91</v>
+        <v>3572.81</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="L29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29">
-        <v>1136.3399999999999</v>
+        <v>428.91</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="O29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P29">
-        <v>432.6</v>
+        <v>1136.3399999999999</v>
       </c>
       <c r="Q29" t="str">
         <f>IF($B29=O29, "opt", "")</f>
@@ -2935,34 +3185,44 @@
         <v>73</v>
       </c>
       <c r="S29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="T29" t="str">
         <f>IF($B29=R29, "opt", "")</f>
         <v/>
       </c>
       <c r="U29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="W29" t="str">
         <f>IF($B29=U29, "opt", "")</f>
         <v/>
       </c>
       <c r="X29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="Z29" t="str">
         <f>IF($B29=X29, "opt", "")</f>
         <v/>
       </c>
+      <c r="AA29">
+        <v>76</v>
+      </c>
+      <c r="AB29">
+        <v>2043.43</v>
+      </c>
+      <c r="AC29" t="str">
+        <f>IF($B29=AA29, "opt", "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2982,74 +3242,84 @@
         <v>77</v>
       </c>
       <c r="G30">
+        <v>1179.22</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H48" si="11">IF($B30=F30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <v>77</v>
+      </c>
+      <c r="J30">
         <v>446.66</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="10">IF($B30=F30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="I30">
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="12">IF($B30=I30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L30">
         <v>76</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>1378.74</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="11">IF($B30=I30, "opt", "")</f>
-        <v>opt</v>
-      </c>
-      <c r="L30">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="13">IF($B30=L30, "opt", "")</f>
+        <v>opt</v>
+      </c>
+      <c r="O30">
         <v>79</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>2548.89</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="12">IF($B30=L30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O30">
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q48" si="14">IF($B30=O30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R30">
         <v>81</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>103.21</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q48" si="13">IF($B30=O30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R30">
+      <c r="T30" t="str">
+        <f t="shared" ref="T30:T48" si="15">IF($B30=R30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U30">
         <v>77</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>2794.12</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" ref="T30:T48" si="14">IF($B30=R30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U30">
+      <c r="W30" t="str">
+        <f t="shared" ref="W30:W48" si="16">IF($B30=U30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X30">
         <v>85</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>3605.84</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" ref="W30:W48" si="15">IF($B30=U30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="X30">
+      <c r="Z30" t="str">
+        <f t="shared" ref="Z30:Z48" si="17">IF($B30=X30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AA30">
         <v>90</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>1133.24</v>
       </c>
-      <c r="Z30" t="str">
-        <f t="shared" ref="Z30:Z48" si="16">IF($B30=X30, "opt", "")</f>
+      <c r="AC30" t="str">
+        <f t="shared" ref="AC30:AC48" si="18">IF($B30=AA30, "opt", "")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3069,74 +3339,84 @@
         <v>40</v>
       </c>
       <c r="G31">
-        <v>169.42</v>
+        <v>421.12</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I31">
         <v>40</v>
       </c>
       <c r="J31">
+        <v>169.42</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
         <v>427.46</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L31">
+      <c r="N31" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="O31">
         <v>41</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>1719.25</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O31">
-        <v>42</v>
-      </c>
-      <c r="P31">
-        <v>2097.8200000000002</v>
-      </c>
       <c r="Q31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R31">
         <v>42</v>
       </c>
       <c r="S31">
+        <v>2097.8200000000002</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U31">
+        <v>42</v>
+      </c>
+      <c r="V31">
         <v>1185.19</v>
       </c>
-      <c r="T31" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U31">
+      <c r="W31" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X31">
         <v>44</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
         <v>3392.22</v>
       </c>
-      <c r="W31" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X31">
+      <c r="Z31" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA31">
         <v>43</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>3591.99</v>
       </c>
-      <c r="Z31" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC31" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3153,77 +3433,87 @@
         <v>1.76</v>
       </c>
       <c r="F32">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>545.28</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I32">
         <v>73</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>3346.15</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I32">
-        <v>74</v>
-      </c>
-      <c r="J32">
-        <v>589.64</v>
-      </c>
       <c r="K32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L32">
         <v>74</v>
       </c>
       <c r="M32">
+        <v>589.64</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O32">
+        <v>74</v>
+      </c>
+      <c r="P32">
         <v>181.98</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O32">
+      <c r="Q32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R32">
         <v>77</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>570.38</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R32">
+      <c r="T32" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U32">
         <v>75</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>766.05</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U32">
+      <c r="W32" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X32">
         <v>82</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
         <v>1957.88</v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X32">
+      <c r="Z32" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA32">
         <v>81</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>2691.03</v>
       </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC32" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3243,74 +3533,84 @@
         <v>78</v>
       </c>
       <c r="G33">
-        <v>3295.55</v>
+        <v>2171.44</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I33">
         <v>78</v>
       </c>
       <c r="J33">
+        <v>3295.55</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="L33">
+        <v>78</v>
+      </c>
+      <c r="M33">
         <v>2040.22</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L33">
-        <v>80</v>
-      </c>
-      <c r="M33">
-        <v>36.42</v>
-      </c>
       <c r="N33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>opt</v>
       </c>
       <c r="O33">
         <v>80</v>
       </c>
       <c r="P33">
-        <v>635.37</v>
+        <v>36.42</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R33">
         <v>80</v>
       </c>
       <c r="S33">
+        <v>635.37</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U33">
+        <v>80</v>
+      </c>
+      <c r="V33">
         <v>1190.47</v>
       </c>
-      <c r="T33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U33">
+      <c r="W33" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X33">
         <v>83</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>1721.95</v>
       </c>
-      <c r="W33" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X33">
+      <c r="Z33" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA33">
         <v>86</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>2099.84</v>
       </c>
-      <c r="Z33" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC33" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3330,74 +3630,84 @@
         <v>73</v>
       </c>
       <c r="G34">
-        <v>538.98</v>
+        <v>922.51</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I34">
         <v>73</v>
       </c>
       <c r="J34">
-        <v>1008.36</v>
+        <v>538.98</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L34">
         <v>73</v>
       </c>
       <c r="M34">
+        <v>1008.36</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O34">
+        <v>73</v>
+      </c>
+      <c r="P34">
         <v>568.61</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O34">
-        <v>74</v>
-      </c>
-      <c r="P34">
-        <v>3556.53</v>
-      </c>
       <c r="Q34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R34">
         <v>74</v>
       </c>
       <c r="S34">
+        <v>3556.53</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U34">
+        <v>74</v>
+      </c>
+      <c r="V34">
         <v>778.34</v>
       </c>
-      <c r="T34" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U34">
+      <c r="W34" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X34">
         <v>79</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>3138.24</v>
       </c>
-      <c r="W34" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X34">
+      <c r="Z34" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA34">
         <v>77</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>2695.42</v>
       </c>
-      <c r="Z34" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC34" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3414,77 +3724,87 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>3201.02</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="I35">
         <v>77</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>148.04</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L35">
         <v>76</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>3453.05</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L35">
+      <c r="N35" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="O35">
         <v>79</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>110.55</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O35">
+      <c r="Q35" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R35">
         <v>78</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>2232.29</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R35">
+      <c r="T35" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U35">
         <v>77</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>140.19</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U35">
+      <c r="W35" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X35">
         <v>83</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>960.67</v>
       </c>
-      <c r="W35" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X35">
+      <c r="Z35" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA35">
         <v>85</v>
       </c>
-      <c r="Y35">
+      <c r="AB35">
         <v>740.86</v>
       </c>
-      <c r="Z35" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC35" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3504,74 +3824,84 @@
         <v>94</v>
       </c>
       <c r="G36">
-        <v>510.11</v>
+        <v>342.23</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I36">
         <v>94</v>
       </c>
       <c r="J36">
+        <v>510.11</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L36">
+        <v>94</v>
+      </c>
+      <c r="M36">
         <v>600.54999999999995</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L36">
+      <c r="N36" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O36">
         <v>93</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>991.51</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="12"/>
-        <v>opt</v>
-      </c>
-      <c r="O36">
+      <c r="Q36" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="R36">
         <v>94</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>1003.92</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R36">
+      <c r="T36" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U36">
         <v>95</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>2182.41</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U36">
-        <v>98</v>
-      </c>
-      <c r="V36">
-        <v>873.59</v>
-      </c>
       <c r="W36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X36">
         <v>98</v>
       </c>
       <c r="Y36">
+        <v>873.59</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA36">
+        <v>98</v>
+      </c>
+      <c r="AB36">
         <v>3416.12</v>
       </c>
-      <c r="Z36" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC36" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3588,77 +3918,87 @@
         <v>1.01</v>
       </c>
       <c r="F37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>2631.16</v>
+        <v>2752.15</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I37">
         <v>79</v>
       </c>
       <c r="J37">
+        <v>2631.16</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L37">
+        <v>79</v>
+      </c>
+      <c r="M37">
         <v>2058.4499999999998</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L37">
+      <c r="N37" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O37">
         <v>81</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>694.69</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O37">
+      <c r="Q37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R37">
         <v>82</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>2913.24</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R37">
+      <c r="T37" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U37">
         <v>81</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1581.33</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U37">
+      <c r="W37" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X37">
         <v>87</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
         <v>2964.31</v>
       </c>
-      <c r="W37" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X37">
+      <c r="Z37" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA37">
         <v>88</v>
       </c>
-      <c r="Y37">
+      <c r="AB37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="Z37" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC37" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3678,74 +4018,84 @@
         <v>75</v>
       </c>
       <c r="G38">
-        <v>826.19</v>
+        <v>936.44</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I38">
         <v>75</v>
       </c>
       <c r="J38">
+        <v>826.19</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="L38">
+        <v>75</v>
+      </c>
+      <c r="M38">
         <v>1014.11</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L38">
+      <c r="N38" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="O38">
         <v>76</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>893.4</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O38">
+      <c r="Q38" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R38">
         <v>78</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>1792.42</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R38">
+      <c r="T38" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U38">
         <v>76</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1946.12</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U38">
+      <c r="W38" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X38">
         <v>84</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="W38" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X38">
+      <c r="Z38" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA38">
         <v>85</v>
       </c>
-      <c r="Y38">
+      <c r="AB38">
         <v>2839.94</v>
       </c>
-      <c r="Z38" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC38" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3762,77 +4112,87 @@
         <v>1.4</v>
       </c>
       <c r="F39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39">
-        <v>464.02</v>
+        <v>2259.2399999999998</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>opt</v>
       </c>
       <c r="I39">
         <v>57</v>
       </c>
       <c r="J39">
-        <v>212.52</v>
+        <v>464.02</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L39">
         <v>57</v>
       </c>
       <c r="M39">
+        <v>212.52</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O39">
+        <v>57</v>
+      </c>
+      <c r="P39">
         <v>1920.49</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O39">
+      <c r="Q39" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R39">
         <v>58</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>652.91999999999996</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R39">
+      <c r="T39" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U39">
         <v>60</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>178.08</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U39">
+      <c r="W39" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X39">
         <v>64</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>2213.38</v>
       </c>
-      <c r="W39" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X39">
+      <c r="Z39" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA39">
         <v>63</v>
       </c>
-      <c r="Y39">
+      <c r="AB39">
         <v>1404.51</v>
       </c>
-      <c r="Z39" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC39" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3849,77 +4209,87 @@
         <v>24.5</v>
       </c>
       <c r="F40">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>429.41</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I40">
         <v>77</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>1218.69</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I40">
-        <v>78</v>
-      </c>
-      <c r="J40">
-        <v>467.45</v>
-      </c>
       <c r="K40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L40">
         <v>78</v>
       </c>
       <c r="M40">
+        <v>467.45</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O40">
+        <v>78</v>
+      </c>
+      <c r="P40">
         <v>3577.82</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O40">
-        <v>79</v>
-      </c>
-      <c r="P40">
-        <v>2688.82</v>
-      </c>
       <c r="Q40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R40">
         <v>79</v>
       </c>
       <c r="S40">
+        <v>2688.82</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U40">
+        <v>79</v>
+      </c>
+      <c r="V40">
         <v>1845.81</v>
       </c>
-      <c r="T40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U40">
+      <c r="W40" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X40">
         <v>106</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
         <v>4030.49</v>
       </c>
-      <c r="W40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X40">
+      <c r="Z40" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA40">
         <v>88</v>
       </c>
-      <c r="Y40">
+      <c r="AB40">
         <v>2235.91</v>
       </c>
-      <c r="Z40" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC40" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3936,77 +4306,87 @@
         <v>1.25</v>
       </c>
       <c r="F41">
+        <v>83</v>
+      </c>
+      <c r="G41">
+        <v>1086.31</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="11"/>
+        <v>opt</v>
+      </c>
+      <c r="I41">
         <v>84</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>737.61</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I41">
+      <c r="K41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L41">
         <v>83</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>1723.67</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L41">
+      <c r="N41" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="O41">
         <v>84</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>1653.61</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O41">
+      <c r="Q41" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R41">
         <v>86</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>2125.84</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R41">
+      <c r="T41" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U41">
         <v>85</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>2982.1</v>
       </c>
-      <c r="T41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U41">
-        <v>88</v>
-      </c>
-      <c r="V41">
-        <v>758.9</v>
-      </c>
       <c r="W41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X41">
         <v>88</v>
       </c>
       <c r="Y41">
+        <v>758.9</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA41">
+        <v>88</v>
+      </c>
+      <c r="AB41">
         <v>3032.11</v>
       </c>
-      <c r="Z41" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC41" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4023,77 +4403,87 @@
         <v>1.23</v>
       </c>
       <c r="F42">
+        <v>85</v>
+      </c>
+      <c r="G42">
+        <v>1411.12</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I42">
         <v>84</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>2760.42</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="K42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L42">
         <v>85</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>3390.66</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L42">
-        <v>86</v>
-      </c>
-      <c r="M42">
-        <v>950.77</v>
-      </c>
       <c r="N42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O42">
         <v>86</v>
       </c>
       <c r="P42">
+        <v>950.77</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R42">
+        <v>86</v>
+      </c>
+      <c r="S42">
         <v>2935.53</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R42">
+      <c r="T42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U42">
         <v>85</v>
       </c>
-      <c r="S42">
+      <c r="V42">
         <v>2435.9299999999998</v>
       </c>
-      <c r="T42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U42">
+      <c r="W42" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X42">
         <v>92</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
         <v>2487.52</v>
       </c>
-      <c r="W42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X42">
+      <c r="Z42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA42">
         <v>93</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>1500.97</v>
       </c>
-      <c r="Z42" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC42" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -4113,74 +4503,84 @@
         <v>47</v>
       </c>
       <c r="G43">
-        <v>30.7</v>
+        <v>30.08</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>7.13</v>
+        <v>30.7</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="L43">
         <v>47</v>
       </c>
       <c r="M43">
-        <v>5.31</v>
+        <v>7.13</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="O43">
         <v>47</v>
       </c>
       <c r="P43">
-        <v>21.42</v>
+        <v>5.31</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
       <c r="R43">
         <v>47</v>
       </c>
       <c r="S43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>opt</v>
       </c>
       <c r="U43">
         <v>47</v>
       </c>
       <c r="V43">
+        <v>13.01</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+      <c r="X43">
+        <v>47</v>
+      </c>
+      <c r="Y43">
         <v>162.75</v>
       </c>
-      <c r="W43" t="str">
-        <f t="shared" si="15"/>
-        <v>opt</v>
-      </c>
-      <c r="X43">
+      <c r="Z43" t="str">
+        <f t="shared" si="17"/>
+        <v>opt</v>
+      </c>
+      <c r="AA43">
         <v>48</v>
       </c>
-      <c r="Y43">
+      <c r="AB43">
         <v>551.9</v>
       </c>
-      <c r="Z43" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC43" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4200,74 +4600,84 @@
         <v>62</v>
       </c>
       <c r="G44">
+        <v>313.45999999999998</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I44">
+        <v>62</v>
+      </c>
+      <c r="J44">
         <v>203.29</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I44">
+      <c r="K44" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L44">
         <v>61</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>3070.27</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L44">
-        <v>63</v>
-      </c>
-      <c r="M44">
-        <v>31.04</v>
-      </c>
       <c r="N44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O44">
         <v>63</v>
       </c>
       <c r="P44">
-        <v>348.49</v>
+        <v>31.04</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R44">
         <v>63</v>
       </c>
       <c r="S44">
+        <v>348.49</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U44">
+        <v>63</v>
+      </c>
+      <c r="V44">
         <v>3516.79</v>
       </c>
-      <c r="T44" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U44">
+      <c r="W44" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X44">
         <v>66</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
         <v>3060.12</v>
       </c>
-      <c r="W44" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X44">
+      <c r="Z44" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA44">
         <v>69</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
         <v>1302.26</v>
       </c>
-      <c r="Z44" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC44" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4284,77 +4694,87 @@
         <v>1.77</v>
       </c>
       <c r="F45">
+        <v>85</v>
+      </c>
+      <c r="G45">
+        <v>190.38</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I45">
         <v>84</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>2564.61</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="K45" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L45">
         <v>85</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>541.58000000000004</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L45">
+      <c r="N45" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O45">
         <v>84</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>1204.01</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O45">
-        <v>86</v>
-      </c>
-      <c r="P45">
-        <v>160.27000000000001</v>
-      </c>
       <c r="Q45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R45">
         <v>86</v>
       </c>
       <c r="S45">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U45">
+        <v>86</v>
+      </c>
+      <c r="V45">
         <v>2140.17</v>
       </c>
-      <c r="T45" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U45">
+      <c r="W45" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X45">
         <v>90</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
         <v>2247.27</v>
       </c>
-      <c r="W45" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X45">
+      <c r="Z45" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA45">
         <v>91</v>
       </c>
-      <c r="Y45">
+      <c r="AB45">
         <v>2549.39</v>
       </c>
-      <c r="Z45" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC45" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -4374,74 +4794,84 @@
         <v>49</v>
       </c>
       <c r="G46">
-        <v>891.37</v>
+        <v>378.95</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I46">
         <v>49</v>
       </c>
       <c r="J46">
+        <v>891.37</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="L46">
+        <v>49</v>
+      </c>
+      <c r="M46">
         <v>1797.56</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="L46">
-        <v>51</v>
-      </c>
-      <c r="M46">
-        <v>30.79</v>
-      </c>
       <c r="N46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>opt</v>
       </c>
       <c r="O46">
         <v>51</v>
       </c>
       <c r="P46">
+        <v>30.79</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R46">
+        <v>51</v>
+      </c>
+      <c r="S46">
         <v>2167.62</v>
       </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R46">
+      <c r="T46" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U46">
         <v>50</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>3148.79</v>
       </c>
-      <c r="T46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U46">
+      <c r="W46" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X46">
         <v>52</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>2009.49</v>
       </c>
-      <c r="W46" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X46">
+      <c r="Z46" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA46">
         <v>53</v>
       </c>
-      <c r="Y46">
+      <c r="AB46">
         <v>162.55000000000001</v>
       </c>
-      <c r="Z46" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC46" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4461,74 +4891,84 @@
         <v>73</v>
       </c>
       <c r="G47">
-        <v>1058.1300000000001</v>
+        <v>223.74</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I47">
         <v>73</v>
       </c>
       <c r="J47">
-        <v>220.51</v>
+        <v>1058.1300000000001</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="L47">
         <v>73</v>
       </c>
       <c r="M47">
-        <v>274.13</v>
+        <v>220.51</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="O47">
         <v>73</v>
       </c>
       <c r="P47">
-        <v>3294.1</v>
+        <v>274.13</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
       <c r="R47">
         <v>73</v>
       </c>
       <c r="S47">
+        <v>3294.1</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="U47">
+        <v>73</v>
+      </c>
+      <c r="V47">
         <v>248.24</v>
       </c>
-      <c r="T47" t="str">
-        <f t="shared" si="14"/>
-        <v>opt</v>
-      </c>
-      <c r="U47">
+      <c r="W47" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+      <c r="X47">
         <v>75</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
         <v>3003.53</v>
       </c>
-      <c r="W47" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X47">
+      <c r="Z47" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA47">
         <v>80</v>
       </c>
-      <c r="Y47">
+      <c r="AB47">
         <v>468.54</v>
       </c>
-      <c r="Z47" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC47" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4548,74 +4988,84 @@
         <v>68</v>
       </c>
       <c r="G48">
-        <v>81.7</v>
+        <v>81.99</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>opt</v>
       </c>
       <c r="I48">
         <v>68</v>
       </c>
       <c r="J48">
-        <v>18.3</v>
+        <v>81.7</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="L48">
         <v>68</v>
       </c>
       <c r="M48">
+        <v>18.3</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="O48">
+        <v>68</v>
+      </c>
+      <c r="P48">
         <v>33.49</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="12"/>
-        <v>opt</v>
-      </c>
-      <c r="O48">
+      <c r="Q48" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="R48">
         <v>69</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>21.14</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R48">
+      <c r="T48" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U48">
         <v>68</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>32.380000000000003</v>
       </c>
-      <c r="T48" t="str">
-        <f t="shared" si="14"/>
-        <v>opt</v>
-      </c>
-      <c r="U48">
+      <c r="W48" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+      <c r="X48">
         <v>70</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
         <v>501.68</v>
       </c>
-      <c r="W48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X48">
+      <c r="Z48" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA48">
         <v>68</v>
       </c>
-      <c r="Y48">
+      <c r="AB48">
         <v>1847.68</v>
       </c>
-      <c r="Z48" t="str">
-        <f t="shared" si="16"/>
+      <c r="AC48" t="str">
+        <f t="shared" si="18"/>
         <v>opt</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -4624,106 +5074,118 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="17">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="19">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="18">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="20">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:S49" si="19">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:V49" si="21">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="19"/>
-        <v>71.099999999999994</v>
+        <f t="shared" si="21"/>
+        <v>71.2</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="19"/>
-        <v>1274.7805000000003</v>
+        <f t="shared" si="21"/>
+        <v>1084.7075000000002</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71.099999999999994</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="19"/>
-        <v>1222.4570000000001</v>
+        <f t="shared" si="21"/>
+        <v>1274.7805000000003</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="19"/>
-        <v>71.95</v>
+        <f t="shared" si="21"/>
+        <v>71.099999999999994</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="19"/>
-        <v>928.15500000000009</v>
+        <f t="shared" si="21"/>
+        <v>1222.4570000000001</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="19"/>
-        <v>72.849999999999994</v>
+        <f t="shared" si="21"/>
+        <v>71.95</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="19"/>
-        <v>1487.6964999999998</v>
+        <f t="shared" si="21"/>
+        <v>928.15500000000009</v>
       </c>
       <c r="Q49" s="1">
         <f>COUNTIF(Q29:Q48, "opt")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="19"/>
-        <v>72.3</v>
+        <f t="shared" si="21"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="19"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="21"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="T49" s="1">
         <f>COUNTIF(T29:T48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" ref="U49" si="20">AVERAGE(U29:U48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="21"/>
+        <v>72.3</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" ref="V49" si="21">AVERAGE(V29:V48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="21"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="W49" s="1">
         <f>COUNTIF(W29:W48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" ref="X49" si="22">AVERAGE(X29:X48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" ref="Y49" si="23">AVERAGE(Y29:Y48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="Z49" s="1">
         <f>COUNTIF(Z29:Z48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
+      <c r="AA49" s="1">
+        <f t="shared" ref="AA49" si="24">AVERAGE(AA29:AA48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" ref="AB49" si="25">AVERAGE(AB29:AB48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="AC49" s="1">
+        <f>COUNTIF(AC29:AC48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>33</v>
@@ -4752,8 +5214,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -4762,40 +5227,45 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="3" t="s">
+      <c r="L52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
+      <c r="AA52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,18 +5299,18 @@
       <c r="K53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
         <v>22</v>
       </c>
@@ -4868,8 +5338,17 @@
       <c r="Z53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AA53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4889,64 +5368,74 @@
         <v>139</v>
       </c>
       <c r="G54">
-        <v>2079.62</v>
+        <v>3128.3</v>
       </c>
       <c r="H54" t="str">
-        <f>IF($B54=F54, "opt", "")</f>
-        <v>opt</v>
+        <f>IF($C54=F54, "opt", "")</f>
+        <v/>
       </c>
       <c r="I54">
         <v>139</v>
       </c>
       <c r="J54">
+        <v>2079.62</v>
+      </c>
+      <c r="K54" t="str">
+        <f>IF($C54=I54, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L54">
+        <v>139</v>
+      </c>
+      <c r="M54">
         <v>1127.6600000000001</v>
       </c>
-      <c r="K54" t="str">
-        <f>IF($B54=I54, "opt", "")</f>
-        <v>opt</v>
-      </c>
-      <c r="O54">
+      <c r="N54" t="str">
+        <f>IF($C54=L54, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R54">
         <v>144</v>
       </c>
-      <c r="P54">
+      <c r="S54">
         <v>254.58</v>
-      </c>
-      <c r="Q54" t="str">
-        <f>IF($B54=O54, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R54">
-        <v>142</v>
-      </c>
-      <c r="S54">
-        <v>657.06</v>
       </c>
       <c r="T54" t="str">
         <f>IF($B54=R54, "opt", "")</f>
         <v/>
       </c>
       <c r="U54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="V54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="W54" t="str">
         <f>IF($B54=U54, "opt", "")</f>
         <v/>
       </c>
       <c r="X54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="Z54" t="str">
         <f>IF($B54=X54, "opt", "")</f>
         <v/>
       </c>
+      <c r="AA54">
+        <v>149</v>
+      </c>
+      <c r="AB54">
+        <v>2862.68</v>
+      </c>
+      <c r="AC54" t="str">
+        <f>IF($B54=AA54, "opt", "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4966,64 +5455,74 @@
         <v>149</v>
       </c>
       <c r="G55">
-        <v>699.74</v>
+        <v>771.27</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="24">IF($B55=F55, "opt", "")</f>
+        <f t="shared" ref="H55:H73" si="26">IF($C55=F55, "opt", "")</f>
         <v/>
       </c>
       <c r="I55">
         <v>149</v>
       </c>
       <c r="J55">
+        <v>699.74</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K73" si="27">IF($C55=I55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L55">
+        <v>149</v>
+      </c>
+      <c r="M55">
         <v>1195.83</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="25">IF($B55=I55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="O55">
+      <c r="N55" t="str">
+        <f t="shared" ref="N55:N73" si="28">IF($C55=L55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="R55">
         <v>154</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>2386.46</v>
       </c>
-      <c r="Q55" t="str">
-        <f t="shared" ref="Q55:Q73" si="26">IF($B55=O55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R55">
+      <c r="T55" t="str">
+        <f t="shared" ref="T55:T73" si="29">IF($B55=R55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U55">
         <v>152</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>2672.73</v>
       </c>
-      <c r="T55" t="str">
-        <f t="shared" ref="T55:T73" si="27">IF($B55=R55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U55">
+      <c r="W55" t="str">
+        <f t="shared" ref="W55:W73" si="30">IF($B55=U55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X55">
         <v>182</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
         <v>3637.73</v>
       </c>
-      <c r="W55" t="str">
-        <f t="shared" ref="W55:W73" si="28">IF($B55=U55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="X55">
+      <c r="Z55" t="str">
+        <f t="shared" ref="Z55:Z73" si="31">IF($B55=X55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AA55">
         <v>169</v>
       </c>
-      <c r="Y55">
+      <c r="AB55">
         <v>2837.51</v>
       </c>
-      <c r="Z55" t="str">
-        <f t="shared" ref="Z55:Z73" si="29">IF($B55=X55, "opt", "")</f>
+      <c r="AC55" t="str">
+        <f t="shared" ref="AC55:AC73" si="32">IF($B55=AA55, "opt", "")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -5043,64 +5542,74 @@
         <v>78</v>
       </c>
       <c r="G56">
-        <v>1350.66</v>
+        <v>174.01</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I56">
         <v>78</v>
       </c>
       <c r="J56">
+        <v>1350.66</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L56">
+        <v>78</v>
+      </c>
+      <c r="M56">
         <v>183.53</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O56">
+      <c r="N56" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R56">
         <v>83</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>309.95999999999998</v>
       </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R56">
+      <c r="T56" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U56">
         <v>82</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1015.5</v>
       </c>
-      <c r="T56" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U56">
+      <c r="W56" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X56">
         <v>89</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
         <v>714.64</v>
       </c>
-      <c r="W56" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X56">
+      <c r="Z56" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA56">
         <v>87</v>
       </c>
-      <c r="Y56">
+      <c r="AB56">
         <v>3470.98</v>
       </c>
-      <c r="Z56" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC56" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -5117,67 +5626,77 @@
         <v>3631.76</v>
       </c>
       <c r="F57">
+        <v>148</v>
+      </c>
+      <c r="G57">
+        <v>3048.54</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I57">
         <v>147</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>2517.2800000000002</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I57">
+      <c r="K57" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L57">
         <v>148</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>2908.23</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O57">
+      <c r="N57" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R57">
         <v>154</v>
       </c>
-      <c r="P57">
+      <c r="S57">
         <v>2378.6999999999998</v>
       </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R57">
+      <c r="T57" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U57">
         <v>151</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1923.96</v>
       </c>
-      <c r="T57" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U57">
+      <c r="W57" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X57">
         <v>165</v>
       </c>
-      <c r="V57">
+      <c r="Y57">
         <v>3447.42</v>
       </c>
-      <c r="W57" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X57">
+      <c r="Z57" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA57">
         <v>162</v>
       </c>
-      <c r="Y57">
+      <c r="AB57">
         <v>1616.56</v>
       </c>
-      <c r="Z57" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC57" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5194,67 +5713,77 @@
         <v>911.98</v>
       </c>
       <c r="F58">
+        <v>159</v>
+      </c>
+      <c r="G58">
+        <v>1607.49</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I58">
         <v>158</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>2815.96</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I58">
+      <c r="K58" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L58">
         <v>159</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>624.89</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O58">
+      <c r="N58" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R58">
         <v>165</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>648.26</v>
       </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R58">
+      <c r="T58" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U58">
         <v>160</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>2621.15</v>
       </c>
-      <c r="T58" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U58">
+      <c r="W58" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X58">
         <v>168</v>
       </c>
-      <c r="V58">
+      <c r="Y58">
         <v>1174.47</v>
       </c>
-      <c r="W58" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X58">
+      <c r="Z58" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA58">
         <v>165</v>
       </c>
-      <c r="Y58">
+      <c r="AB58">
         <v>2670.1</v>
       </c>
-      <c r="Z58" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC58" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -5271,67 +5800,77 @@
         <v>3604.64</v>
       </c>
       <c r="F59">
+        <v>149</v>
+      </c>
+      <c r="G59">
+        <v>1678.19</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I59">
         <v>150</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>920.01</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I59">
+      <c r="K59" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L59">
         <v>149</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>1622.87</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O59">
+      <c r="N59" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R59">
         <v>154</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>1211.22</v>
       </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R59">
+      <c r="T59" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U59">
         <v>152</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1347.62</v>
       </c>
-      <c r="T59" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U59">
+      <c r="W59" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X59">
         <v>162</v>
       </c>
-      <c r="V59">
+      <c r="Y59">
         <v>1435.66</v>
       </c>
-      <c r="W59" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X59">
+      <c r="Z59" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA59">
         <v>159</v>
       </c>
-      <c r="Y59">
+      <c r="AB59">
         <v>3351.26</v>
       </c>
-      <c r="Z59" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC59" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -5348,67 +5887,77 @@
         <v>3655.54</v>
       </c>
       <c r="F60">
+        <v>158</v>
+      </c>
+      <c r="G60">
+        <v>1770.57</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I60">
         <v>159</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>663.08</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I60">
+      <c r="K60" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L60">
         <v>157</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1349.34</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O60">
+      <c r="N60" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R60">
         <v>162</v>
       </c>
-      <c r="P60">
+      <c r="S60">
         <v>1868.42</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R60">
+      <c r="T60" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U60">
         <v>160</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1825.03</v>
       </c>
-      <c r="T60" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U60">
+      <c r="W60" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X60">
         <v>169</v>
       </c>
-      <c r="V60">
+      <c r="Y60">
         <v>1391.51</v>
       </c>
-      <c r="W60" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X60">
+      <c r="Z60" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA60">
         <v>172</v>
       </c>
-      <c r="Y60">
+      <c r="AB60">
         <v>2752.16</v>
       </c>
-      <c r="Z60" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC60" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5428,64 +5977,74 @@
         <v>176</v>
       </c>
       <c r="G61">
-        <v>2346.75</v>
+        <v>2557.77</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I61">
         <v>176</v>
       </c>
       <c r="J61">
+        <v>2346.75</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L61">
+        <v>176</v>
+      </c>
+      <c r="M61">
         <v>1061.81</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O61">
+      <c r="N61" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R61">
         <v>177</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>3139.32</v>
       </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R61">
+      <c r="T61" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U61">
         <v>180</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>2940.9</v>
       </c>
-      <c r="T61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U61">
+      <c r="W61" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X61">
         <v>190</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
         <v>1329.91</v>
       </c>
-      <c r="W61" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X61">
+      <c r="Z61" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA61">
         <v>185</v>
       </c>
-      <c r="Y61">
+      <c r="AB61">
         <v>1546.74</v>
       </c>
-      <c r="Z61" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC61" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5505,64 +6064,74 @@
         <v>154</v>
       </c>
       <c r="G62">
+        <v>3201.24</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I62">
+        <v>154</v>
+      </c>
+      <c r="J62">
         <v>1784.28</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I62">
+      <c r="K62" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L62">
         <v>153</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>1347.81</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O62">
-        <v>156</v>
-      </c>
-      <c r="P62">
-        <v>1556.14</v>
-      </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="26"/>
+      <c r="N62" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R62">
         <v>156</v>
       </c>
       <c r="S62">
+        <v>1556.14</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U62">
+        <v>156</v>
+      </c>
+      <c r="V62">
         <v>1724.02</v>
       </c>
-      <c r="T62" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U62">
-        <v>166</v>
-      </c>
-      <c r="V62">
-        <v>3240.09</v>
-      </c>
       <c r="W62" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X62">
         <v>166</v>
       </c>
       <c r="Y62">
+        <v>3240.09</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA62">
+        <v>166</v>
+      </c>
+      <c r="AB62">
         <v>3490.77</v>
       </c>
-      <c r="Z62" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC62" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5579,67 +6148,77 @@
         <v>3602.38</v>
       </c>
       <c r="F63">
+        <v>150</v>
+      </c>
+      <c r="G63">
+        <v>3078.57</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I63">
         <v>151</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>2212.6</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I63">
+      <c r="K63" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L63">
         <v>149</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>1544.1</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O63">
+      <c r="N63" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R63">
         <v>153</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>3116.66</v>
       </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R63">
+      <c r="T63" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U63">
         <v>155</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1856.66</v>
       </c>
-      <c r="T63" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U63">
+      <c r="W63" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X63">
         <v>162</v>
       </c>
-      <c r="V63">
+      <c r="Y63">
         <v>3571.87</v>
       </c>
-      <c r="W63" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X63">
+      <c r="Z63" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA63">
         <v>165</v>
       </c>
-      <c r="Y63">
+      <c r="AB63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="Z63" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC63" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -5656,67 +6235,77 @@
         <v>338.36</v>
       </c>
       <c r="F64">
+        <v>114</v>
+      </c>
+      <c r="G64">
+        <v>980.8</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I64">
         <v>112</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>1582.14</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="K64" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L64">
         <v>113</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>2530.9</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O64">
+      <c r="N64" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R64">
         <v>117</v>
       </c>
-      <c r="P64">
+      <c r="S64">
         <v>1565.52</v>
       </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R64">
+      <c r="T64" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U64">
         <v>114</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>2136.59</v>
       </c>
-      <c r="T64" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U64">
+      <c r="W64" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X64">
         <v>125</v>
       </c>
-      <c r="V64">
+      <c r="Y64">
         <v>2636.94</v>
       </c>
-      <c r="W64" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X64">
+      <c r="Z64" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA64">
         <v>124</v>
       </c>
-      <c r="Y64">
+      <c r="AB64">
         <v>3155.58</v>
       </c>
-      <c r="Z64" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC64" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5733,67 +6322,77 @@
         <v>3620.36</v>
       </c>
       <c r="F65">
+        <v>156</v>
+      </c>
+      <c r="G65">
+        <v>1521.91</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I65">
         <v>155</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>1804.07</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="K65" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L65">
         <v>156</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>1474.89</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O65">
+      <c r="N65" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R65">
         <v>162</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>882.17</v>
       </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R65">
+      <c r="T65" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U65">
         <v>160</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>956.97</v>
       </c>
-      <c r="T65" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U65">
+      <c r="W65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X65">
         <v>214</v>
       </c>
-      <c r="V65">
+      <c r="Y65">
         <v>5236.25</v>
       </c>
-      <c r="W65" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X65">
+      <c r="Z65" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA65">
         <v>173</v>
       </c>
-      <c r="Y65">
+      <c r="AB65">
         <v>3430.55</v>
       </c>
-      <c r="Z65" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -5813,64 +6412,74 @@
         <v>152</v>
       </c>
       <c r="G66">
-        <v>2573.63</v>
+        <v>1669.07</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I66">
         <v>152</v>
       </c>
       <c r="J66">
+        <v>2573.63</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L66">
+        <v>152</v>
+      </c>
+      <c r="M66">
         <v>1319.81</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O66">
+      <c r="N66" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R66">
         <v>156</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>3508.34</v>
       </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R66">
+      <c r="T66" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U66">
         <v>158</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>2765.03</v>
       </c>
-      <c r="T66" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U66">
+      <c r="W66" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X66">
         <v>166</v>
       </c>
-      <c r="V66">
+      <c r="Y66">
         <v>1399.34</v>
       </c>
-      <c r="W66" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X66">
+      <c r="Z66" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA66">
         <v>164</v>
       </c>
-      <c r="Y66">
+      <c r="AB66">
         <v>2690.94</v>
       </c>
-      <c r="Z66" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC66" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5887,67 +6496,77 @@
         <v>236.64</v>
       </c>
       <c r="F67">
+        <v>168</v>
+      </c>
+      <c r="G67">
+        <v>2545.58</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I67">
         <v>167</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>2644.98</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="K67" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L67">
         <v>166</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>1197.1400000000001</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O67">
+      <c r="N67" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R67">
         <v>172</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>1535.47</v>
       </c>
-      <c r="Q67" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R67">
+      <c r="T67" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U67">
         <v>168</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>3493.09</v>
       </c>
-      <c r="T67" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U67">
+      <c r="W67" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X67">
         <v>191</v>
       </c>
-      <c r="V67">
+      <c r="Y67">
         <v>3558.47</v>
       </c>
-      <c r="W67" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X67">
+      <c r="Z67" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA67">
         <v>184</v>
       </c>
-      <c r="Y67">
+      <c r="AB67">
         <v>1410.68</v>
       </c>
-      <c r="Z67" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC67" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -5967,64 +6586,74 @@
         <v>89</v>
       </c>
       <c r="G68">
-        <v>395.04</v>
+        <v>405.01</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>opt</v>
       </c>
       <c r="I68">
         <v>89</v>
       </c>
       <c r="J68">
+        <v>395.04</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="27"/>
+        <v>opt</v>
+      </c>
+      <c r="L68">
+        <v>89</v>
+      </c>
+      <c r="M68">
         <v>271.16000000000003</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="25"/>
-        <v>opt</v>
-      </c>
-      <c r="O68">
+      <c r="N68" t="str">
+        <f t="shared" si="28"/>
+        <v>opt</v>
+      </c>
+      <c r="R68">
         <v>89</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>1872.38</v>
       </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="26"/>
-        <v>opt</v>
-      </c>
-      <c r="R68">
+      <c r="T68" t="str">
+        <f t="shared" si="29"/>
+        <v>opt</v>
+      </c>
+      <c r="U68">
         <v>90</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>20.65</v>
       </c>
-      <c r="T68" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U68">
+      <c r="W68" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X68">
         <v>93</v>
       </c>
-      <c r="V68">
+      <c r="Y68">
         <v>2570.6</v>
       </c>
-      <c r="W68" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X68">
+      <c r="Z68" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA68">
         <v>91</v>
       </c>
-      <c r="Y68">
+      <c r="AB68">
         <v>894.18</v>
       </c>
-      <c r="Z68" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC68" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6044,64 +6673,74 @@
         <v>116</v>
       </c>
       <c r="G69">
-        <v>1425.41</v>
+        <v>2786.62</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I69">
         <v>116</v>
       </c>
       <c r="J69">
+        <v>1425.41</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L69">
+        <v>116</v>
+      </c>
+      <c r="M69">
         <v>1001.59</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O69">
-        <v>121</v>
-      </c>
-      <c r="P69">
-        <v>1535.21</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="26"/>
+      <c r="N69" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R69">
         <v>121</v>
       </c>
       <c r="S69">
+        <v>1535.21</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U69">
+        <v>121</v>
+      </c>
+      <c r="V69">
         <v>3062.52</v>
       </c>
-      <c r="T69" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U69">
+      <c r="W69" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X69">
         <v>128</v>
       </c>
-      <c r="V69">
+      <c r="Y69">
         <v>2018.32</v>
       </c>
-      <c r="W69" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X69">
+      <c r="Z69" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA69">
         <v>127</v>
       </c>
-      <c r="Y69">
+      <c r="AB69">
         <v>3492.04</v>
       </c>
-      <c r="Z69" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC69" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -6121,64 +6760,74 @@
         <v>161</v>
       </c>
       <c r="G70">
-        <v>2542.58</v>
+        <v>2607.14</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I70">
         <v>161</v>
       </c>
       <c r="J70">
+        <v>2542.58</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L70">
+        <v>161</v>
+      </c>
+      <c r="M70">
         <v>899.57</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O70">
-        <v>166</v>
-      </c>
-      <c r="P70">
-        <v>3144.44</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="26"/>
+      <c r="N70" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R70">
         <v>166</v>
       </c>
       <c r="S70">
+        <v>3144.44</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U70">
+        <v>166</v>
+      </c>
+      <c r="V70">
         <v>1031.4100000000001</v>
       </c>
-      <c r="T70" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U70">
-        <v>180</v>
-      </c>
-      <c r="V70">
-        <v>2915.07</v>
-      </c>
       <c r="W70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X70">
         <v>180</v>
       </c>
       <c r="Y70">
+        <v>2915.07</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA70">
+        <v>180</v>
+      </c>
+      <c r="AB70">
         <v>2578.83</v>
       </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC70" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -6195,67 +6844,77 @@
         <v>53.23</v>
       </c>
       <c r="F71">
+        <v>98</v>
+      </c>
+      <c r="G71">
+        <v>918.64</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I71">
         <v>97</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>2929.37</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I71">
+      <c r="K71" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L71">
         <v>98</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>502.15</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O71">
+      <c r="N71" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R71">
         <v>99</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>1565.23</v>
       </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R71">
+      <c r="T71" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U71">
         <v>101</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>351.49</v>
       </c>
-      <c r="T71" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U71">
+      <c r="W71" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X71">
         <v>104</v>
       </c>
-      <c r="V71">
+      <c r="Y71">
         <v>891.9</v>
       </c>
-      <c r="W71" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X71">
+      <c r="Z71" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA71">
         <v>100</v>
       </c>
-      <c r="Y71">
+      <c r="AB71">
         <v>1374.47</v>
       </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC71" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -6272,67 +6931,77 @@
         <v>3637.62</v>
       </c>
       <c r="F72">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G72">
-        <v>1246.8</v>
+        <v>2099.4899999999998</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I72">
         <v>141</v>
       </c>
       <c r="J72">
+        <v>1246.8</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L72">
+        <v>141</v>
+      </c>
+      <c r="M72">
         <v>2469.15</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O72">
-        <v>144</v>
-      </c>
-      <c r="P72">
-        <v>927.05</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="26"/>
+      <c r="N72" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R72">
         <v>144</v>
       </c>
       <c r="S72">
+        <v>927.05</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U72">
+        <v>144</v>
+      </c>
+      <c r="V72">
         <v>903.06</v>
       </c>
-      <c r="T72" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U72">
-        <v>151</v>
-      </c>
-      <c r="V72">
-        <v>1895.86</v>
-      </c>
       <c r="W72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X72">
         <v>151</v>
       </c>
       <c r="Y72">
+        <v>1895.86</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA72">
+        <v>151</v>
+      </c>
+      <c r="AB72">
         <v>3455.11</v>
       </c>
-      <c r="Z72" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC72" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6352,64 +7021,74 @@
         <v>130</v>
       </c>
       <c r="G73">
+        <v>1894.94</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I73">
+        <v>130</v>
+      </c>
+      <c r="J73">
         <v>1434.5</v>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I73">
+      <c r="K73" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L73">
         <v>131</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>442.44</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O73">
+      <c r="N73" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R73">
         <v>132</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>2536.19</v>
       </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R73">
+      <c r="T73" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="U73">
         <v>131</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2013.01</v>
       </c>
-      <c r="T73" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="U73">
+      <c r="W73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X73">
         <v>142</v>
       </c>
-      <c r="V73">
+      <c r="Y73">
         <v>1693.27</v>
       </c>
-      <c r="W73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="X73">
+      <c r="Z73" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA73">
         <v>139</v>
       </c>
-      <c r="Y73">
+      <c r="AB73">
         <v>1350.2</v>
       </c>
-      <c r="Z73" t="str">
-        <f t="shared" si="29"/>
+      <c r="AC73" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -6418,124 +7097,139 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="30">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="33">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="31">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="34">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:S74" si="32">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:V74" si="35">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="32"/>
-        <v>139.05000000000001</v>
+        <f t="shared" si="35"/>
+        <v>139.19999999999999</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="32"/>
-        <v>1798.4250000000004</v>
+        <f t="shared" si="35"/>
+        <v>1922.2574999999997</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="32"/>
-        <v>139</v>
+        <f t="shared" si="35"/>
+        <v>139.05000000000001</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="32"/>
-        <v>1253.7435</v>
+        <f t="shared" si="35"/>
+        <v>1798.4250000000004</v>
       </c>
       <c r="K74" s="1">
         <f>COUNTIF(K54:K73, "opt")</f>
-        <v>2</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1">
-        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="35"/>
+        <v>139</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="35"/>
+        <v>1253.7435</v>
+      </c>
+      <c r="N74" s="1">
+        <f>COUNTIF(N54:N73, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1">
+        <f t="shared" si="35"/>
         <v>143</v>
       </c>
-      <c r="P74" s="1">
-        <f t="shared" si="32"/>
+      <c r="S74" s="1">
+        <f t="shared" si="35"/>
         <v>1797.086</v>
-      </c>
-      <c r="Q74" s="1">
-        <f>COUNTIF(Q54:Q73, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="R74" s="1">
-        <f t="shared" si="32"/>
-        <v>142.15</v>
-      </c>
-      <c r="S74" s="1">
-        <f t="shared" si="32"/>
-        <v>1765.9225000000001</v>
       </c>
       <c r="T74" s="1">
         <f>COUNTIF(T54:T73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74" si="33">AVERAGE(U54:U73)</f>
-        <v>154.85</v>
+        <f t="shared" si="35"/>
+        <v>142.15</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74" si="34">AVERAGE(V54:V73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="35"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="W74" s="1">
         <f>COUNTIF(W54:W73, "opt")</f>
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" ref="X74" si="35">AVERAGE(X54:X73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="X74" si="36">AVERAGE(X54:X73)</f>
+        <v>154.85</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" ref="Y74" si="36">AVERAGE(Y54:Y73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="Y74" si="37">AVERAGE(Y54:Y73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="Z74" s="1">
         <f>COUNTIF(Z54:Z73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="AA74" s="1">
+        <f t="shared" ref="AA74" si="38">AVERAGE(AA54:AA73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="AB74" s="1">
+        <f t="shared" ref="AB74" si="39">AVERAGE(AB54:AB73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="AC74" s="1">
+        <f>COUNTIF(AC54:AC73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AB1:AD74">
-    <sortCondition ref="AB1:AB74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE1:AG20">
+    <sortCondition ref="AE1:AE20"/>
   </sortState>
-  <mergeCells count="26">
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B51:Z51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="B26:Z26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="F27:H27"/>
+  <mergeCells count="29">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B1:AC1"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="B1:Z1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B26:AC26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B51:AC51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48437A2-FAD7-448C-807D-D77B3C957415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3EE63-B034-4614-BD30-00B5D8314F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,6 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,7 +526,7 @@
   <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +743,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -848,7 +849,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -954,7 +955,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -1060,7 +1061,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -1166,7 +1167,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -1272,7 +1273,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -1378,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -1484,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1590,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1696,7 +1697,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1802,7 +1803,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1908,7 +1909,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -2014,7 +2015,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -2120,7 +2121,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -2226,7 +2227,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -2332,7 +2333,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -2438,7 +2439,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -2544,7 +2545,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -2641,7 +2642,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -2738,7 +2739,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -7201,6 +7202,25 @@
     <sortCondition ref="AE1:AE20"/>
   </sortState>
   <mergeCells count="29">
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B51:AC51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B26:AC26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
@@ -7211,25 +7231,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B26:AC26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B51:AC51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3EE63-B034-4614-BD30-00B5D8314F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D56AC6-36E1-43E4-9F26-9FB35431C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
   <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -849,7 +849,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1697,7 +1697,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1909,7 +1909,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -3127,7 +3127,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B29">
@@ -3224,7 +3224,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B30">
@@ -3321,7 +3321,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B31">
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B32">
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B33">
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34">
@@ -3709,7 +3709,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B35">
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36">
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B37">
@@ -4000,7 +4000,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B38">
@@ -4097,7 +4097,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B39">
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B40">
@@ -4291,7 +4291,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41">
@@ -4388,7 +4388,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B42">
@@ -4485,7 +4485,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B43">
@@ -4582,7 +4582,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B44">
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B45">
@@ -4776,7 +4776,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B46">
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B47">
@@ -4970,7 +4970,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B48">
@@ -7202,15 +7202,16 @@
     <sortCondition ref="AE1:AE20"/>
   </sortState>
   <mergeCells count="29">
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B51:AC51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B1:AC1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B26:AC26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="X27:Z27"/>
@@ -7221,16 +7222,15 @@
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B1:AC1"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B51:AC51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D56AC6-36E1-43E4-9F26-9FB35431C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B8F77-BC2E-4AE6-A624-D0C942E40CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="42">
   <si>
     <t>bath.txt</t>
   </si>
@@ -157,6 +157,12 @@
   <si>
     <t>VNS d(1…) 21.1. 11:09:19 fixed nodes</t>
   </si>
+  <si>
+    <t>VNS+GA params</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> True</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,7 +214,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,28 +528,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="8" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="11" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>21</v>
@@ -576,17 +583,23 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AE1" t="s">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AH1" t="s">
         <v>0</v>
       </c>
-      <c r="AF1">
+      <c r="AI1">
         <v>139</v>
       </c>
-      <c r="AG1">
-        <v>3128.3</v>
+      <c r="AJ1">
+        <v>348.67</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -595,56 +608,64 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AE2" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AH2" t="s">
         <v>1</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <v>149</v>
       </c>
-      <c r="AG2">
-        <v>771.27</v>
+      <c r="AJ2">
+        <v>596.05999999999995</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,17 +753,29 @@
       <c r="AC3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" t="s">
         <v>2</v>
       </c>
-      <c r="AF3">
-        <v>78</v>
-      </c>
-      <c r="AG3">
-        <v>174.01</v>
+      <c r="AI3">
+        <v>79</v>
+      </c>
+      <c r="AJ3">
+        <v>20.34</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +795,7 @@
         <v>38</v>
       </c>
       <c r="G4">
-        <v>40.04</v>
+        <v>5.87</v>
       </c>
       <c r="H4" t="str">
         <f>IF($B4=F4, "opt", "")</f>
@@ -772,7 +805,7 @@
         <v>38</v>
       </c>
       <c r="J4">
-        <v>222.86</v>
+        <v>40.04</v>
       </c>
       <c r="K4" t="str">
         <f>IF($B4=I4, "opt", "")</f>
@@ -782,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="M4">
-        <v>33.450000000000003</v>
+        <v>222.86</v>
       </c>
       <c r="N4" t="str">
         <f>IF($B4=L4, "opt", "")</f>
@@ -792,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="P4">
-        <v>862.72</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="Q4" t="str">
         <f>IF($B4=O4, "opt", "")</f>
@@ -802,7 +835,7 @@
         <v>38</v>
       </c>
       <c r="S4">
-        <v>865.69</v>
+        <v>862.72</v>
       </c>
       <c r="T4" t="str">
         <f>IF($B4=R4, "opt", "")</f>
@@ -812,7 +845,7 @@
         <v>38</v>
       </c>
       <c r="V4">
-        <v>317.54000000000002</v>
+        <v>865.69</v>
       </c>
       <c r="W4" t="str">
         <f>IF($B4=U4, "opt", "")</f>
@@ -822,33 +855,46 @@
         <v>38</v>
       </c>
       <c r="Y4">
-        <v>535.66999999999996</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="Z4" t="str">
         <f>IF($B4=X4, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="AA4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB4">
-        <v>239.56</v>
+        <v>535.66999999999996</v>
       </c>
       <c r="AC4" t="str">
         <f>IF($B4=AA4, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="AE4" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD4">
+        <v>39</v>
+      </c>
+      <c r="AE4">
+        <v>239.56</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>IF($B4=AD4, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AH4" t="s">
         <v>3</v>
       </c>
-      <c r="AF4">
-        <v>148</v>
-      </c>
-      <c r="AG4">
-        <v>3048.54</v>
+      <c r="AI4">
+        <v>145</v>
+      </c>
+      <c r="AJ4">
+        <v>2292.9299999999998</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -868,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>78.180000000000007</v>
+        <v>12.37</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H23" si="0">IF($B5=F5, "opt", "")</f>
@@ -878,7 +924,7 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>121.21</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K23" si="1">IF($B5=I5, "opt", "")</f>
@@ -888,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="M5">
-        <v>80.34</v>
+        <v>121.21</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" ref="N5:N23" si="2">IF($B5=L5, "opt", "")</f>
@@ -898,7 +944,7 @@
         <v>39</v>
       </c>
       <c r="P5">
-        <v>70.239999999999995</v>
+        <v>80.34</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q23" si="3">IF($B5=O5, "opt", "")</f>
@@ -908,53 +954,66 @@
         <v>39</v>
       </c>
       <c r="S5">
-        <v>443.57</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T23" si="4">IF($B5=R5, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="U5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5">
-        <v>102.76</v>
+        <v>443.57</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W23" si="5">IF($B5=U5, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y5">
-        <v>2996.25</v>
+        <v>102.76</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" ref="Z5:Z23" si="6">IF($B5=X5, "opt", "")</f>
         <v/>
       </c>
       <c r="AA5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB5">
-        <v>2857.14</v>
+        <v>2996.25</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" ref="AC5:AC23" si="7">IF($B5=AA5, "opt", "")</f>
         <v/>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD5">
+        <v>44</v>
+      </c>
+      <c r="AE5">
+        <v>2857.14</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" ref="AF5:AF23" si="8">IF($B5=AD5, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AH5" t="s">
         <v>4</v>
       </c>
-      <c r="AF5">
-        <v>159</v>
-      </c>
-      <c r="AG5">
-        <v>1607.49</v>
+      <c r="AI5">
+        <v>160</v>
+      </c>
+      <c r="AJ5">
+        <v>2506.84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -974,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>324.19</v>
+        <v>13.06</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -984,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>165.37</v>
+        <v>324.19</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -994,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <v>322.75</v>
+        <v>165.37</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
@@ -1004,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="P6">
-        <v>1136.19</v>
+        <v>322.75</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="3"/>
@@ -1014,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="S6">
-        <v>31.04</v>
+        <v>1136.19</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
@@ -1024,43 +1083,56 @@
         <v>21</v>
       </c>
       <c r="V6">
-        <v>103.26</v>
+        <v>31.04</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6">
-        <v>698.58</v>
+        <v>103.26</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="AA6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB6">
-        <v>425.46</v>
+        <v>698.58</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD6">
+        <v>23</v>
+      </c>
+      <c r="AE6">
+        <v>425.46</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH6" t="s">
         <v>5</v>
       </c>
-      <c r="AF6">
-        <v>149</v>
-      </c>
-      <c r="AG6">
-        <v>1678.19</v>
+      <c r="AI6">
+        <v>150</v>
+      </c>
+      <c r="AJ6">
+        <v>1418.34</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="G7">
-        <v>300.91000000000003</v>
+        <v>26.81</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1090,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="J7">
-        <v>586.29</v>
+        <v>300.91000000000003</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -1100,7 +1172,7 @@
         <v>37</v>
       </c>
       <c r="M7">
-        <v>298.95999999999998</v>
+        <v>586.29</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
@@ -1110,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="P7">
-        <v>129.96</v>
+        <v>298.95999999999998</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="3"/>
@@ -1120,53 +1192,66 @@
         <v>37</v>
       </c>
       <c r="S7">
-        <v>377.94</v>
+        <v>129.96</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7">
-        <v>10.23</v>
+        <v>377.94</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y7">
-        <v>2024.36</v>
+        <v>10.23</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB7">
-        <v>1488.4</v>
+        <v>2024.36</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD7">
+        <v>41</v>
+      </c>
+      <c r="AE7">
+        <v>1488.4</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH7" t="s">
         <v>6</v>
       </c>
-      <c r="AF7">
-        <v>158</v>
-      </c>
-      <c r="AG7">
-        <v>1770.57</v>
+      <c r="AI7">
+        <v>157</v>
+      </c>
+      <c r="AJ7">
+        <v>2115.5700000000002</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1271,7 @@
         <v>39</v>
       </c>
       <c r="G8">
-        <v>128.33000000000001</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1196,7 +1281,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>78.45</v>
+        <v>128.33000000000001</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1206,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="M8">
-        <v>118.89</v>
+        <v>78.45</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
@@ -1216,7 +1301,7 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>22.14</v>
+        <v>118.89</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="3"/>
@@ -1226,7 +1311,7 @@
         <v>39</v>
       </c>
       <c r="S8">
-        <v>1589.66</v>
+        <v>22.14</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
@@ -1236,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="V8">
-        <v>14.55</v>
+        <v>1589.66</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="5"/>
@@ -1246,34 +1331,47 @@
         <v>39</v>
       </c>
       <c r="Y8">
-        <v>1765.89</v>
+        <v>14.55</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8">
-        <v>2772.73</v>
+        <v>1765.89</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE8" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD8">
+        <v>40</v>
+      </c>
+      <c r="AE8">
+        <v>2772.73</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH8" t="s">
         <v>7</v>
       </c>
-      <c r="AF8">
-        <v>176</v>
-      </c>
-      <c r="AG8">
-        <v>2557.77</v>
+      <c r="AI8">
+        <v>173</v>
+      </c>
+      <c r="AJ8">
+        <v>1636.78</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -1292,7 +1390,7 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>429.98</v>
+        <v>1453.51</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1302,7 +1400,7 @@
         <v>38</v>
       </c>
       <c r="J9">
-        <v>695.13</v>
+        <v>429.98</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -1312,7 +1410,7 @@
         <v>38</v>
       </c>
       <c r="M9">
-        <v>424.66</v>
+        <v>695.13</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
@@ -1322,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="P9">
-        <v>234.78</v>
+        <v>424.66</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="3"/>
@@ -1332,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="S9">
-        <v>802.97</v>
+        <v>234.78</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
@@ -1342,7 +1440,7 @@
         <v>38</v>
       </c>
       <c r="V9">
-        <v>1179.68</v>
+        <v>802.97</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="5"/>
@@ -1352,33 +1450,46 @@
         <v>38</v>
       </c>
       <c r="Y9">
-        <v>2113.4499999999998</v>
+        <v>1179.68</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB9">
-        <v>1158.5</v>
+        <v>2113.4499999999998</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE9" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD9">
+        <v>39</v>
+      </c>
+      <c r="AE9">
+        <v>1158.5</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH9" t="s">
         <v>8</v>
       </c>
-      <c r="AF9">
-        <v>154</v>
-      </c>
-      <c r="AG9">
-        <v>3201.24</v>
+      <c r="AI9">
+        <v>153</v>
+      </c>
+      <c r="AJ9">
+        <v>872.48</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>34.54</v>
+        <v>14.13</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1408,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>36.04</v>
+        <v>34.54</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -1418,7 +1529,7 @@
         <v>38</v>
       </c>
       <c r="M10">
-        <v>33.64</v>
+        <v>36.04</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
@@ -1428,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="P10">
-        <v>212.38</v>
+        <v>33.64</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
@@ -1438,7 +1549,7 @@
         <v>38</v>
       </c>
       <c r="S10">
-        <v>221.94</v>
+        <v>212.38</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
@@ -1448,43 +1559,56 @@
         <v>38</v>
       </c>
       <c r="V10">
-        <v>1782.11</v>
+        <v>221.94</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y10">
-        <v>863.68</v>
+        <v>1782.11</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="AA10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AB10">
-        <v>292.3</v>
+        <v>863.68</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10">
+        <v>44</v>
+      </c>
+      <c r="AE10">
+        <v>292.3</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH10" t="s">
         <v>9</v>
       </c>
-      <c r="AF10">
-        <v>150</v>
-      </c>
-      <c r="AG10">
-        <v>3078.57</v>
+      <c r="AI10">
+        <v>153</v>
+      </c>
+      <c r="AJ10">
+        <v>915.53</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1628,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>537.79999999999995</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1514,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="J11">
-        <v>710.07</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -1524,7 +1648,7 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>674.96</v>
+        <v>710.07</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
@@ -1534,7 +1658,7 @@
         <v>50</v>
       </c>
       <c r="P11">
-        <v>217.78</v>
+        <v>674.96</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
@@ -1544,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="S11">
-        <v>348.19</v>
+        <v>217.78</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
@@ -1554,43 +1678,56 @@
         <v>50</v>
       </c>
       <c r="V11">
-        <v>24.48</v>
+        <v>348.19</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y11">
-        <v>855.99</v>
+        <v>24.48</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="AA11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB11">
-        <v>614.62</v>
+        <v>855.99</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11">
+        <v>51</v>
+      </c>
+      <c r="AE11">
+        <v>614.62</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH11" t="s">
         <v>10</v>
       </c>
-      <c r="AF11">
-        <v>114</v>
-      </c>
-      <c r="AG11">
-        <v>980.8</v>
+      <c r="AI11">
+        <v>112</v>
+      </c>
+      <c r="AJ11">
+        <v>994.82</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>422.36</v>
+        <v>23.84</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1620,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>286.18</v>
+        <v>422.36</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -1630,7 +1767,7 @@
         <v>40</v>
       </c>
       <c r="M12">
-        <v>130.81</v>
+        <v>286.18</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
@@ -1640,7 +1777,7 @@
         <v>40</v>
       </c>
       <c r="P12">
-        <v>2208.9299999999998</v>
+        <v>130.81</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
@@ -1650,54 +1787,67 @@
         <v>40</v>
       </c>
       <c r="S12">
-        <v>849.36</v>
+        <v>2208.9299999999998</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
         <v>opt</v>
       </c>
       <c r="U12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V12">
-        <v>131.19</v>
+        <v>849.36</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="X12">
         <v>42</v>
       </c>
       <c r="Y12">
-        <v>2885.75</v>
+        <v>131.19</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12">
-        <v>3123.37</v>
+        <v>2885.75</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12">
+        <v>44</v>
+      </c>
+      <c r="AE12">
+        <v>3123.37</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH12" t="s">
         <v>11</v>
       </c>
-      <c r="AF12">
-        <v>156</v>
-      </c>
-      <c r="AG12">
-        <v>1521.91</v>
+      <c r="AI12">
+        <v>155</v>
+      </c>
+      <c r="AJ12">
+        <v>3596.01</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1716,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="G13">
-        <v>180.14</v>
+        <v>206.22</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1726,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="J13">
-        <v>47.41</v>
+        <v>180.14</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -1736,27 +1886,27 @@
         <v>38</v>
       </c>
       <c r="M13">
-        <v>182.32</v>
+        <v>47.41</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13">
-        <v>88.42</v>
+        <v>182.32</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R13">
         <v>39</v>
       </c>
       <c r="S13">
-        <v>646.91999999999996</v>
+        <v>88.42</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
@@ -1766,7 +1916,7 @@
         <v>39</v>
       </c>
       <c r="V13">
-        <v>1451.66</v>
+        <v>646.91999999999996</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="5"/>
@@ -1776,33 +1926,46 @@
         <v>39</v>
       </c>
       <c r="Y13">
-        <v>2981.75</v>
+        <v>1451.66</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB13">
-        <v>1896.54</v>
+        <v>2981.75</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13">
+        <v>41</v>
+      </c>
+      <c r="AE13">
+        <v>1896.54</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH13" t="s">
         <v>12</v>
       </c>
-      <c r="AF13">
-        <v>152</v>
-      </c>
-      <c r="AG13">
-        <v>1669.07</v>
+      <c r="AI13">
+        <v>153</v>
+      </c>
+      <c r="AJ13">
+        <v>1328.77</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1822,7 +1985,7 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>378.51</v>
+        <v>21.28</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1832,7 +1995,7 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>548.39</v>
+        <v>378.51</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -1842,27 +2005,27 @@
         <v>28</v>
       </c>
       <c r="M14">
-        <v>361.16</v>
+        <v>548.39</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14">
-        <v>38.58</v>
+        <v>361.16</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R14">
         <v>29</v>
       </c>
       <c r="S14">
-        <v>190.4</v>
+        <v>38.58</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
@@ -1872,43 +2035,56 @@
         <v>29</v>
       </c>
       <c r="V14">
-        <v>88.49</v>
+        <v>190.4</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y14">
-        <v>1720.72</v>
+        <v>88.49</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB14">
-        <v>3563.82</v>
+        <v>1720.72</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14">
+        <v>32</v>
+      </c>
+      <c r="AE14">
+        <v>3563.82</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH14" t="s">
         <v>13</v>
       </c>
-      <c r="AF14">
-        <v>168</v>
-      </c>
-      <c r="AG14">
-        <v>2545.58</v>
+      <c r="AI14">
+        <v>164</v>
+      </c>
+      <c r="AJ14">
+        <v>3410.92</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1925,20 +2101,20 @@
         <v>0.63</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>3046.92</v>
+        <v>845.19</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="I15">
         <v>38</v>
       </c>
       <c r="J15">
-        <v>844.41</v>
+        <v>3046.92</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -1948,73 +2124,86 @@
         <v>38</v>
       </c>
       <c r="M15">
-        <v>3011.36</v>
+        <v>844.41</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v>opt</v>
       </c>
       <c r="O15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P15">
-        <v>492.18</v>
+        <v>3011.36</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15">
-        <v>2763.95</v>
+        <v>492.18</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V15">
-        <v>354.86</v>
+        <v>2763.95</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="Y15">
-        <v>4064.85</v>
+        <v>354.86</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA15">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AB15">
-        <v>2013.71</v>
+        <v>4064.85</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15">
+        <v>45</v>
+      </c>
+      <c r="AE15">
+        <v>2013.71</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH15" t="s">
         <v>14</v>
       </c>
-      <c r="AF15">
+      <c r="AI15">
         <v>89</v>
       </c>
-      <c r="AG15">
-        <v>405.01</v>
+      <c r="AJ15">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2034,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>94.82</v>
+        <v>9.24</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -2044,7 +2233,7 @@
         <v>44</v>
       </c>
       <c r="J16">
-        <v>83.85</v>
+        <v>94.82</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -2054,7 +2243,7 @@
         <v>44</v>
       </c>
       <c r="M16">
-        <v>68.17</v>
+        <v>83.85</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
@@ -2064,63 +2253,76 @@
         <v>44</v>
       </c>
       <c r="P16">
-        <v>348.25</v>
+        <v>68.17</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S16">
-        <v>61.75</v>
+        <v>348.25</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V16">
-        <v>1541.83</v>
+        <v>61.75</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="5"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="X16">
         <v>44</v>
       </c>
       <c r="Y16">
-        <v>3410.89</v>
+        <v>1541.83</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB16">
-        <v>792.09</v>
+        <v>3410.89</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE16" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD16">
+        <v>47</v>
+      </c>
+      <c r="AE16">
+        <v>792.09</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH16" t="s">
         <v>15</v>
       </c>
-      <c r="AF16">
-        <v>116</v>
-      </c>
-      <c r="AG16">
-        <v>2786.62</v>
+      <c r="AI16">
+        <v>115</v>
+      </c>
+      <c r="AJ16">
+        <v>1607.88</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2342,7 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>108.89</v>
+        <v>11.55</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -2150,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="J17">
-        <v>145.57</v>
+        <v>108.89</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -2160,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="M17">
-        <v>110.78</v>
+        <v>145.57</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
@@ -2170,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="P17">
-        <v>365.26</v>
+        <v>110.78</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
@@ -2180,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="S17">
-        <v>115</v>
+        <v>365.26</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
@@ -2190,43 +2392,56 @@
         <v>44</v>
       </c>
       <c r="V17">
-        <v>85.64</v>
+        <v>115</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y17">
-        <v>3547.01</v>
+        <v>85.64</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="AA17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB17">
-        <v>3016.44</v>
+        <v>3547.01</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17">
+        <v>46</v>
+      </c>
+      <c r="AE17">
+        <v>3016.44</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH17" t="s">
         <v>16</v>
       </c>
-      <c r="AF17">
-        <v>161</v>
-      </c>
-      <c r="AG17">
-        <v>2607.14</v>
+      <c r="AI17">
+        <v>160</v>
+      </c>
+      <c r="AJ17">
+        <v>3411.61</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>44.63</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -2256,7 +2471,7 @@
         <v>24</v>
       </c>
       <c r="J18">
-        <v>17.809999999999999</v>
+        <v>44.63</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -2266,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <v>16.73</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
@@ -2276,63 +2491,76 @@
         <v>24</v>
       </c>
       <c r="P18">
-        <v>762.06</v>
+        <v>16.73</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
         <v>opt</v>
       </c>
       <c r="R18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S18">
-        <v>0.54</v>
+        <v>762.06</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="U18">
         <v>25</v>
       </c>
       <c r="V18">
-        <v>2.81</v>
+        <v>0.54</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y18">
-        <v>36.47</v>
+        <v>2.81</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v>opt</v>
+        <v/>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB18">
-        <v>152.80000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE18" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH18" t="s">
         <v>17</v>
       </c>
-      <c r="AF18">
-        <v>98</v>
-      </c>
-      <c r="AG18">
-        <v>918.64</v>
+      <c r="AI18">
+        <v>97</v>
+      </c>
+      <c r="AJ18">
+        <v>501.19</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2352,7 +2580,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <v>86.14</v>
+        <v>12.41</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2590,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>273.27999999999997</v>
+        <v>86.14</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -2372,7 +2600,7 @@
         <v>31</v>
       </c>
       <c r="M19">
-        <v>84.4</v>
+        <v>273.27999999999997</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
@@ -2382,7 +2610,7 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>357.74</v>
+        <v>84.4</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
@@ -2392,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="S19">
-        <v>181.26</v>
+        <v>357.74</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="4"/>
@@ -2402,7 +2630,7 @@
         <v>31</v>
       </c>
       <c r="V19">
-        <v>268.31</v>
+        <v>181.26</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="5"/>
@@ -2412,33 +2640,46 @@
         <v>31</v>
       </c>
       <c r="Y19">
-        <v>1203.18</v>
+        <v>268.31</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB19">
-        <v>180.01</v>
+        <v>1203.18</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE19" t="s">
+        <v>opt</v>
+      </c>
+      <c r="AD19">
+        <v>36</v>
+      </c>
+      <c r="AE19">
+        <v>180.01</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH19" t="s">
         <v>18</v>
       </c>
-      <c r="AF19">
-        <v>140</v>
-      </c>
-      <c r="AG19">
-        <v>2099.4899999999998</v>
+      <c r="AI19">
+        <v>142</v>
+      </c>
+      <c r="AJ19">
+        <v>2297.14</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2458,7 +2699,7 @@
         <v>42</v>
       </c>
       <c r="G20">
-        <v>183.2</v>
+        <v>27.04</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -2468,7 +2709,7 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>104.04</v>
+        <v>183.2</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -2478,7 +2719,7 @@
         <v>42</v>
       </c>
       <c r="M20">
-        <v>178.95</v>
+        <v>104.04</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
@@ -2488,7 +2729,7 @@
         <v>42</v>
       </c>
       <c r="P20">
-        <v>1135.8499999999999</v>
+        <v>178.95</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
@@ -2498,7 +2739,7 @@
         <v>42</v>
       </c>
       <c r="S20">
-        <v>1333.45</v>
+        <v>1135.8499999999999</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="4"/>
@@ -2508,43 +2749,56 @@
         <v>42</v>
       </c>
       <c r="V20">
-        <v>1663.5</v>
+        <v>1333.45</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="5"/>
         <v>opt</v>
       </c>
       <c r="X20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y20">
-        <v>2297.98</v>
+        <v>1663.5</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="AA20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB20">
-        <v>2892.3</v>
+        <v>2297.98</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20">
+        <v>46</v>
+      </c>
+      <c r="AE20">
+        <v>2892.3</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH20" t="s">
         <v>19</v>
       </c>
-      <c r="AF20">
-        <v>130</v>
-      </c>
-      <c r="AG20">
-        <v>1894.94</v>
+      <c r="AI20">
+        <v>129</v>
+      </c>
+      <c r="AJ20">
+        <v>1033.2</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2564,7 +2818,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>20.69</v>
+        <v>2.23</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -2574,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>12.33</v>
+        <v>20.69</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2584,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="M21">
-        <v>21.18</v>
+        <v>12.33</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
@@ -2594,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <v>7.17</v>
+        <v>21.18</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
@@ -2604,7 +2858,7 @@
         <v>25</v>
       </c>
       <c r="S21">
-        <v>34.53</v>
+        <v>7.17</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="4"/>
@@ -2614,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="V21">
-        <v>52.26</v>
+        <v>34.53</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="5"/>
@@ -2624,7 +2878,7 @@
         <v>25</v>
       </c>
       <c r="Y21">
-        <v>213.16</v>
+        <v>52.26</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
@@ -2634,14 +2888,24 @@
         <v>25</v>
       </c>
       <c r="AB21">
-        <v>472.69</v>
+        <v>213.16</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="7"/>
         <v>opt</v>
       </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <v>472.69</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="8"/>
+        <v>opt</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="G22">
-        <v>120.37</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -2671,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>266.16000000000003</v>
+        <v>120.37</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2681,7 +2945,7 @@
         <v>36</v>
       </c>
       <c r="M22">
-        <v>115.93</v>
+        <v>266.16000000000003</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
@@ -2691,7 +2955,7 @@
         <v>36</v>
       </c>
       <c r="P22">
-        <v>41.48</v>
+        <v>115.93</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
@@ -2701,7 +2965,7 @@
         <v>36</v>
       </c>
       <c r="S22">
-        <v>558.71</v>
+        <v>41.48</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="4"/>
@@ -2711,7 +2975,7 @@
         <v>36</v>
       </c>
       <c r="V22">
-        <v>194.11</v>
+        <v>558.71</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="5"/>
@@ -2721,24 +2985,34 @@
         <v>36</v>
       </c>
       <c r="Y22">
-        <v>1604.97</v>
+        <v>194.11</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB22">
-        <v>1303.21</v>
+        <v>1604.97</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="7"/>
+        <v>opt</v>
+      </c>
+      <c r="AD22">
+        <v>37</v>
+      </c>
+      <c r="AE22">
+        <v>1303.21</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +3032,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>65.739999999999995</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +3042,7 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>15.4</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2778,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>65.459999999999994</v>
+        <v>15.4</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
@@ -2788,7 +3062,7 @@
         <v>32</v>
       </c>
       <c r="P23">
-        <v>1739.24</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
@@ -2798,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="S23">
-        <v>284.64</v>
+        <v>1739.24</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="4"/>
@@ -2808,7 +3082,7 @@
         <v>32</v>
       </c>
       <c r="V23">
-        <v>25.36</v>
+        <v>284.64</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="5"/>
@@ -2818,24 +3092,34 @@
         <v>32</v>
       </c>
       <c r="Y23">
-        <v>1358.42</v>
+        <v>25.36</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" si="6"/>
         <v>opt</v>
       </c>
       <c r="AA23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB23">
-        <v>403.23</v>
+        <v>1358.42</v>
       </c>
       <c r="AC23" t="str">
         <f t="shared" si="7"/>
+        <v>opt</v>
+      </c>
+      <c r="AD23">
+        <v>33</v>
+      </c>
+      <c r="AE23">
+        <v>403.23</v>
+      </c>
+      <c r="AF23" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2844,118 +3128,130 @@
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:Y24" si="8">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C24:AB24" si="9">AVERAGE(C4:C23)</f>
         <v>36.1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="8"/>
-        <v>36.1</v>
+        <f t="shared" si="9"/>
+        <v>36.15</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="8"/>
-        <v>331.31899999999996</v>
+        <f t="shared" si="9"/>
+        <v>135.61750000000001</v>
       </c>
       <c r="H24" s="1">
         <f>COUNTIF(H4:H23, "opt")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.1</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="8"/>
-        <v>263.01249999999993</v>
+        <f t="shared" si="9"/>
+        <v>331.31899999999996</v>
       </c>
       <c r="K24" s="1">
         <f>COUNTIF(K4:K23, "opt")</f>
         <v>20</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.1</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="8"/>
-        <v>316.745</v>
+        <f t="shared" si="9"/>
+        <v>263.01249999999993</v>
       </c>
       <c r="N24" s="1">
         <f>COUNTIF(N4:N23, "opt")</f>
         <v>20</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="8"/>
-        <v>36.299999999999997</v>
+        <f t="shared" si="9"/>
+        <v>36.1</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="8"/>
-        <v>523.5675</v>
+        <f t="shared" si="9"/>
+        <v>316.745</v>
       </c>
       <c r="Q24" s="1">
         <f>COUNTIF(Q4:Q23, "opt")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="8"/>
-        <v>36.35</v>
+        <f t="shared" si="9"/>
+        <v>36.299999999999997</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="8"/>
-        <v>585.07549999999992</v>
+        <f t="shared" si="9"/>
+        <v>523.5675</v>
       </c>
       <c r="T24" s="1">
         <f>COUNTIF(T4:T23, "opt")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U24" s="1">
-        <f>AVERAGE(U4:U23)</f>
-        <v>36.549999999999997</v>
+        <f t="shared" si="9"/>
+        <v>36.35</v>
       </c>
       <c r="V24" s="1">
-        <f>AVERAGE(V4:V23)</f>
-        <v>469.73150000000015</v>
+        <f t="shared" si="9"/>
+        <v>585.07549999999992</v>
       </c>
       <c r="W24" s="1">
         <f>COUNTIF(W4:W23, "opt")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="8"/>
-        <v>37.9</v>
+        <f>AVERAGE(X4:X23)</f>
+        <v>36.549999999999997</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="8"/>
-        <v>1858.9510000000005</v>
+        <f>AVERAGE(Y4:Y23)</f>
+        <v>469.73150000000015</v>
       </c>
       <c r="Z24" s="1">
         <f>COUNTIF(Z4:Z23, "opt")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" ref="AA24" si="9">AVERAGE(AA4:AA23)</f>
-        <v>38.9</v>
+        <f t="shared" si="9"/>
+        <v>37.9</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" ref="AB24" si="10">AVERAGE(AB4:AB23)</f>
-        <v>1482.9459999999995</v>
+        <f t="shared" si="9"/>
+        <v>1858.9510000000005</v>
       </c>
       <c r="AC24" s="1">
         <f>COUNTIF(AC4:AC23, "opt")</f>
+        <v>9</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" ref="AD24" si="10">AVERAGE(AD4:AD23)</f>
+        <v>38.9</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" ref="AE24" si="11">AVERAGE(AE4:AE23)</f>
+        <v>1482.9459999999995</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>COUNTIF(AF4:AF23, "opt")</f>
         <v>1</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -2987,8 +3283,11 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -2997,47 +3296,52 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,9 +3429,18 @@
       <c r="AC28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AD28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
@@ -3146,7 +3459,7 @@
         <v>71</v>
       </c>
       <c r="G29">
-        <v>2818.06</v>
+        <v>1003.88</v>
       </c>
       <c r="H29" t="str">
         <f>IF($B29=F29, "opt", "")</f>
@@ -3156,7 +3469,7 @@
         <v>71</v>
       </c>
       <c r="J29">
-        <v>3572.81</v>
+        <v>2818.06</v>
       </c>
       <c r="K29" t="str">
         <f>IF($B29=I29, "opt", "")</f>
@@ -3166,27 +3479,27 @@
         <v>71</v>
       </c>
       <c r="M29">
-        <v>428.91</v>
+        <v>3572.81</v>
       </c>
       <c r="N29" t="str">
         <f>IF($B29=L29, "opt", "")</f>
         <v>opt</v>
       </c>
       <c r="O29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P29">
-        <v>1136.3399999999999</v>
+        <v>428.91</v>
       </c>
       <c r="Q29" t="str">
         <f>IF($B29=O29, "opt", "")</f>
-        <v/>
+        <v>opt</v>
       </c>
       <c r="R29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S29">
-        <v>432.6</v>
+        <v>1136.3399999999999</v>
       </c>
       <c r="T29" t="str">
         <f>IF($B29=R29, "opt", "")</f>
@@ -3196,35 +3509,45 @@
         <v>73</v>
       </c>
       <c r="V29">
-        <v>225.52</v>
+        <v>432.6</v>
       </c>
       <c r="W29" t="str">
         <f>IF($B29=U29, "opt", "")</f>
         <v/>
       </c>
       <c r="X29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y29">
-        <v>2533.8000000000002</v>
+        <v>225.52</v>
       </c>
       <c r="Z29" t="str">
         <f>IF($B29=X29, "opt", "")</f>
         <v/>
       </c>
       <c r="AA29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29">
-        <v>2043.43</v>
+        <v>2533.8000000000002</v>
       </c>
       <c r="AC29" t="str">
         <f>IF($B29=AA29, "opt", "")</f>
         <v/>
       </c>
+      <c r="AD29">
+        <v>76</v>
+      </c>
+      <c r="AE29">
+        <v>2043.43</v>
+      </c>
+      <c r="AF29" t="str">
+        <f>IF($B29=AD29, "opt", "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30">
@@ -3240,88 +3563,98 @@
         <v>5.98</v>
       </c>
       <c r="F30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30">
-        <v>1179.22</v>
+        <v>359.29</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H30:H48" si="11">IF($B30=F30, "opt", "")</f>
-        <v/>
+        <f t="shared" ref="H30:H48" si="12">IF($B30=F30, "opt", "")</f>
+        <v>opt</v>
       </c>
       <c r="I30">
         <v>77</v>
       </c>
       <c r="J30">
+        <v>1179.22</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K48" si="13">IF($B30=I30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="L30">
+        <v>77</v>
+      </c>
+      <c r="M30">
         <v>446.66</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K48" si="12">IF($B30=I30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="L30">
+      <c r="N30" t="str">
+        <f t="shared" ref="N30:N48" si="14">IF($B30=L30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O30">
         <v>76</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>1378.74</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" ref="N30:N48" si="13">IF($B30=L30, "opt", "")</f>
-        <v>opt</v>
-      </c>
-      <c r="O30">
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q48" si="15">IF($B30=O30, "opt", "")</f>
+        <v>opt</v>
+      </c>
+      <c r="R30">
         <v>79</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>2548.89</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q48" si="14">IF($B30=O30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R30">
+      <c r="T30" t="str">
+        <f t="shared" ref="T30:T48" si="16">IF($B30=R30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U30">
         <v>81</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>103.21</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" ref="T30:T48" si="15">IF($B30=R30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U30">
+      <c r="W30" t="str">
+        <f t="shared" ref="W30:W48" si="17">IF($B30=U30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X30">
         <v>77</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>2794.12</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" ref="W30:W48" si="16">IF($B30=U30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="X30">
+      <c r="Z30" t="str">
+        <f t="shared" ref="Z30:Z48" si="18">IF($B30=X30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AA30">
         <v>85</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>3605.84</v>
       </c>
-      <c r="Z30" t="str">
-        <f t="shared" ref="Z30:Z48" si="17">IF($B30=X30, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="AA30">
+      <c r="AC30" t="str">
+        <f t="shared" ref="AC30:AC48" si="19">IF($B30=AA30, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AD30">
         <v>90</v>
       </c>
-      <c r="AB30">
+      <c r="AE30">
         <v>1133.24</v>
       </c>
-      <c r="AC30" t="str">
-        <f t="shared" ref="AC30:AC48" si="18">IF($B30=AA30, "opt", "")</f>
+      <c r="AF30" t="str">
+        <f t="shared" ref="AF30:AF48" si="20">IF($B30=AD30, "opt", "")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
@@ -3340,85 +3673,95 @@
         <v>40</v>
       </c>
       <c r="G31">
-        <v>421.12</v>
+        <v>1607.09</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I31">
         <v>40</v>
       </c>
       <c r="J31">
-        <v>169.42</v>
+        <v>421.12</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L31">
         <v>40</v>
       </c>
       <c r="M31">
+        <v>169.42</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="O31">
+        <v>40</v>
+      </c>
+      <c r="P31">
         <v>427.46</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O31">
+      <c r="Q31" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="R31">
         <v>41</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>1719.25</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R31">
-        <v>42</v>
-      </c>
-      <c r="S31">
-        <v>2097.8200000000002</v>
-      </c>
       <c r="T31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U31">
         <v>42</v>
       </c>
       <c r="V31">
+        <v>2097.8200000000002</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X31">
+        <v>42</v>
+      </c>
+      <c r="Y31">
         <v>1185.19</v>
       </c>
-      <c r="W31" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X31">
+      <c r="Z31" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA31">
         <v>44</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>3392.22</v>
       </c>
-      <c r="Z31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA31">
+      <c r="AC31" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD31">
         <v>43</v>
       </c>
-      <c r="AB31">
+      <c r="AE31">
         <v>3591.99</v>
       </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF31" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
@@ -3437,85 +3780,95 @@
         <v>74</v>
       </c>
       <c r="G32">
+        <v>839.38</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I32">
+        <v>74</v>
+      </c>
+      <c r="J32">
         <v>545.28</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I32">
+      <c r="K32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L32">
         <v>73</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>3346.15</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L32">
-        <v>74</v>
-      </c>
-      <c r="M32">
-        <v>589.64</v>
-      </c>
       <c r="N32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O32">
         <v>74</v>
       </c>
       <c r="P32">
+        <v>589.64</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R32">
+        <v>74</v>
+      </c>
+      <c r="S32">
         <v>181.98</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R32">
+      <c r="T32" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U32">
         <v>77</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>570.38</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U32">
+      <c r="W32" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X32">
         <v>75</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
         <v>766.05</v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X32">
+      <c r="Z32" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA32">
         <v>82</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>1957.88</v>
       </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA32">
+      <c r="AC32" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD32">
         <v>81</v>
       </c>
-      <c r="AB32">
+      <c r="AE32">
         <v>2691.03</v>
       </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF32" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33">
@@ -3534,85 +3887,95 @@
         <v>78</v>
       </c>
       <c r="G33">
-        <v>2171.44</v>
+        <v>3296.06</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I33">
         <v>78</v>
       </c>
       <c r="J33">
-        <v>3295.55</v>
+        <v>2171.44</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L33">
         <v>78</v>
       </c>
       <c r="M33">
+        <v>3295.55</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="O33">
+        <v>78</v>
+      </c>
+      <c r="P33">
         <v>2040.22</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O33">
-        <v>80</v>
-      </c>
-      <c r="P33">
-        <v>36.42</v>
-      </c>
       <c r="Q33" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>opt</v>
       </c>
       <c r="R33">
         <v>80</v>
       </c>
       <c r="S33">
-        <v>635.37</v>
+        <v>36.42</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U33">
         <v>80</v>
       </c>
       <c r="V33">
+        <v>635.37</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X33">
+        <v>80</v>
+      </c>
+      <c r="Y33">
         <v>1190.47</v>
       </c>
-      <c r="W33" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X33">
+      <c r="Z33" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA33">
         <v>83</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>1721.95</v>
       </c>
-      <c r="Z33" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA33">
+      <c r="AC33" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD33">
         <v>86</v>
       </c>
-      <c r="AB33">
+      <c r="AE33">
         <v>2099.84</v>
       </c>
-      <c r="AC33" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF33" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34">
@@ -3631,85 +3994,95 @@
         <v>73</v>
       </c>
       <c r="G34">
-        <v>922.51</v>
+        <v>501.99</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I34">
         <v>73</v>
       </c>
       <c r="J34">
-        <v>538.98</v>
+        <v>922.51</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L34">
         <v>73</v>
       </c>
       <c r="M34">
-        <v>1008.36</v>
+        <v>538.98</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O34">
         <v>73</v>
       </c>
       <c r="P34">
+        <v>1008.36</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R34">
+        <v>73</v>
+      </c>
+      <c r="S34">
         <v>568.61</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R34">
-        <v>74</v>
-      </c>
-      <c r="S34">
-        <v>3556.53</v>
-      </c>
       <c r="T34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U34">
         <v>74</v>
       </c>
       <c r="V34">
+        <v>3556.53</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X34">
+        <v>74</v>
+      </c>
+      <c r="Y34">
         <v>778.34</v>
       </c>
-      <c r="W34" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X34">
+      <c r="Z34" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA34">
         <v>79</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>3138.24</v>
       </c>
-      <c r="Z34" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA34">
+      <c r="AC34" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD34">
         <v>77</v>
       </c>
-      <c r="AB34">
+      <c r="AE34">
         <v>2695.42</v>
       </c>
-      <c r="AC34" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF34" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
@@ -3725,88 +4098,98 @@
         <v>0.68</v>
       </c>
       <c r="F35">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>310.19</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I35">
         <v>76</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>3201.02</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="I35">
+      <c r="K35" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="L35">
         <v>77</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>148.04</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L35">
+      <c r="N35" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O35">
         <v>76</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>3453.05</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O35">
+      <c r="Q35" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="R35">
         <v>79</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>110.55</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R35">
+      <c r="T35" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U35">
         <v>78</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2232.29</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U35">
+      <c r="W35" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X35">
         <v>77</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>140.19</v>
       </c>
-      <c r="W35" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X35">
+      <c r="Z35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA35">
         <v>83</v>
       </c>
-      <c r="Y35">
+      <c r="AB35">
         <v>960.67</v>
       </c>
-      <c r="Z35" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA35">
+      <c r="AC35" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD35">
         <v>85</v>
       </c>
-      <c r="AB35">
+      <c r="AE35">
         <v>740.86</v>
       </c>
-      <c r="AC35" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF35" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36">
@@ -3825,85 +4208,95 @@
         <v>94</v>
       </c>
       <c r="G36">
-        <v>342.23</v>
+        <v>698.18</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I36">
         <v>94</v>
       </c>
       <c r="J36">
-        <v>510.11</v>
+        <v>342.23</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L36">
         <v>94</v>
       </c>
       <c r="M36">
+        <v>510.11</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O36">
+        <v>94</v>
+      </c>
+      <c r="P36">
         <v>600.54999999999995</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O36">
+      <c r="Q36" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R36">
         <v>93</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>991.51</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="14"/>
-        <v>opt</v>
-      </c>
-      <c r="R36">
+      <c r="T36" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+      <c r="U36">
         <v>94</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1003.92</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U36">
+      <c r="W36" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X36">
         <v>95</v>
       </c>
-      <c r="V36">
+      <c r="Y36">
         <v>2182.41</v>
       </c>
-      <c r="W36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X36">
-        <v>98</v>
-      </c>
-      <c r="Y36">
-        <v>873.59</v>
-      </c>
       <c r="Z36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA36">
         <v>98</v>
       </c>
       <c r="AB36">
+        <v>873.59</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD36">
+        <v>98</v>
+      </c>
+      <c r="AE36">
         <v>3416.12</v>
       </c>
-      <c r="AC36" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF36" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
@@ -3919,88 +4312,98 @@
         <v>1.01</v>
       </c>
       <c r="F37">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>701.92</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I37">
         <v>80</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>2752.15</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I37">
-        <v>79</v>
-      </c>
-      <c r="J37">
-        <v>2631.16</v>
-      </c>
       <c r="K37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L37">
         <v>79</v>
       </c>
       <c r="M37">
+        <v>2631.16</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O37">
+        <v>79</v>
+      </c>
+      <c r="P37">
         <v>2058.4499999999998</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O37">
+      <c r="Q37" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R37">
         <v>81</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>694.69</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R37">
+      <c r="T37" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U37">
         <v>82</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>2913.24</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U37">
+      <c r="W37" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X37">
         <v>81</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
         <v>1581.33</v>
       </c>
-      <c r="W37" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X37">
+      <c r="Z37" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA37">
         <v>87</v>
       </c>
-      <c r="Y37">
+      <c r="AB37">
         <v>2964.31</v>
       </c>
-      <c r="Z37" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA37">
+      <c r="AC37" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD37">
         <v>88</v>
       </c>
-      <c r="AB37">
+      <c r="AE37">
         <v>2270.4899999999998</v>
       </c>
-      <c r="AC37" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF37" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38">
@@ -4019,85 +4422,95 @@
         <v>75</v>
       </c>
       <c r="G38">
-        <v>936.44</v>
+        <v>429.52</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I38">
         <v>75</v>
       </c>
       <c r="J38">
-        <v>826.19</v>
+        <v>936.44</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L38">
         <v>75</v>
       </c>
       <c r="M38">
+        <v>826.19</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="O38">
+        <v>75</v>
+      </c>
+      <c r="P38">
         <v>1014.11</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O38">
+      <c r="Q38" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="R38">
         <v>76</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>893.4</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R38">
+      <c r="T38" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U38">
         <v>78</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1792.42</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U38">
+      <c r="W38" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X38">
         <v>76</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
         <v>1946.12</v>
       </c>
-      <c r="W38" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X38">
+      <c r="Z38" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA38">
         <v>84</v>
       </c>
-      <c r="Y38">
+      <c r="AB38">
         <v>2067.7399999999998</v>
       </c>
-      <c r="Z38" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA38">
+      <c r="AC38" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD38">
         <v>85</v>
       </c>
-      <c r="AB38">
+      <c r="AE38">
         <v>2839.94</v>
       </c>
-      <c r="AC38" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF38" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39">
@@ -4113,88 +4526,98 @@
         <v>1.4</v>
       </c>
       <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>441.9</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I39">
         <v>56</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>2259.2399999999998</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="I39">
-        <v>57</v>
-      </c>
-      <c r="J39">
-        <v>464.02</v>
-      </c>
       <c r="K39" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>opt</v>
       </c>
       <c r="L39">
         <v>57</v>
       </c>
       <c r="M39">
-        <v>212.52</v>
+        <v>464.02</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O39">
         <v>57</v>
       </c>
       <c r="P39">
+        <v>212.52</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R39">
+        <v>57</v>
+      </c>
+      <c r="S39">
         <v>1920.49</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R39">
+      <c r="T39" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U39">
         <v>58</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>652.91999999999996</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U39">
+      <c r="W39" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X39">
         <v>60</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>178.08</v>
       </c>
-      <c r="W39" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X39">
+      <c r="Z39" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA39">
         <v>64</v>
       </c>
-      <c r="Y39">
+      <c r="AB39">
         <v>2213.38</v>
       </c>
-      <c r="Z39" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA39">
+      <c r="AC39" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD39">
         <v>63</v>
       </c>
-      <c r="AB39">
+      <c r="AE39">
         <v>1404.51</v>
       </c>
-      <c r="AC39" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF39" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40">
@@ -4213,85 +4636,95 @@
         <v>78</v>
       </c>
       <c r="G40">
+        <v>3211.24</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I40">
+        <v>78</v>
+      </c>
+      <c r="J40">
         <v>429.41</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I40">
+      <c r="K40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L40">
         <v>77</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>1218.69</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L40">
-        <v>78</v>
-      </c>
-      <c r="M40">
-        <v>467.45</v>
-      </c>
       <c r="N40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O40">
         <v>78</v>
       </c>
       <c r="P40">
+        <v>467.45</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R40">
+        <v>78</v>
+      </c>
+      <c r="S40">
         <v>3577.82</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R40">
-        <v>79</v>
-      </c>
-      <c r="S40">
-        <v>2688.82</v>
-      </c>
       <c r="T40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U40">
         <v>79</v>
       </c>
       <c r="V40">
+        <v>2688.82</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X40">
+        <v>79</v>
+      </c>
+      <c r="Y40">
         <v>1845.81</v>
       </c>
-      <c r="W40" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X40">
+      <c r="Z40" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA40">
         <v>106</v>
       </c>
-      <c r="Y40">
+      <c r="AB40">
         <v>4030.49</v>
       </c>
-      <c r="Z40" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA40">
+      <c r="AC40" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD40">
         <v>88</v>
       </c>
-      <c r="AB40">
+      <c r="AE40">
         <v>2235.91</v>
       </c>
-      <c r="AC40" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF40" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41">
@@ -4310,85 +4743,95 @@
         <v>83</v>
       </c>
       <c r="G41">
+        <v>3198.63</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="12"/>
+        <v>opt</v>
+      </c>
+      <c r="I41">
+        <v>83</v>
+      </c>
+      <c r="J41">
         <v>1086.31</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="11"/>
-        <v>opt</v>
-      </c>
-      <c r="I41">
+      <c r="K41" t="str">
+        <f t="shared" si="13"/>
+        <v>opt</v>
+      </c>
+      <c r="L41">
         <v>84</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>737.61</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L41">
+      <c r="N41" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O41">
         <v>83</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>1723.67</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O41">
+      <c r="Q41" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="R41">
         <v>84</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>1653.61</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R41">
+      <c r="T41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U41">
         <v>86</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>2125.84</v>
       </c>
-      <c r="T41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U41">
+      <c r="W41" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X41">
         <v>85</v>
       </c>
-      <c r="V41">
+      <c r="Y41">
         <v>2982.1</v>
       </c>
-      <c r="W41" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X41">
-        <v>88</v>
-      </c>
-      <c r="Y41">
-        <v>758.9</v>
-      </c>
       <c r="Z41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA41">
         <v>88</v>
       </c>
       <c r="AB41">
+        <v>758.9</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD41">
+        <v>88</v>
+      </c>
+      <c r="AE41">
         <v>3032.11</v>
       </c>
-      <c r="AC41" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF41" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42">
@@ -4404,88 +4847,98 @@
         <v>1.23</v>
       </c>
       <c r="F42">
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <v>145.32</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I42">
         <v>85</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>1411.12</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="K42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L42">
         <v>84</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>2760.42</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L42">
+      <c r="N42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O42">
         <v>85</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>3390.66</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O42">
-        <v>86</v>
-      </c>
-      <c r="P42">
-        <v>950.77</v>
-      </c>
       <c r="Q42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R42">
         <v>86</v>
       </c>
       <c r="S42">
+        <v>950.77</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U42">
+        <v>86</v>
+      </c>
+      <c r="V42">
         <v>2935.53</v>
       </c>
-      <c r="T42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U42">
+      <c r="W42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X42">
         <v>85</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
         <v>2435.9299999999998</v>
       </c>
-      <c r="W42" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X42">
+      <c r="Z42" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA42">
         <v>92</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>2487.52</v>
       </c>
-      <c r="Z42" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA42">
+      <c r="AC42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD42">
         <v>93</v>
       </c>
-      <c r="AB42">
+      <c r="AE42">
         <v>1500.97</v>
       </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF42" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
@@ -4504,85 +4957,95 @@
         <v>47</v>
       </c>
       <c r="G43">
-        <v>30.08</v>
+        <v>0.61</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>30.7</v>
+        <v>30.08</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L43">
         <v>47</v>
       </c>
       <c r="M43">
-        <v>7.13</v>
+        <v>30.7</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
       <c r="O43">
         <v>47</v>
       </c>
       <c r="P43">
-        <v>5.31</v>
+        <v>7.13</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>opt</v>
       </c>
       <c r="R43">
         <v>47</v>
       </c>
       <c r="S43">
-        <v>21.42</v>
+        <v>5.31</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>opt</v>
       </c>
       <c r="U43">
         <v>47</v>
       </c>
       <c r="V43">
-        <v>13.01</v>
+        <v>21.42</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>opt</v>
       </c>
       <c r="X43">
         <v>47</v>
       </c>
       <c r="Y43">
+        <v>13.01</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="18"/>
+        <v>opt</v>
+      </c>
+      <c r="AA43">
+        <v>47</v>
+      </c>
+      <c r="AB43">
         <v>162.75</v>
       </c>
-      <c r="Z43" t="str">
-        <f t="shared" si="17"/>
-        <v>opt</v>
-      </c>
-      <c r="AA43">
+      <c r="AC43" t="str">
+        <f t="shared" si="19"/>
+        <v>opt</v>
+      </c>
+      <c r="AD43">
         <v>48</v>
       </c>
-      <c r="AB43">
+      <c r="AE43">
         <v>551.9</v>
       </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF43" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44">
@@ -4598,88 +5061,98 @@
         <v>0.88</v>
       </c>
       <c r="F44">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44">
-        <v>313.45999999999998</v>
+        <v>3515.19</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I44">
         <v>62</v>
       </c>
       <c r="J44">
+        <v>313.45999999999998</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L44">
+        <v>62</v>
+      </c>
+      <c r="M44">
         <v>203.29</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L44">
+      <c r="N44" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O44">
         <v>61</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>3070.27</v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O44">
-        <v>63</v>
-      </c>
-      <c r="P44">
-        <v>31.04</v>
-      </c>
       <c r="Q44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R44">
         <v>63</v>
       </c>
       <c r="S44">
-        <v>348.49</v>
+        <v>31.04</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U44">
         <v>63</v>
       </c>
       <c r="V44">
+        <v>348.49</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X44">
+        <v>63</v>
+      </c>
+      <c r="Y44">
         <v>3516.79</v>
       </c>
-      <c r="W44" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X44">
+      <c r="Z44" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA44">
         <v>66</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
         <v>3060.12</v>
       </c>
-      <c r="Z44" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA44">
+      <c r="AC44" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD44">
         <v>69</v>
       </c>
-      <c r="AB44">
+      <c r="AE44">
         <v>1302.26</v>
       </c>
-      <c r="AC44" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF44" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45">
@@ -4698,85 +5171,95 @@
         <v>85</v>
       </c>
       <c r="G45">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I45">
+        <v>85</v>
+      </c>
+      <c r="J45">
         <v>190.38</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="K45" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L45">
         <v>84</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>2564.61</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L45">
+      <c r="N45" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O45">
         <v>85</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>541.58000000000004</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O45">
+      <c r="Q45" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R45">
         <v>84</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>1204.01</v>
       </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R45">
-        <v>86</v>
-      </c>
-      <c r="S45">
-        <v>160.27000000000001</v>
-      </c>
       <c r="T45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U45">
         <v>86</v>
       </c>
       <c r="V45">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X45">
+        <v>86</v>
+      </c>
+      <c r="Y45">
         <v>2140.17</v>
       </c>
-      <c r="W45" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X45">
+      <c r="Z45" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA45">
         <v>90</v>
       </c>
-      <c r="Y45">
+      <c r="AB45">
         <v>2247.27</v>
       </c>
-      <c r="Z45" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA45">
+      <c r="AC45" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD45">
         <v>91</v>
       </c>
-      <c r="AB45">
+      <c r="AE45">
         <v>2549.39</v>
       </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF45" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46">
@@ -4795,85 +5278,95 @@
         <v>49</v>
       </c>
       <c r="G46">
-        <v>378.95</v>
+        <v>369.14</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I46">
         <v>49</v>
       </c>
       <c r="J46">
-        <v>891.37</v>
+        <v>378.95</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L46">
         <v>49</v>
       </c>
       <c r="M46">
+        <v>891.37</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="14"/>
+        <v>opt</v>
+      </c>
+      <c r="O46">
+        <v>49</v>
+      </c>
+      <c r="P46">
         <v>1797.56</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="13"/>
-        <v>opt</v>
-      </c>
-      <c r="O46">
-        <v>51</v>
-      </c>
-      <c r="P46">
-        <v>30.79</v>
-      </c>
       <c r="Q46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>opt</v>
       </c>
       <c r="R46">
         <v>51</v>
       </c>
       <c r="S46">
+        <v>30.79</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U46">
+        <v>51</v>
+      </c>
+      <c r="V46">
         <v>2167.62</v>
       </c>
-      <c r="T46" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U46">
+      <c r="W46" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X46">
         <v>50</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>3148.79</v>
       </c>
-      <c r="W46" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X46">
+      <c r="Z46" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA46">
         <v>52</v>
       </c>
-      <c r="Y46">
+      <c r="AB46">
         <v>2009.49</v>
       </c>
-      <c r="Z46" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA46">
+      <c r="AC46" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD46">
         <v>53</v>
       </c>
-      <c r="AB46">
+      <c r="AE46">
         <v>162.55000000000001</v>
       </c>
-      <c r="AC46" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF46" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47">
@@ -4892,85 +5385,95 @@
         <v>73</v>
       </c>
       <c r="G47">
-        <v>223.74</v>
+        <v>77.72</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I47">
         <v>73</v>
       </c>
       <c r="J47">
-        <v>1058.1300000000001</v>
+        <v>223.74</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L47">
         <v>73</v>
       </c>
       <c r="M47">
-        <v>220.51</v>
+        <v>1058.1300000000001</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
       <c r="O47">
         <v>73</v>
       </c>
       <c r="P47">
-        <v>274.13</v>
+        <v>220.51</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>opt</v>
       </c>
       <c r="R47">
         <v>73</v>
       </c>
       <c r="S47">
-        <v>3294.1</v>
+        <v>274.13</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>opt</v>
       </c>
       <c r="U47">
         <v>73</v>
       </c>
       <c r="V47">
+        <v>3294.1</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="17"/>
+        <v>opt</v>
+      </c>
+      <c r="X47">
+        <v>73</v>
+      </c>
+      <c r="Y47">
         <v>248.24</v>
       </c>
-      <c r="W47" t="str">
-        <f t="shared" si="16"/>
-        <v>opt</v>
-      </c>
-      <c r="X47">
+      <c r="Z47" t="str">
+        <f t="shared" si="18"/>
+        <v>opt</v>
+      </c>
+      <c r="AA47">
         <v>75</v>
       </c>
-      <c r="Y47">
+      <c r="AB47">
         <v>3003.53</v>
       </c>
-      <c r="Z47" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA47">
+      <c r="AC47" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD47">
         <v>80</v>
       </c>
-      <c r="AB47">
+      <c r="AE47">
         <v>468.54</v>
       </c>
-      <c r="AC47" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF47" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48">
@@ -4989,84 +5492,94 @@
         <v>68</v>
       </c>
       <c r="G48">
-        <v>81.99</v>
+        <v>10.95</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>opt</v>
       </c>
       <c r="I48">
         <v>68</v>
       </c>
       <c r="J48">
-        <v>81.7</v>
+        <v>81.99</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>opt</v>
       </c>
       <c r="L48">
         <v>68</v>
       </c>
       <c r="M48">
-        <v>18.3</v>
+        <v>81.7</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>opt</v>
       </c>
       <c r="O48">
         <v>68</v>
       </c>
       <c r="P48">
+        <v>18.3</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="15"/>
+        <v>opt</v>
+      </c>
+      <c r="R48">
+        <v>68</v>
+      </c>
+      <c r="S48">
         <v>33.49</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="14"/>
-        <v>opt</v>
-      </c>
-      <c r="R48">
+      <c r="T48" t="str">
+        <f t="shared" si="16"/>
+        <v>opt</v>
+      </c>
+      <c r="U48">
         <v>69</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>21.14</v>
       </c>
-      <c r="T48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U48">
+      <c r="W48" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X48">
         <v>68</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
         <v>32.380000000000003</v>
       </c>
-      <c r="W48" t="str">
-        <f t="shared" si="16"/>
-        <v>opt</v>
-      </c>
-      <c r="X48">
+      <c r="Z48" t="str">
+        <f t="shared" si="18"/>
+        <v>opt</v>
+      </c>
+      <c r="AA48">
         <v>70</v>
       </c>
-      <c r="Y48">
+      <c r="AB48">
         <v>501.68</v>
       </c>
-      <c r="Z48" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA48">
+      <c r="AC48" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AD48">
         <v>68</v>
       </c>
-      <c r="AB48">
+      <c r="AE48">
         <v>1847.68</v>
       </c>
-      <c r="AC48" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF48" t="str">
+        <f t="shared" si="20"/>
         <v>opt</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -5075,118 +5588,130 @@
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="19">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="21">AVERAGE(C29:C48)</f>
         <v>70.45</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49" si="20">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49" si="22">AVERAGE(D29:D48)</f>
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:V49" si="21">AVERAGE(E29:E48)</f>
+        <f t="shared" ref="E49:Y49" si="23">AVERAGE(E29:E48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>71.2</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="21"/>
-        <v>1084.7075000000002</v>
+        <f t="shared" si="23"/>
+        <v>1042.7450000000001</v>
       </c>
       <c r="H49" s="1">
         <f>COUNTIF(H29:H48, "opt")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="21"/>
-        <v>71.099999999999994</v>
+        <f t="shared" si="23"/>
+        <v>71.2</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="21"/>
-        <v>1274.7805000000003</v>
+        <f t="shared" si="23"/>
+        <v>1084.7075000000002</v>
       </c>
       <c r="K49" s="1">
         <f>COUNTIF(K29:K48, "opt")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>71.099999999999994</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="21"/>
-        <v>1222.4570000000001</v>
+        <f t="shared" si="23"/>
+        <v>1274.7805000000003</v>
       </c>
       <c r="N49" s="1">
         <f>COUNTIF(N29:N48, "opt")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="21"/>
-        <v>71.95</v>
+        <f t="shared" si="23"/>
+        <v>71.099999999999994</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="21"/>
-        <v>928.15500000000009</v>
+        <f t="shared" si="23"/>
+        <v>1222.4570000000001</v>
       </c>
       <c r="Q49" s="1">
         <f>COUNTIF(Q29:Q48, "opt")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="21"/>
-        <v>72.849999999999994</v>
+        <f t="shared" si="23"/>
+        <v>71.95</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="21"/>
-        <v>1487.6964999999998</v>
+        <f t="shared" si="23"/>
+        <v>928.15500000000009</v>
       </c>
       <c r="T49" s="1">
         <f>COUNTIF(T29:T48, "opt")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="21"/>
-        <v>72.3</v>
+        <f t="shared" si="23"/>
+        <v>72.849999999999994</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="21"/>
-        <v>1466.5520000000001</v>
+        <f t="shared" si="23"/>
+        <v>1487.6964999999998</v>
       </c>
       <c r="W49" s="1">
         <f>COUNTIF(W29:W48, "opt")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" ref="X49" si="22">AVERAGE(X29:X48)</f>
-        <v>77.599999999999994</v>
+        <f t="shared" si="23"/>
+        <v>72.3</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" ref="Y49" si="23">AVERAGE(Y29:Y48)</f>
-        <v>2184.5685000000003</v>
+        <f t="shared" si="23"/>
+        <v>1466.5520000000001</v>
       </c>
       <c r="Z49" s="1">
         <f>COUNTIF(Z29:Z48, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" ref="AA49" si="24">AVERAGE(AA29:AA48)</f>
-        <v>77.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" ref="AB49" si="25">AVERAGE(AB29:AB48)</f>
-        <v>1928.9090000000001</v>
+        <v>2184.5685000000003</v>
       </c>
       <c r="AC49" s="1">
         <f>COUNTIF(AC29:AC48, "opt")</f>
         <v>1</v>
       </c>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
+      <c r="AD49" s="1">
+        <f t="shared" ref="AD49" si="26">AVERAGE(AD29:AD48)</f>
+        <v>77.5</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" ref="AE49" si="27">AVERAGE(AE29:AE48)</f>
+        <v>1928.9090000000001</v>
+      </c>
+      <c r="AF49" s="1">
+        <f>COUNTIF(AF29:AF48, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>33</v>
@@ -5218,8 +5743,11 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -5228,45 +5756,50 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="3" t="s">
+      <c r="O52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
+      <c r="AD52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -5309,18 +5842,18 @@
       <c r="N53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
       <c r="U53" s="1" t="s">
         <v>22</v>
       </c>
@@ -5348,8 +5881,17 @@
       <c r="AC53" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AD53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5911,7 @@
         <v>139</v>
       </c>
       <c r="G54">
-        <v>3128.3</v>
+        <v>348.67</v>
       </c>
       <c r="H54" t="str">
         <f>IF($C54=F54, "opt", "")</f>
@@ -5379,7 +5921,7 @@
         <v>139</v>
       </c>
       <c r="J54">
-        <v>2079.62</v>
+        <v>3128.3</v>
       </c>
       <c r="K54" t="str">
         <f>IF($C54=I54, "opt", "")</f>
@@ -5389,54 +5931,64 @@
         <v>139</v>
       </c>
       <c r="M54">
-        <v>1127.6600000000001</v>
+        <v>2079.62</v>
       </c>
       <c r="N54" t="str">
         <f>IF($C54=L54, "opt", "")</f>
         <v/>
       </c>
-      <c r="R54">
+      <c r="O54">
+        <v>139</v>
+      </c>
+      <c r="P54">
+        <v>1127.6600000000001</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>IF($C54=O54, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U54">
         <v>144</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>254.58</v>
-      </c>
-      <c r="T54" t="str">
-        <f>IF($B54=R54, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U54">
-        <v>142</v>
-      </c>
-      <c r="V54">
-        <v>657.06</v>
       </c>
       <c r="W54" t="str">
         <f>IF($B54=U54, "opt", "")</f>
         <v/>
       </c>
       <c r="X54">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Y54">
-        <v>631.5</v>
+        <v>657.06</v>
       </c>
       <c r="Z54" t="str">
         <f>IF($B54=X54, "opt", "")</f>
         <v/>
       </c>
       <c r="AA54">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB54">
-        <v>2862.68</v>
+        <v>631.5</v>
       </c>
       <c r="AC54" t="str">
         <f>IF($B54=AA54, "opt", "")</f>
         <v/>
       </c>
+      <c r="AD54">
+        <v>149</v>
+      </c>
+      <c r="AE54">
+        <v>2862.68</v>
+      </c>
+      <c r="AF54" t="str">
+        <f>IF($B54=AD54, "opt", "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -5456,74 +6008,84 @@
         <v>149</v>
       </c>
       <c r="G55">
-        <v>771.27</v>
+        <v>596.05999999999995</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ref="H55:H73" si="26">IF($C55=F55, "opt", "")</f>
+        <f t="shared" ref="H55:H73" si="28">IF($C55=F55, "opt", "")</f>
         <v/>
       </c>
       <c r="I55">
         <v>149</v>
       </c>
       <c r="J55">
-        <v>699.74</v>
+        <v>771.27</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55:K73" si="27">IF($C55=I55, "opt", "")</f>
+        <f t="shared" ref="K55:K73" si="29">IF($C55=I55, "opt", "")</f>
         <v/>
       </c>
       <c r="L55">
         <v>149</v>
       </c>
       <c r="M55">
+        <v>699.74</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" ref="N55:N73" si="30">IF($C55=L55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="O55">
+        <v>149</v>
+      </c>
+      <c r="P55">
         <v>1195.83</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" ref="N55:N73" si="28">IF($C55=L55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="R55">
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q73" si="31">IF($C55=O55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="U55">
         <v>154</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>2386.46</v>
       </c>
-      <c r="T55" t="str">
-        <f t="shared" ref="T55:T73" si="29">IF($B55=R55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="U55">
+      <c r="W55" t="str">
+        <f t="shared" ref="W55:W73" si="32">IF($B55=U55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="X55">
         <v>152</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
         <v>2672.73</v>
       </c>
-      <c r="W55" t="str">
-        <f t="shared" ref="W55:W73" si="30">IF($B55=U55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="X55">
+      <c r="Z55" t="str">
+        <f t="shared" ref="Z55:Z73" si="33">IF($B55=X55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AA55">
         <v>182</v>
       </c>
-      <c r="Y55">
+      <c r="AB55">
         <v>3637.73</v>
       </c>
-      <c r="Z55" t="str">
-        <f t="shared" ref="Z55:Z73" si="31">IF($B55=X55, "opt", "")</f>
-        <v/>
-      </c>
-      <c r="AA55">
+      <c r="AC55" t="str">
+        <f t="shared" ref="AC55:AC73" si="34">IF($B55=AA55, "opt", "")</f>
+        <v/>
+      </c>
+      <c r="AD55">
         <v>169</v>
       </c>
-      <c r="AB55">
+      <c r="AE55">
         <v>2837.51</v>
       </c>
-      <c r="AC55" t="str">
-        <f t="shared" ref="AC55:AC73" si="32">IF($B55=AA55, "opt", "")</f>
+      <c r="AF55" t="str">
+        <f t="shared" ref="AF55:AF73" si="35">IF($B55=AD55, "opt", "")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -5540,77 +6102,87 @@
         <v>179.16</v>
       </c>
       <c r="F56">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56">
-        <v>174.01</v>
+        <v>20.34</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I56">
         <v>78</v>
       </c>
       <c r="J56">
-        <v>1350.66</v>
+        <v>174.01</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L56">
         <v>78</v>
       </c>
       <c r="M56">
+        <v>1350.66</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O56">
+        <v>78</v>
+      </c>
+      <c r="P56">
         <v>183.53</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R56">
+      <c r="Q56" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U56">
         <v>83</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>309.95999999999998</v>
       </c>
-      <c r="T56" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U56">
+      <c r="W56" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X56">
         <v>82</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
         <v>1015.5</v>
       </c>
-      <c r="W56" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X56">
+      <c r="Z56" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA56">
         <v>89</v>
       </c>
-      <c r="Y56">
+      <c r="AB56">
         <v>714.64</v>
       </c>
-      <c r="Z56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA56">
+      <c r="AC56" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD56">
         <v>87</v>
       </c>
-      <c r="AB56">
+      <c r="AE56">
         <v>3470.98</v>
       </c>
-      <c r="AC56" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF56" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -5627,77 +6199,87 @@
         <v>3631.76</v>
       </c>
       <c r="F57">
+        <v>145</v>
+      </c>
+      <c r="G57">
+        <v>2292.9299999999998</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I57">
         <v>148</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>3048.54</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I57">
+      <c r="K57" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L57">
         <v>147</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>2517.2800000000002</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L57">
+      <c r="N57" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O57">
         <v>148</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>2908.23</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R57">
+      <c r="Q57" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U57">
         <v>154</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>2378.6999999999998</v>
       </c>
-      <c r="T57" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U57">
+      <c r="W57" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X57">
         <v>151</v>
       </c>
-      <c r="V57">
+      <c r="Y57">
         <v>1923.96</v>
       </c>
-      <c r="W57" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X57">
+      <c r="Z57" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA57">
         <v>165</v>
       </c>
-      <c r="Y57">
+      <c r="AB57">
         <v>3447.42</v>
       </c>
-      <c r="Z57" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA57">
+      <c r="AC57" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD57">
         <v>162</v>
       </c>
-      <c r="AB57">
+      <c r="AE57">
         <v>1616.56</v>
       </c>
-      <c r="AC57" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF57" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5714,77 +6296,87 @@
         <v>911.98</v>
       </c>
       <c r="F58">
+        <v>160</v>
+      </c>
+      <c r="G58">
+        <v>2506.84</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I58">
         <v>159</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>1607.49</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I58">
+      <c r="K58" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L58">
         <v>158</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>2815.96</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L58">
+      <c r="N58" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O58">
         <v>159</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>624.89</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R58">
+      <c r="Q58" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U58">
         <v>165</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>648.26</v>
       </c>
-      <c r="T58" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U58">
+      <c r="W58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X58">
         <v>160</v>
       </c>
-      <c r="V58">
+      <c r="Y58">
         <v>2621.15</v>
       </c>
-      <c r="W58" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X58">
+      <c r="Z58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA58">
         <v>168</v>
       </c>
-      <c r="Y58">
+      <c r="AB58">
         <v>1174.47</v>
       </c>
-      <c r="Z58" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA58">
+      <c r="AC58" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD58">
         <v>165</v>
       </c>
-      <c r="AB58">
+      <c r="AE58">
         <v>2670.1</v>
       </c>
-      <c r="AC58" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF58" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -5801,77 +6393,87 @@
         <v>3604.64</v>
       </c>
       <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>1418.34</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I59">
         <v>149</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1678.19</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I59">
+      <c r="K59" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L59">
         <v>150</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>920.01</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L59">
+      <c r="N59" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O59">
         <v>149</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>1622.87</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R59">
+      <c r="Q59" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U59">
         <v>154</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1211.22</v>
       </c>
-      <c r="T59" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U59">
+      <c r="W59" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X59">
         <v>152</v>
       </c>
-      <c r="V59">
+      <c r="Y59">
         <v>1347.62</v>
       </c>
-      <c r="W59" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X59">
+      <c r="Z59" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA59">
         <v>162</v>
       </c>
-      <c r="Y59">
+      <c r="AB59">
         <v>1435.66</v>
       </c>
-      <c r="Z59" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA59">
+      <c r="AC59" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD59">
         <v>159</v>
       </c>
-      <c r="AB59">
+      <c r="AE59">
         <v>3351.26</v>
       </c>
-      <c r="AC59" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF59" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -5888,77 +6490,87 @@
         <v>3655.54</v>
       </c>
       <c r="F60">
+        <v>157</v>
+      </c>
+      <c r="G60">
+        <v>2115.5700000000002</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I60">
         <v>158</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>1770.57</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I60">
+      <c r="K60" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L60">
         <v>159</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>663.08</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L60">
+      <c r="N60" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O60">
         <v>157</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>1349.34</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R60">
+      <c r="Q60" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U60">
         <v>162</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1868.42</v>
       </c>
-      <c r="T60" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U60">
+      <c r="W60" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X60">
         <v>160</v>
       </c>
-      <c r="V60">
+      <c r="Y60">
         <v>1825.03</v>
       </c>
-      <c r="W60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X60">
+      <c r="Z60" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA60">
         <v>169</v>
       </c>
-      <c r="Y60">
+      <c r="AB60">
         <v>1391.51</v>
       </c>
-      <c r="Z60" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA60">
+      <c r="AC60" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD60">
         <v>172</v>
       </c>
-      <c r="AB60">
+      <c r="AE60">
         <v>2752.16</v>
       </c>
-      <c r="AC60" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF60" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5975,77 +6587,87 @@
         <v>3648.06</v>
       </c>
       <c r="F61">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G61">
-        <v>2557.77</v>
+        <v>1636.78</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I61">
         <v>176</v>
       </c>
       <c r="J61">
-        <v>2346.75</v>
+        <v>2557.77</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L61">
         <v>176</v>
       </c>
       <c r="M61">
+        <v>2346.75</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O61">
+        <v>176</v>
+      </c>
+      <c r="P61">
         <v>1061.81</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R61">
+      <c r="Q61" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U61">
         <v>177</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>3139.32</v>
       </c>
-      <c r="T61" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U61">
+      <c r="W61" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X61">
         <v>180</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
         <v>2940.9</v>
       </c>
-      <c r="W61" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X61">
+      <c r="Z61" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA61">
         <v>190</v>
       </c>
-      <c r="Y61">
+      <c r="AB61">
         <v>1329.91</v>
       </c>
-      <c r="Z61" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA61">
+      <c r="AC61" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD61">
         <v>185</v>
       </c>
-      <c r="AB61">
+      <c r="AE61">
         <v>1546.74</v>
       </c>
-      <c r="AC61" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF61" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6062,77 +6684,87 @@
         <v>329.38</v>
       </c>
       <c r="F62">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62">
-        <v>3201.24</v>
+        <v>872.48</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I62">
         <v>154</v>
       </c>
       <c r="J62">
+        <v>3201.24</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L62">
+        <v>154</v>
+      </c>
+      <c r="M62">
         <v>1784.28</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L62">
+      <c r="N62" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O62">
         <v>153</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>1347.81</v>
       </c>
-      <c r="N62" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R62">
-        <v>156</v>
-      </c>
-      <c r="S62">
-        <v>1556.14</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="29"/>
+      <c r="Q62" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U62">
         <v>156</v>
       </c>
       <c r="V62">
+        <v>1556.14</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X62">
+        <v>156</v>
+      </c>
+      <c r="Y62">
         <v>1724.02</v>
       </c>
-      <c r="W62" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X62">
-        <v>166</v>
-      </c>
-      <c r="Y62">
-        <v>3240.09</v>
-      </c>
       <c r="Z62" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA62">
         <v>166</v>
       </c>
       <c r="AB62">
+        <v>3240.09</v>
+      </c>
+      <c r="AC62" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD62">
+        <v>166</v>
+      </c>
+      <c r="AE62">
         <v>3490.77</v>
       </c>
-      <c r="AC62" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF62" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -6149,77 +6781,87 @@
         <v>3602.38</v>
       </c>
       <c r="F63">
+        <v>153</v>
+      </c>
+      <c r="G63">
+        <v>915.53</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I63">
         <v>150</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>3078.57</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I63">
+      <c r="K63" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L63">
         <v>151</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>2212.6</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L63">
+      <c r="N63" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O63">
         <v>149</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>1544.1</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R63">
+      <c r="Q63" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U63">
         <v>153</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>3116.66</v>
       </c>
-      <c r="T63" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U63">
+      <c r="W63" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X63">
         <v>155</v>
       </c>
-      <c r="V63">
+      <c r="Y63">
         <v>1856.66</v>
       </c>
-      <c r="W63" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X63">
+      <c r="Z63" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA63">
         <v>162</v>
       </c>
-      <c r="Y63">
+      <c r="AB63">
         <v>3571.87</v>
       </c>
-      <c r="Z63" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA63">
+      <c r="AC63" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD63">
         <v>165</v>
       </c>
-      <c r="AB63">
+      <c r="AE63">
         <v>2597.0500000000002</v>
       </c>
-      <c r="AC63" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF63" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -6236,77 +6878,87 @@
         <v>338.36</v>
       </c>
       <c r="F64">
+        <v>112</v>
+      </c>
+      <c r="G64">
+        <v>994.82</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I64">
         <v>114</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>980.8</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="K64" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L64">
         <v>112</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>1582.14</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L64">
+      <c r="N64" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O64">
         <v>113</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>2530.9</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R64">
+      <c r="Q64" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U64">
         <v>117</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1565.52</v>
       </c>
-      <c r="T64" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U64">
+      <c r="W64" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X64">
         <v>114</v>
       </c>
-      <c r="V64">
+      <c r="Y64">
         <v>2136.59</v>
       </c>
-      <c r="W64" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X64">
+      <c r="Z64" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA64">
         <v>125</v>
       </c>
-      <c r="Y64">
+      <c r="AB64">
         <v>2636.94</v>
       </c>
-      <c r="Z64" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA64">
+      <c r="AC64" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD64">
         <v>124</v>
       </c>
-      <c r="AB64">
+      <c r="AE64">
         <v>3155.58</v>
       </c>
-      <c r="AC64" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF64" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -6323,77 +6975,87 @@
         <v>3620.36</v>
       </c>
       <c r="F65">
+        <v>155</v>
+      </c>
+      <c r="G65">
+        <v>3596.01</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I65">
         <v>156</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>1521.91</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="K65" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L65">
         <v>155</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>1804.07</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L65">
+      <c r="N65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O65">
         <v>156</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>1474.89</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R65">
+      <c r="Q65" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U65">
         <v>162</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>882.17</v>
       </c>
-      <c r="T65" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U65">
+      <c r="W65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X65">
         <v>160</v>
       </c>
-      <c r="V65">
+      <c r="Y65">
         <v>956.97</v>
       </c>
-      <c r="W65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X65">
+      <c r="Z65" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA65">
         <v>214</v>
       </c>
-      <c r="Y65">
+      <c r="AB65">
         <v>5236.25</v>
       </c>
-      <c r="Z65" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA65">
+      <c r="AC65" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD65">
         <v>173</v>
       </c>
-      <c r="AB65">
+      <c r="AE65">
         <v>3430.55</v>
       </c>
-      <c r="AC65" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF65" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -6410,77 +7072,87 @@
         <v>913.1</v>
       </c>
       <c r="F66">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G66">
-        <v>1669.07</v>
+        <v>1328.77</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I66">
         <v>152</v>
       </c>
       <c r="J66">
-        <v>2573.63</v>
+        <v>1669.07</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L66">
         <v>152</v>
       </c>
       <c r="M66">
+        <v>2573.63</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O66">
+        <v>152</v>
+      </c>
+      <c r="P66">
         <v>1319.81</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R66">
+      <c r="Q66" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U66">
         <v>156</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>3508.34</v>
       </c>
-      <c r="T66" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U66">
+      <c r="W66" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X66">
         <v>158</v>
       </c>
-      <c r="V66">
+      <c r="Y66">
         <v>2765.03</v>
       </c>
-      <c r="W66" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X66">
+      <c r="Z66" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA66">
         <v>166</v>
       </c>
-      <c r="Y66">
+      <c r="AB66">
         <v>1399.34</v>
       </c>
-      <c r="Z66" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA66">
+      <c r="AC66" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD66">
         <v>164</v>
       </c>
-      <c r="AB66">
+      <c r="AE66">
         <v>2690.94</v>
       </c>
-      <c r="AC66" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF66" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -6497,77 +7169,87 @@
         <v>236.64</v>
       </c>
       <c r="F67">
+        <v>164</v>
+      </c>
+      <c r="G67">
+        <v>3410.92</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I67">
         <v>168</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>2545.58</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="K67" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L67">
         <v>167</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>2644.98</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L67">
+      <c r="N67" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O67">
         <v>166</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>1197.1400000000001</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R67">
+      <c r="Q67" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U67">
         <v>172</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1535.47</v>
       </c>
-      <c r="T67" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U67">
+      <c r="W67" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X67">
         <v>168</v>
       </c>
-      <c r="V67">
+      <c r="Y67">
         <v>3493.09</v>
       </c>
-      <c r="W67" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X67">
+      <c r="Z67" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA67">
         <v>191</v>
       </c>
-      <c r="Y67">
+      <c r="AB67">
         <v>3558.47</v>
       </c>
-      <c r="Z67" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA67">
+      <c r="AC67" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD67">
         <v>184</v>
       </c>
-      <c r="AB67">
+      <c r="AE67">
         <v>1410.68</v>
       </c>
-      <c r="AC67" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF67" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -6587,74 +7269,84 @@
         <v>89</v>
       </c>
       <c r="G68">
-        <v>405.01</v>
+        <v>15</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>opt</v>
       </c>
       <c r="I68">
         <v>89</v>
       </c>
       <c r="J68">
-        <v>395.04</v>
+        <v>405.01</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>opt</v>
       </c>
       <c r="L68">
         <v>89</v>
       </c>
       <c r="M68">
+        <v>395.04</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="30"/>
+        <v>opt</v>
+      </c>
+      <c r="O68">
+        <v>89</v>
+      </c>
+      <c r="P68">
         <v>271.16000000000003</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="28"/>
-        <v>opt</v>
-      </c>
-      <c r="R68">
+      <c r="Q68" t="str">
+        <f t="shared" si="31"/>
+        <v>opt</v>
+      </c>
+      <c r="U68">
         <v>89</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1872.38</v>
       </c>
-      <c r="T68" t="str">
-        <f t="shared" si="29"/>
-        <v>opt</v>
-      </c>
-      <c r="U68">
+      <c r="W68" t="str">
+        <f t="shared" si="32"/>
+        <v>opt</v>
+      </c>
+      <c r="X68">
         <v>90</v>
       </c>
-      <c r="V68">
+      <c r="Y68">
         <v>20.65</v>
       </c>
-      <c r="W68" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X68">
+      <c r="Z68" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA68">
         <v>93</v>
       </c>
-      <c r="Y68">
+      <c r="AB68">
         <v>2570.6</v>
       </c>
-      <c r="Z68" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA68">
+      <c r="AC68" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD68">
         <v>91</v>
       </c>
-      <c r="AB68">
+      <c r="AE68">
         <v>894.18</v>
       </c>
-      <c r="AC68" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF68" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6671,77 +7363,87 @@
         <v>227.07</v>
       </c>
       <c r="F69">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69">
-        <v>2786.62</v>
+        <v>1607.88</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>opt</v>
       </c>
       <c r="I69">
         <v>116</v>
       </c>
       <c r="J69">
-        <v>1425.41</v>
+        <v>2786.62</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L69">
         <v>116</v>
       </c>
       <c r="M69">
+        <v>1425.41</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O69">
+        <v>116</v>
+      </c>
+      <c r="P69">
         <v>1001.59</v>
       </c>
-      <c r="N69" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R69">
-        <v>121</v>
-      </c>
-      <c r="S69">
-        <v>1535.21</v>
-      </c>
-      <c r="T69" t="str">
-        <f t="shared" si="29"/>
+      <c r="Q69" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U69">
         <v>121</v>
       </c>
       <c r="V69">
+        <v>1535.21</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X69">
+        <v>121</v>
+      </c>
+      <c r="Y69">
         <v>3062.52</v>
       </c>
-      <c r="W69" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X69">
+      <c r="Z69" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA69">
         <v>128</v>
       </c>
-      <c r="Y69">
+      <c r="AB69">
         <v>2018.32</v>
       </c>
-      <c r="Z69" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA69">
+      <c r="AC69" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD69">
         <v>127</v>
       </c>
-      <c r="AB69">
+      <c r="AE69">
         <v>3492.04</v>
       </c>
-      <c r="AC69" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF69" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -6758,77 +7460,87 @@
         <v>3650.96</v>
       </c>
       <c r="F70">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G70">
-        <v>2607.14</v>
+        <v>3411.61</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I70">
         <v>161</v>
       </c>
       <c r="J70">
-        <v>2542.58</v>
+        <v>2607.14</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L70">
         <v>161</v>
       </c>
       <c r="M70">
+        <v>2542.58</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O70">
+        <v>161</v>
+      </c>
+      <c r="P70">
         <v>899.57</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R70">
-        <v>166</v>
-      </c>
-      <c r="S70">
-        <v>3144.44</v>
-      </c>
-      <c r="T70" t="str">
-        <f t="shared" si="29"/>
+      <c r="Q70" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U70">
         <v>166</v>
       </c>
       <c r="V70">
+        <v>3144.44</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X70">
+        <v>166</v>
+      </c>
+      <c r="Y70">
         <v>1031.4100000000001</v>
       </c>
-      <c r="W70" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X70">
-        <v>180</v>
-      </c>
-      <c r="Y70">
-        <v>2915.07</v>
-      </c>
       <c r="Z70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA70">
         <v>180</v>
       </c>
       <c r="AB70">
+        <v>2915.07</v>
+      </c>
+      <c r="AC70" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD70">
+        <v>180</v>
+      </c>
+      <c r="AE70">
         <v>2578.83</v>
       </c>
-      <c r="AC70" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF70" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -6845,77 +7557,87 @@
         <v>53.23</v>
       </c>
       <c r="F71">
+        <v>97</v>
+      </c>
+      <c r="G71">
+        <v>501.19</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I71">
         <v>98</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>918.64</v>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I71">
+      <c r="K71" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L71">
         <v>97</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>2929.37</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L71">
+      <c r="N71" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O71">
         <v>98</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>502.15</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R71">
+      <c r="Q71" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U71">
         <v>99</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1565.23</v>
       </c>
-      <c r="T71" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U71">
+      <c r="W71" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X71">
         <v>101</v>
       </c>
-      <c r="V71">
+      <c r="Y71">
         <v>351.49</v>
       </c>
-      <c r="W71" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X71">
+      <c r="Z71" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA71">
         <v>104</v>
       </c>
-      <c r="Y71">
+      <c r="AB71">
         <v>891.9</v>
       </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA71">
+      <c r="AC71" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD71">
         <v>100</v>
       </c>
-      <c r="AB71">
+      <c r="AE71">
         <v>1374.47</v>
       </c>
-      <c r="AC71" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF71" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -6932,77 +7654,87 @@
         <v>3637.62</v>
       </c>
       <c r="F72">
+        <v>142</v>
+      </c>
+      <c r="G72">
+        <v>2297.14</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I72">
         <v>140</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>2099.4899999999998</v>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I72">
-        <v>141</v>
-      </c>
-      <c r="J72">
-        <v>1246.8</v>
-      </c>
       <c r="K72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L72">
         <v>141</v>
       </c>
       <c r="M72">
+        <v>1246.8</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O72">
+        <v>141</v>
+      </c>
+      <c r="P72">
         <v>2469.15</v>
       </c>
-      <c r="N72" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R72">
-        <v>144</v>
-      </c>
-      <c r="S72">
-        <v>927.05</v>
-      </c>
-      <c r="T72" t="str">
-        <f t="shared" si="29"/>
+      <c r="Q72" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U72">
         <v>144</v>
       </c>
       <c r="V72">
+        <v>927.05</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X72">
+        <v>144</v>
+      </c>
+      <c r="Y72">
         <v>903.06</v>
       </c>
-      <c r="W72" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X72">
-        <v>151</v>
-      </c>
-      <c r="Y72">
-        <v>1895.86</v>
-      </c>
       <c r="Z72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA72">
         <v>151</v>
       </c>
       <c r="AB72">
+        <v>1895.86</v>
+      </c>
+      <c r="AC72" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD72">
+        <v>151</v>
+      </c>
+      <c r="AE72">
         <v>3455.11</v>
       </c>
-      <c r="AC72" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF72" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -7019,77 +7751,87 @@
         <v>31.71</v>
       </c>
       <c r="F73">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G73">
-        <v>1894.94</v>
+        <v>1033.2</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>opt</v>
       </c>
       <c r="I73">
         <v>130</v>
       </c>
       <c r="J73">
+        <v>1894.94</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L73">
+        <v>130</v>
+      </c>
+      <c r="M73">
         <v>1434.5</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L73">
+      <c r="N73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O73">
         <v>131</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>442.44</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="R73">
+      <c r="Q73" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="U73">
         <v>132</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2536.19</v>
       </c>
-      <c r="T73" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U73">
+      <c r="W73" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="X73">
         <v>131</v>
       </c>
-      <c r="V73">
+      <c r="Y73">
         <v>2013.01</v>
       </c>
-      <c r="W73" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="X73">
+      <c r="Z73" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AA73">
         <v>142</v>
       </c>
-      <c r="Y73">
+      <c r="AB73">
         <v>1693.27</v>
       </c>
-      <c r="Z73" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AA73">
+      <c r="AC73" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AD73">
         <v>139</v>
       </c>
-      <c r="AB73">
+      <c r="AE73">
         <v>1350.2</v>
       </c>
-      <c r="AC73" t="str">
-        <f t="shared" si="32"/>
+      <c r="AF73" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -7098,138 +7840,153 @@
         <v>136.05000000000001</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="33">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="36">AVERAGE(C54:C73)</f>
         <v>135.35</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74" si="34">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74" si="37">AVERAGE(D54:D73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:V74" si="35">AVERAGE(E54:E73)</f>
+        <f t="shared" ref="E74:Y74" si="38">AVERAGE(E54:E73)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="35"/>
-        <v>139.19999999999999</v>
+        <f t="shared" si="38"/>
+        <v>138.69999999999999</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="35"/>
-        <v>1922.2574999999997</v>
+        <f t="shared" si="38"/>
+        <v>1546.0040000000004</v>
       </c>
       <c r="H74" s="1">
         <f>COUNTIF(H54:H73, "opt")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="35"/>
-        <v>139.05000000000001</v>
+        <f t="shared" si="38"/>
+        <v>139.19999999999999</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="35"/>
-        <v>1798.4250000000004</v>
+        <f t="shared" si="38"/>
+        <v>1922.2574999999997</v>
       </c>
       <c r="K74" s="1">
         <f>COUNTIF(K54:K73, "opt")</f>
         <v>1</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="35"/>
-        <v>139</v>
+        <f t="shared" si="38"/>
+        <v>139.05000000000001</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="35"/>
-        <v>1253.7435</v>
+        <f t="shared" si="38"/>
+        <v>1798.4250000000004</v>
       </c>
       <c r="N74" s="1">
         <f>COUNTIF(N54:N73, "opt")</f>
         <v>1</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1">
-        <f t="shared" si="35"/>
+      <c r="O74" s="1">
+        <f t="shared" si="38"/>
+        <v>139</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="38"/>
+        <v>1253.7435</v>
+      </c>
+      <c r="Q74" s="1">
+        <f>COUNTIF(Q54:Q73, "opt")</f>
+        <v>1</v>
+      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1">
+        <f t="shared" si="38"/>
         <v>143</v>
       </c>
-      <c r="S74" s="1">
-        <f t="shared" si="35"/>
+      <c r="V74" s="1">
+        <f t="shared" si="38"/>
         <v>1797.086</v>
-      </c>
-      <c r="T74" s="1">
-        <f>COUNTIF(T54:T73, "opt")</f>
-        <v>1</v>
-      </c>
-      <c r="U74" s="1">
-        <f t="shared" si="35"/>
-        <v>142.15</v>
-      </c>
-      <c r="V74" s="1">
-        <f t="shared" si="35"/>
-        <v>1765.9225000000001</v>
       </c>
       <c r="W74" s="1">
         <f>COUNTIF(W54:W73, "opt")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" ref="X74" si="36">AVERAGE(X54:X73)</f>
-        <v>154.85</v>
+        <f t="shared" si="38"/>
+        <v>142.15</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" ref="Y74" si="37">AVERAGE(Y54:Y73)</f>
-        <v>2269.5409999999997</v>
+        <f t="shared" si="38"/>
+        <v>1765.9225000000001</v>
       </c>
       <c r="Z74" s="1">
         <f>COUNTIF(Z54:Z73, "opt")</f>
         <v>0</v>
       </c>
       <c r="AA74" s="1">
-        <f t="shared" ref="AA74" si="38">AVERAGE(AA54:AA73)</f>
-        <v>150.6</v>
+        <f t="shared" ref="AA74" si="39">AVERAGE(AA54:AA73)</f>
+        <v>154.85</v>
       </c>
       <c r="AB74" s="1">
-        <f t="shared" ref="AB74" si="39">AVERAGE(AB54:AB73)</f>
-        <v>2551.4195000000004</v>
+        <f t="shared" ref="AB74" si="40">AVERAGE(AB54:AB73)</f>
+        <v>2269.5409999999997</v>
       </c>
       <c r="AC74" s="1">
         <f>COUNTIF(AC54:AC73, "opt")</f>
         <v>0</v>
       </c>
+      <c r="AD74" s="1">
+        <f t="shared" ref="AD74" si="41">AVERAGE(AD54:AD73)</f>
+        <v>150.6</v>
+      </c>
+      <c r="AE74" s="1">
+        <f t="shared" ref="AE74" si="42">AVERAGE(AE54:AE73)</f>
+        <v>2551.4195000000004</v>
+      </c>
+      <c r="AF74" s="1">
+        <f>COUNTIF(AF54:AF73, "opt")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE1:AG20">
-    <sortCondition ref="AE1:AE20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AH1:AK74">
+    <sortCondition ref="AH1:AH74"/>
   </sortState>
-  <mergeCells count="29">
+  <mergeCells count="32">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B1:AF1"/>
     <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B1:AC1"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B26:AC26"/>
+    <mergeCell ref="B26:AF26"/>
     <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AD27:AF27"/>
     <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
     <mergeCell ref="U27:W27"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="B51:AF51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="O52:Q52"/>
     <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B51:AC51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="L52:N52"/>
     <mergeCell ref="F52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420363CF-0D3E-4762-8634-032E0113C8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A619012-1CC6-42E4-901C-474955E71A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="k1" sheetId="2" r:id="rId2"/>
+    <sheet name="k2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="43">
   <si>
     <t>bath.txt</t>
   </si>
@@ -124,6 +126,48 @@
   <si>
     <t>VNS+GA params 2.2. 19:45:42</t>
   </si>
+  <si>
+    <t xml:space="preserve"> True</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>best found</t>
+  </si>
+  <si>
+    <t>feas</t>
+  </si>
+  <si>
+    <t>tot time</t>
+  </si>
+  <si>
+    <t>ILP</t>
+  </si>
+  <si>
+    <t>val avg</t>
+  </si>
+  <si>
+    <t>val min</t>
+  </si>
+  <si>
+    <t>val std</t>
+  </si>
+  <si>
+    <t>tb avg</t>
+  </si>
+  <si>
+    <t>tt avg</t>
+  </si>
+  <si>
+    <t>val ind</t>
+  </si>
+  <si>
+    <t>VNS+GA params 2.2. 19:45:42 10 runs 2000it</t>
+  </si>
 </sst>
 </file>
 
@@ -166,12 +210,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,50 +537,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="8" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -543,25 +611,43 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,27 +661,51 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E4">
+        <f>MIN('k1'!B3,'k1'!F3,'k1'!J3,'k1'!N3,'k1'!R3,'k1'!V3,'k1'!Z3,'k1'!AD3,'k1'!AH3,'k1'!AL3)</f>
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
+        <f>IF(E4=$B4,"best","")</f>
+        <v>best</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE('k1'!B3,'k1'!F3,'k1'!J3,'k1'!N3,'k1'!R3,'k1'!V3,'k1'!Z3,'k1'!AD3,'k1'!AH3,'k1'!AL3)</f>
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.STDEV.P('k1'!B3,'k1'!F3,'k1'!J3,'k1'!N3,'k1'!R3,'k1'!V3,'k1'!Z3,'k1'!AD3,'k1'!AH3,'k1'!AL3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE('k1'!C3,'k1'!G3,'k1'!K3,'k1'!O3,'k1'!S3,'k1'!W3,'k1'!AA3,'k1'!AE3,'k1'!AI3,'k1'!AM3)</f>
+        <v>60.934000000000005</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE('k1'!E3,'k1'!I3,'k1'!M3,'k1'!Q3,'k1'!U3,'k1'!Y3,'k1'!AC3,'k1'!AG3,'k1'!AK3,'k1'!AO3)</f>
+        <v>445.51900000000006</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+      <c r="L4">
         <v>5.87</v>
       </c>
-      <c r="G4" t="str">
-        <f>IF($B4=E4,"best","")</f>
+      <c r="M4" t="str">
+        <f>IF($B4=K4,"best","")</f>
         <v>best</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>38</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>33.450000000000003</v>
       </c>
-      <c r="J4" t="str">
-        <f>IF($B4=H4,"best","")</f>
+      <c r="P4" t="str">
+        <f>IF($B4=N4,"best","")</f>
         <v>best</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,27 +719,51 @@
         <v>0.74</v>
       </c>
       <c r="E5">
+        <f>MIN('k1'!B4,'k1'!F4,'k1'!J4,'k1'!N4,'k1'!R4,'k1'!V4,'k1'!Z4,'k1'!AD4,'k1'!AH4,'k1'!AL4)</f>
         <v>39</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F23" si="0">IF(E5=$B5,"best","")</f>
+        <v>best</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE('k1'!B4,'k1'!F4,'k1'!J4,'k1'!N4,'k1'!R4,'k1'!V4,'k1'!Z4,'k1'!AD4,'k1'!AH4,'k1'!AL4)</f>
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.STDEV.P('k1'!B4,'k1'!F4,'k1'!J4,'k1'!N4,'k1'!R4,'k1'!V4,'k1'!Z4,'k1'!AD4,'k1'!AH4,'k1'!AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE('k1'!C4,'k1'!G4,'k1'!K4,'k1'!O4,'k1'!S4,'k1'!W4,'k1'!AA4,'k1'!AE4,'k1'!AI4,'k1'!AM4)</f>
+        <v>66.681000000000012</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE('k1'!E4,'k1'!I4,'k1'!M4,'k1'!Q4,'k1'!U4,'k1'!Y4,'k1'!AC4,'k1'!AG4,'k1'!AK4,'k1'!AO4)</f>
+        <v>838.32500000000005</v>
+      </c>
+      <c r="K5">
+        <v>39</v>
+      </c>
+      <c r="L5">
         <v>12.37</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G23" si="0">IF($B5=E5,"best","")</f>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M23" si="1">IF($B5=K5,"best","")</f>
         <v>best</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>39</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>80.34</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J23" si="1">IF($B5=H5,"best","")</f>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P23" si="2">IF($B5=N5,"best","")</f>
         <v>best</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,27 +777,51 @@
         <v>0.33</v>
       </c>
       <c r="E6">
+        <f>MIN('k1'!B5,'k1'!F5,'k1'!J5,'k1'!N5,'k1'!R5,'k1'!V5,'k1'!Z5,'k1'!AD5,'k1'!AH5,'k1'!AL5)</f>
         <v>21</v>
       </c>
-      <c r="F6">
-        <v>13.06</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G6">
+        <f>AVERAGE('k1'!B5,'k1'!F5,'k1'!J5,'k1'!N5,'k1'!R5,'k1'!V5,'k1'!Z5,'k1'!AD5,'k1'!AH5,'k1'!AL5)</f>
+        <v>21</v>
+      </c>
       <c r="H6">
+        <f>_xlfn.STDEV.P('k1'!B5,'k1'!F5,'k1'!J5,'k1'!N5,'k1'!R5,'k1'!V5,'k1'!Z5,'k1'!AD5,'k1'!AH5,'k1'!AL5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE('k1'!C5,'k1'!G5,'k1'!K5,'k1'!O5,'k1'!S5,'k1'!W5,'k1'!AA5,'k1'!AE5,'k1'!AI5,'k1'!AM5)</f>
+        <v>89.171999999999997</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE('k1'!E5,'k1'!I5,'k1'!M5,'k1'!Q5,'k1'!U5,'k1'!Y5,'k1'!AC5,'k1'!AG5,'k1'!AK5,'k1'!AO5)</f>
+        <v>463.43499999999995</v>
+      </c>
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="I6">
-        <v>322.75</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="L6">
+        <v>13.06</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>322.75</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,27 +835,51 @@
         <v>0.49</v>
       </c>
       <c r="E7">
+        <f>MIN('k1'!B6,'k1'!F6,'k1'!J6,'k1'!N6,'k1'!R6,'k1'!V6,'k1'!Z6,'k1'!AD6,'k1'!AH6,'k1'!AL6)</f>
         <v>37</v>
       </c>
-      <c r="F7">
-        <v>26.81</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G7">
+        <f>AVERAGE('k1'!B6,'k1'!F6,'k1'!J6,'k1'!N6,'k1'!R6,'k1'!V6,'k1'!Z6,'k1'!AD6,'k1'!AH6,'k1'!AL6)</f>
+        <v>37</v>
+      </c>
       <c r="H7">
+        <f>_xlfn.STDEV.P('k1'!B6,'k1'!F6,'k1'!J6,'k1'!N6,'k1'!R6,'k1'!V6,'k1'!Z6,'k1'!AD6,'k1'!AH6,'k1'!AL6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE('k1'!C6,'k1'!G6,'k1'!K6,'k1'!O6,'k1'!S6,'k1'!W6,'k1'!AA6,'k1'!AE6,'k1'!AI6,'k1'!AM6)</f>
+        <v>129.05799999999999</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE('k1'!E6,'k1'!I6,'k1'!M6,'k1'!Q6,'k1'!U6,'k1'!Y6,'k1'!AC6,'k1'!AG6,'k1'!AK6,'k1'!AO6)</f>
+        <v>791.30100000000016</v>
+      </c>
+      <c r="K7">
         <v>37</v>
       </c>
-      <c r="I7">
-        <v>298.95999999999998</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="L7">
+        <v>26.81</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>298.95999999999998</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,27 +893,51 @@
         <v>0.25</v>
       </c>
       <c r="E8">
+        <f>MIN('k1'!B7,'k1'!F7,'k1'!J7,'k1'!N7,'k1'!R7,'k1'!V7,'k1'!Z7,'k1'!AD7,'k1'!AH7,'k1'!AL7)</f>
         <v>39</v>
       </c>
-      <c r="F8">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G8">
+        <f>AVERAGE('k1'!B7,'k1'!F7,'k1'!J7,'k1'!N7,'k1'!R7,'k1'!V7,'k1'!Z7,'k1'!AD7,'k1'!AH7,'k1'!AL7)</f>
+        <v>39</v>
+      </c>
       <c r="H8">
+        <f>_xlfn.STDEV.P('k1'!B7,'k1'!F7,'k1'!J7,'k1'!N7,'k1'!R7,'k1'!V7,'k1'!Z7,'k1'!AD7,'k1'!AH7,'k1'!AL7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE('k1'!C7,'k1'!G7,'k1'!K7,'k1'!O7,'k1'!S7,'k1'!W7,'k1'!AA7,'k1'!AE7,'k1'!AI7,'k1'!AM7)</f>
+        <v>41.943999999999996</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE('k1'!E7,'k1'!I7,'k1'!M7,'k1'!Q7,'k1'!U7,'k1'!Y7,'k1'!AC7,'k1'!AG7,'k1'!AK7,'k1'!AO7)</f>
+        <v>419.52499999999998</v>
+      </c>
+      <c r="K8">
         <v>39</v>
       </c>
-      <c r="I8">
-        <v>118.89</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="L8">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>39</v>
+      </c>
+      <c r="O8">
+        <v>118.89</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -745,27 +951,51 @@
         <v>0.36</v>
       </c>
       <c r="E9">
+        <f>MIN('k1'!B8,'k1'!F8,'k1'!J8,'k1'!N8,'k1'!R8,'k1'!V8,'k1'!Z8,'k1'!AD8,'k1'!AH8,'k1'!AL8)</f>
         <v>38</v>
       </c>
-      <c r="F9">
-        <v>1453.51</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G9">
+        <f>AVERAGE('k1'!B8,'k1'!F8,'k1'!J8,'k1'!N8,'k1'!R8,'k1'!V8,'k1'!Z8,'k1'!AD8,'k1'!AH8,'k1'!AL8)</f>
+        <v>38.200000000000003</v>
+      </c>
       <c r="H9">
+        <f>_xlfn.STDEV.P('k1'!B8,'k1'!F8,'k1'!J8,'k1'!N8,'k1'!R8,'k1'!V8,'k1'!Z8,'k1'!AD8,'k1'!AH8,'k1'!AL8)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE('k1'!C8,'k1'!G8,'k1'!K8,'k1'!O8,'k1'!S8,'k1'!W8,'k1'!AA8,'k1'!AE8,'k1'!AI8,'k1'!AM8)</f>
+        <v>144.58499999999998</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE('k1'!E8,'k1'!I8,'k1'!M8,'k1'!Q8,'k1'!U8,'k1'!Y8,'k1'!AC8,'k1'!AG8,'k1'!AK8,'k1'!AO8)</f>
+        <v>438.39000000000004</v>
+      </c>
+      <c r="K9">
         <v>38</v>
       </c>
-      <c r="I9">
-        <v>424.66</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="L9">
+        <v>1453.51</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>424.66</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,27 +1009,51 @@
         <v>0.3</v>
       </c>
       <c r="E10">
+        <f>MIN('k1'!B9,'k1'!F9,'k1'!J9,'k1'!N9,'k1'!R9,'k1'!V9,'k1'!Z9,'k1'!AD9,'k1'!AH9,'k1'!AL9)</f>
         <v>38</v>
       </c>
-      <c r="F10">
-        <v>14.13</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G10">
+        <f>AVERAGE('k1'!B9,'k1'!F9,'k1'!J9,'k1'!N9,'k1'!R9,'k1'!V9,'k1'!Z9,'k1'!AD9,'k1'!AH9,'k1'!AL9)</f>
+        <v>38</v>
+      </c>
       <c r="H10">
+        <f>_xlfn.STDEV.P('k1'!B9,'k1'!F9,'k1'!J9,'k1'!N9,'k1'!R9,'k1'!V9,'k1'!Z9,'k1'!AD9,'k1'!AH9,'k1'!AL9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE('k1'!C9,'k1'!G9,'k1'!K9,'k1'!O9,'k1'!S9,'k1'!W9,'k1'!AA9,'k1'!AE9,'k1'!AI9,'k1'!AM9)</f>
+        <v>52.442999999999998</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE('k1'!E9,'k1'!I9,'k1'!M9,'k1'!Q9,'k1'!U9,'k1'!Y9,'k1'!AC9,'k1'!AG9,'k1'!AK9,'k1'!AO9)</f>
+        <v>514.15899999999999</v>
+      </c>
+      <c r="K10">
         <v>38</v>
       </c>
-      <c r="I10">
-        <v>33.64</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="L10">
+        <v>14.13</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>33.64</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,27 +1067,51 @@
         <v>0.34</v>
       </c>
       <c r="E11">
+        <f>MIN('k1'!B10,'k1'!F10,'k1'!J10,'k1'!N10,'k1'!R10,'k1'!V10,'k1'!Z10,'k1'!AD10,'k1'!AH10,'k1'!AL10)</f>
         <v>50</v>
       </c>
-      <c r="F11">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G11">
+        <f>AVERAGE('k1'!B10,'k1'!F10,'k1'!J10,'k1'!N10,'k1'!R10,'k1'!V10,'k1'!Z10,'k1'!AD10,'k1'!AH10,'k1'!AL10)</f>
+        <v>50.2</v>
+      </c>
       <c r="H11">
+        <f>_xlfn.STDEV.P('k1'!B10,'k1'!F10,'k1'!J10,'k1'!N10,'k1'!R10,'k1'!V10,'k1'!Z10,'k1'!AD10,'k1'!AH10,'k1'!AL10)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE('k1'!C10,'k1'!G10,'k1'!K10,'k1'!O10,'k1'!S10,'k1'!W10,'k1'!AA10,'k1'!AE10,'k1'!AI10,'k1'!AM10)</f>
+        <v>90.929000000000016</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE('k1'!E10,'k1'!I10,'k1'!M10,'k1'!Q10,'k1'!U10,'k1'!Y10,'k1'!AC10,'k1'!AG10,'k1'!AK10,'k1'!AO10)</f>
+        <v>416.00900000000001</v>
+      </c>
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="I11">
-        <v>674.96</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="L11">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>674.96</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,27 +1125,51 @@
         <v>0.47</v>
       </c>
       <c r="E12">
+        <f>MIN('k1'!B11,'k1'!F11,'k1'!J11,'k1'!N11,'k1'!R11,'k1'!V11,'k1'!Z11,'k1'!AD11,'k1'!AH11,'k1'!AL11)</f>
         <v>40</v>
       </c>
-      <c r="F12">
-        <v>23.84</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G12">
+        <f>AVERAGE('k1'!B11,'k1'!F11,'k1'!J11,'k1'!N11,'k1'!R11,'k1'!V11,'k1'!Z11,'k1'!AD11,'k1'!AH11,'k1'!AL11)</f>
+        <v>40</v>
+      </c>
       <c r="H12">
+        <f>_xlfn.STDEV.P('k1'!B11,'k1'!F11,'k1'!J11,'k1'!N11,'k1'!R11,'k1'!V11,'k1'!Z11,'k1'!AD11,'k1'!AH11,'k1'!AL11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE('k1'!C11,'k1'!G11,'k1'!K11,'k1'!O11,'k1'!S11,'k1'!W11,'k1'!AA11,'k1'!AE11,'k1'!AI11,'k1'!AM11)</f>
+        <v>132.66999999999999</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE('k1'!E11,'k1'!I11,'k1'!M11,'k1'!Q11,'k1'!U11,'k1'!Y11,'k1'!AC11,'k1'!AG11,'k1'!AK11,'k1'!AO11)</f>
+        <v>685.61099999999999</v>
+      </c>
+      <c r="K12">
         <v>40</v>
       </c>
-      <c r="I12">
-        <v>130.81</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="L12">
+        <v>23.84</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>130.81</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,27 +1183,51 @@
         <v>0.34</v>
       </c>
       <c r="E13">
+        <f>MIN('k1'!B12,'k1'!F12,'k1'!J12,'k1'!N12,'k1'!R12,'k1'!V12,'k1'!Z12,'k1'!AD12,'k1'!AH12,'k1'!AL12)</f>
         <v>38</v>
       </c>
-      <c r="F13">
-        <v>206.22</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G13">
+        <f>AVERAGE('k1'!B12,'k1'!F12,'k1'!J12,'k1'!N12,'k1'!R12,'k1'!V12,'k1'!Z12,'k1'!AD12,'k1'!AH12,'k1'!AL12)</f>
+        <v>38</v>
+      </c>
       <c r="H13">
+        <f>_xlfn.STDEV.P('k1'!B12,'k1'!F12,'k1'!J12,'k1'!N12,'k1'!R12,'k1'!V12,'k1'!Z12,'k1'!AD12,'k1'!AH12,'k1'!AL12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE('k1'!C12,'k1'!G12,'k1'!K12,'k1'!O12,'k1'!S12,'k1'!W12,'k1'!AA12,'k1'!AE12,'k1'!AI12,'k1'!AM12)</f>
+        <v>233.01999999999998</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE('k1'!E12,'k1'!I12,'k1'!M12,'k1'!Q12,'k1'!U12,'k1'!Y12,'k1'!AC12,'k1'!AG12,'k1'!AK12,'k1'!AO12)</f>
+        <v>1010.3639999999999</v>
+      </c>
+      <c r="K13">
         <v>38</v>
       </c>
-      <c r="I13">
-        <v>182.32</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="L13">
+        <v>206.22</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>182.32</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,27 +1241,51 @@
         <v>0.35</v>
       </c>
       <c r="E14">
+        <f>MIN('k1'!B13,'k1'!F13,'k1'!J13,'k1'!N13,'k1'!R13,'k1'!V13,'k1'!Z13,'k1'!AD13,'k1'!AH13,'k1'!AL13)</f>
         <v>28</v>
       </c>
-      <c r="F14">
-        <v>21.28</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
+      <c r="G14">
+        <f>AVERAGE('k1'!B13,'k1'!F13,'k1'!J13,'k1'!N13,'k1'!R13,'k1'!V13,'k1'!Z13,'k1'!AD13,'k1'!AH13,'k1'!AL13)</f>
+        <v>28</v>
+      </c>
       <c r="H14">
+        <f>_xlfn.STDEV.P('k1'!B13,'k1'!F13,'k1'!J13,'k1'!N13,'k1'!R13,'k1'!V13,'k1'!Z13,'k1'!AD13,'k1'!AH13,'k1'!AL13)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE('k1'!C13,'k1'!G13,'k1'!K13,'k1'!O13,'k1'!S13,'k1'!W13,'k1'!AA13,'k1'!AE13,'k1'!AI13,'k1'!AM13)</f>
+        <v>192.53700000000003</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE('k1'!E13,'k1'!I13,'k1'!M13,'k1'!Q13,'k1'!U13,'k1'!Y13,'k1'!AC13,'k1'!AG13,'k1'!AK13,'k1'!AO13)</f>
+        <v>700.5200000000001</v>
+      </c>
+      <c r="K14">
         <v>28</v>
       </c>
-      <c r="I14">
-        <v>361.16</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="L14">
+        <v>21.28</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <v>361.16</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -949,371 +1299,627 @@
         <v>0.63</v>
       </c>
       <c r="E15">
+        <f>MIN('k1'!B14,'k1'!F14,'k1'!J14,'k1'!N14,'k1'!R14,'k1'!V14,'k1'!Z14,'k1'!AD14,'k1'!AH14,'k1'!AL14)</f>
+        <v>38</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>best</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE('k1'!B14,'k1'!F14,'k1'!J14,'k1'!N14,'k1'!R14,'k1'!V14,'k1'!Z14,'k1'!AD14,'k1'!AH14,'k1'!AL14)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.STDEV.P('k1'!B14,'k1'!F14,'k1'!J14,'k1'!N14,'k1'!R14,'k1'!V14,'k1'!Z14,'k1'!AD14,'k1'!AH14,'k1'!AL14)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE('k1'!C14,'k1'!G14,'k1'!K14,'k1'!O14,'k1'!S14,'k1'!W14,'k1'!AA14,'k1'!AE14,'k1'!AI14,'k1'!AM14)</f>
+        <v>844.07799999999986</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE('k1'!E14,'k1'!I14,'k1'!M14,'k1'!Q14,'k1'!U14,'k1'!Y14,'k1'!AC14,'k1'!AG14,'k1'!AK14,'k1'!AO14)</f>
+        <v>2071.7289999999998</v>
+      </c>
+      <c r="K15">
         <v>39</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>845.19</v>
       </c>
-      <c r="G15" t="str">
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15">
+        <v>38</v>
+      </c>
+      <c r="O15">
+        <v>3011.36</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16">
+        <f>MIN('k1'!B15,'k1'!F15,'k1'!J15,'k1'!N15,'k1'!R15,'k1'!V15,'k1'!Z15,'k1'!AD15,'k1'!AH15,'k1'!AL15)</f>
+        <v>44</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15">
-        <v>38</v>
-      </c>
-      <c r="I15">
-        <v>3011.36</v>
-      </c>
-      <c r="J15" t="str">
+        <v>best</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE('k1'!B15,'k1'!F15,'k1'!J15,'k1'!N15,'k1'!R15,'k1'!V15,'k1'!Z15,'k1'!AD15,'k1'!AH15,'k1'!AL15)</f>
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.STDEV.P('k1'!B15,'k1'!F15,'k1'!J15,'k1'!N15,'k1'!R15,'k1'!V15,'k1'!Z15,'k1'!AD15,'k1'!AH15,'k1'!AL15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE('k1'!C15,'k1'!G15,'k1'!K15,'k1'!O15,'k1'!S15,'k1'!W15,'k1'!AA15,'k1'!AE15,'k1'!AI15,'k1'!AM15)</f>
+        <v>88.576999999999998</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE('k1'!E15,'k1'!I15,'k1'!M15,'k1'!Q15,'k1'!U15,'k1'!Y15,'k1'!AC15,'k1'!AG15,'k1'!AK15,'k1'!AO15)</f>
+        <v>611.70399999999995</v>
+      </c>
+      <c r="K16">
+        <v>44</v>
+      </c>
+      <c r="L16">
+        <v>9.24</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
+      <c r="N16">
         <v>44</v>
       </c>
-      <c r="C16">
+      <c r="O16">
+        <v>68.17</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
+        <v>0.44</v>
+      </c>
+      <c r="E17">
+        <f>MIN('k1'!B16,'k1'!F16,'k1'!J16,'k1'!N16,'k1'!R16,'k1'!V16,'k1'!Z16,'k1'!AD16,'k1'!AH16,'k1'!AL16)</f>
         <v>44</v>
       </c>
-      <c r="F16">
-        <v>9.24</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H16">
+      <c r="G17">
+        <f>AVERAGE('k1'!B16,'k1'!F16,'k1'!J16,'k1'!N16,'k1'!R16,'k1'!V16,'k1'!Z16,'k1'!AD16,'k1'!AH16,'k1'!AL16)</f>
         <v>44</v>
       </c>
-      <c r="I16">
-        <v>68.17</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="H17">
+        <f>_xlfn.STDEV.P('k1'!B16,'k1'!F16,'k1'!J16,'k1'!N16,'k1'!R16,'k1'!V16,'k1'!Z16,'k1'!AD16,'k1'!AH16,'k1'!AL16)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE('k1'!C16,'k1'!G16,'k1'!K16,'k1'!O16,'k1'!S16,'k1'!W16,'k1'!AA16,'k1'!AE16,'k1'!AI16,'k1'!AM16)</f>
+        <v>85.131999999999991</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE('k1'!E16,'k1'!I16,'k1'!M16,'k1'!Q16,'k1'!U16,'k1'!Y16,'k1'!AC16,'k1'!AG16,'k1'!AK16,'k1'!AO16)</f>
+        <v>1210.9689999999998</v>
+      </c>
+      <c r="K17">
+        <v>44</v>
+      </c>
+      <c r="L17">
+        <v>11.55</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
+      <c r="N17">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="O17">
+        <v>110.78</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0.44</v>
-      </c>
-      <c r="E17">
-        <v>44</v>
-      </c>
-      <c r="F17">
-        <v>11.55</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="D18">
+        <v>0.13</v>
+      </c>
+      <c r="E18">
+        <f>MIN('k1'!B17,'k1'!F17,'k1'!J17,'k1'!N17,'k1'!R17,'k1'!V17,'k1'!Z17,'k1'!AD17,'k1'!AH17,'k1'!AL17)</f>
+        <v>24</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H17">
-        <v>44</v>
-      </c>
-      <c r="I17">
-        <v>110.78</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="G18">
+        <f>AVERAGE('k1'!B17,'k1'!F17,'k1'!J17,'k1'!N17,'k1'!R17,'k1'!V17,'k1'!Z17,'k1'!AD17,'k1'!AH17,'k1'!AL17)</f>
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.STDEV.P('k1'!B17,'k1'!F17,'k1'!J17,'k1'!N17,'k1'!R17,'k1'!V17,'k1'!Z17,'k1'!AD17,'k1'!AH17,'k1'!AL17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE('k1'!C17,'k1'!G17,'k1'!K17,'k1'!O17,'k1'!S17,'k1'!W17,'k1'!AA17,'k1'!AE17,'k1'!AI17,'k1'!AM17)</f>
+        <v>18.758000000000003</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE('k1'!E17,'k1'!I17,'k1'!M17,'k1'!Q17,'k1'!U17,'k1'!Y17,'k1'!AC17,'k1'!AG17,'k1'!AK17,'k1'!AO17)</f>
+        <v>63.146000000000001</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
+      <c r="N18">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="O18">
+        <v>16.73</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0.13</v>
-      </c>
-      <c r="E18">
-        <v>24</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="D19">
+        <v>0.32</v>
+      </c>
+      <c r="E19">
+        <f>MIN('k1'!B18,'k1'!F18,'k1'!J18,'k1'!N18,'k1'!R18,'k1'!V18,'k1'!Z18,'k1'!AD18,'k1'!AH18,'k1'!AL18)</f>
+        <v>31</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="I18">
-        <v>16.73</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="G19">
+        <f>AVERAGE('k1'!B18,'k1'!F18,'k1'!J18,'k1'!N18,'k1'!R18,'k1'!V18,'k1'!Z18,'k1'!AD18,'k1'!AH18,'k1'!AL18)</f>
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.STDEV.P('k1'!B18,'k1'!F18,'k1'!J18,'k1'!N18,'k1'!R18,'k1'!V18,'k1'!Z18,'k1'!AD18,'k1'!AH18,'k1'!AL18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE('k1'!C18,'k1'!G18,'k1'!K18,'k1'!O18,'k1'!S18,'k1'!W18,'k1'!AA18,'k1'!AE18,'k1'!AI18,'k1'!AM18)</f>
+        <v>55.003</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE('k1'!E18,'k1'!I18,'k1'!M18,'k1'!Q18,'k1'!U18,'k1'!Y18,'k1'!AC18,'k1'!AG18,'k1'!AK18,'k1'!AO18)</f>
+        <v>707.19200000000001</v>
+      </c>
+      <c r="K19">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>12.41</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
+      <c r="N19">
         <v>31</v>
       </c>
-      <c r="C19">
+      <c r="O19">
+        <v>84.4</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>42</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0.32</v>
-      </c>
-      <c r="E19">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>12.41</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="D20">
+        <v>0.38</v>
+      </c>
+      <c r="E20">
+        <f>MIN('k1'!B19,'k1'!F19,'k1'!J19,'k1'!N19,'k1'!R19,'k1'!V19,'k1'!Z19,'k1'!AD19,'k1'!AH19,'k1'!AL19)</f>
+        <v>42</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H19">
-        <v>31</v>
-      </c>
-      <c r="I19">
-        <v>84.4</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="G20">
+        <f>AVERAGE('k1'!B19,'k1'!F19,'k1'!J19,'k1'!N19,'k1'!R19,'k1'!V19,'k1'!Z19,'k1'!AD19,'k1'!AH19,'k1'!AL19)</f>
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.STDEV.P('k1'!B19,'k1'!F19,'k1'!J19,'k1'!N19,'k1'!R19,'k1'!V19,'k1'!Z19,'k1'!AD19,'k1'!AH19,'k1'!AL19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE('k1'!C19,'k1'!G19,'k1'!K19,'k1'!O19,'k1'!S19,'k1'!W19,'k1'!AA19,'k1'!AE19,'k1'!AI19,'k1'!AM19)</f>
+        <v>78.209999999999994</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE('k1'!E19,'k1'!I19,'k1'!M19,'k1'!Q19,'k1'!U19,'k1'!Y19,'k1'!AC19,'k1'!AG19,'k1'!AK19,'k1'!AO19)</f>
+        <v>878.24000000000012</v>
+      </c>
+      <c r="K20">
+        <v>42</v>
+      </c>
+      <c r="L20">
+        <v>27.04</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
+      <c r="N20">
         <v>42</v>
       </c>
-      <c r="C20">
+      <c r="O20">
+        <v>178.95</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0.38</v>
-      </c>
-      <c r="E20">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>27.04</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="D21">
+        <v>0.18</v>
+      </c>
+      <c r="E21">
+        <f>MIN('k1'!B20,'k1'!F20,'k1'!J20,'k1'!N20,'k1'!R20,'k1'!V20,'k1'!Z20,'k1'!AD20,'k1'!AH20,'k1'!AL20)</f>
+        <v>25</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H20">
-        <v>42</v>
-      </c>
-      <c r="I20">
-        <v>178.95</v>
-      </c>
-      <c r="J20" t="str">
+      <c r="G21">
+        <f>AVERAGE('k1'!B20,'k1'!F20,'k1'!J20,'k1'!N20,'k1'!R20,'k1'!V20,'k1'!Z20,'k1'!AD20,'k1'!AH20,'k1'!AL20)</f>
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.STDEV.P('k1'!B20,'k1'!F20,'k1'!J20,'k1'!N20,'k1'!R20,'k1'!V20,'k1'!Z20,'k1'!AD20,'k1'!AH20,'k1'!AL20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE('k1'!C20,'k1'!G20,'k1'!K20,'k1'!O20,'k1'!S20,'k1'!W20,'k1'!AA20,'k1'!AE20,'k1'!AI20,'k1'!AM20)</f>
+        <v>7.7779999999999987</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE('k1'!E20,'k1'!I20,'k1'!M20,'k1'!Q20,'k1'!U20,'k1'!Y20,'k1'!AC20,'k1'!AG20,'k1'!AK20,'k1'!AO20)</f>
+        <v>277.51799999999997</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>2.23</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
+      <c r="N21">
         <v>25</v>
       </c>
-      <c r="C21">
+      <c r="O21">
+        <v>21.18</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0.18</v>
-      </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>2.23</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="D22">
+        <v>0.35</v>
+      </c>
+      <c r="E22">
+        <f>MIN('k1'!B21,'k1'!F21,'k1'!J21,'k1'!N21,'k1'!R21,'k1'!V21,'k1'!Z21,'k1'!AD21,'k1'!AH21,'k1'!AL21)</f>
+        <v>36</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="I21">
-        <v>21.18</v>
-      </c>
-      <c r="J21" t="str">
+      <c r="G22">
+        <f>AVERAGE('k1'!B21,'k1'!F21,'k1'!J21,'k1'!N21,'k1'!R21,'k1'!V21,'k1'!Z21,'k1'!AD21,'k1'!AH21,'k1'!AL21)</f>
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.STDEV.P('k1'!B21,'k1'!F21,'k1'!J21,'k1'!N21,'k1'!R21,'k1'!V21,'k1'!Z21,'k1'!AD21,'k1'!AH21,'k1'!AL21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE('k1'!C21,'k1'!G21,'k1'!K21,'k1'!O21,'k1'!S21,'k1'!W21,'k1'!AA21,'k1'!AE21,'k1'!AI21,'k1'!AM21)</f>
+        <v>44.394999999999996</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE('k1'!E21,'k1'!I21,'k1'!M21,'k1'!Q21,'k1'!U21,'k1'!Y21,'k1'!AC21,'k1'!AG21,'k1'!AK21,'k1'!AO21)</f>
+        <v>688.55</v>
+      </c>
+      <c r="K22">
+        <v>36</v>
+      </c>
+      <c r="L22">
+        <v>7.5</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
+      <c r="N22">
         <v>36</v>
       </c>
-      <c r="C22">
+      <c r="O22">
+        <v>115.93</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="2"/>
+        <v>best</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0.35</v>
-      </c>
-      <c r="E22">
-        <v>36</v>
-      </c>
-      <c r="F22">
-        <v>7.5</v>
-      </c>
-      <c r="G22" t="str">
+      <c r="D23">
+        <v>0.27</v>
+      </c>
+      <c r="E23">
+        <f>MIN('k1'!B22,'k1'!F22,'k1'!J22,'k1'!N22,'k1'!R22,'k1'!V22,'k1'!Z22,'k1'!AD22,'k1'!AH22,'k1'!AL22)</f>
+        <v>32</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>best</v>
       </c>
-      <c r="H22">
-        <v>36</v>
-      </c>
-      <c r="I22">
-        <v>115.93</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="G23">
+        <f>AVERAGE('k1'!B22,'k1'!F22,'k1'!J22,'k1'!N22,'k1'!R22,'k1'!V22,'k1'!Z22,'k1'!AD22,'k1'!AH22,'k1'!AL22)</f>
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.STDEV.P('k1'!B22,'k1'!F22,'k1'!J22,'k1'!N22,'k1'!R22,'k1'!V22,'k1'!Z22,'k1'!AD22,'k1'!AH22,'k1'!AL22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE('k1'!C22,'k1'!G22,'k1'!K22,'k1'!O22,'k1'!S22,'k1'!W22,'k1'!AA22,'k1'!AE22,'k1'!AI22,'k1'!AM22)</f>
+        <v>28.401</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE('k1'!E22,'k1'!I22,'k1'!M22,'k1'!Q22,'k1'!U22,'k1'!Y22,'k1'!AC22,'k1'!AG22,'k1'!AK22,'k1'!AO22)</f>
+        <v>324.55899999999997</v>
+      </c>
+      <c r="K23">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <v>6.3</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="1"/>
         <v>best</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
+      <c r="N23">
         <v>32</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0.27</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>6.3</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
+      <c r="O23">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="2"/>
         <v>best</v>
       </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23">
-        <v>65.459999999999994</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>best</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:I24" si="2">AVERAGE(B4:B23)</f>
+        <f t="shared" ref="B24:O24" si="3">AVERAGE(B4:B23)</f>
         <v>36.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E4:E23)</f>
+        <v>36.1</v>
+      </c>
+      <c r="F24" s="1">
+        <f>COUNTIF(F4:F23, "best")</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:J24" si="4">AVERAGE(G4:G23)</f>
+        <v>36.160000000000004</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>124.21524999999997</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="4"/>
+        <v>677.83825000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
         <v>36.15</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="2"/>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
         <v>135.61750000000001</v>
       </c>
-      <c r="G24" s="1">
-        <f>COUNTIF(G4:G23, "best")</f>
+      <c r="M24" s="1">
+        <f>COUNTIF(M4:M23, "best")</f>
         <v>19</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
         <v>36.1</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
+      <c r="O24" s="1">
+        <f t="shared" si="3"/>
         <v>316.745</v>
       </c>
-      <c r="J24" s="1">
-        <f>COUNTIF(J4:J23, "best")</f>
+      <c r="P24" s="1">
+        <f>COUNTIF(P4:P23, "best")</f>
         <v>20</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1327,25 +1933,43 @@
         <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1359,27 +1983,51 @@
         <v>0.69</v>
       </c>
       <c r="E29">
+        <f>MIN('k2'!B3,'k2'!F3,'k2'!J3,'k2'!N3,'k2'!R3,'k2'!V3,'k2'!Z3,'k2'!AD3,'k2'!AH3,'k2'!AL3)</f>
         <v>71</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
+        <f>IF(E29=$B29,"best","")</f>
+        <v>best</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE('k2'!B3,'k2'!F3,'k2'!J3,'k2'!N3,'k2'!R3,'k2'!V3,'k2'!Z3,'k2'!AD3,'k2'!AH3,'k2'!AL3)</f>
+        <v>71.8</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.STDEV.P('k2'!B3,'k2'!F3,'k2'!J3,'k2'!N3,'k2'!R3,'k2'!V3,'k2'!Z3,'k2'!AD3,'k2'!AH3,'k2'!AL3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE('k2'!C3,'k2'!G3,'k2'!K3,'k2'!O3,'k2'!S3,'k2'!W3,'k2'!AA3,'k2'!AE3,'k2'!AI3,'k2'!AM3)</f>
+        <v>256.68599999999998</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE('k2'!E3,'k2'!I3,'k2'!M3,'k2'!Q3,'k2'!U3,'k2'!Y3,'k2'!AC3,'k2'!AG3,'k2'!AK3,'k2'!AO3)</f>
+        <v>634.10799999999995</v>
+      </c>
+      <c r="K29">
+        <v>71</v>
+      </c>
+      <c r="L29">
         <v>1003.88</v>
       </c>
-      <c r="G29" t="str">
-        <f>IF($B29=E29, "best", "")</f>
+      <c r="M29" t="str">
+        <f>IF($B29=K29, "best", "")</f>
         <v>best</v>
       </c>
-      <c r="H29">
+      <c r="N29">
         <v>71</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>428.91</v>
       </c>
-      <c r="J29" t="str">
-        <f>IF($B29=H29, "best", "")</f>
+      <c r="P29" t="str">
+        <f>IF($B29=N29, "best", "")</f>
         <v>best</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1393,27 +2041,51 @@
         <v>5.98</v>
       </c>
       <c r="E30">
+        <f>MIN('k2'!B4,'k2'!F4,'k2'!J4,'k2'!N4,'k2'!R4,'k2'!V4,'k2'!Z4,'k2'!AD4,'k2'!AH4,'k2'!AL4)</f>
         <v>76</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:F48" si="5">IF(E30=$B30,"best","")</f>
+        <v>best</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE('k2'!B4,'k2'!F4,'k2'!J4,'k2'!N4,'k2'!R4,'k2'!V4,'k2'!Z4,'k2'!AD4,'k2'!AH4,'k2'!AL4)</f>
+        <v>76.2</v>
+      </c>
+      <c r="H30">
+        <f>_xlfn.STDEV.P('k2'!B4,'k2'!F4,'k2'!J4,'k2'!N4,'k2'!R4,'k2'!V4,'k2'!Z4,'k2'!AD4,'k2'!AH4,'k2'!AL4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE('k2'!C4,'k2'!G4,'k2'!K4,'k2'!O4,'k2'!S4,'k2'!W4,'k2'!AA4,'k2'!AE4,'k2'!AI4,'k2'!AM4)</f>
+        <v>865.44299999999998</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE('k2'!E4,'k2'!I4,'k2'!M4,'k2'!Q4,'k2'!U4,'k2'!Y4,'k2'!AC4,'k2'!AG4,'k2'!AK4,'k2'!AO4)</f>
+        <v>1675.2570000000001</v>
+      </c>
+      <c r="K30">
+        <v>76</v>
+      </c>
+      <c r="L30">
         <v>359.29</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" ref="G30:G48" si="3">IF($B30=E30, "best", "")</f>
+      <c r="M30" t="str">
+        <f t="shared" ref="M30:M48" si="6">IF($B30=K30, "best", "")</f>
         <v>best</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <v>76</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>1378.74</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" ref="J30:J48" si="4">IF($B30=H30, "best", "")</f>
+      <c r="P30" t="str">
+        <f t="shared" ref="P30:P48" si="7">IF($B30=N30, "best", "")</f>
         <v>best</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1427,27 +2099,51 @@
         <v>0.91</v>
       </c>
       <c r="E31">
+        <f>MIN('k2'!B5,'k2'!F5,'k2'!J5,'k2'!N5,'k2'!R5,'k2'!V5,'k2'!Z5,'k2'!AD5,'k2'!AH5,'k2'!AL5)</f>
         <v>40</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE('k2'!B5,'k2'!F5,'k2'!J5,'k2'!N5,'k2'!R5,'k2'!V5,'k2'!Z5,'k2'!AD5,'k2'!AH5,'k2'!AL5)</f>
+        <v>41.1</v>
+      </c>
+      <c r="H31">
+        <f>_xlfn.STDEV.P('k2'!B5,'k2'!F5,'k2'!J5,'k2'!N5,'k2'!R5,'k2'!V5,'k2'!Z5,'k2'!AD5,'k2'!AH5,'k2'!AL5)</f>
+        <v>0.53851648071345037</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE('k2'!C5,'k2'!G5,'k2'!K5,'k2'!O5,'k2'!S5,'k2'!W5,'k2'!AA5,'k2'!AE5,'k2'!AI5,'k2'!AM5)</f>
+        <v>292.017</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE('k2'!E5,'k2'!I5,'k2'!M5,'k2'!Q5,'k2'!U5,'k2'!Y5,'k2'!AC5,'k2'!AG5,'k2'!AK5,'k2'!AO5)</f>
+        <v>574.68799999999999</v>
+      </c>
+      <c r="K31">
+        <v>40</v>
+      </c>
+      <c r="L31">
         <v>1607.09</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="3"/>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H31">
+      <c r="N31">
         <v>40</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>427.46</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="4"/>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1461,27 +2157,51 @@
         <v>1.76</v>
       </c>
       <c r="E32">
+        <f>MIN('k2'!B6,'k2'!F6,'k2'!J6,'k2'!N6,'k2'!R6,'k2'!V6,'k2'!Z6,'k2'!AD6,'k2'!AH6,'k2'!AL6)</f>
+        <v>73</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>AVERAGE('k2'!B6,'k2'!F6,'k2'!J6,'k2'!N6,'k2'!R6,'k2'!V6,'k2'!Z6,'k2'!AD6,'k2'!AH6,'k2'!AL6)</f>
+        <v>73.7</v>
+      </c>
+      <c r="H32">
+        <f>_xlfn.STDEV.P('k2'!B6,'k2'!F6,'k2'!J6,'k2'!N6,'k2'!R6,'k2'!V6,'k2'!Z6,'k2'!AD6,'k2'!AH6,'k2'!AL6)</f>
+        <v>0.45825756949558394</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE('k2'!C6,'k2'!G6,'k2'!K6,'k2'!O6,'k2'!S6,'k2'!W6,'k2'!AA6,'k2'!AE6,'k2'!AI6,'k2'!AM6)</f>
+        <v>571.79299999999989</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE('k2'!E6,'k2'!I6,'k2'!M6,'k2'!Q6,'k2'!U6,'k2'!Y6,'k2'!AC6,'k2'!AG6,'k2'!AK6,'k2'!AO6)</f>
+        <v>1588.605</v>
+      </c>
+      <c r="K32">
         <v>74</v>
       </c>
-      <c r="F32">
+      <c r="L32">
         <v>839.38</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="3"/>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H32">
+      <c r="N32">
         <v>74</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>589.64</v>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="4"/>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1495,27 +2215,51 @@
         <v>0.95</v>
       </c>
       <c r="E33">
+        <f>MIN('k2'!B7,'k2'!F7,'k2'!J7,'k2'!N7,'k2'!R7,'k2'!V7,'k2'!Z7,'k2'!AD7,'k2'!AH7,'k2'!AL7)</f>
+        <v>79</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>AVERAGE('k2'!B7,'k2'!F7,'k2'!J7,'k2'!N7,'k2'!R7,'k2'!V7,'k2'!Z7,'k2'!AD7,'k2'!AH7,'k2'!AL7)</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H33">
+        <f>_xlfn.STDEV.P('k2'!B7,'k2'!F7,'k2'!J7,'k2'!N7,'k2'!R7,'k2'!V7,'k2'!Z7,'k2'!AD7,'k2'!AH7,'k2'!AL7)</f>
+        <v>0.4898979485566356</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE('k2'!C7,'k2'!G7,'k2'!K7,'k2'!O7,'k2'!S7,'k2'!W7,'k2'!AA7,'k2'!AE7,'k2'!AI7,'k2'!AM7)</f>
+        <v>181.9</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE('k2'!E7,'k2'!I7,'k2'!M7,'k2'!Q7,'k2'!U7,'k2'!Y7,'k2'!AC7,'k2'!AG7,'k2'!AK7,'k2'!AO7)</f>
+        <v>897.04200000000003</v>
+      </c>
+      <c r="K33">
         <v>78</v>
       </c>
-      <c r="F33">
+      <c r="L33">
         <v>3296.06</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="3"/>
+      <c r="M33" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H33">
+      <c r="N33">
         <v>78</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>2040.22</v>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="4"/>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1529,27 +2273,51 @@
         <v>1.53</v>
       </c>
       <c r="E34">
+        <f>MIN('k2'!B8,'k2'!F8,'k2'!J8,'k2'!N8,'k2'!R8,'k2'!V8,'k2'!Z8,'k2'!AD8,'k2'!AH8,'k2'!AL8)</f>
         <v>73</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>AVERAGE('k2'!B8,'k2'!F8,'k2'!J8,'k2'!N8,'k2'!R8,'k2'!V8,'k2'!Z8,'k2'!AD8,'k2'!AH8,'k2'!AL8)</f>
+        <v>73.2</v>
+      </c>
+      <c r="H34">
+        <f>_xlfn.STDEV.P('k2'!B8,'k2'!F8,'k2'!J8,'k2'!N8,'k2'!R8,'k2'!V8,'k2'!Z8,'k2'!AD8,'k2'!AH8,'k2'!AL8)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE('k2'!C8,'k2'!G8,'k2'!K8,'k2'!O8,'k2'!S8,'k2'!W8,'k2'!AA8,'k2'!AE8,'k2'!AI8,'k2'!AM8)</f>
+        <v>300.40700000000004</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE('k2'!E8,'k2'!I8,'k2'!M8,'k2'!Q8,'k2'!U8,'k2'!Y8,'k2'!AC8,'k2'!AG8,'k2'!AK8,'k2'!AO8)</f>
+        <v>937.93999999999994</v>
+      </c>
+      <c r="K34">
+        <v>73</v>
+      </c>
+      <c r="L34">
         <v>501.99</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="3"/>
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H34">
+      <c r="N34">
         <v>73</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>1008.36</v>
       </c>
-      <c r="J34" t="str">
-        <f t="shared" si="4"/>
+      <c r="P34" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1563,27 +2331,51 @@
         <v>0.68</v>
       </c>
       <c r="E35">
+        <f>MIN('k2'!B9,'k2'!F9,'k2'!J9,'k2'!N9,'k2'!R9,'k2'!V9,'k2'!Z9,'k2'!AD9,'k2'!AH9,'k2'!AL9)</f>
         <v>77</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G35">
+        <f>AVERAGE('k2'!B9,'k2'!F9,'k2'!J9,'k2'!N9,'k2'!R9,'k2'!V9,'k2'!Z9,'k2'!AD9,'k2'!AH9,'k2'!AL9)</f>
+        <v>77.3</v>
+      </c>
+      <c r="H35">
+        <f>_xlfn.STDEV.P('k2'!B9,'k2'!F9,'k2'!J9,'k2'!N9,'k2'!R9,'k2'!V9,'k2'!Z9,'k2'!AD9,'k2'!AH9,'k2'!AL9)</f>
+        <v>0.45825756949558405</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE('k2'!C9,'k2'!G9,'k2'!K9,'k2'!O9,'k2'!S9,'k2'!W9,'k2'!AA9,'k2'!AE9,'k2'!AI9,'k2'!AM9)</f>
+        <v>285.10599999999999</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE('k2'!E9,'k2'!I9,'k2'!M9,'k2'!Q9,'k2'!U9,'k2'!Y9,'k2'!AC9,'k2'!AG9,'k2'!AK9,'k2'!AO9)</f>
+        <v>582.47199999999998</v>
+      </c>
+      <c r="K35">
+        <v>77</v>
+      </c>
+      <c r="L35">
         <v>310.19</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="3"/>
+      <c r="M35" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H35">
+      <c r="N35">
         <v>76</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>3453.05</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="4"/>
+      <c r="P35" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1597,27 +2389,51 @@
         <v>1.29</v>
       </c>
       <c r="E36">
+        <f>MIN('k2'!B10,'k2'!F10,'k2'!J10,'k2'!N10,'k2'!R10,'k2'!V10,'k2'!Z10,'k2'!AD10,'k2'!AH10,'k2'!AL10)</f>
+        <v>93</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE('k2'!B10,'k2'!F10,'k2'!J10,'k2'!N10,'k2'!R10,'k2'!V10,'k2'!Z10,'k2'!AD10,'k2'!AH10,'k2'!AL10)</f>
+        <v>94.2</v>
+      </c>
+      <c r="H36">
+        <f>_xlfn.STDEV.P('k2'!B10,'k2'!F10,'k2'!J10,'k2'!N10,'k2'!R10,'k2'!V10,'k2'!Z10,'k2'!AD10,'k2'!AH10,'k2'!AL10)</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE('k2'!C10,'k2'!G10,'k2'!K10,'k2'!O10,'k2'!S10,'k2'!W10,'k2'!AA10,'k2'!AE10,'k2'!AI10,'k2'!AM10)</f>
+        <v>110.06699999999998</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE('k2'!E10,'k2'!I10,'k2'!M10,'k2'!Q10,'k2'!U10,'k2'!Y10,'k2'!AC10,'k2'!AG10,'k2'!AK10,'k2'!AO10)</f>
+        <v>670.98299999999995</v>
+      </c>
+      <c r="K36">
         <v>94</v>
       </c>
-      <c r="F36">
+      <c r="L36">
         <v>698.18</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="3"/>
+      <c r="M36" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H36">
+      <c r="N36">
         <v>94</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>600.54999999999995</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" si="4"/>
+      <c r="P36" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1631,27 +2447,51 @@
         <v>1.01</v>
       </c>
       <c r="E37">
+        <f>MIN('k2'!B11,'k2'!F11,'k2'!J11,'k2'!N11,'k2'!R11,'k2'!V11,'k2'!Z11,'k2'!AD11,'k2'!AH11,'k2'!AL11)</f>
         <v>79</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G37">
+        <f>AVERAGE('k2'!B11,'k2'!F11,'k2'!J11,'k2'!N11,'k2'!R11,'k2'!V11,'k2'!Z11,'k2'!AD11,'k2'!AH11,'k2'!AL11)</f>
+        <v>80.5</v>
+      </c>
+      <c r="H37">
+        <f>_xlfn.STDEV.P('k2'!B11,'k2'!F11,'k2'!J11,'k2'!N11,'k2'!R11,'k2'!V11,'k2'!Z11,'k2'!AD11,'k2'!AH11,'k2'!AL11)</f>
+        <v>0.80622577482985502</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE('k2'!C11,'k2'!G11,'k2'!K11,'k2'!O11,'k2'!S11,'k2'!W11,'k2'!AA11,'k2'!AE11,'k2'!AI11,'k2'!AM11)</f>
+        <v>291.423</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE('k2'!E11,'k2'!I11,'k2'!M11,'k2'!Q11,'k2'!U11,'k2'!Y11,'k2'!AC11,'k2'!AG11,'k2'!AK11,'k2'!AO11)</f>
+        <v>814.97700000000009</v>
+      </c>
+      <c r="K37">
+        <v>79</v>
+      </c>
+      <c r="L37">
         <v>701.92</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="3"/>
+      <c r="M37" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H37">
+      <c r="N37">
         <v>79</v>
       </c>
-      <c r="I37">
+      <c r="O37">
         <v>2058.4499999999998</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" si="4"/>
+      <c r="P37" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1665,27 +2505,51 @@
         <v>7.58</v>
       </c>
       <c r="E38">
+        <f>MIN('k2'!B12,'k2'!F12,'k2'!J12,'k2'!N12,'k2'!R12,'k2'!V12,'k2'!Z12,'k2'!AD12,'k2'!AH12,'k2'!AL12)</f>
         <v>75</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE('k2'!B12,'k2'!F12,'k2'!J12,'k2'!N12,'k2'!R12,'k2'!V12,'k2'!Z12,'k2'!AD12,'k2'!AH12,'k2'!AL12)</f>
+        <v>75.2</v>
+      </c>
+      <c r="H38">
+        <f>_xlfn.STDEV.P('k2'!B12,'k2'!F12,'k2'!J12,'k2'!N12,'k2'!R12,'k2'!V12,'k2'!Z12,'k2'!AD12,'k2'!AH12,'k2'!AL12)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE('k2'!C12,'k2'!G12,'k2'!K12,'k2'!O12,'k2'!S12,'k2'!W12,'k2'!AA12,'k2'!AE12,'k2'!AI12,'k2'!AM12)</f>
+        <v>462.41800000000001</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE('k2'!E12,'k2'!I12,'k2'!M12,'k2'!Q12,'k2'!U12,'k2'!Y12,'k2'!AC12,'k2'!AG12,'k2'!AK12,'k2'!AO12)</f>
+        <v>1056.595</v>
+      </c>
+      <c r="K38">
+        <v>75</v>
+      </c>
+      <c r="L38">
         <v>429.52</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="3"/>
+      <c r="M38" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H38">
+      <c r="N38">
         <v>75</v>
       </c>
-      <c r="I38">
+      <c r="O38">
         <v>1014.11</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" si="4"/>
+      <c r="P38" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1699,27 +2563,51 @@
         <v>1.4</v>
       </c>
       <c r="E39">
+        <f>MIN('k2'!B13,'k2'!F13,'k2'!J13,'k2'!N13,'k2'!R13,'k2'!V13,'k2'!Z13,'k2'!AD13,'k2'!AH13,'k2'!AL13)</f>
         <v>57</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G39">
+        <f>AVERAGE('k2'!B13,'k2'!F13,'k2'!J13,'k2'!N13,'k2'!R13,'k2'!V13,'k2'!Z13,'k2'!AD13,'k2'!AH13,'k2'!AL13)</f>
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <f>_xlfn.STDEV.P('k2'!B13,'k2'!F13,'k2'!J13,'k2'!N13,'k2'!R13,'k2'!V13,'k2'!Z13,'k2'!AD13,'k2'!AH13,'k2'!AL13)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE('k2'!C13,'k2'!G13,'k2'!K13,'k2'!O13,'k2'!S13,'k2'!W13,'k2'!AA13,'k2'!AE13,'k2'!AI13,'k2'!AM13)</f>
+        <v>239.71599999999998</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE('k2'!E13,'k2'!I13,'k2'!M13,'k2'!Q13,'k2'!U13,'k2'!Y13,'k2'!AC13,'k2'!AG13,'k2'!AK13,'k2'!AO13)</f>
+        <v>1157.7450000000001</v>
+      </c>
+      <c r="K39">
+        <v>57</v>
+      </c>
+      <c r="L39">
         <v>441.9</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="3"/>
+      <c r="M39" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H39">
+      <c r="N39">
         <v>57</v>
       </c>
-      <c r="I39">
+      <c r="O39">
         <v>212.52</v>
       </c>
-      <c r="J39" t="str">
-        <f t="shared" si="4"/>
+      <c r="P39" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1733,27 +2621,51 @@
         <v>24.5</v>
       </c>
       <c r="E40">
+        <f>MIN('k2'!B14,'k2'!F14,'k2'!J14,'k2'!N14,'k2'!R14,'k2'!V14,'k2'!Z14,'k2'!AD14,'k2'!AH14,'k2'!AL14)</f>
+        <v>77</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G40">
+        <f>AVERAGE('k2'!B14,'k2'!F14,'k2'!J14,'k2'!N14,'k2'!R14,'k2'!V14,'k2'!Z14,'k2'!AD14,'k2'!AH14,'k2'!AL14)</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H40">
+        <f>_xlfn.STDEV.P('k2'!B14,'k2'!F14,'k2'!J14,'k2'!N14,'k2'!R14,'k2'!V14,'k2'!Z14,'k2'!AD14,'k2'!AH14,'k2'!AL14)</f>
+        <v>0.66332495807108005</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE('k2'!C14,'k2'!G14,'k2'!K14,'k2'!O14,'k2'!S14,'k2'!W14,'k2'!AA14,'k2'!AE14,'k2'!AI14,'k2'!AM14)</f>
+        <v>1608.6949999999999</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE('k2'!E14,'k2'!I14,'k2'!M14,'k2'!Q14,'k2'!U14,'k2'!Y14,'k2'!AC14,'k2'!AG14,'k2'!AK14,'k2'!AO14)</f>
+        <v>3053.0920000000006</v>
+      </c>
+      <c r="K40">
         <v>78</v>
       </c>
-      <c r="F40">
+      <c r="L40">
         <v>3211.24</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="3"/>
+      <c r="M40" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H40">
+      <c r="N40">
         <v>78</v>
       </c>
-      <c r="I40">
+      <c r="O40">
         <v>467.45</v>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" si="4"/>
+      <c r="P40" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1767,27 +2679,51 @@
         <v>1.25</v>
       </c>
       <c r="E41">
+        <f>MIN('k2'!B15,'k2'!F15,'k2'!J15,'k2'!N15,'k2'!R15,'k2'!V15,'k2'!Z15,'k2'!AD15,'k2'!AH15,'k2'!AL15)</f>
         <v>83</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE('k2'!B15,'k2'!F15,'k2'!J15,'k2'!N15,'k2'!R15,'k2'!V15,'k2'!Z15,'k2'!AD15,'k2'!AH15,'k2'!AL15)</f>
+        <v>84.3</v>
+      </c>
+      <c r="H41">
+        <f>_xlfn.STDEV.P('k2'!B15,'k2'!F15,'k2'!J15,'k2'!N15,'k2'!R15,'k2'!V15,'k2'!Z15,'k2'!AD15,'k2'!AH15,'k2'!AL15)</f>
+        <v>0.78102496759066531</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE('k2'!C15,'k2'!G15,'k2'!K15,'k2'!O15,'k2'!S15,'k2'!W15,'k2'!AA15,'k2'!AE15,'k2'!AI15,'k2'!AM15)</f>
+        <v>378.57799999999997</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE('k2'!E15,'k2'!I15,'k2'!M15,'k2'!Q15,'k2'!U15,'k2'!Y15,'k2'!AC15,'k2'!AG15,'k2'!AK15,'k2'!AO15)</f>
+        <v>823.13199999999995</v>
+      </c>
+      <c r="K41">
+        <v>83</v>
+      </c>
+      <c r="L41">
         <v>3198.63</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="3"/>
+      <c r="M41" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H41">
+      <c r="N41">
         <v>83</v>
       </c>
-      <c r="I41">
+      <c r="O41">
         <v>1723.67</v>
       </c>
-      <c r="J41" t="str">
-        <f t="shared" si="4"/>
+      <c r="P41" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1801,27 +2737,51 @@
         <v>1.23</v>
       </c>
       <c r="E42">
+        <f>MIN('k2'!B16,'k2'!F16,'k2'!J16,'k2'!N16,'k2'!R16,'k2'!V16,'k2'!Z16,'k2'!AD16,'k2'!AH16,'k2'!AL16)</f>
+        <v>84</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G42">
+        <f>AVERAGE('k2'!B16,'k2'!F16,'k2'!J16,'k2'!N16,'k2'!R16,'k2'!V16,'k2'!Z16,'k2'!AD16,'k2'!AH16,'k2'!AL16)</f>
+        <v>85.3</v>
+      </c>
+      <c r="H42">
+        <f>_xlfn.STDEV.P('k2'!B16,'k2'!F16,'k2'!J16,'k2'!N16,'k2'!R16,'k2'!V16,'k2'!Z16,'k2'!AD16,'k2'!AH16,'k2'!AL16)</f>
+        <v>0.78102496759066531</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE('k2'!C16,'k2'!G16,'k2'!K16,'k2'!O16,'k2'!S16,'k2'!W16,'k2'!AA16,'k2'!AE16,'k2'!AI16,'k2'!AM16)</f>
+        <v>1125.3040000000001</v>
+      </c>
+      <c r="J42">
+        <f>AVERAGE('k2'!E16,'k2'!I16,'k2'!M16,'k2'!Q16,'k2'!U16,'k2'!Y16,'k2'!AC16,'k2'!AG16,'k2'!AK16,'k2'!AO16)</f>
+        <v>2167.058</v>
+      </c>
+      <c r="K42">
         <v>86</v>
       </c>
-      <c r="F42">
+      <c r="L42">
         <v>145.32</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="3"/>
+      <c r="M42" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H42">
+      <c r="N42">
         <v>85</v>
       </c>
-      <c r="I42">
+      <c r="O42">
         <v>3390.66</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" si="4"/>
+      <c r="P42" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1835,27 +2795,51 @@
         <v>0.31</v>
       </c>
       <c r="E43">
+        <f>MIN('k2'!B17,'k2'!F17,'k2'!J17,'k2'!N17,'k2'!R17,'k2'!V17,'k2'!Z17,'k2'!AD17,'k2'!AH17,'k2'!AL17)</f>
         <v>47</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G43">
+        <f>AVERAGE('k2'!B17,'k2'!F17,'k2'!J17,'k2'!N17,'k2'!R17,'k2'!V17,'k2'!Z17,'k2'!AD17,'k2'!AH17,'k2'!AL17)</f>
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <f>_xlfn.STDEV.P('k2'!B17,'k2'!F17,'k2'!J17,'k2'!N17,'k2'!R17,'k2'!V17,'k2'!Z17,'k2'!AD17,'k2'!AH17,'k2'!AL17)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE('k2'!C17,'k2'!G17,'k2'!K17,'k2'!O17,'k2'!S17,'k2'!W17,'k2'!AA17,'k2'!AE17,'k2'!AI17,'k2'!AM17)</f>
+        <v>6.93</v>
+      </c>
+      <c r="J43">
+        <f>AVERAGE('k2'!E17,'k2'!I17,'k2'!M17,'k2'!Q17,'k2'!U17,'k2'!Y17,'k2'!AC17,'k2'!AG17,'k2'!AK17,'k2'!AO17)</f>
+        <v>82.974999999999994</v>
+      </c>
+      <c r="K43">
+        <v>47</v>
+      </c>
+      <c r="L43">
         <v>0.61</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="3"/>
+      <c r="M43" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H43">
+      <c r="N43">
         <v>47</v>
       </c>
-      <c r="I43">
+      <c r="O43">
         <v>7.13</v>
       </c>
-      <c r="J43" t="str">
-        <f t="shared" si="4"/>
+      <c r="P43" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1869,27 +2853,51 @@
         <v>0.88</v>
       </c>
       <c r="E44">
+        <f>MIN('k2'!B18,'k2'!F18,'k2'!J18,'k2'!N18,'k2'!R18,'k2'!V18,'k2'!Z18,'k2'!AD18,'k2'!AH18,'k2'!AL18)</f>
+        <v>62</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G44">
+        <f>AVERAGE('k2'!B18,'k2'!F18,'k2'!J18,'k2'!N18,'k2'!R18,'k2'!V18,'k2'!Z18,'k2'!AD18,'k2'!AH18,'k2'!AL18)</f>
+        <v>62.1</v>
+      </c>
+      <c r="H44">
+        <f>_xlfn.STDEV.P('k2'!B18,'k2'!F18,'k2'!J18,'k2'!N18,'k2'!R18,'k2'!V18,'k2'!Z18,'k2'!AD18,'k2'!AH18,'k2'!AL18)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE('k2'!C18,'k2'!G18,'k2'!K18,'k2'!O18,'k2'!S18,'k2'!W18,'k2'!AA18,'k2'!AE18,'k2'!AI18,'k2'!AM18)</f>
+        <v>205.26500000000001</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE('k2'!E18,'k2'!I18,'k2'!M18,'k2'!Q18,'k2'!U18,'k2'!Y18,'k2'!AC18,'k2'!AG18,'k2'!AK18,'k2'!AO18)</f>
+        <v>735.10300000000007</v>
+      </c>
+      <c r="K44">
         <v>61</v>
       </c>
-      <c r="F44">
+      <c r="L44">
         <v>3515.19</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="3"/>
+      <c r="M44" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H44">
+      <c r="N44">
         <v>61</v>
       </c>
-      <c r="I44">
+      <c r="O44">
         <v>3070.27</v>
       </c>
-      <c r="J44" t="str">
-        <f t="shared" si="4"/>
+      <c r="P44" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1903,27 +2911,51 @@
         <v>1.77</v>
       </c>
       <c r="E45">
+        <f>MIN('k2'!B19,'k2'!F19,'k2'!J19,'k2'!N19,'k2'!R19,'k2'!V19,'k2'!Z19,'k2'!AD19,'k2'!AH19,'k2'!AL19)</f>
+        <v>84</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G45">
+        <f>AVERAGE('k2'!B19,'k2'!F19,'k2'!J19,'k2'!N19,'k2'!R19,'k2'!V19,'k2'!Z19,'k2'!AD19,'k2'!AH19,'k2'!AL19)</f>
+        <v>84.7</v>
+      </c>
+      <c r="H45">
+        <f>_xlfn.STDEV.P('k2'!B19,'k2'!F19,'k2'!J19,'k2'!N19,'k2'!R19,'k2'!V19,'k2'!Z19,'k2'!AD19,'k2'!AH19,'k2'!AL19)</f>
+        <v>0.6403124237432849</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE('k2'!C19,'k2'!G19,'k2'!K19,'k2'!O19,'k2'!S19,'k2'!W19,'k2'!AA19,'k2'!AE19,'k2'!AI19,'k2'!AM19)</f>
+        <v>289.04200000000003</v>
+      </c>
+      <c r="J45">
+        <f>AVERAGE('k2'!E19,'k2'!I19,'k2'!M19,'k2'!Q19,'k2'!U19,'k2'!Y19,'k2'!AC19,'k2'!AG19,'k2'!AK19,'k2'!AO19)</f>
+        <v>1021.521</v>
+      </c>
+      <c r="K45">
         <v>85</v>
       </c>
-      <c r="F45">
+      <c r="L45">
         <v>136.69999999999999</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="3"/>
+      <c r="M45" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H45">
+      <c r="N45">
         <v>85</v>
       </c>
-      <c r="I45">
+      <c r="O45">
         <v>541.58000000000004</v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" si="4"/>
+      <c r="P45" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1937,27 +2969,51 @@
         <v>0.45</v>
       </c>
       <c r="E46">
+        <f>MIN('k2'!B20,'k2'!F20,'k2'!J20,'k2'!N20,'k2'!R20,'k2'!V20,'k2'!Z20,'k2'!AD20,'k2'!AH20,'k2'!AL20)</f>
+        <v>50</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G46">
+        <f>AVERAGE('k2'!B20,'k2'!F20,'k2'!J20,'k2'!N20,'k2'!R20,'k2'!V20,'k2'!Z20,'k2'!AD20,'k2'!AH20,'k2'!AL20)</f>
+        <v>50.1</v>
+      </c>
+      <c r="H46">
+        <f>_xlfn.STDEV.P('k2'!B20,'k2'!F20,'k2'!J20,'k2'!N20,'k2'!R20,'k2'!V20,'k2'!Z20,'k2'!AD20,'k2'!AH20,'k2'!AL20)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE('k2'!C20,'k2'!G20,'k2'!K20,'k2'!O20,'k2'!S20,'k2'!W20,'k2'!AA20,'k2'!AE20,'k2'!AI20,'k2'!AM20)</f>
+        <v>147.78100000000001</v>
+      </c>
+      <c r="J46">
+        <f>AVERAGE('k2'!E20,'k2'!I20,'k2'!M20,'k2'!Q20,'k2'!U20,'k2'!Y20,'k2'!AC20,'k2'!AG20,'k2'!AK20,'k2'!AO20)</f>
+        <v>315.90699999999998</v>
+      </c>
+      <c r="K46">
         <v>49</v>
       </c>
-      <c r="F46">
+      <c r="L46">
         <v>369.14</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="3"/>
+      <c r="M46" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H46">
+      <c r="N46">
         <v>49</v>
       </c>
-      <c r="I46">
+      <c r="O46">
         <v>1797.56</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" si="4"/>
+      <c r="P46" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1971,27 +3027,51 @@
         <v>2.54</v>
       </c>
       <c r="E47">
+        <f>MIN('k2'!B21,'k2'!F21,'k2'!J21,'k2'!N21,'k2'!R21,'k2'!V21,'k2'!Z21,'k2'!AD21,'k2'!AH21,'k2'!AL21)</f>
         <v>73</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G47">
+        <f>AVERAGE('k2'!B21,'k2'!F21,'k2'!J21,'k2'!N21,'k2'!R21,'k2'!V21,'k2'!Z21,'k2'!AD21,'k2'!AH21,'k2'!AL21)</f>
+        <v>73.7</v>
+      </c>
+      <c r="H47">
+        <f>_xlfn.STDEV.P('k2'!B21,'k2'!F21,'k2'!J21,'k2'!N21,'k2'!R21,'k2'!V21,'k2'!Z21,'k2'!AD21,'k2'!AH21,'k2'!AL21)</f>
+        <v>0.45825756949558394</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE('k2'!C21,'k2'!G21,'k2'!K21,'k2'!O21,'k2'!S21,'k2'!W21,'k2'!AA21,'k2'!AE21,'k2'!AI21,'k2'!AM21)</f>
+        <v>187.46100000000001</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE('k2'!E21,'k2'!I21,'k2'!M21,'k2'!Q21,'k2'!U21,'k2'!Y21,'k2'!AC21,'k2'!AG21,'k2'!AK21,'k2'!AO21)</f>
+        <v>754.20900000000006</v>
+      </c>
+      <c r="K47">
+        <v>73</v>
+      </c>
+      <c r="L47">
         <v>77.72</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="3"/>
+      <c r="M47" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H47">
+      <c r="N47">
         <v>73</v>
       </c>
-      <c r="I47">
+      <c r="O47">
         <v>220.51</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="4"/>
+      <c r="P47" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2005,99 +3085,159 @@
         <v>1.35</v>
       </c>
       <c r="E48">
+        <f>MIN('k2'!B22,'k2'!F22,'k2'!J22,'k2'!N22,'k2'!R22,'k2'!V22,'k2'!Z22,'k2'!AD22,'k2'!AH22,'k2'!AL22)</f>
         <v>68</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>best</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE('k2'!B22,'k2'!F22,'k2'!J22,'k2'!N22,'k2'!R22,'k2'!V22,'k2'!Z22,'k2'!AD22,'k2'!AH22,'k2'!AL22)</f>
+        <v>68</v>
+      </c>
+      <c r="H48">
+        <f>_xlfn.STDEV.P('k2'!B22,'k2'!F22,'k2'!J22,'k2'!N22,'k2'!R22,'k2'!V22,'k2'!Z22,'k2'!AD22,'k2'!AH22,'k2'!AL22)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE('k2'!C22,'k2'!G22,'k2'!K22,'k2'!O22,'k2'!S22,'k2'!W22,'k2'!AA22,'k2'!AE22,'k2'!AI22,'k2'!AM22)</f>
+        <v>111.923</v>
+      </c>
+      <c r="J48">
+        <f>AVERAGE('k2'!E22,'k2'!I22,'k2'!M22,'k2'!Q22,'k2'!U22,'k2'!Y22,'k2'!AC22,'k2'!AG22,'k2'!AK22,'k2'!AO22)</f>
+        <v>755.05500000000006</v>
+      </c>
+      <c r="K48">
+        <v>68</v>
+      </c>
+      <c r="L48">
         <v>10.95</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="3"/>
+      <c r="M48" t="str">
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
-      <c r="H48">
+      <c r="N48">
         <v>68</v>
       </c>
-      <c r="I48">
+      <c r="O48">
         <v>18.3</v>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" si="4"/>
+      <c r="P48" t="str">
+        <f t="shared" si="7"/>
         <v>best</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ref="B49" si="5">AVERAGE(B29:B48)</f>
+        <f t="shared" ref="B49" si="8">AVERAGE(B29:B48)</f>
         <v>70.45</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49" si="6">AVERAGE(C29:C48)</f>
+        <f t="shared" ref="C49" si="9">AVERAGE(C29:C48)</f>
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49:I49" si="7">AVERAGE(D29:D48)</f>
+        <f t="shared" ref="D49:O49" si="10">AVERAGE(D29:D48)</f>
         <v>2.9030000000000005</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(E29:E48)</f>
+        <v>71.05</v>
+      </c>
+      <c r="F49" s="1">
+        <f>COUNTIF(F29:F48, "best")</f>
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ref="G49" si="11">AVERAGE(G29:G48)</f>
+        <v>71.66</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ref="H49" si="12">AVERAGE(H29:H48)</f>
+        <v>0.4437550114791195</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" ref="I49" si="13">AVERAGE(I29:I48)</f>
+        <v>395.89775000000003</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" ref="J49" si="14">AVERAGE(J29:J48)</f>
+        <v>1014.9231999999998</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="10"/>
         <v>71.2</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="7"/>
+      <c r="L49" s="1">
+        <f t="shared" si="10"/>
         <v>1042.7450000000001</v>
       </c>
-      <c r="G49" s="1">
-        <f>COUNTIF(G29:G48, "best")</f>
+      <c r="M49" s="1">
+        <f>COUNTIF(M29:M48, "best")</f>
         <v>10</v>
       </c>
-      <c r="H49" s="1">
-        <f t="shared" si="7"/>
+      <c r="N49" s="1">
+        <f t="shared" si="10"/>
         <v>71.099999999999994</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="7"/>
+      <c r="O49" s="1">
+        <f t="shared" si="10"/>
         <v>1222.4570000000001</v>
       </c>
-      <c r="J49" s="1">
-        <f>COUNTIF(J29:J48, "best")</f>
+      <c r="P49" s="1">
+        <f>COUNTIF(P29:P48, "best")</f>
         <v>11</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="2"/>
+      <c r="K52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,27 +3250,31 @@
       <c r="D53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="K53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B54">
@@ -2142,29 +3286,29 @@
       <c r="D54">
         <v>3608.26</v>
       </c>
-      <c r="E54">
+      <c r="K54">
         <v>139</v>
       </c>
-      <c r="F54">
+      <c r="L54">
         <v>348.67</v>
       </c>
-      <c r="G54" t="str">
-        <f>IF($B54=E54, "best", "")</f>
+      <c r="M54" t="str">
+        <f>IF($B54=K54, "best", "")</f>
         <v/>
       </c>
-      <c r="H54">
+      <c r="N54">
         <v>139</v>
       </c>
-      <c r="I54">
+      <c r="O54">
         <v>1127.6600000000001</v>
       </c>
-      <c r="J54" t="str">
-        <f>IF($B54=H54, "best", "")</f>
+      <c r="P54" t="str">
+        <f>IF($B54=N54, "best", "")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B55">
@@ -2176,29 +3320,29 @@
       <c r="D55">
         <v>1985.8</v>
       </c>
-      <c r="E55">
+      <c r="K55">
         <v>149</v>
       </c>
-      <c r="F55">
+      <c r="L55">
         <v>596.05999999999995</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" ref="G55:G73" si="8">IF($B55=E55, "best", "")</f>
+      <c r="M55" t="str">
+        <f t="shared" ref="M55:M73" si="15">IF($B55=K55, "best", "")</f>
         <v/>
       </c>
-      <c r="H55">
+      <c r="N55">
         <v>149</v>
       </c>
-      <c r="I55">
+      <c r="O55">
         <v>1195.83</v>
       </c>
-      <c r="J55" t="str">
-        <f t="shared" ref="J55:J73" si="9">IF($B55=H55, "best", "")</f>
+      <c r="P55" t="str">
+        <f t="shared" ref="P55:P73" si="16">IF($B55=N55, "best", "")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B56">
@@ -2210,29 +3354,29 @@
       <c r="D56">
         <v>179.16</v>
       </c>
-      <c r="E56">
+      <c r="K56">
         <v>79</v>
       </c>
-      <c r="F56">
+      <c r="L56">
         <v>20.34</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="8"/>
+      <c r="M56" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H56">
+      <c r="N56">
         <v>78</v>
       </c>
-      <c r="I56">
+      <c r="O56">
         <v>183.53</v>
       </c>
-      <c r="J56" t="str">
-        <f t="shared" si="9"/>
+      <c r="P56" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B57">
@@ -2244,29 +3388,29 @@
       <c r="D57">
         <v>3631.76</v>
       </c>
-      <c r="E57">
+      <c r="K57">
         <v>145</v>
       </c>
-      <c r="F57">
+      <c r="L57">
         <v>2292.9299999999998</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="8"/>
+      <c r="M57" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H57">
+      <c r="N57">
         <v>148</v>
       </c>
-      <c r="I57">
+      <c r="O57">
         <v>2908.23</v>
       </c>
-      <c r="J57" t="str">
-        <f t="shared" si="9"/>
+      <c r="P57" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B58">
@@ -2278,29 +3422,29 @@
       <c r="D58">
         <v>911.98</v>
       </c>
-      <c r="E58">
+      <c r="K58">
         <v>160</v>
       </c>
-      <c r="F58">
+      <c r="L58">
         <v>2506.84</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="8"/>
+      <c r="M58" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H58">
+      <c r="N58">
         <v>159</v>
       </c>
-      <c r="I58">
+      <c r="O58">
         <v>624.89</v>
       </c>
-      <c r="J58" t="str">
-        <f t="shared" si="9"/>
+      <c r="P58" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B59">
@@ -2312,29 +3456,29 @@
       <c r="D59">
         <v>3604.64</v>
       </c>
-      <c r="E59">
+      <c r="K59">
         <v>150</v>
       </c>
-      <c r="F59">
+      <c r="L59">
         <v>1418.34</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="8"/>
+      <c r="M59" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H59">
+      <c r="N59">
         <v>149</v>
       </c>
-      <c r="I59">
+      <c r="O59">
         <v>1622.87</v>
       </c>
-      <c r="J59" t="str">
-        <f t="shared" si="9"/>
+      <c r="P59" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B60">
@@ -2346,29 +3490,29 @@
       <c r="D60">
         <v>3655.54</v>
       </c>
-      <c r="E60">
+      <c r="K60">
         <v>157</v>
       </c>
-      <c r="F60">
+      <c r="L60">
         <v>2115.5700000000002</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="8"/>
+      <c r="M60" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H60">
+      <c r="N60">
         <v>157</v>
       </c>
-      <c r="I60">
+      <c r="O60">
         <v>1349.34</v>
       </c>
-      <c r="J60" t="str">
-        <f t="shared" si="9"/>
+      <c r="P60" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B61">
@@ -2380,29 +3524,29 @@
       <c r="D61">
         <v>3648.06</v>
       </c>
-      <c r="E61">
+      <c r="K61">
         <v>173</v>
       </c>
-      <c r="F61">
+      <c r="L61">
         <v>1636.78</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="8"/>
+      <c r="M61" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H61">
+      <c r="N61">
         <v>176</v>
       </c>
-      <c r="I61">
+      <c r="O61">
         <v>1061.81</v>
       </c>
-      <c r="J61" t="str">
-        <f t="shared" si="9"/>
+      <c r="P61" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B62">
@@ -2414,29 +3558,29 @@
       <c r="D62">
         <v>329.38</v>
       </c>
-      <c r="E62">
+      <c r="K62">
         <v>153</v>
       </c>
-      <c r="F62">
+      <c r="L62">
         <v>872.48</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="8"/>
+      <c r="M62" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H62">
+      <c r="N62">
         <v>153</v>
       </c>
-      <c r="I62">
+      <c r="O62">
         <v>1347.81</v>
       </c>
-      <c r="J62" t="str">
-        <f t="shared" si="9"/>
+      <c r="P62" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B63">
@@ -2448,29 +3592,29 @@
       <c r="D63">
         <v>3602.38</v>
       </c>
-      <c r="E63">
+      <c r="K63">
         <v>153</v>
       </c>
-      <c r="F63">
+      <c r="L63">
         <v>915.53</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="8"/>
+      <c r="M63" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H63">
+      <c r="N63">
         <v>149</v>
       </c>
-      <c r="I63">
+      <c r="O63">
         <v>1544.1</v>
       </c>
-      <c r="J63" t="str">
-        <f t="shared" si="9"/>
+      <c r="P63" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B64">
@@ -2482,29 +3626,29 @@
       <c r="D64">
         <v>338.36</v>
       </c>
-      <c r="E64">
+      <c r="K64">
         <v>112</v>
       </c>
-      <c r="F64">
+      <c r="L64">
         <v>994.82</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="8"/>
+      <c r="M64" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H64">
+      <c r="N64">
         <v>113</v>
       </c>
-      <c r="I64">
+      <c r="O64">
         <v>2530.9</v>
       </c>
-      <c r="J64" t="str">
-        <f t="shared" si="9"/>
+      <c r="P64" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B65">
@@ -2516,29 +3660,29 @@
       <c r="D65">
         <v>3620.36</v>
       </c>
-      <c r="E65">
+      <c r="K65">
         <v>155</v>
       </c>
-      <c r="F65">
+      <c r="L65">
         <v>3596.01</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="8"/>
+      <c r="M65" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H65">
+      <c r="N65">
         <v>156</v>
       </c>
-      <c r="I65">
+      <c r="O65">
         <v>1474.89</v>
       </c>
-      <c r="J65" t="str">
-        <f t="shared" si="9"/>
+      <c r="P65" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B66">
@@ -2550,29 +3694,29 @@
       <c r="D66">
         <v>913.1</v>
       </c>
-      <c r="E66">
+      <c r="K66">
         <v>153</v>
       </c>
-      <c r="F66">
+      <c r="L66">
         <v>1328.77</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" si="8"/>
+      <c r="M66" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H66">
+      <c r="N66">
         <v>152</v>
       </c>
-      <c r="I66">
+      <c r="O66">
         <v>1319.81</v>
       </c>
-      <c r="J66" t="str">
-        <f t="shared" si="9"/>
+      <c r="P66" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67">
@@ -2584,29 +3728,29 @@
       <c r="D67">
         <v>236.64</v>
       </c>
-      <c r="E67">
+      <c r="K67">
         <v>164</v>
       </c>
-      <c r="F67">
+      <c r="L67">
         <v>3410.92</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" si="8"/>
+      <c r="M67" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H67">
+      <c r="N67">
         <v>166</v>
       </c>
-      <c r="I67">
+      <c r="O67">
         <v>1197.1400000000001</v>
       </c>
-      <c r="J67" t="str">
-        <f t="shared" si="9"/>
+      <c r="P67" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B68">
@@ -2618,29 +3762,29 @@
       <c r="D68">
         <v>17.079999999999998</v>
       </c>
-      <c r="E68">
+      <c r="K68">
         <v>89</v>
       </c>
-      <c r="F68">
+      <c r="L68">
         <v>15</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" si="8"/>
+      <c r="M68" t="str">
+        <f t="shared" si="15"/>
         <v>best</v>
       </c>
-      <c r="H68">
+      <c r="N68">
         <v>89</v>
       </c>
-      <c r="I68">
+      <c r="O68">
         <v>271.16000000000003</v>
       </c>
-      <c r="J68" t="str">
-        <f t="shared" si="9"/>
+      <c r="P68" t="str">
+        <f t="shared" si="16"/>
         <v>best</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B69">
@@ -2652,29 +3796,29 @@
       <c r="D69">
         <v>227.07</v>
       </c>
-      <c r="E69">
+      <c r="K69">
         <v>115</v>
       </c>
-      <c r="F69">
+      <c r="L69">
         <v>1607.88</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" si="8"/>
+      <c r="M69" t="str">
+        <f t="shared" si="15"/>
         <v>best</v>
       </c>
-      <c r="H69">
+      <c r="N69">
         <v>116</v>
       </c>
-      <c r="I69">
+      <c r="O69">
         <v>1001.59</v>
       </c>
-      <c r="J69" t="str">
-        <f t="shared" si="9"/>
+      <c r="P69" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B70">
@@ -2686,29 +3830,29 @@
       <c r="D70">
         <v>3650.96</v>
       </c>
-      <c r="E70">
+      <c r="K70">
         <v>160</v>
       </c>
-      <c r="F70">
+      <c r="L70">
         <v>3411.61</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" si="8"/>
+      <c r="M70" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H70">
+      <c r="N70">
         <v>161</v>
       </c>
-      <c r="I70">
+      <c r="O70">
         <v>899.57</v>
       </c>
-      <c r="J70" t="str">
-        <f t="shared" si="9"/>
+      <c r="P70" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B71">
@@ -2720,29 +3864,29 @@
       <c r="D71">
         <v>53.23</v>
       </c>
-      <c r="E71">
+      <c r="K71">
         <v>97</v>
       </c>
-      <c r="F71">
+      <c r="L71">
         <v>501.19</v>
       </c>
-      <c r="G71" t="str">
-        <f t="shared" si="8"/>
+      <c r="M71" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H71">
+      <c r="N71">
         <v>98</v>
       </c>
-      <c r="I71">
+      <c r="O71">
         <v>502.15</v>
       </c>
-      <c r="J71" t="str">
-        <f t="shared" si="9"/>
+      <c r="P71" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B72">
@@ -2754,29 +3898,29 @@
       <c r="D72">
         <v>3637.62</v>
       </c>
-      <c r="E72">
+      <c r="K72">
         <v>142</v>
       </c>
-      <c r="F72">
+      <c r="L72">
         <v>2297.14</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="8"/>
+      <c r="M72" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H72">
+      <c r="N72">
         <v>141</v>
       </c>
-      <c r="I72">
+      <c r="O72">
         <v>2469.15</v>
       </c>
-      <c r="J72" t="str">
-        <f t="shared" si="9"/>
+      <c r="P72" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B73">
@@ -2788,87 +3932,5525 @@
       <c r="D73">
         <v>31.71</v>
       </c>
-      <c r="E73">
+      <c r="K73">
         <v>129</v>
       </c>
-      <c r="F73">
+      <c r="L73">
         <v>1033.2</v>
       </c>
-      <c r="G73" t="str">
-        <f t="shared" si="8"/>
+      <c r="M73" t="str">
+        <f t="shared" si="15"/>
         <v>best</v>
       </c>
-      <c r="H73">
+      <c r="N73">
         <v>131</v>
       </c>
-      <c r="I73">
+      <c r="O73">
         <v>442.44</v>
       </c>
-      <c r="J73" t="str">
-        <f t="shared" si="9"/>
+      <c r="P73" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" ref="B74" si="10">AVERAGE(B54:B73)</f>
+        <f t="shared" ref="B74" si="17">AVERAGE(B54:B73)</f>
         <v>135.35</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="11">AVERAGE(C54:C73)</f>
+        <f t="shared" ref="C74" si="18">AVERAGE(C54:C73)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74:I74" si="12">AVERAGE(D54:D73)</f>
+        <f t="shared" ref="D74:O74" si="19">AVERAGE(D54:D73)</f>
         <v>1894.1545000000006</v>
       </c>
-      <c r="E74" s="1">
-        <f t="shared" si="12"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="K74" s="1">
+        <f t="shared" si="19"/>
         <v>138.69999999999999</v>
       </c>
-      <c r="F74" s="1">
-        <f t="shared" si="12"/>
+      <c r="L74" s="1">
+        <f t="shared" si="19"/>
         <v>1546.0040000000004</v>
       </c>
-      <c r="G74" s="1">
-        <f>COUNTIF(G54:G73, "best")</f>
+      <c r="M74" s="1">
+        <f>COUNTIF(M54:M73, "best")</f>
         <v>3</v>
       </c>
-      <c r="H74" s="1">
-        <f t="shared" si="12"/>
+      <c r="N74" s="1">
+        <f t="shared" si="19"/>
         <v>139</v>
       </c>
-      <c r="I74" s="1">
-        <f t="shared" si="12"/>
+      <c r="O74" s="1">
+        <f t="shared" si="19"/>
         <v>1253.7435</v>
       </c>
-      <c r="J74" s="1">
-        <f>COUNTIF(J54:J73, "best")</f>
+      <c r="P74" s="1">
+        <f>COUNTIF(P54:P73, "best")</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:O74">
-    <sortCondition ref="L1:L74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R1:U74">
+    <sortCondition ref="R1:R74"/>
   </sortState>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="E27:J27"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A399-1392-421F-BE16-4A68D42F8610}">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>12345</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>22411</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4">
+        <v>25233</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4">
+        <v>52331</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4">
+        <v>54278</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4">
+        <v>54433</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4">
+        <v>66655</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4">
+        <v>68531</v>
+      </c>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4">
+        <v>87744</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4">
+        <v>98811</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>5.71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>444.88</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>139.66999999999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>449.58</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>100.23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>447.46</v>
+      </c>
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>138.81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>441.1</v>
+      </c>
+      <c r="R3">
+        <v>38</v>
+      </c>
+      <c r="S3">
+        <v>88.25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3">
+        <v>444.53</v>
+      </c>
+      <c r="V3">
+        <v>38</v>
+      </c>
+      <c r="W3">
+        <v>13.49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3">
+        <v>443.34</v>
+      </c>
+      <c r="Z3">
+        <v>38</v>
+      </c>
+      <c r="AA3">
+        <v>19.84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3">
+        <v>447.4</v>
+      </c>
+      <c r="AD3">
+        <v>38</v>
+      </c>
+      <c r="AE3">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3">
+        <v>448.73</v>
+      </c>
+      <c r="AH3">
+        <v>38</v>
+      </c>
+      <c r="AI3">
+        <v>50.86</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3">
+        <v>445.42</v>
+      </c>
+      <c r="AL3">
+        <v>38</v>
+      </c>
+      <c r="AM3">
+        <v>42.35</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3">
+        <v>442.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>15.24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>831.3</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>24.73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>822.54</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>91.96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>809.39</v>
+      </c>
+      <c r="N4">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>871.73</v>
+      </c>
+      <c r="R4">
+        <v>39</v>
+      </c>
+      <c r="S4">
+        <v>103.65</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <v>833.52</v>
+      </c>
+      <c r="V4">
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <v>13.74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4">
+        <v>866.03</v>
+      </c>
+      <c r="Z4">
+        <v>39</v>
+      </c>
+      <c r="AA4">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4">
+        <v>867.37</v>
+      </c>
+      <c r="AD4">
+        <v>39</v>
+      </c>
+      <c r="AE4">
+        <v>172.25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4">
+        <v>825.73</v>
+      </c>
+      <c r="AH4">
+        <v>39</v>
+      </c>
+      <c r="AI4">
+        <v>55.81</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4">
+        <v>812.39</v>
+      </c>
+      <c r="AL4">
+        <v>39</v>
+      </c>
+      <c r="AM4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4">
+        <v>843.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>15.66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>457.24</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>52.87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>451.08</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>24.33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>466.67</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>95.52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>453.7</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>193.33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>460.09</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>46.69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5">
+        <v>473.59</v>
+      </c>
+      <c r="Z5">
+        <v>21</v>
+      </c>
+      <c r="AA5">
+        <v>147.78</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5">
+        <v>473.64</v>
+      </c>
+      <c r="AD5">
+        <v>21</v>
+      </c>
+      <c r="AE5">
+        <v>156.29</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5">
+        <v>466.18</v>
+      </c>
+      <c r="AH5">
+        <v>21</v>
+      </c>
+      <c r="AI5">
+        <v>21.37</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK5">
+        <v>467.88</v>
+      </c>
+      <c r="AL5">
+        <v>21</v>
+      </c>
+      <c r="AM5">
+        <v>137.88</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO5">
+        <v>464.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>31.14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>800</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>46.44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>786.77</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>125.29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>795.75</v>
+      </c>
+      <c r="N6">
+        <v>37</v>
+      </c>
+      <c r="O6">
+        <v>121.44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>758.46</v>
+      </c>
+      <c r="R6">
+        <v>37</v>
+      </c>
+      <c r="S6">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
+        <v>795.82</v>
+      </c>
+      <c r="V6">
+        <v>37</v>
+      </c>
+      <c r="W6">
+        <v>126.11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6">
+        <v>789.56</v>
+      </c>
+      <c r="Z6">
+        <v>37</v>
+      </c>
+      <c r="AA6">
+        <v>394.71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6">
+        <v>833.63</v>
+      </c>
+      <c r="AD6">
+        <v>37</v>
+      </c>
+      <c r="AE6">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG6">
+        <v>787.25</v>
+      </c>
+      <c r="AH6">
+        <v>37</v>
+      </c>
+      <c r="AI6">
+        <v>242.89</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK6">
+        <v>752.67</v>
+      </c>
+      <c r="AL6">
+        <v>37</v>
+      </c>
+      <c r="AM6">
+        <v>101.46</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO6">
+        <v>813.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>10.77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>424.14</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>12.54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>422.7</v>
+      </c>
+      <c r="J7">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>43.46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>399.57</v>
+      </c>
+      <c r="N7">
+        <v>39</v>
+      </c>
+      <c r="O7">
+        <v>44.82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>416.32</v>
+      </c>
+      <c r="R7">
+        <v>39</v>
+      </c>
+      <c r="S7">
+        <v>73.27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>422.78</v>
+      </c>
+      <c r="V7">
+        <v>39</v>
+      </c>
+      <c r="W7">
+        <v>28.84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7">
+        <v>423.59</v>
+      </c>
+      <c r="Z7">
+        <v>39</v>
+      </c>
+      <c r="AA7">
+        <v>90.69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7">
+        <v>415.78</v>
+      </c>
+      <c r="AD7">
+        <v>39</v>
+      </c>
+      <c r="AE7">
+        <v>17.75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7">
+        <v>427.96</v>
+      </c>
+      <c r="AH7">
+        <v>39</v>
+      </c>
+      <c r="AI7">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7">
+        <v>411.19</v>
+      </c>
+      <c r="AL7">
+        <v>39</v>
+      </c>
+      <c r="AM7">
+        <v>57.28</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO7">
+        <v>431.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>6.22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>433.26</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>23.73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>444.8</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>127.04</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>448.53</v>
+      </c>
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>212.05</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>438.42</v>
+      </c>
+      <c r="R8">
+        <v>38</v>
+      </c>
+      <c r="S8">
+        <v>280.57</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8">
+        <v>421.71</v>
+      </c>
+      <c r="V8">
+        <v>39</v>
+      </c>
+      <c r="W8">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="X8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8">
+        <v>433.38</v>
+      </c>
+      <c r="Z8">
+        <v>38</v>
+      </c>
+      <c r="AA8">
+        <v>191.76</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8">
+        <v>440.1</v>
+      </c>
+      <c r="AD8">
+        <v>38</v>
+      </c>
+      <c r="AE8">
+        <v>263.26</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG8">
+        <v>432.32</v>
+      </c>
+      <c r="AH8">
+        <v>38</v>
+      </c>
+      <c r="AI8">
+        <v>249.02</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK8">
+        <v>445.28</v>
+      </c>
+      <c r="AL8">
+        <v>38</v>
+      </c>
+      <c r="AM8">
+        <v>16.3</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO8">
+        <v>446.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>16.68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>513.79999999999995</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>29.66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>524.52</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>17.3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>503.12</v>
+      </c>
+      <c r="N9">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>64.14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>519.22</v>
+      </c>
+      <c r="R9">
+        <v>38</v>
+      </c>
+      <c r="S9">
+        <v>22.18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9">
+        <v>521.16999999999996</v>
+      </c>
+      <c r="V9">
+        <v>38</v>
+      </c>
+      <c r="W9">
+        <v>106.97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9">
+        <v>521.99</v>
+      </c>
+      <c r="Z9">
+        <v>38</v>
+      </c>
+      <c r="AA9">
+        <v>27.49</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9">
+        <v>523.55999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>38</v>
+      </c>
+      <c r="AE9">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG9">
+        <v>512.65</v>
+      </c>
+      <c r="AH9">
+        <v>38</v>
+      </c>
+      <c r="AI9">
+        <v>141.47</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9">
+        <v>495.88</v>
+      </c>
+      <c r="AL9">
+        <v>38</v>
+      </c>
+      <c r="AM9">
+        <v>58.02</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO9">
+        <v>505.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>428.74</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>35.28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>429.22</v>
+      </c>
+      <c r="J10">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>15.96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>414.94</v>
+      </c>
+      <c r="N10">
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>407.84</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>163.09</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>414.29</v>
+      </c>
+      <c r="V10">
+        <v>50</v>
+      </c>
+      <c r="W10">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="X10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10">
+        <v>411.48</v>
+      </c>
+      <c r="Z10">
+        <v>50</v>
+      </c>
+      <c r="AA10">
+        <v>134.6</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10">
+        <v>421.82</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>272.25</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG10">
+        <v>399.22</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>65.19</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10">
+        <v>413.63</v>
+      </c>
+      <c r="AL10">
+        <v>50</v>
+      </c>
+      <c r="AM10">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10">
+        <v>418.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>27.78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>698.34</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>37.6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>690.8</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>72.14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>684.69</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>90.43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11">
+        <v>677.85</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>364.84</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>650.83000000000004</v>
+      </c>
+      <c r="V11">
+        <v>40</v>
+      </c>
+      <c r="W11">
+        <v>134.06</v>
+      </c>
+      <c r="X11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11">
+        <v>669.72</v>
+      </c>
+      <c r="Z11">
+        <v>40</v>
+      </c>
+      <c r="AA11">
+        <v>63.46</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11">
+        <v>695.58</v>
+      </c>
+      <c r="AD11">
+        <v>40</v>
+      </c>
+      <c r="AE11">
+        <v>145.29</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG11">
+        <v>708.99</v>
+      </c>
+      <c r="AH11">
+        <v>40</v>
+      </c>
+      <c r="AI11">
+        <v>63.04</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK11">
+        <v>702.02</v>
+      </c>
+      <c r="AL11">
+        <v>40</v>
+      </c>
+      <c r="AM11">
+        <v>328.06</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11">
+        <v>677.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>239.19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1004.8</v>
+      </c>
+      <c r="F12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>244</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>998.14</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>365.48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>1001.37</v>
+      </c>
+      <c r="N12">
+        <v>38</v>
+      </c>
+      <c r="O12">
+        <v>107.03</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>1016.54</v>
+      </c>
+      <c r="R12">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>480.24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12">
+        <v>1001.54</v>
+      </c>
+      <c r="V12">
+        <v>38</v>
+      </c>
+      <c r="W12">
+        <v>267.66000000000003</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12">
+        <v>1012.27</v>
+      </c>
+      <c r="Z12">
+        <v>38</v>
+      </c>
+      <c r="AA12">
+        <v>119.03</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12">
+        <v>1027.17</v>
+      </c>
+      <c r="AD12">
+        <v>38</v>
+      </c>
+      <c r="AE12">
+        <v>247.29</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12">
+        <v>1019.57</v>
+      </c>
+      <c r="AH12">
+        <v>38</v>
+      </c>
+      <c r="AI12">
+        <v>122.29</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12">
+        <v>1013.09</v>
+      </c>
+      <c r="AL12">
+        <v>38</v>
+      </c>
+      <c r="AM12">
+        <v>137.99</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO12">
+        <v>1009.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>25.35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>711.21</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>180.29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>719.55</v>
+      </c>
+      <c r="J13">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>190.73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>689.75</v>
+      </c>
+      <c r="N13">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>108.1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>701.23</v>
+      </c>
+      <c r="R13">
+        <v>28</v>
+      </c>
+      <c r="S13">
+        <v>122.24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13">
+        <v>696.31</v>
+      </c>
+      <c r="V13">
+        <v>28</v>
+      </c>
+      <c r="W13">
+        <v>55.51</v>
+      </c>
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13">
+        <v>719.41</v>
+      </c>
+      <c r="Z13">
+        <v>28</v>
+      </c>
+      <c r="AA13">
+        <v>586.33000000000004</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13">
+        <v>679.08</v>
+      </c>
+      <c r="AD13">
+        <v>28</v>
+      </c>
+      <c r="AE13">
+        <v>164.69</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13">
+        <v>706.75</v>
+      </c>
+      <c r="AH13">
+        <v>28</v>
+      </c>
+      <c r="AI13">
+        <v>62.75</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK13">
+        <v>699.68</v>
+      </c>
+      <c r="AL13">
+        <v>28</v>
+      </c>
+      <c r="AM13">
+        <v>429.38</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO13">
+        <v>682.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>969.97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2039.35</v>
+      </c>
+      <c r="F14">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>793.45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>2083.29</v>
+      </c>
+      <c r="J14">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>1720.81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>2055.84</v>
+      </c>
+      <c r="N14">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>682.31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>2082.9499999999998</v>
+      </c>
+      <c r="R14">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <v>366.44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14">
+        <v>2063.39</v>
+      </c>
+      <c r="V14">
+        <v>39</v>
+      </c>
+      <c r="W14">
+        <v>704.82</v>
+      </c>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14">
+        <v>2093.73</v>
+      </c>
+      <c r="Z14">
+        <v>39</v>
+      </c>
+      <c r="AA14">
+        <v>661.11</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC14">
+        <v>2039.23</v>
+      </c>
+      <c r="AD14">
+        <v>40</v>
+      </c>
+      <c r="AE14">
+        <v>116.44</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14">
+        <v>2086.6999999999998</v>
+      </c>
+      <c r="AH14">
+        <v>38</v>
+      </c>
+      <c r="AI14">
+        <v>1646.41</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK14">
+        <v>2065.2800000000002</v>
+      </c>
+      <c r="AL14">
+        <v>38</v>
+      </c>
+      <c r="AM14">
+        <v>779.02</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO14">
+        <v>2107.5300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>10.64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>622.16</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>100.27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>589.15</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>47.46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>619.25</v>
+      </c>
+      <c r="N15">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>56.29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>605.44000000000005</v>
+      </c>
+      <c r="R15">
+        <v>44</v>
+      </c>
+      <c r="S15">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15">
+        <v>608.27</v>
+      </c>
+      <c r="V15">
+        <v>44</v>
+      </c>
+      <c r="W15">
+        <v>29.52</v>
+      </c>
+      <c r="X15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15">
+        <v>629.92999999999995</v>
+      </c>
+      <c r="Z15">
+        <v>44</v>
+      </c>
+      <c r="AA15">
+        <v>112.57</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15">
+        <v>601.98</v>
+      </c>
+      <c r="AD15">
+        <v>44</v>
+      </c>
+      <c r="AE15">
+        <v>127.19</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15">
+        <v>607.63</v>
+      </c>
+      <c r="AH15">
+        <v>44</v>
+      </c>
+      <c r="AI15">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15">
+        <v>621.99</v>
+      </c>
+      <c r="AL15">
+        <v>44</v>
+      </c>
+      <c r="AM15">
+        <v>178.79</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15">
+        <v>611.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>13.63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>1232.6300000000001</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>29.28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>1215.42</v>
+      </c>
+      <c r="J16">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>31.78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>1215.58</v>
+      </c>
+      <c r="N16">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>102.6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>1231.3</v>
+      </c>
+      <c r="R16">
+        <v>44</v>
+      </c>
+      <c r="S16">
+        <v>70.02</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16">
+        <v>1186.8399999999999</v>
+      </c>
+      <c r="V16">
+        <v>44</v>
+      </c>
+      <c r="W16">
+        <v>232.41</v>
+      </c>
+      <c r="X16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16">
+        <v>1206.81</v>
+      </c>
+      <c r="Z16">
+        <v>44</v>
+      </c>
+      <c r="AA16">
+        <v>41.17</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC16">
+        <v>1223.26</v>
+      </c>
+      <c r="AD16">
+        <v>44</v>
+      </c>
+      <c r="AE16">
+        <v>198.63</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16">
+        <v>1212.4100000000001</v>
+      </c>
+      <c r="AH16">
+        <v>44</v>
+      </c>
+      <c r="AI16">
+        <v>71.87</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16">
+        <v>1185.57</v>
+      </c>
+      <c r="AL16">
+        <v>44</v>
+      </c>
+      <c r="AM16">
+        <v>59.93</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16">
+        <v>1199.8699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0.65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>63.48</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>64.25</v>
+      </c>
+      <c r="J17">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>30.12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>61.39</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>5.92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>65.58</v>
+      </c>
+      <c r="R17">
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <v>32.28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>62.02</v>
+      </c>
+      <c r="V17">
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <v>5.08</v>
+      </c>
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17">
+        <v>64.22</v>
+      </c>
+      <c r="Z17">
+        <v>24</v>
+      </c>
+      <c r="AA17">
+        <v>44.77</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC17">
+        <v>62.68</v>
+      </c>
+      <c r="AD17">
+        <v>24</v>
+      </c>
+      <c r="AE17">
+        <v>39.28</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17">
+        <v>61.53</v>
+      </c>
+      <c r="AH17">
+        <v>24</v>
+      </c>
+      <c r="AI17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK17">
+        <v>63.2</v>
+      </c>
+      <c r="AL17">
+        <v>24</v>
+      </c>
+      <c r="AM17">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO17">
+        <v>63.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>14.19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>717.23</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>98.43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>708.78</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>102.14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>701.27</v>
+      </c>
+      <c r="N18">
+        <v>31</v>
+      </c>
+      <c r="O18">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>712.8</v>
+      </c>
+      <c r="R18">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <v>44.23</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18">
+        <v>691.67</v>
+      </c>
+      <c r="V18">
+        <v>31</v>
+      </c>
+      <c r="W18">
+        <v>96</v>
+      </c>
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18">
+        <v>713.07</v>
+      </c>
+      <c r="Z18">
+        <v>31</v>
+      </c>
+      <c r="AA18">
+        <v>7.18</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18">
+        <v>716.18</v>
+      </c>
+      <c r="AD18">
+        <v>31</v>
+      </c>
+      <c r="AE18">
+        <v>95.53</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG18">
+        <v>697.95</v>
+      </c>
+      <c r="AH18">
+        <v>31</v>
+      </c>
+      <c r="AI18">
+        <v>19.53</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK18">
+        <v>706.55</v>
+      </c>
+      <c r="AL18">
+        <v>31</v>
+      </c>
+      <c r="AM18">
+        <v>32.75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO18">
+        <v>706.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>30.83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>874.09</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>70.63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>876.14</v>
+      </c>
+      <c r="J19">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>25.98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>880.28</v>
+      </c>
+      <c r="N19">
+        <v>42</v>
+      </c>
+      <c r="O19">
+        <v>36.39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>876.12</v>
+      </c>
+      <c r="R19">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>91.5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>880.55</v>
+      </c>
+      <c r="V19">
+        <v>42</v>
+      </c>
+      <c r="W19">
+        <v>28.86</v>
+      </c>
+      <c r="X19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19">
+        <v>872.06</v>
+      </c>
+      <c r="Z19">
+        <v>42</v>
+      </c>
+      <c r="AA19">
+        <v>57.83</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19">
+        <v>870.22</v>
+      </c>
+      <c r="AD19">
+        <v>42</v>
+      </c>
+      <c r="AE19">
+        <v>221.63</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG19">
+        <v>889.85</v>
+      </c>
+      <c r="AH19">
+        <v>42</v>
+      </c>
+      <c r="AI19">
+        <v>69.8</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK19">
+        <v>875.39</v>
+      </c>
+      <c r="AL19">
+        <v>42</v>
+      </c>
+      <c r="AM19">
+        <v>148.65</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO19">
+        <v>887.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>11.38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>280.14999999999998</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>11.69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>279.51</v>
+      </c>
+      <c r="N20">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>5.27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>284.45</v>
+      </c>
+      <c r="R20">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <v>18.34</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20">
+        <v>278.88</v>
+      </c>
+      <c r="V20">
+        <v>25</v>
+      </c>
+      <c r="W20">
+        <v>5.82</v>
+      </c>
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20">
+        <v>276.91000000000003</v>
+      </c>
+      <c r="Z20">
+        <v>25</v>
+      </c>
+      <c r="AA20">
+        <v>4.71</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20">
+        <v>273.88</v>
+      </c>
+      <c r="AD20">
+        <v>25</v>
+      </c>
+      <c r="AE20">
+        <v>10.17</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG20">
+        <v>277.42</v>
+      </c>
+      <c r="AH20">
+        <v>25</v>
+      </c>
+      <c r="AI20">
+        <v>5.3</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK20">
+        <v>271.64</v>
+      </c>
+      <c r="AL20">
+        <v>25</v>
+      </c>
+      <c r="AM20">
+        <v>2.6</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO20">
+        <v>277.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>8.76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>681.05</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>53.75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>677.6</v>
+      </c>
+      <c r="J21">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>684.92</v>
+      </c>
+      <c r="N21">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>47.23</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21">
+        <v>695.91</v>
+      </c>
+      <c r="R21">
+        <v>36</v>
+      </c>
+      <c r="S21">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21">
+        <v>704.78</v>
+      </c>
+      <c r="V21">
+        <v>36</v>
+      </c>
+      <c r="W21">
+        <v>103.48</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21">
+        <v>673.16</v>
+      </c>
+      <c r="Z21">
+        <v>36</v>
+      </c>
+      <c r="AA21">
+        <v>86.12</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21">
+        <v>692.8</v>
+      </c>
+      <c r="AD21">
+        <v>36</v>
+      </c>
+      <c r="AE21">
+        <v>19.25</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG21">
+        <v>678.88</v>
+      </c>
+      <c r="AH21">
+        <v>36</v>
+      </c>
+      <c r="AI21">
+        <v>28.72</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK21">
+        <v>690.28</v>
+      </c>
+      <c r="AL21">
+        <v>36</v>
+      </c>
+      <c r="AM21">
+        <v>41.29</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO21">
+        <v>706.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>7.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>314.87</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>33.06</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>333.43</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>15.39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>319.99</v>
+      </c>
+      <c r="N22">
+        <v>32</v>
+      </c>
+      <c r="O22">
+        <v>25.95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22">
+        <v>323.5</v>
+      </c>
+      <c r="R22">
+        <v>32</v>
+      </c>
+      <c r="S22">
+        <v>19.18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22">
+        <v>326.02</v>
+      </c>
+      <c r="V22">
+        <v>32</v>
+      </c>
+      <c r="W22">
+        <v>62.7</v>
+      </c>
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22">
+        <v>322.67</v>
+      </c>
+      <c r="Z22">
+        <v>32</v>
+      </c>
+      <c r="AA22">
+        <v>27.06</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC22">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="AD22">
+        <v>32</v>
+      </c>
+      <c r="AE22">
+        <v>18.47</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG22">
+        <v>317.56</v>
+      </c>
+      <c r="AH22">
+        <v>32</v>
+      </c>
+      <c r="AI22">
+        <v>35.1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK22">
+        <v>322.26</v>
+      </c>
+      <c r="AL22">
+        <v>32</v>
+      </c>
+      <c r="AM22">
+        <v>39.65</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO22">
+        <v>338.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1899936-B5F7-44DD-83C8-1FC6D40F114A}">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>12345</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>22411</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4">
+        <v>25233</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4">
+        <v>52331</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4">
+        <v>54278</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4">
+        <v>54433</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4">
+        <v>66655</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4">
+        <v>68531</v>
+      </c>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4">
+        <v>87744</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4">
+        <v>98811</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>605.13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>645.97</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>48.83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>641.57000000000005</v>
+      </c>
+      <c r="J3">
+        <v>72</v>
+      </c>
+      <c r="K3">
+        <v>170.05</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>610.64</v>
+      </c>
+      <c r="N3">
+        <v>72</v>
+      </c>
+      <c r="O3">
+        <v>113.07</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>641.35</v>
+      </c>
+      <c r="R3">
+        <v>72</v>
+      </c>
+      <c r="S3">
+        <v>240.87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3">
+        <v>634.87</v>
+      </c>
+      <c r="V3">
+        <v>72</v>
+      </c>
+      <c r="W3">
+        <v>293.18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3">
+        <v>629.20000000000005</v>
+      </c>
+      <c r="Z3">
+        <v>72</v>
+      </c>
+      <c r="AA3">
+        <v>119.16</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3">
+        <v>625.99</v>
+      </c>
+      <c r="AD3">
+        <v>71</v>
+      </c>
+      <c r="AE3">
+        <v>423.1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3">
+        <v>625.57000000000005</v>
+      </c>
+      <c r="AH3">
+        <v>72</v>
+      </c>
+      <c r="AI3">
+        <v>202.76</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3">
+        <v>645.58000000000004</v>
+      </c>
+      <c r="AL3">
+        <v>71</v>
+      </c>
+      <c r="AM3">
+        <v>350.71</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3">
+        <v>640.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>426</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1743.05</v>
+      </c>
+      <c r="F4">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>1265.69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>1582.53</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>712.03</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>1673.09</v>
+      </c>
+      <c r="N4">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>368.95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>1770.42</v>
+      </c>
+      <c r="R4">
+        <v>77</v>
+      </c>
+      <c r="S4">
+        <v>218.54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <v>1710.94</v>
+      </c>
+      <c r="V4">
+        <v>76</v>
+      </c>
+      <c r="W4">
+        <v>1524.98</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4">
+        <v>1584.05</v>
+      </c>
+      <c r="Z4">
+        <v>76</v>
+      </c>
+      <c r="AA4">
+        <v>1198.27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4">
+        <v>1618.1</v>
+      </c>
+      <c r="AD4">
+        <v>76</v>
+      </c>
+      <c r="AE4">
+        <v>1180.1600000000001</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4">
+        <v>1779.96</v>
+      </c>
+      <c r="AH4">
+        <v>77</v>
+      </c>
+      <c r="AI4">
+        <v>204.23</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4">
+        <v>1677.85</v>
+      </c>
+      <c r="AL4">
+        <v>76</v>
+      </c>
+      <c r="AM4">
+        <v>1555.58</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4">
+        <v>1612.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>481.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>549.87</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>569.96</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>234.14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>590</v>
+      </c>
+      <c r="N5">
+        <v>41</v>
+      </c>
+      <c r="O5">
+        <v>512.95000000000005</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>582.09</v>
+      </c>
+      <c r="R5">
+        <v>41</v>
+      </c>
+      <c r="S5">
+        <v>242.47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>564.87</v>
+      </c>
+      <c r="V5">
+        <v>40</v>
+      </c>
+      <c r="W5">
+        <v>261.64999999999998</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5">
+        <v>552.32000000000005</v>
+      </c>
+      <c r="Z5">
+        <v>42</v>
+      </c>
+      <c r="AA5">
+        <v>293.93</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5">
+        <v>607.29999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>41</v>
+      </c>
+      <c r="AE5">
+        <v>212.34</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5">
+        <v>565.19000000000005</v>
+      </c>
+      <c r="AH5">
+        <v>41</v>
+      </c>
+      <c r="AI5">
+        <v>436.4</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK5">
+        <v>584.28</v>
+      </c>
+      <c r="AL5">
+        <v>41</v>
+      </c>
+      <c r="AM5">
+        <v>171.62</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>947.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>1522.4</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>703.52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>1575.73</v>
+      </c>
+      <c r="J6">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <v>387.96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>1577.97</v>
+      </c>
+      <c r="N6">
+        <v>73</v>
+      </c>
+      <c r="O6">
+        <v>358.33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>1671.45</v>
+      </c>
+      <c r="R6">
+        <v>74</v>
+      </c>
+      <c r="S6">
+        <v>187.31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
+        <v>1569.57</v>
+      </c>
+      <c r="V6">
+        <v>74</v>
+      </c>
+      <c r="W6">
+        <v>415.14</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6">
+        <v>1655.19</v>
+      </c>
+      <c r="Z6">
+        <v>73</v>
+      </c>
+      <c r="AA6">
+        <v>672.44</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6">
+        <v>1679.18</v>
+      </c>
+      <c r="AD6">
+        <v>73</v>
+      </c>
+      <c r="AE6">
+        <v>960.73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG6">
+        <v>1653.28</v>
+      </c>
+      <c r="AH6">
+        <v>74</v>
+      </c>
+      <c r="AI6">
+        <v>485.24</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK6">
+        <v>1466.78</v>
+      </c>
+      <c r="AL6">
+        <v>74</v>
+      </c>
+      <c r="AM6">
+        <v>600.16</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO6">
+        <v>1514.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>260.01</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>949.58</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>265.14999999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>823.76</v>
+      </c>
+      <c r="J7">
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <v>166.2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>924.12</v>
+      </c>
+      <c r="N7">
+        <v>79</v>
+      </c>
+      <c r="O7">
+        <v>348.85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>864.5</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>60.19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>930.3</v>
+      </c>
+      <c r="V7">
+        <v>80</v>
+      </c>
+      <c r="W7">
+        <v>32.11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7">
+        <v>860.38</v>
+      </c>
+      <c r="Z7">
+        <v>79</v>
+      </c>
+      <c r="AA7">
+        <v>206.1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7">
+        <v>913.57</v>
+      </c>
+      <c r="AD7">
+        <v>79</v>
+      </c>
+      <c r="AE7">
+        <v>156.74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7">
+        <v>884.11</v>
+      </c>
+      <c r="AH7">
+        <v>80</v>
+      </c>
+      <c r="AI7">
+        <v>135.53</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7">
+        <v>882.39</v>
+      </c>
+      <c r="AL7">
+        <v>79</v>
+      </c>
+      <c r="AM7">
+        <v>188.12</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO7">
+        <v>937.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>583.20000000000005</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>953.79</v>
+      </c>
+      <c r="F8">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>464.05</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>993.93</v>
+      </c>
+      <c r="J8">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>117.9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>971.65</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>86.91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>940.54</v>
+      </c>
+      <c r="R8">
+        <v>73</v>
+      </c>
+      <c r="S8">
+        <v>185.26</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8">
+        <v>876.28</v>
+      </c>
+      <c r="V8">
+        <v>73</v>
+      </c>
+      <c r="W8">
+        <v>194.19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8">
+        <v>946.5</v>
+      </c>
+      <c r="Z8">
+        <v>73</v>
+      </c>
+      <c r="AA8">
+        <v>28.15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8">
+        <v>956.42</v>
+      </c>
+      <c r="AD8">
+        <v>73</v>
+      </c>
+      <c r="AE8">
+        <v>126.29</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG8">
+        <v>908.62</v>
+      </c>
+      <c r="AH8">
+        <v>73</v>
+      </c>
+      <c r="AI8">
+        <v>751.81</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK8">
+        <v>879.15</v>
+      </c>
+      <c r="AL8">
+        <v>73</v>
+      </c>
+      <c r="AM8">
+        <v>466.31</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO8">
+        <v>952.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>363.11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>551.37</v>
+      </c>
+      <c r="F9">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>350.14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>563.54999999999995</v>
+      </c>
+      <c r="J9">
+        <v>77</v>
+      </c>
+      <c r="K9">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>704.74</v>
+      </c>
+      <c r="N9">
+        <v>77</v>
+      </c>
+      <c r="O9">
+        <v>360.34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>585.80999999999995</v>
+      </c>
+      <c r="R9">
+        <v>78</v>
+      </c>
+      <c r="S9">
+        <v>345.32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9">
+        <v>527.95000000000005</v>
+      </c>
+      <c r="V9">
+        <v>78</v>
+      </c>
+      <c r="W9">
+        <v>466.81</v>
+      </c>
+      <c r="X9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9">
+        <v>515.33000000000004</v>
+      </c>
+      <c r="Z9">
+        <v>77</v>
+      </c>
+      <c r="AA9">
+        <v>68.02</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9">
+        <v>653.29999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>77</v>
+      </c>
+      <c r="AE9">
+        <v>339.61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG9">
+        <v>681.02</v>
+      </c>
+      <c r="AH9">
+        <v>77</v>
+      </c>
+      <c r="AI9">
+        <v>142.74</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9">
+        <v>549.19000000000005</v>
+      </c>
+      <c r="AL9">
+        <v>78</v>
+      </c>
+      <c r="AM9">
+        <v>346.9</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO9">
+        <v>492.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>25.01</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>629.57000000000005</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>47.7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>747.12</v>
+      </c>
+      <c r="J10">
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <v>172.65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>681.64</v>
+      </c>
+      <c r="N10">
+        <v>93</v>
+      </c>
+      <c r="O10">
+        <v>144.91</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>657.8</v>
+      </c>
+      <c r="R10">
+        <v>94</v>
+      </c>
+      <c r="S10">
+        <v>42.05</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>722.68</v>
+      </c>
+      <c r="V10">
+        <v>95</v>
+      </c>
+      <c r="W10">
+        <v>225.55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10">
+        <v>557.1</v>
+      </c>
+      <c r="Z10">
+        <v>94</v>
+      </c>
+      <c r="AA10">
+        <v>235.74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10">
+        <v>735.61</v>
+      </c>
+      <c r="AD10">
+        <v>94</v>
+      </c>
+      <c r="AE10">
+        <v>60.05</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG10">
+        <v>566.74</v>
+      </c>
+      <c r="AH10">
+        <v>94</v>
+      </c>
+      <c r="AI10">
+        <v>71.42</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10">
+        <v>715.73</v>
+      </c>
+      <c r="AL10">
+        <v>94</v>
+      </c>
+      <c r="AM10">
+        <v>75.59</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10">
+        <v>695.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>813.87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>1026.3900000000001</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>124.7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>840.11</v>
+      </c>
+      <c r="J11">
+        <v>82</v>
+      </c>
+      <c r="K11">
+        <v>61.72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>918.26</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>368.69</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11">
+        <v>754.98</v>
+      </c>
+      <c r="R11">
+        <v>81</v>
+      </c>
+      <c r="S11">
+        <v>273.22000000000003</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>631.74</v>
+      </c>
+      <c r="V11">
+        <v>81</v>
+      </c>
+      <c r="W11">
+        <v>184.42</v>
+      </c>
+      <c r="X11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11">
+        <v>848.67</v>
+      </c>
+      <c r="Z11">
+        <v>81</v>
+      </c>
+      <c r="AA11">
+        <v>585.32000000000005</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11">
+        <v>816.82</v>
+      </c>
+      <c r="AD11">
+        <v>80</v>
+      </c>
+      <c r="AE11">
+        <v>185.54</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG11">
+        <v>856.81</v>
+      </c>
+      <c r="AH11">
+        <v>80</v>
+      </c>
+      <c r="AI11">
+        <v>127.82</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK11">
+        <v>734.3</v>
+      </c>
+      <c r="AL11">
+        <v>81</v>
+      </c>
+      <c r="AM11">
+        <v>188.93</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11">
+        <v>721.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>506.56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1166.1500000000001</v>
+      </c>
+      <c r="F12">
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <v>426.34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>1010.49</v>
+      </c>
+      <c r="J12">
+        <v>76</v>
+      </c>
+      <c r="K12">
+        <v>242</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>1018.89</v>
+      </c>
+      <c r="N12">
+        <v>75</v>
+      </c>
+      <c r="O12">
+        <v>487.28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>1102.57</v>
+      </c>
+      <c r="R12">
+        <v>75</v>
+      </c>
+      <c r="S12">
+        <v>361.86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12">
+        <v>1085.48</v>
+      </c>
+      <c r="V12">
+        <v>75</v>
+      </c>
+      <c r="W12">
+        <v>437.82</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12">
+        <v>1083.67</v>
+      </c>
+      <c r="Z12">
+        <v>75</v>
+      </c>
+      <c r="AA12">
+        <v>470.92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12">
+        <v>1014.89</v>
+      </c>
+      <c r="AD12">
+        <v>75</v>
+      </c>
+      <c r="AE12">
+        <v>346</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12">
+        <v>1067.6400000000001</v>
+      </c>
+      <c r="AH12">
+        <v>75</v>
+      </c>
+      <c r="AI12">
+        <v>476.33</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12">
+        <v>1077.3499999999999</v>
+      </c>
+      <c r="AL12">
+        <v>75</v>
+      </c>
+      <c r="AM12">
+        <v>869.07</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO12">
+        <v>938.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>520.03</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1139.53</v>
+      </c>
+      <c r="F13">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>195.07</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>1202.56</v>
+      </c>
+      <c r="J13">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>178.04</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>1158.1300000000001</v>
+      </c>
+      <c r="N13">
+        <v>57</v>
+      </c>
+      <c r="O13">
+        <v>132.44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>1234.18</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>119.38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13">
+        <v>1171.4000000000001</v>
+      </c>
+      <c r="V13">
+        <v>57</v>
+      </c>
+      <c r="W13">
+        <v>179.29</v>
+      </c>
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13">
+        <v>1156.57</v>
+      </c>
+      <c r="Z13">
+        <v>57</v>
+      </c>
+      <c r="AA13">
+        <v>310.43</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13">
+        <v>1102.94</v>
+      </c>
+      <c r="AD13">
+        <v>57</v>
+      </c>
+      <c r="AE13">
+        <v>286.17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13">
+        <v>1100.73</v>
+      </c>
+      <c r="AH13">
+        <v>57</v>
+      </c>
+      <c r="AI13">
+        <v>246.13</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK13">
+        <v>1148.32</v>
+      </c>
+      <c r="AL13">
+        <v>57</v>
+      </c>
+      <c r="AM13">
+        <v>230.18</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO13">
+        <v>1163.0899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>2007.23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2971.51</v>
+      </c>
+      <c r="F14">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>453.64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>3090.59</v>
+      </c>
+      <c r="J14">
+        <v>78</v>
+      </c>
+      <c r="K14">
+        <v>974.04</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>3058.71</v>
+      </c>
+      <c r="N14">
+        <v>79</v>
+      </c>
+      <c r="O14">
+        <v>989.42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>2890.69</v>
+      </c>
+      <c r="R14">
+        <v>79</v>
+      </c>
+      <c r="S14">
+        <v>1242.21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14">
+        <v>3131.68</v>
+      </c>
+      <c r="V14">
+        <v>79</v>
+      </c>
+      <c r="W14">
+        <v>2081.58</v>
+      </c>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14">
+        <v>3120.58</v>
+      </c>
+      <c r="Z14">
+        <v>77</v>
+      </c>
+      <c r="AA14">
+        <v>2593.98</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC14">
+        <v>3065</v>
+      </c>
+      <c r="AD14">
+        <v>78</v>
+      </c>
+      <c r="AE14">
+        <v>1090.8800000000001</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14">
+        <v>3092.11</v>
+      </c>
+      <c r="AH14">
+        <v>78</v>
+      </c>
+      <c r="AI14">
+        <v>2679.14</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK14">
+        <v>3001.79</v>
+      </c>
+      <c r="AL14">
+        <v>78</v>
+      </c>
+      <c r="AM14">
+        <v>1974.83</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO14">
+        <v>3108.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>558.58000000000004</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>788.66</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>216.68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>873.91</v>
+      </c>
+      <c r="J15">
+        <v>86</v>
+      </c>
+      <c r="K15">
+        <v>294.2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>835.17</v>
+      </c>
+      <c r="N15">
+        <v>84</v>
+      </c>
+      <c r="O15">
+        <v>262.39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>836.84</v>
+      </c>
+      <c r="R15">
+        <v>84</v>
+      </c>
+      <c r="S15">
+        <v>480.56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15">
+        <v>886.87</v>
+      </c>
+      <c r="V15">
+        <v>83</v>
+      </c>
+      <c r="W15">
+        <v>554.84</v>
+      </c>
+      <c r="X15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15">
+        <v>833.97</v>
+      </c>
+      <c r="Z15">
+        <v>84</v>
+      </c>
+      <c r="AA15">
+        <v>604.72</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15">
+        <v>811.09</v>
+      </c>
+      <c r="AD15">
+        <v>84</v>
+      </c>
+      <c r="AE15">
+        <v>75.97</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15">
+        <v>843.71</v>
+      </c>
+      <c r="AH15">
+        <v>85</v>
+      </c>
+      <c r="AI15">
+        <v>285.72000000000003</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK15">
+        <v>740.7</v>
+      </c>
+      <c r="AL15">
+        <v>84</v>
+      </c>
+      <c r="AM15">
+        <v>452.12</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15">
+        <v>780.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>165.18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>2330.7800000000002</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>2002.45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>2162.4299999999998</v>
+      </c>
+      <c r="J16">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>187.68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>2103.98</v>
+      </c>
+      <c r="N16">
+        <v>85</v>
+      </c>
+      <c r="O16">
+        <v>1385.81</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>2138.27</v>
+      </c>
+      <c r="R16">
+        <v>85</v>
+      </c>
+      <c r="S16">
+        <v>1120.97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16">
+        <v>2359.17</v>
+      </c>
+      <c r="V16">
+        <v>86</v>
+      </c>
+      <c r="W16">
+        <v>728.75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16">
+        <v>2016.93</v>
+      </c>
+      <c r="Z16">
+        <v>86</v>
+      </c>
+      <c r="AA16">
+        <v>2062.3000000000002</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC16">
+        <v>2077.2600000000002</v>
+      </c>
+      <c r="AD16">
+        <v>85</v>
+      </c>
+      <c r="AE16">
+        <v>369.85</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16">
+        <v>2231.09</v>
+      </c>
+      <c r="AH16">
+        <v>84</v>
+      </c>
+      <c r="AI16">
+        <v>1761.06</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16">
+        <v>2078.6</v>
+      </c>
+      <c r="AL16">
+        <v>86</v>
+      </c>
+      <c r="AM16">
+        <v>1468.99</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16">
+        <v>2172.0700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>0.68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>86.58</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>10.32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>86.01</v>
+      </c>
+      <c r="J17">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>8.84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>80.23</v>
+      </c>
+      <c r="N17">
+        <v>47</v>
+      </c>
+      <c r="O17">
+        <v>2.73</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>82.56</v>
+      </c>
+      <c r="R17">
+        <v>47</v>
+      </c>
+      <c r="S17">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>85.2</v>
+      </c>
+      <c r="V17">
+        <v>47</v>
+      </c>
+      <c r="W17">
+        <v>25.6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17">
+        <v>83.93</v>
+      </c>
+      <c r="Z17">
+        <v>47</v>
+      </c>
+      <c r="AA17">
+        <v>4.01</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC17">
+        <v>78.52</v>
+      </c>
+      <c r="AD17">
+        <v>47</v>
+      </c>
+      <c r="AE17">
+        <v>4.63</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17">
+        <v>86.7</v>
+      </c>
+      <c r="AH17">
+        <v>47</v>
+      </c>
+      <c r="AI17">
+        <v>4.75</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK17">
+        <v>80.63</v>
+      </c>
+      <c r="AL17">
+        <v>47</v>
+      </c>
+      <c r="AM17">
+        <v>2.89</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO17">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>342.31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>814.19</v>
+      </c>
+      <c r="F18">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>329.83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>763.04</v>
+      </c>
+      <c r="J18">
+        <v>62</v>
+      </c>
+      <c r="K18">
+        <v>87.02</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>769.07</v>
+      </c>
+      <c r="N18">
+        <v>62</v>
+      </c>
+      <c r="O18">
+        <v>110.76</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>721.55</v>
+      </c>
+      <c r="R18">
+        <v>62</v>
+      </c>
+      <c r="S18">
+        <v>109.85</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18">
+        <v>716.2</v>
+      </c>
+      <c r="V18">
+        <v>62</v>
+      </c>
+      <c r="W18">
+        <v>270.81</v>
+      </c>
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18">
+        <v>778.71</v>
+      </c>
+      <c r="Z18">
+        <v>62</v>
+      </c>
+      <c r="AA18">
+        <v>165.41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18">
+        <v>778.86</v>
+      </c>
+      <c r="AD18">
+        <v>62</v>
+      </c>
+      <c r="AE18">
+        <v>408.62</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG18">
+        <v>672.21</v>
+      </c>
+      <c r="AH18">
+        <v>63</v>
+      </c>
+      <c r="AI18">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK18">
+        <v>635.72</v>
+      </c>
+      <c r="AL18">
+        <v>62</v>
+      </c>
+      <c r="AM18">
+        <v>152.78</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO18">
+        <v>701.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>159.47999999999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>928.08</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>171.88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>1052.7</v>
+      </c>
+      <c r="J19">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>88.33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>1247.1400000000001</v>
+      </c>
+      <c r="N19">
+        <v>84</v>
+      </c>
+      <c r="O19">
+        <v>161.29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>1071.73</v>
+      </c>
+      <c r="R19">
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <v>405.81</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>853.1</v>
+      </c>
+      <c r="V19">
+        <v>84</v>
+      </c>
+      <c r="W19">
+        <v>782.57</v>
+      </c>
+      <c r="X19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19">
+        <v>1011.51</v>
+      </c>
+      <c r="Z19">
+        <v>85</v>
+      </c>
+      <c r="AA19">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19">
+        <v>904.76</v>
+      </c>
+      <c r="AD19">
+        <v>84</v>
+      </c>
+      <c r="AE19">
+        <v>447.48</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG19">
+        <v>1096.55</v>
+      </c>
+      <c r="AH19">
+        <v>85</v>
+      </c>
+      <c r="AI19">
+        <v>269.08</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK19">
+        <v>1109.5999999999999</v>
+      </c>
+      <c r="AL19">
+        <v>86</v>
+      </c>
+      <c r="AM19">
+        <v>84.4</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO19">
+        <v>940.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>144.41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>321.17</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100.9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>318.52</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>35.26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>333.6</v>
+      </c>
+      <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="O20">
+        <v>292.38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>324.3</v>
+      </c>
+      <c r="R20">
+        <v>50</v>
+      </c>
+      <c r="S20">
+        <v>165.9</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20">
+        <v>300.93</v>
+      </c>
+      <c r="V20">
+        <v>50</v>
+      </c>
+      <c r="W20">
+        <v>192.33</v>
+      </c>
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20">
+        <v>315.82</v>
+      </c>
+      <c r="Z20">
+        <v>51</v>
+      </c>
+      <c r="AA20">
+        <v>6.27</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20">
+        <v>283.68</v>
+      </c>
+      <c r="AD20">
+        <v>50</v>
+      </c>
+      <c r="AE20">
+        <v>52.03</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG20">
+        <v>355.21</v>
+      </c>
+      <c r="AH20">
+        <v>50</v>
+      </c>
+      <c r="AI20">
+        <v>257.44</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK20">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="AL20">
+        <v>50</v>
+      </c>
+      <c r="AM20">
+        <v>230.89</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO20">
+        <v>290.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>91.44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>861.5</v>
+      </c>
+      <c r="F21">
+        <v>73</v>
+      </c>
+      <c r="G21">
+        <v>80.08</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>679.56</v>
+      </c>
+      <c r="J21">
+        <v>74</v>
+      </c>
+      <c r="K21">
+        <v>34.49</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>669.52</v>
+      </c>
+      <c r="N21">
+        <v>74</v>
+      </c>
+      <c r="O21">
+        <v>277.62</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21">
+        <v>807.51</v>
+      </c>
+      <c r="R21">
+        <v>74</v>
+      </c>
+      <c r="S21">
+        <v>60.58</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21">
+        <v>758.3</v>
+      </c>
+      <c r="V21">
+        <v>73</v>
+      </c>
+      <c r="W21">
+        <v>802.24</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21">
+        <v>868.17</v>
+      </c>
+      <c r="Z21">
+        <v>74</v>
+      </c>
+      <c r="AA21">
+        <v>43.04</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21">
+        <v>797.15</v>
+      </c>
+      <c r="AD21">
+        <v>74</v>
+      </c>
+      <c r="AE21">
+        <v>256.43</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG21">
+        <v>690.34</v>
+      </c>
+      <c r="AH21">
+        <v>74</v>
+      </c>
+      <c r="AI21">
+        <v>144.4</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK21">
+        <v>736.64</v>
+      </c>
+      <c r="AL21">
+        <v>74</v>
+      </c>
+      <c r="AM21">
+        <v>84.29</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO21">
+        <v>673.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>12.57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>792.23</v>
+      </c>
+      <c r="F22">
+        <v>68</v>
+      </c>
+      <c r="G22">
+        <v>190.98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>767.11</v>
+      </c>
+      <c r="J22">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>27.43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>758.13</v>
+      </c>
+      <c r="N22">
+        <v>68</v>
+      </c>
+      <c r="O22">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22">
+        <v>728.53</v>
+      </c>
+      <c r="R22">
+        <v>68</v>
+      </c>
+      <c r="S22">
+        <v>138.49</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22">
+        <v>769.61</v>
+      </c>
+      <c r="V22">
+        <v>68</v>
+      </c>
+      <c r="W22">
+        <v>150.81</v>
+      </c>
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22">
+        <v>736.2</v>
+      </c>
+      <c r="Z22">
+        <v>68</v>
+      </c>
+      <c r="AA22">
+        <v>244.44</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC22">
+        <v>735.36</v>
+      </c>
+      <c r="AD22">
+        <v>68</v>
+      </c>
+      <c r="AE22">
+        <v>11.66</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG22">
+        <v>754.19</v>
+      </c>
+      <c r="AH22">
+        <v>68</v>
+      </c>
+      <c r="AI22">
+        <v>277.81</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK22">
+        <v>749.16</v>
+      </c>
+      <c r="AL22">
+        <v>68</v>
+      </c>
+      <c r="AM22">
+        <v>27.77</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO22">
+        <v>760.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B25F1C-685F-4A86-827F-DC830B6E815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15D012-707E-4C26-B0A5-EAD0C4CFAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="50">
   <si>
     <t>bath.txt</t>
   </si>
@@ -158,9 +158,6 @@
     <t>VNS+GA params 2.2. 19:45:42 10 runs 2000it</t>
   </si>
   <si>
-    <t>val SR%</t>
-  </si>
-  <si>
     <t>belgrade.txt</t>
   </si>
   <si>
@@ -182,10 +179,16 @@
     <t>BS4</t>
   </si>
   <si>
+    <t>BS1</t>
+  </si>
+  <si>
     <t>BS2</t>
   </si>
   <si>
-    <t>BSS4</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +566,9 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -580,9 +579,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -597,9 +595,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -625,29 +622,26 @@
         <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -675,33 +669,29 @@
         <f>_xlfn.STDEV.P('k1'!B3,'k1'!F3,'k1'!J3,'k1'!N3,'k1'!R3,'k1'!V3,'k1'!Z3,'k1'!AD3,'k1'!AH3,'k1'!AL3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <f>COUNTIF('k1'!B3:'k1'!F3:'k1'!J3:'k1'!N3:'k1'!R3:'k1'!V3:'k1'!Z3:'k1'!AD3:'k1'!AH3:'k1'!AL3,"="&amp;E4)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
         <f>AVERAGE('k1'!C3,'k1'!G3,'k1'!K3,'k1'!O3,'k1'!S3,'k1'!W3,'k1'!AA3,'k1'!AE3,'k1'!AI3,'k1'!AM3)</f>
         <v>60.934000000000005</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <f>AVERAGE('k1'!E3,'k1'!I3,'k1'!M3,'k1'!Q3,'k1'!U3,'k1'!Y3,'k1'!AC3,'k1'!AG3,'k1'!AK3,'k1'!AO3)</f>
         <v>445.51900000000006</v>
       </c>
-      <c r="L4" t="s">
-        <v>46</v>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>44.6</v>
       </c>
       <c r="N4">
-        <v>44.6</v>
-      </c>
-      <c r="O4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -729,33 +719,29 @@
         <f>_xlfn.STDEV.P('k1'!B4,'k1'!F4,'k1'!J4,'k1'!N4,'k1'!R4,'k1'!V4,'k1'!Z4,'k1'!AD4,'k1'!AH4,'k1'!AL4)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <f>COUNTIF('k1'!B4:'k1'!F4:'k1'!J4:'k1'!N4:'k1'!R4:'k1'!V4:'k1'!Z4:'k1'!AD4:'k1'!AH4:'k1'!AL4,"="&amp;E5)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
         <f>AVERAGE('k1'!C4,'k1'!G4,'k1'!K4,'k1'!O4,'k1'!S4,'k1'!W4,'k1'!AA4,'k1'!AE4,'k1'!AI4,'k1'!AM4)</f>
         <v>66.681000000000012</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <f>AVERAGE('k1'!E4,'k1'!I4,'k1'!M4,'k1'!Q4,'k1'!U4,'k1'!Y4,'k1'!AC4,'k1'!AG4,'k1'!AK4,'k1'!AO4)</f>
         <v>838.32500000000005</v>
       </c>
-      <c r="L5" t="s">
-        <v>46</v>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>48</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>50.2</v>
       </c>
       <c r="N5">
-        <v>50.2</v>
-      </c>
-      <c r="O5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -783,33 +769,29 @@
         <f>_xlfn.STDEV.P('k1'!B5,'k1'!F5,'k1'!J5,'k1'!N5,'k1'!R5,'k1'!V5,'k1'!Z5,'k1'!AD5,'k1'!AH5,'k1'!AL5)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <f>COUNTIF('k1'!B5:'k1'!F5:'k1'!J5:'k1'!N5:'k1'!R5:'k1'!V5:'k1'!Z5:'k1'!AD5:'k1'!AH5:'k1'!AL5,"="&amp;E6)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <f>AVERAGE('k1'!C5,'k1'!G5,'k1'!K5,'k1'!O5,'k1'!S5,'k1'!W5,'k1'!AA5,'k1'!AE5,'k1'!AI5,'k1'!AM5)</f>
         <v>89.171999999999997</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <f>AVERAGE('k1'!E5,'k1'!I5,'k1'!M5,'k1'!Q5,'k1'!U5,'k1'!Y5,'k1'!AC5,'k1'!AG5,'k1'!AK5,'k1'!AO5)</f>
         <v>463.43499999999995</v>
       </c>
-      <c r="L6" t="s">
-        <v>46</v>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="N6">
-        <v>28.2</v>
-      </c>
-      <c r="O6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -837,33 +819,29 @@
         <f>_xlfn.STDEV.P('k1'!B6,'k1'!F6,'k1'!J6,'k1'!N6,'k1'!R6,'k1'!V6,'k1'!Z6,'k1'!AD6,'k1'!AH6,'k1'!AL6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <f>COUNTIF('k1'!B6:'k1'!F6:'k1'!J6:'k1'!N6:'k1'!R6:'k1'!V6:'k1'!Z6:'k1'!AD6:'k1'!AH6:'k1'!AL6,"="&amp;E7)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
         <f>AVERAGE('k1'!C6,'k1'!G6,'k1'!K6,'k1'!O6,'k1'!S6,'k1'!W6,'k1'!AA6,'k1'!AE6,'k1'!AI6,'k1'!AM6)</f>
         <v>129.05799999999999</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <f>AVERAGE('k1'!E6,'k1'!I6,'k1'!M6,'k1'!Q6,'k1'!U6,'k1'!Y6,'k1'!AC6,'k1'!AG6,'k1'!AK6,'k1'!AO6)</f>
         <v>791.30100000000016</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>47</v>
       </c>
+      <c r="L7">
+        <v>46</v>
+      </c>
       <c r="M7">
-        <v>46</v>
+        <v>47.4</v>
       </c>
       <c r="N7">
-        <v>47.4</v>
-      </c>
-      <c r="O7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -891,33 +869,29 @@
         <f>_xlfn.STDEV.P('k1'!B7,'k1'!F7,'k1'!J7,'k1'!N7,'k1'!R7,'k1'!V7,'k1'!Z7,'k1'!AD7,'k1'!AH7,'k1'!AL7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <f>COUNTIF('k1'!B7:'k1'!F7:'k1'!J7:'k1'!N7:'k1'!R7:'k1'!V7:'k1'!Z7:'k1'!AD7:'k1'!AH7:'k1'!AL7,"="&amp;E8)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
         <f>AVERAGE('k1'!C7,'k1'!G7,'k1'!K7,'k1'!O7,'k1'!S7,'k1'!W7,'k1'!AA7,'k1'!AE7,'k1'!AI7,'k1'!AM7)</f>
         <v>41.943999999999996</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <f>AVERAGE('k1'!E7,'k1'!I7,'k1'!M7,'k1'!Q7,'k1'!U7,'k1'!Y7,'k1'!AC7,'k1'!AG7,'k1'!AK7,'k1'!AO7)</f>
         <v>419.52499999999998</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8">
         <v>48</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>50.6</v>
       </c>
       <c r="N8">
-        <v>50.6</v>
-      </c>
-      <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -945,21 +919,29 @@
         <f>_xlfn.STDEV.P('k1'!B8,'k1'!F8,'k1'!J8,'k1'!N8,'k1'!R8,'k1'!V8,'k1'!Z8,'k1'!AD8,'k1'!AH8,'k1'!AL8)</f>
         <v>0.4</v>
       </c>
-      <c r="I9" s="5">
-        <f>COUNTIF('k1'!B8:'k1'!F8:'k1'!J8:'k1'!N8:'k1'!R8:'k1'!V8:'k1'!Z8:'k1'!AD8:'k1'!AH8:'k1'!AL8,"="&amp;E9)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J9">
+      <c r="I9">
         <f>AVERAGE('k1'!C8,'k1'!G8,'k1'!K8,'k1'!O8,'k1'!S8,'k1'!W8,'k1'!AA8,'k1'!AE8,'k1'!AI8,'k1'!AM8)</f>
         <v>144.58499999999998</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <f>AVERAGE('k1'!E8,'k1'!I8,'k1'!M8,'k1'!Q8,'k1'!U8,'k1'!Y8,'k1'!AC8,'k1'!AG8,'k1'!AK8,'k1'!AO8)</f>
         <v>438.39000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9">
+        <v>170</v>
+      </c>
+      <c r="M9">
+        <v>172.6</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -987,21 +969,29 @@
         <f>_xlfn.STDEV.P('k1'!B9,'k1'!F9,'k1'!J9,'k1'!N9,'k1'!R9,'k1'!V9,'k1'!Z9,'k1'!AD9,'k1'!AH9,'k1'!AL9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="5">
-        <f>COUNTIF('k1'!B9:'k1'!F9:'k1'!J9:'k1'!N9:'k1'!R9:'k1'!V9:'k1'!Z9:'k1'!AD9:'k1'!AH9:'k1'!AL9,"="&amp;E10)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
         <f>AVERAGE('k1'!C9,'k1'!G9,'k1'!K9,'k1'!O9,'k1'!S9,'k1'!W9,'k1'!AA9,'k1'!AE9,'k1'!AI9,'k1'!AM9)</f>
         <v>52.442999999999998</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f>AVERAGE('k1'!E9,'k1'!I9,'k1'!M9,'k1'!Q9,'k1'!U9,'k1'!Y9,'k1'!AC9,'k1'!AG9,'k1'!AK9,'k1'!AO9)</f>
         <v>514.15899999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>181</v>
+      </c>
+      <c r="M10">
+        <v>182.3</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -1029,21 +1019,29 @@
         <f>_xlfn.STDEV.P('k1'!B10,'k1'!F10,'k1'!J10,'k1'!N10,'k1'!R10,'k1'!V10,'k1'!Z10,'k1'!AD10,'k1'!AH10,'k1'!AL10)</f>
         <v>0.4</v>
       </c>
-      <c r="I11" s="5">
-        <f>COUNTIF('k1'!B10:'k1'!F10:'k1'!J10:'k1'!N10:'k1'!R10:'k1'!V10:'k1'!Z10:'k1'!AD10:'k1'!AH10:'k1'!AL10,"="&amp;E11)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
         <f>AVERAGE('k1'!C10,'k1'!G10,'k1'!K10,'k1'!O10,'k1'!S10,'k1'!W10,'k1'!AA10,'k1'!AE10,'k1'!AI10,'k1'!AM10)</f>
         <v>90.929000000000016</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <f>AVERAGE('k1'!E10,'k1'!I10,'k1'!M10,'k1'!Q10,'k1'!U10,'k1'!Y10,'k1'!AC10,'k1'!AG10,'k1'!AK10,'k1'!AO10)</f>
         <v>416.00900000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>197</v>
+      </c>
+      <c r="M11">
+        <v>199.8</v>
+      </c>
+      <c r="N11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1071,21 +1069,29 @@
         <f>_xlfn.STDEV.P('k1'!B11,'k1'!F11,'k1'!J11,'k1'!N11,'k1'!R11,'k1'!V11,'k1'!Z11,'k1'!AD11,'k1'!AH11,'k1'!AL11)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="5">
-        <f>COUNTIF('k1'!B11:'k1'!F11:'k1'!J11:'k1'!N11:'k1'!R11:'k1'!V11:'k1'!Z11:'k1'!AD11:'k1'!AH11:'k1'!AL11,"="&amp;E12)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
         <f>AVERAGE('k1'!C11,'k1'!G11,'k1'!K11,'k1'!O11,'k1'!S11,'k1'!W11,'k1'!AA11,'k1'!AE11,'k1'!AI11,'k1'!AM11)</f>
         <v>132.66999999999999</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <f>AVERAGE('k1'!E11,'k1'!I11,'k1'!M11,'k1'!Q11,'k1'!U11,'k1'!Y11,'k1'!AC11,'k1'!AG11,'k1'!AK11,'k1'!AO11)</f>
         <v>685.61099999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <v>186</v>
+      </c>
+      <c r="M12">
+        <v>187.1</v>
+      </c>
+      <c r="N12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1113,21 +1119,29 @@
         <f>_xlfn.STDEV.P('k1'!B12,'k1'!F12,'k1'!J12,'k1'!N12,'k1'!R12,'k1'!V12,'k1'!Z12,'k1'!AD12,'k1'!AH12,'k1'!AL12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="5">
-        <f>COUNTIF('k1'!B12:'k1'!F12:'k1'!J12:'k1'!N12:'k1'!R12:'k1'!V12:'k1'!Z12:'k1'!AD12:'k1'!AH12:'k1'!AL12,"="&amp;E13)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
         <f>AVERAGE('k1'!C12,'k1'!G12,'k1'!K12,'k1'!O12,'k1'!S12,'k1'!W12,'k1'!AA12,'k1'!AE12,'k1'!AI12,'k1'!AM12)</f>
         <v>233.01999999999998</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <f>AVERAGE('k1'!E12,'k1'!I12,'k1'!M12,'k1'!Q12,'k1'!U12,'k1'!Y12,'k1'!AC12,'k1'!AG12,'k1'!AK12,'k1'!AO12)</f>
         <v>1010.3639999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>175</v>
+      </c>
+      <c r="M13">
+        <v>177.7</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1155,21 +1169,29 @@
         <f>_xlfn.STDEV.P('k1'!B13,'k1'!F13,'k1'!J13,'k1'!N13,'k1'!R13,'k1'!V13,'k1'!Z13,'k1'!AD13,'k1'!AH13,'k1'!AL13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="5">
-        <f>COUNTIF('k1'!B13:'k1'!F13:'k1'!J13:'k1'!N13:'k1'!R13:'k1'!V13:'k1'!Z13:'k1'!AD13:'k1'!AH13:'k1'!AL13,"="&amp;E14)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
         <f>AVERAGE('k1'!C13,'k1'!G13,'k1'!K13,'k1'!O13,'k1'!S13,'k1'!W13,'k1'!AA13,'k1'!AE13,'k1'!AI13,'k1'!AM13)</f>
         <v>192.53700000000003</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <f>AVERAGE('k1'!E13,'k1'!I13,'k1'!M13,'k1'!Q13,'k1'!U13,'k1'!Y13,'k1'!AC13,'k1'!AG13,'k1'!AK13,'k1'!AO13)</f>
         <v>700.5200000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <v>132</v>
+      </c>
+      <c r="M14">
+        <v>133</v>
+      </c>
+      <c r="N14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1197,21 +1219,29 @@
         <f>_xlfn.STDEV.P('k1'!B14,'k1'!F14,'k1'!J14,'k1'!N14,'k1'!R14,'k1'!V14,'k1'!Z14,'k1'!AD14,'k1'!AH14,'k1'!AL14)</f>
         <v>0.6</v>
       </c>
-      <c r="I15" s="5">
-        <f>COUNTIF('k1'!B14:'k1'!F14:'k1'!J14:'k1'!N14:'k1'!R14:'k1'!V14:'k1'!Z14:'k1'!AD14:'k1'!AH14:'k1'!AL14,"="&amp;E15)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
         <f>AVERAGE('k1'!C14,'k1'!G14,'k1'!K14,'k1'!O14,'k1'!S14,'k1'!W14,'k1'!AA14,'k1'!AE14,'k1'!AI14,'k1'!AM14)</f>
         <v>844.07799999999986</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <f>AVERAGE('k1'!E14,'k1'!I14,'k1'!M14,'k1'!Q14,'k1'!U14,'k1'!Y14,'k1'!AC14,'k1'!AG14,'k1'!AK14,'k1'!AO14)</f>
         <v>2071.7289999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15">
+        <v>177</v>
+      </c>
+      <c r="M15">
+        <v>178.5</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1239,21 +1269,29 @@
         <f>_xlfn.STDEV.P('k1'!B15,'k1'!F15,'k1'!J15,'k1'!N15,'k1'!R15,'k1'!V15,'k1'!Z15,'k1'!AD15,'k1'!AH15,'k1'!AL15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="5">
-        <f>COUNTIF('k1'!B15:'k1'!F15:'k1'!J15:'k1'!N15:'k1'!R15:'k1'!V15:'k1'!Z15:'k1'!AD15:'k1'!AH15:'k1'!AL15,"="&amp;E16)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
         <f>AVERAGE('k1'!C15,'k1'!G15,'k1'!K15,'k1'!O15,'k1'!S15,'k1'!W15,'k1'!AA15,'k1'!AE15,'k1'!AI15,'k1'!AM15)</f>
         <v>88.576999999999998</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <f>AVERAGE('k1'!E15,'k1'!I15,'k1'!M15,'k1'!Q15,'k1'!U15,'k1'!Y15,'k1'!AC15,'k1'!AG15,'k1'!AK15,'k1'!AO15)</f>
         <v>611.70399999999995</v>
       </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16">
+        <v>169</v>
+      </c>
+      <c r="M16">
+        <v>171.5</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1281,21 +1319,29 @@
         <f>_xlfn.STDEV.P('k1'!B16,'k1'!F16,'k1'!J16,'k1'!N16,'k1'!R16,'k1'!V16,'k1'!Z16,'k1'!AD16,'k1'!AH16,'k1'!AL16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="5">
-        <f>COUNTIF('k1'!B16:'k1'!F16:'k1'!J16:'k1'!N16:'k1'!R16:'k1'!V16:'k1'!Z16:'k1'!AD16:'k1'!AH16:'k1'!AL16,"="&amp;E17)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
         <f>AVERAGE('k1'!C16,'k1'!G16,'k1'!K16,'k1'!O16,'k1'!S16,'k1'!W16,'k1'!AA16,'k1'!AE16,'k1'!AI16,'k1'!AM16)</f>
         <v>85.131999999999991</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <f>AVERAGE('k1'!E16,'k1'!I16,'k1'!M16,'k1'!Q16,'k1'!U16,'k1'!Y16,'k1'!AC16,'k1'!AG16,'k1'!AK16,'k1'!AO16)</f>
         <v>1210.9689999999998</v>
       </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>193</v>
+      </c>
+      <c r="M17">
+        <v>195.2</v>
+      </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1323,21 +1369,29 @@
         <f>_xlfn.STDEV.P('k1'!B17,'k1'!F17,'k1'!J17,'k1'!N17,'k1'!R17,'k1'!V17,'k1'!Z17,'k1'!AD17,'k1'!AH17,'k1'!AL17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="5">
-        <f>COUNTIF('k1'!B17:'k1'!F17:'k1'!J17:'k1'!N17:'k1'!R17:'k1'!V17:'k1'!Z17:'k1'!AD17:'k1'!AH17:'k1'!AL17,"="&amp;E18)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
         <f>AVERAGE('k1'!C17,'k1'!G17,'k1'!K17,'k1'!O17,'k1'!S17,'k1'!W17,'k1'!AA17,'k1'!AE17,'k1'!AI17,'k1'!AM17)</f>
         <v>18.758000000000003</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <f>AVERAGE('k1'!E17,'k1'!I17,'k1'!M17,'k1'!Q17,'k1'!U17,'k1'!Y17,'k1'!AC17,'k1'!AG17,'k1'!AK17,'k1'!AO17)</f>
         <v>63.146000000000001</v>
       </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="M18">
+        <v>100.8</v>
+      </c>
+      <c r="N18">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1365,21 +1419,29 @@
         <f>_xlfn.STDEV.P('k1'!B18,'k1'!F18,'k1'!J18,'k1'!N18,'k1'!R18,'k1'!V18,'k1'!Z18,'k1'!AD18,'k1'!AH18,'k1'!AL18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="5">
-        <f>COUNTIF('k1'!B18:'k1'!F18:'k1'!J18:'k1'!N18:'k1'!R18:'k1'!V18:'k1'!Z18:'k1'!AD18:'k1'!AH18:'k1'!AL18,"="&amp;E19)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
         <f>AVERAGE('k1'!C18,'k1'!G18,'k1'!K18,'k1'!O18,'k1'!S18,'k1'!W18,'k1'!AA18,'k1'!AE18,'k1'!AI18,'k1'!AM18)</f>
         <v>55.003</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <f>AVERAGE('k1'!E18,'k1'!I18,'k1'!M18,'k1'!Q18,'k1'!U18,'k1'!Y18,'k1'!AC18,'k1'!AG18,'k1'!AK18,'k1'!AO18)</f>
         <v>707.19200000000001</v>
       </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19">
+        <v>135</v>
+      </c>
+      <c r="M19">
+        <v>137</v>
+      </c>
+      <c r="N19">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1407,21 +1469,29 @@
         <f>_xlfn.STDEV.P('k1'!B19,'k1'!F19,'k1'!J19,'k1'!N19,'k1'!R19,'k1'!V19,'k1'!Z19,'k1'!AD19,'k1'!AH19,'k1'!AL19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="5">
-        <f>COUNTIF('k1'!B19:'k1'!F19:'k1'!J19:'k1'!N19:'k1'!R19:'k1'!V19:'k1'!Z19:'k1'!AD19:'k1'!AH19:'k1'!AL19,"="&amp;E20)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
         <f>AVERAGE('k1'!C19,'k1'!G19,'k1'!K19,'k1'!O19,'k1'!S19,'k1'!W19,'k1'!AA19,'k1'!AE19,'k1'!AI19,'k1'!AM19)</f>
         <v>78.209999999999994</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <f>AVERAGE('k1'!E19,'k1'!I19,'k1'!M19,'k1'!Q19,'k1'!U19,'k1'!Y19,'k1'!AC19,'k1'!AG19,'k1'!AK19,'k1'!AO19)</f>
         <v>878.24000000000012</v>
       </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>180</v>
+      </c>
+      <c r="M20">
+        <v>182.2</v>
+      </c>
+      <c r="N20">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1449,21 +1519,29 @@
         <f>_xlfn.STDEV.P('k1'!B20,'k1'!F20,'k1'!J20,'k1'!N20,'k1'!R20,'k1'!V20,'k1'!Z20,'k1'!AD20,'k1'!AH20,'k1'!AL20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="5">
-        <f>COUNTIF('k1'!B20:'k1'!F20:'k1'!J20:'k1'!N20:'k1'!R20:'k1'!V20:'k1'!Z20:'k1'!AD20:'k1'!AH20:'k1'!AL20,"="&amp;E21)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="I21">
         <f>AVERAGE('k1'!C20,'k1'!G20,'k1'!K20,'k1'!O20,'k1'!S20,'k1'!W20,'k1'!AA20,'k1'!AE20,'k1'!AI20,'k1'!AM20)</f>
         <v>7.7779999999999987</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <f>AVERAGE('k1'!E20,'k1'!I20,'k1'!M20,'k1'!Q20,'k1'!U20,'k1'!Y20,'k1'!AC20,'k1'!AG20,'k1'!AK20,'k1'!AO20)</f>
         <v>277.51799999999997</v>
       </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>113.2</v>
+      </c>
+      <c r="N21">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -1491,21 +1569,29 @@
         <f>_xlfn.STDEV.P('k1'!B21,'k1'!F21,'k1'!J21,'k1'!N21,'k1'!R21,'k1'!V21,'k1'!Z21,'k1'!AD21,'k1'!AH21,'k1'!AL21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="5">
-        <f>COUNTIF('k1'!B21:'k1'!F21:'k1'!J21:'k1'!N21:'k1'!R21:'k1'!V21:'k1'!Z21:'k1'!AD21:'k1'!AH21:'k1'!AL21,"="&amp;E22)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="I22">
         <f>AVERAGE('k1'!C21,'k1'!G21,'k1'!K21,'k1'!O21,'k1'!S21,'k1'!W21,'k1'!AA21,'k1'!AE21,'k1'!AI21,'k1'!AM21)</f>
         <v>44.394999999999996</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <f>AVERAGE('k1'!E21,'k1'!I21,'k1'!M21,'k1'!Q21,'k1'!U21,'k1'!Y21,'k1'!AC21,'k1'!AG21,'k1'!AK21,'k1'!AO21)</f>
         <v>688.55</v>
       </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22">
+        <v>162</v>
+      </c>
+      <c r="M22">
+        <v>163.6</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1533,22 +1619,30 @@
         <f>_xlfn.STDEV.P('k1'!B22,'k1'!F22,'k1'!J22,'k1'!N22,'k1'!R22,'k1'!V22,'k1'!Z22,'k1'!AD22,'k1'!AH22,'k1'!AL22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="5">
-        <f>COUNTIF('k1'!B22:'k1'!F22:'k1'!J22:'k1'!N22:'k1'!R22:'k1'!V22:'k1'!Z22:'k1'!AD22:'k1'!AH22:'k1'!AL22,"="&amp;E23)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
         <f>AVERAGE('k1'!C22,'k1'!G22,'k1'!K22,'k1'!O22,'k1'!S22,'k1'!W22,'k1'!AA22,'k1'!AE22,'k1'!AI22,'k1'!AM22)</f>
         <v>28.401</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <f>AVERAGE('k1'!E22,'k1'!I22,'k1'!M22,'k1'!Q22,'k1'!U22,'k1'!Y22,'k1'!AC22,'k1'!AG22,'k1'!AK22,'k1'!AO22)</f>
         <v>324.55899999999997</v>
       </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23">
+        <v>144</v>
+      </c>
+      <c r="M23">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <f>MIN('k1'!B23,'k1'!F23,'k1'!J23,'k1'!N23,'k1'!R23,'k1'!V23,'k1'!Z23,'k1'!AD23,'k1'!AH23,'k1'!AL23)</f>
@@ -1566,17 +1660,25 @@
         <f>_xlfn.STDEV.P('k1'!B23,'k1'!F23,'k1'!J23,'k1'!N23,'k1'!R23,'k1'!V23,'k1'!Z23,'k1'!AD23,'k1'!AH23,'k1'!AL23)</f>
         <v>2.0548046676563252</v>
       </c>
-      <c r="I24" s="5">
-        <f>COUNTIF('k1'!B23:'k1'!F23:'k1'!J23:'k1'!N23:'k1'!R23:'k1'!V23:'k1'!Z23:'k1'!AD23:'k1'!AH23:'k1'!AL23,"="&amp;E24)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
         <f>AVERAGE('k1'!C23,'k1'!G23,'k1'!K23,'k1'!O23,'k1'!S23,'k1'!W23,'k1'!AA23,'k1'!AE23,'k1'!AI23,'k1'!AM23)</f>
         <v>2883.8166666666666</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <f>AVERAGE('k1'!E23,'k1'!I23,'k1'!M23,'k1'!Q23,'k1'!U23,'k1'!Y23,'k1'!AC23,'k1'!AG23,'k1'!AK23,'k1'!AO23)</f>
         <v>3610.7644444444445</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24">
+        <v>99</v>
+      </c>
+      <c r="M24">
+        <v>100.3</v>
+      </c>
+      <c r="N24">
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1585,7 +1687,7 @@
       </c>
       <c r="E25">
         <f>MIN('k1'!B24,'k1'!F24,'k1'!J24,'k1'!N24,'k1'!R24,'k1'!V24,'k1'!Z24,'k1'!AD24,'k1'!AH24,'k1'!AL24)</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -1593,23 +1695,31 @@
       </c>
       <c r="G25">
         <f>AVERAGE('k1'!B24,'k1'!F24,'k1'!J24,'k1'!N24,'k1'!R24,'k1'!V24,'k1'!Z24,'k1'!AD24,'k1'!AH24,'k1'!AL24)</f>
-        <v>102.22222222222223</v>
+        <v>104.66666666666667</v>
       </c>
       <c r="H25">
         <f>_xlfn.STDEV.P('k1'!B24,'k1'!F24,'k1'!J24,'k1'!N24,'k1'!R24,'k1'!V24,'k1'!Z24,'k1'!AD24,'k1'!AH24,'k1'!AL24)</f>
-        <v>1.3146843962443591</v>
-      </c>
-      <c r="I25" s="5">
-        <f>COUNTIF('k1'!B24:'k1'!F24:'k1'!J24:'k1'!N24:'k1'!R24:'k1'!V24:'k1'!Z24:'k1'!AD24:'k1'!AH24:'k1'!AL24,"="&amp;E25)/10</f>
-        <v>0.1</v>
+        <v>1.6329931618554518</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE('k1'!C24,'k1'!G24,'k1'!K24,'k1'!O24,'k1'!S24,'k1'!W24,'k1'!AA24,'k1'!AE24,'k1'!AI24,'k1'!AM24)</f>
+        <v>3258.9500000000003</v>
       </c>
       <c r="J25">
-        <f>AVERAGE('k1'!C24,'k1'!G24,'k1'!K24,'k1'!O24,'k1'!S24,'k1'!W24,'k1'!AA24,'k1'!AE24,'k1'!AI24,'k1'!AM24)</f>
-        <v>2307.4644444444443</v>
-      </c>
-      <c r="K25">
         <f>AVERAGE('k1'!E24,'k1'!I24,'k1'!M24,'k1'!Q24,'k1'!U24,'k1'!Y24,'k1'!AC24,'k1'!AG24,'k1'!AK24,'k1'!AO24)</f>
-        <v>3602.3222222222225</v>
+        <v>3609.4533333333334</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25">
+        <v>146</v>
+      </c>
+      <c r="M25">
+        <v>147</v>
+      </c>
+      <c r="N25">
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1618,7 +1728,7 @@
       </c>
       <c r="E26">
         <f>MIN('k1'!B25,'k1'!F25,'k1'!J25,'k1'!N25,'k1'!R25,'k1'!V25,'k1'!Z25,'k1'!AD25,'k1'!AH25,'k1'!AL25)</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -1626,23 +1736,31 @@
       </c>
       <c r="G26">
         <f>AVERAGE('k1'!B25,'k1'!F25,'k1'!J25,'k1'!N25,'k1'!R25,'k1'!V25,'k1'!Z25,'k1'!AD25,'k1'!AH25,'k1'!AL25)</f>
-        <v>104.66666666666667</v>
+        <v>101.11111111111111</v>
       </c>
       <c r="H26">
         <f>_xlfn.STDEV.P('k1'!B25,'k1'!F25,'k1'!J25,'k1'!N25,'k1'!R25,'k1'!V25,'k1'!Z25,'k1'!AD25,'k1'!AH25,'k1'!AL25)</f>
-        <v>1.6329931618554518</v>
-      </c>
-      <c r="I26" s="5">
-        <f>COUNTIF('k1'!B25:'k1'!F25:'k1'!J25:'k1'!N25:'k1'!R25:'k1'!V25:'k1'!Z25:'k1'!AD25:'k1'!AH25:'k1'!AL25,"="&amp;E26)/10</f>
-        <v>0.1</v>
+        <v>1.9116278371205837</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE('k1'!C25,'k1'!G25,'k1'!K25,'k1'!O25,'k1'!S25,'k1'!W25,'k1'!AA25,'k1'!AE25,'k1'!AI25,'k1'!AM25)</f>
+        <v>385.2211111111111</v>
       </c>
       <c r="J26">
-        <f>AVERAGE('k1'!C25,'k1'!G25,'k1'!K25,'k1'!O25,'k1'!S25,'k1'!W25,'k1'!AA25,'k1'!AE25,'k1'!AI25,'k1'!AM25)</f>
-        <v>3258.9500000000003</v>
-      </c>
-      <c r="K26">
         <f>AVERAGE('k1'!E25,'k1'!I25,'k1'!M25,'k1'!Q25,'k1'!U25,'k1'!Y25,'k1'!AC25,'k1'!AG25,'k1'!AK25,'k1'!AO25)</f>
-        <v>3609.4533333333334</v>
+        <v>3685.5722222222216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26">
+        <v>71</v>
+      </c>
+      <c r="M26">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1651,7 +1769,7 @@
       </c>
       <c r="E27">
         <f>MIN('k1'!B26,'k1'!F26,'k1'!J26,'k1'!N26,'k1'!R26,'k1'!V26,'k1'!Z26,'k1'!AD26,'k1'!AH26,'k1'!AL26)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -1659,32 +1777,40 @@
       </c>
       <c r="G27">
         <f>AVERAGE('k1'!B26,'k1'!F26,'k1'!J26,'k1'!N26,'k1'!R26,'k1'!V26,'k1'!Z26,'k1'!AD26,'k1'!AH26,'k1'!AL26)</f>
-        <v>101.11111111111111</v>
+        <v>99.666666666666671</v>
       </c>
       <c r="H27">
         <f>_xlfn.STDEV.P('k1'!B26,'k1'!F26,'k1'!J26,'k1'!N26,'k1'!R26,'k1'!V26,'k1'!Z26,'k1'!AD26,'k1'!AH26,'k1'!AL26)</f>
-        <v>1.9116278371205837</v>
-      </c>
-      <c r="I27" s="5">
-        <f>COUNTIF('k1'!B26:'k1'!F26:'k1'!J26:'k1'!N26:'k1'!R26:'k1'!V26:'k1'!Z26:'k1'!AD26:'k1'!AH26:'k1'!AL26,"="&amp;E27)/10</f>
-        <v>0.4</v>
+        <v>3.018461712712472</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE('k1'!C26,'k1'!G26,'k1'!K26,'k1'!O26,'k1'!S26,'k1'!W26,'k1'!AA26,'k1'!AE26,'k1'!AI26,'k1'!AM26)</f>
+        <v>1898.3744444444446</v>
       </c>
       <c r="J27">
-        <f>AVERAGE('k1'!C26,'k1'!G26,'k1'!K26,'k1'!O26,'k1'!S26,'k1'!W26,'k1'!AA26,'k1'!AE26,'k1'!AI26,'k1'!AM26)</f>
-        <v>385.2211111111111</v>
-      </c>
-      <c r="K27">
         <f>AVERAGE('k1'!E26,'k1'!I26,'k1'!M26,'k1'!Q26,'k1'!U26,'k1'!Y26,'k1'!AC26,'k1'!AG26,'k1'!AK26,'k1'!AO26)</f>
-        <v>3685.5722222222216</v>
+        <v>3790.2522222222219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27">
+        <v>88</v>
+      </c>
+      <c r="M27">
+        <v>90.2</v>
+      </c>
+      <c r="N27">
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <f>MIN('k1'!B27,'k1'!F27,'k1'!J27,'k1'!N27,'k1'!R27,'k1'!V27,'k1'!Z27,'k1'!AD27,'k1'!AH27,'k1'!AL27)</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -1692,23 +1818,31 @@
       </c>
       <c r="G28">
         <f>AVERAGE('k1'!B27,'k1'!F27,'k1'!J27,'k1'!N27,'k1'!R27,'k1'!V27,'k1'!Z27,'k1'!AD27,'k1'!AH27,'k1'!AL27)</f>
-        <v>99.666666666666671</v>
+        <v>102.22222222222223</v>
       </c>
       <c r="H28">
         <f>_xlfn.STDEV.P('k1'!B27,'k1'!F27,'k1'!J27,'k1'!N27,'k1'!R27,'k1'!V27,'k1'!Z27,'k1'!AD27,'k1'!AH27,'k1'!AL27)</f>
-        <v>3.018461712712472</v>
-      </c>
-      <c r="I28" s="5">
-        <f>COUNTIF('k1'!B27:'k1'!F27:'k1'!J27:'k1'!N27:'k1'!R27:'k1'!V27:'k1'!Z27:'k1'!AD27:'k1'!AH27:'k1'!AL27,"="&amp;E28)/10</f>
-        <v>0.1</v>
+        <v>1.3146843962443591</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE('k1'!C27,'k1'!G27,'k1'!K27,'k1'!O27,'k1'!S27,'k1'!W27,'k1'!AA27,'k1'!AE27,'k1'!AI27,'k1'!AM27)</f>
+        <v>2307.4644444444443</v>
       </c>
       <c r="J28">
-        <f>AVERAGE('k1'!C27,'k1'!G27,'k1'!K27,'k1'!O27,'k1'!S27,'k1'!W27,'k1'!AA27,'k1'!AE27,'k1'!AI27,'k1'!AM27)</f>
-        <v>1898.3744444444446</v>
-      </c>
-      <c r="K28">
         <f>AVERAGE('k1'!E27,'k1'!I27,'k1'!M27,'k1'!Q27,'k1'!U27,'k1'!Y27,'k1'!AC27,'k1'!AG27,'k1'!AK27,'k1'!AO27)</f>
-        <v>3790.2522222222219</v>
+        <v>3602.3222222222225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28">
+        <v>138</v>
+      </c>
+      <c r="M28">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="N28">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1737,27 +1871,33 @@
       </c>
       <c r="G29" s="1">
         <f>AVERAGE(G4:G28)</f>
-        <v>48.781333333333343</v>
+        <v>48.781333333333329</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:K29" si="2">AVERAGE(H4:H28)</f>
-        <v>0.45330287102356764</v>
+        <f t="shared" ref="H29:L29" si="2">AVERAGE(H4:H28)</f>
+        <v>0.4533028710235677</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>0.78800000000000014</v>
+        <v>528.7252666666667</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>528.7252666666667</v>
-      </c>
-      <c r="K29" s="1">
+        <v>1274.2051777777776</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
-        <v>1274.2051777777776</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+        <v>126.68</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" ref="M29" si="3">AVERAGE(M4:M28)</f>
+        <v>128.428</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29" si="4">AVERAGE(N4:N28)</f>
+        <v>1.1239999999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1770,7 +1910,6 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1787,9 +1926,8 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1815,16 +1953,25 @@
         <v>34</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1853,20 +2000,28 @@
         <f>_xlfn.STDEV.P('k2'!B3,'k2'!F3,'k2'!J3,'k2'!N3,'k2'!R3,'k2'!V3,'k2'!Z3,'k2'!AD3,'k2'!AH3,'k2'!AL3)</f>
         <v>0.4</v>
       </c>
-      <c r="I34" s="5">
-        <f>COUNTIF('k2'!B3:'k2'!F3:'k2'!J3:'k2'!N3:'k2'!R3:'k2'!V3:'k2'!Z3:'k2'!AD3:'k2'!AH3:'k2'!AL3,"="&amp;E34)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
         <f>AVERAGE('k2'!C3,'k2'!G3,'k2'!K3,'k2'!O3,'k2'!S3,'k2'!W3,'k2'!AA3,'k2'!AE3,'k2'!AI3,'k2'!AM3)</f>
         <v>256.68599999999998</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <f>AVERAGE('k2'!E3,'k2'!I3,'k2'!M3,'k2'!Q3,'k2'!U3,'k2'!Y3,'k2'!AC3,'k2'!AG3,'k2'!AK3,'k2'!AO3)</f>
         <v>634.10799999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34">
+        <v>86</v>
+      </c>
+      <c r="M34">
+        <v>89</v>
+      </c>
+      <c r="N34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +2039,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F53" si="3">IF(E35=$B35,"best","")</f>
+        <f t="shared" ref="F35:F58" si="5">IF(E35=$B35,"best","")</f>
         <v>best</v>
       </c>
       <c r="G35">
@@ -1895,20 +2050,28 @@
         <f>_xlfn.STDEV.P('k2'!B4,'k2'!F4,'k2'!J4,'k2'!N4,'k2'!R4,'k2'!V4,'k2'!Z4,'k2'!AD4,'k2'!AH4,'k2'!AL4)</f>
         <v>0.4</v>
       </c>
-      <c r="I35" s="5">
-        <f>COUNTIF('k2'!B4:'k2'!F4:'k2'!J4:'k2'!N4:'k2'!R4:'k2'!V4:'k2'!Z4:'k2'!AD4:'k2'!AH4:'k2'!AL4,"="&amp;E35)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
         <f>AVERAGE('k2'!C4,'k2'!G4,'k2'!K4,'k2'!O4,'k2'!S4,'k2'!W4,'k2'!AA4,'k2'!AE4,'k2'!AI4,'k2'!AM4)</f>
         <v>865.44299999999998</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <f>AVERAGE('k2'!E4,'k2'!I4,'k2'!M4,'k2'!Q4,'k2'!U4,'k2'!Y4,'k2'!AC4,'k2'!AG4,'k2'!AK4,'k2'!AO4)</f>
         <v>1675.2570000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35">
+        <v>96</v>
+      </c>
+      <c r="M35">
+        <v>97.6</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G36">
@@ -1937,20 +2100,28 @@
         <f>_xlfn.STDEV.P('k2'!B5,'k2'!F5,'k2'!J5,'k2'!N5,'k2'!R5,'k2'!V5,'k2'!Z5,'k2'!AD5,'k2'!AH5,'k2'!AL5)</f>
         <v>0.53851648071345037</v>
       </c>
-      <c r="I36" s="5">
-        <f>COUNTIF('k2'!B5:'k2'!F5:'k2'!J5:'k2'!N5:'k2'!R5:'k2'!V5:'k2'!Z5:'k2'!AD5:'k2'!AH5:'k2'!AL5,"="&amp;E36)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
         <f>AVERAGE('k2'!C5,'k2'!G5,'k2'!K5,'k2'!O5,'k2'!S5,'k2'!W5,'k2'!AA5,'k2'!AE5,'k2'!AI5,'k2'!AM5)</f>
         <v>292.017</v>
       </c>
-      <c r="K36">
+      <c r="J36">
         <f>AVERAGE('k2'!E5,'k2'!I5,'k2'!M5,'k2'!Q5,'k2'!U5,'k2'!Y5,'k2'!AC5,'k2'!AG5,'k2'!AK5,'k2'!AO5)</f>
         <v>574.68799999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <v>49</v>
+      </c>
+      <c r="M36">
+        <v>49.4</v>
+      </c>
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +2139,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G37">
@@ -1979,20 +2150,28 @@
         <f>_xlfn.STDEV.P('k2'!B6,'k2'!F6,'k2'!J6,'k2'!N6,'k2'!R6,'k2'!V6,'k2'!Z6,'k2'!AD6,'k2'!AH6,'k2'!AL6)</f>
         <v>0.45825756949558394</v>
       </c>
-      <c r="I37" s="5">
-        <f>COUNTIF('k2'!B6:'k2'!F6:'k2'!J6:'k2'!N6:'k2'!R6:'k2'!V6:'k2'!Z6:'k2'!AD6:'k2'!AH6:'k2'!AL6,"="&amp;E37)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J37">
+      <c r="I37">
         <f>AVERAGE('k2'!C6,'k2'!G6,'k2'!K6,'k2'!O6,'k2'!S6,'k2'!W6,'k2'!AA6,'k2'!AE6,'k2'!AI6,'k2'!AM6)</f>
         <v>571.79299999999989</v>
       </c>
-      <c r="K37">
+      <c r="J37">
         <f>AVERAGE('k2'!E6,'k2'!I6,'k2'!M6,'k2'!Q6,'k2'!U6,'k2'!Y6,'k2'!AC6,'k2'!AG6,'k2'!AK6,'k2'!AO6)</f>
         <v>1588.605</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>91</v>
+      </c>
+      <c r="M37">
+        <v>94</v>
+      </c>
+      <c r="N37">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2189,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G38">
@@ -2021,20 +2200,28 @@
         <f>_xlfn.STDEV.P('k2'!B7,'k2'!F7,'k2'!J7,'k2'!N7,'k2'!R7,'k2'!V7,'k2'!Z7,'k2'!AD7,'k2'!AH7,'k2'!AL7)</f>
         <v>0.4898979485566356</v>
       </c>
-      <c r="I38" s="5">
-        <f>COUNTIF('k2'!B7:'k2'!F7:'k2'!J7:'k2'!N7:'k2'!R7:'k2'!V7:'k2'!Z7:'k2'!AD7:'k2'!AH7:'k2'!AL7,"="&amp;E38)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="J38">
+      <c r="I38">
         <f>AVERAGE('k2'!C7,'k2'!G7,'k2'!K7,'k2'!O7,'k2'!S7,'k2'!W7,'k2'!AA7,'k2'!AE7,'k2'!AI7,'k2'!AM7)</f>
         <v>181.9</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <f>AVERAGE('k2'!E7,'k2'!I7,'k2'!M7,'k2'!Q7,'k2'!U7,'k2'!Y7,'k2'!AC7,'k2'!AG7,'k2'!AK7,'k2'!AO7)</f>
         <v>897.04200000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38">
+        <v>92</v>
+      </c>
+      <c r="M38">
+        <v>95.9</v>
+      </c>
+      <c r="N38">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2239,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G39">
@@ -2063,20 +2250,28 @@
         <f>_xlfn.STDEV.P('k2'!B8,'k2'!F8,'k2'!J8,'k2'!N8,'k2'!R8,'k2'!V8,'k2'!Z8,'k2'!AD8,'k2'!AH8,'k2'!AL8)</f>
         <v>0.4</v>
       </c>
-      <c r="I39" s="5">
-        <f>COUNTIF('k2'!B8:'k2'!F8:'k2'!J8:'k2'!N8:'k2'!R8:'k2'!V8:'k2'!Z8:'k2'!AD8:'k2'!AH8:'k2'!AL8,"="&amp;E39)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
         <f>AVERAGE('k2'!C8,'k2'!G8,'k2'!K8,'k2'!O8,'k2'!S8,'k2'!W8,'k2'!AA8,'k2'!AE8,'k2'!AI8,'k2'!AM8)</f>
         <v>300.40700000000004</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <f>AVERAGE('k2'!E8,'k2'!I8,'k2'!M8,'k2'!Q8,'k2'!U8,'k2'!Y8,'k2'!AC8,'k2'!AG8,'k2'!AK8,'k2'!AO8)</f>
         <v>937.93999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39">
+        <v>84</v>
+      </c>
+      <c r="M39">
+        <v>85.1</v>
+      </c>
+      <c r="N39">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2289,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G40">
@@ -2105,20 +2300,28 @@
         <f>_xlfn.STDEV.P('k2'!B9,'k2'!F9,'k2'!J9,'k2'!N9,'k2'!R9,'k2'!V9,'k2'!Z9,'k2'!AD9,'k2'!AH9,'k2'!AL9)</f>
         <v>0.45825756949558405</v>
       </c>
-      <c r="I40" s="5">
-        <f>COUNTIF('k2'!B9:'k2'!F9:'k2'!J9:'k2'!N9:'k2'!R9:'k2'!V9:'k2'!Z9:'k2'!AD9:'k2'!AH9:'k2'!AL9,"="&amp;E40)/10</f>
-        <v>0.7</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
         <f>AVERAGE('k2'!C9,'k2'!G9,'k2'!K9,'k2'!O9,'k2'!S9,'k2'!W9,'k2'!AA9,'k2'!AE9,'k2'!AI9,'k2'!AM9)</f>
         <v>285.10599999999999</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <f>AVERAGE('k2'!E9,'k2'!I9,'k2'!M9,'k2'!Q9,'k2'!U9,'k2'!Y9,'k2'!AC9,'k2'!AG9,'k2'!AK9,'k2'!AO9)</f>
         <v>582.47199999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40">
+        <v>94</v>
+      </c>
+      <c r="M40">
+        <v>95.7</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2339,7 @@
         <v>93</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G41">
@@ -2147,20 +2350,28 @@
         <f>_xlfn.STDEV.P('k2'!B10,'k2'!F10,'k2'!J10,'k2'!N10,'k2'!R10,'k2'!V10,'k2'!Z10,'k2'!AD10,'k2'!AH10,'k2'!AL10)</f>
         <v>0.59999999999999987</v>
       </c>
-      <c r="I41" s="5">
-        <f>COUNTIF('k2'!B10:'k2'!F10:'k2'!J10:'k2'!N10:'k2'!R10:'k2'!V10:'k2'!Z10:'k2'!AD10:'k2'!AH10:'k2'!AL10,"="&amp;E41)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J41">
+      <c r="I41">
         <f>AVERAGE('k2'!C10,'k2'!G10,'k2'!K10,'k2'!O10,'k2'!S10,'k2'!W10,'k2'!AA10,'k2'!AE10,'k2'!AI10,'k2'!AM10)</f>
         <v>110.06699999999998</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <f>AVERAGE('k2'!E10,'k2'!I10,'k2'!M10,'k2'!Q10,'k2'!U10,'k2'!Y10,'k2'!AC10,'k2'!AG10,'k2'!AK10,'k2'!AO10)</f>
         <v>670.98299999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41">
+        <v>108</v>
+      </c>
+      <c r="M41">
+        <v>110.6</v>
+      </c>
+      <c r="N41">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2389,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G42">
@@ -2189,20 +2400,28 @@
         <f>_xlfn.STDEV.P('k2'!B11,'k2'!F11,'k2'!J11,'k2'!N11,'k2'!R11,'k2'!V11,'k2'!Z11,'k2'!AD11,'k2'!AH11,'k2'!AL11)</f>
         <v>0.80622577482985502</v>
       </c>
-      <c r="I42" s="5">
-        <f>COUNTIF('k2'!B11:'k2'!F11:'k2'!J11:'k2'!N11:'k2'!R11:'k2'!V11:'k2'!Z11:'k2'!AD11:'k2'!AH11:'k2'!AL11,"="&amp;E42)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J42">
+      <c r="I42">
         <f>AVERAGE('k2'!C11,'k2'!G11,'k2'!K11,'k2'!O11,'k2'!S11,'k2'!W11,'k2'!AA11,'k2'!AE11,'k2'!AI11,'k2'!AM11)</f>
         <v>291.423</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <f>AVERAGE('k2'!E11,'k2'!I11,'k2'!M11,'k2'!Q11,'k2'!U11,'k2'!Y11,'k2'!AC11,'k2'!AG11,'k2'!AK11,'k2'!AO11)</f>
         <v>814.97700000000009</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42">
+        <v>98</v>
+      </c>
+      <c r="M42">
+        <v>99.6</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2220,7 +2439,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G43">
@@ -2231,20 +2450,28 @@
         <f>_xlfn.STDEV.P('k2'!B12,'k2'!F12,'k2'!J12,'k2'!N12,'k2'!R12,'k2'!V12,'k2'!Z12,'k2'!AD12,'k2'!AH12,'k2'!AL12)</f>
         <v>0.4</v>
       </c>
-      <c r="I43" s="5">
-        <f>COUNTIF('k2'!B12:'k2'!F12:'k2'!J12:'k2'!N12:'k2'!R12:'k2'!V12:'k2'!Z12:'k2'!AD12:'k2'!AH12:'k2'!AL12,"="&amp;E43)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J43">
+      <c r="I43">
         <f>AVERAGE('k2'!C12,'k2'!G12,'k2'!K12,'k2'!O12,'k2'!S12,'k2'!W12,'k2'!AA12,'k2'!AE12,'k2'!AI12,'k2'!AM12)</f>
         <v>462.41800000000001</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <f>AVERAGE('k2'!E12,'k2'!I12,'k2'!M12,'k2'!Q12,'k2'!U12,'k2'!Y12,'k2'!AC12,'k2'!AG12,'k2'!AK12,'k2'!AO12)</f>
         <v>1056.595</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43">
+        <v>93</v>
+      </c>
+      <c r="M43">
+        <v>94.1</v>
+      </c>
+      <c r="N43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2489,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G44">
@@ -2273,20 +2500,28 @@
         <f>_xlfn.STDEV.P('k2'!B13,'k2'!F13,'k2'!J13,'k2'!N13,'k2'!R13,'k2'!V13,'k2'!Z13,'k2'!AD13,'k2'!AH13,'k2'!AL13)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="5">
-        <f>COUNTIF('k2'!B13:'k2'!F13:'k2'!J13:'k2'!N13:'k2'!R13:'k2'!V13:'k2'!Z13:'k2'!AD13:'k2'!AH13:'k2'!AL13,"="&amp;E44)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J44">
+      <c r="I44">
         <f>AVERAGE('k2'!C13,'k2'!G13,'k2'!K13,'k2'!O13,'k2'!S13,'k2'!W13,'k2'!AA13,'k2'!AE13,'k2'!AI13,'k2'!AM13)</f>
         <v>239.71599999999998</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <f>AVERAGE('k2'!E13,'k2'!I13,'k2'!M13,'k2'!Q13,'k2'!U13,'k2'!Y13,'k2'!AC13,'k2'!AG13,'k2'!AK13,'k2'!AO13)</f>
         <v>1157.7450000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44">
+        <v>71</v>
+      </c>
+      <c r="M44">
+        <v>72</v>
+      </c>
+      <c r="N44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2304,7 +2539,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G45">
@@ -2315,20 +2550,28 @@
         <f>_xlfn.STDEV.P('k2'!B14,'k2'!F14,'k2'!J14,'k2'!N14,'k2'!R14,'k2'!V14,'k2'!Z14,'k2'!AD14,'k2'!AH14,'k2'!AL14)</f>
         <v>0.66332495807108005</v>
       </c>
-      <c r="I45" s="5">
-        <f>COUNTIF('k2'!B14:'k2'!F14:'k2'!J14:'k2'!N14:'k2'!R14:'k2'!V14:'k2'!Z14:'k2'!AD14:'k2'!AH14:'k2'!AL14,"="&amp;E45)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J45">
+      <c r="I45">
         <f>AVERAGE('k2'!C14,'k2'!G14,'k2'!K14,'k2'!O14,'k2'!S14,'k2'!W14,'k2'!AA14,'k2'!AE14,'k2'!AI14,'k2'!AM14)</f>
         <v>1608.6949999999999</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <f>AVERAGE('k2'!E14,'k2'!I14,'k2'!M14,'k2'!Q14,'k2'!U14,'k2'!Y14,'k2'!AC14,'k2'!AG14,'k2'!AK14,'k2'!AO14)</f>
         <v>3053.0920000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45">
+        <v>90</v>
+      </c>
+      <c r="M45">
+        <v>91.5</v>
+      </c>
+      <c r="N45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2589,7 @@
         <v>83</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G46">
@@ -2357,20 +2600,28 @@
         <f>_xlfn.STDEV.P('k2'!B15,'k2'!F15,'k2'!J15,'k2'!N15,'k2'!R15,'k2'!V15,'k2'!Z15,'k2'!AD15,'k2'!AH15,'k2'!AL15)</f>
         <v>0.78102496759066531</v>
       </c>
-      <c r="I46" s="5">
-        <f>COUNTIF('k2'!B15:'k2'!F15:'k2'!J15:'k2'!N15:'k2'!R15:'k2'!V15:'k2'!Z15:'k2'!AD15:'k2'!AH15:'k2'!AL15,"="&amp;E46)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J46">
+      <c r="I46">
         <f>AVERAGE('k2'!C15,'k2'!G15,'k2'!K15,'k2'!O15,'k2'!S15,'k2'!W15,'k2'!AA15,'k2'!AE15,'k2'!AI15,'k2'!AM15)</f>
         <v>378.57799999999997</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <f>AVERAGE('k2'!E15,'k2'!I15,'k2'!M15,'k2'!Q15,'k2'!U15,'k2'!Y15,'k2'!AC15,'k2'!AG15,'k2'!AK15,'k2'!AO15)</f>
         <v>823.13199999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <v>94</v>
+      </c>
+      <c r="M46">
+        <v>95.4</v>
+      </c>
+      <c r="N46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2388,7 +2639,7 @@
         <v>84</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G47">
@@ -2399,20 +2650,28 @@
         <f>_xlfn.STDEV.P('k2'!B16,'k2'!F16,'k2'!J16,'k2'!N16,'k2'!R16,'k2'!V16,'k2'!Z16,'k2'!AD16,'k2'!AH16,'k2'!AL16)</f>
         <v>0.78102496759066531</v>
       </c>
-      <c r="I47" s="5">
-        <f>COUNTIF('k2'!B16:'k2'!F16:'k2'!J16:'k2'!N16:'k2'!R16:'k2'!V16:'k2'!Z16:'k2'!AD16:'k2'!AH16:'k2'!AL16,"="&amp;E47)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J47">
+      <c r="I47">
         <f>AVERAGE('k2'!C16,'k2'!G16,'k2'!K16,'k2'!O16,'k2'!S16,'k2'!W16,'k2'!AA16,'k2'!AE16,'k2'!AI16,'k2'!AM16)</f>
         <v>1125.3040000000001</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <f>AVERAGE('k2'!E16,'k2'!I16,'k2'!M16,'k2'!Q16,'k2'!U16,'k2'!Y16,'k2'!AC16,'k2'!AG16,'k2'!AK16,'k2'!AO16)</f>
         <v>2167.058</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47">
+        <v>102</v>
+      </c>
+      <c r="M47">
+        <v>103.3</v>
+      </c>
+      <c r="N47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2430,7 +2689,7 @@
         <v>47</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G48">
@@ -2441,17 +2700,25 @@
         <f>_xlfn.STDEV.P('k2'!B17,'k2'!F17,'k2'!J17,'k2'!N17,'k2'!R17,'k2'!V17,'k2'!Z17,'k2'!AD17,'k2'!AH17,'k2'!AL17)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="5">
-        <f>COUNTIF('k2'!B17:'k2'!F17:'k2'!J17:'k2'!N17:'k2'!R17:'k2'!V17:'k2'!Z17:'k2'!AD17:'k2'!AH17:'k2'!AL17,"="&amp;E48)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="I48">
         <f>AVERAGE('k2'!C17,'k2'!G17,'k2'!K17,'k2'!O17,'k2'!S17,'k2'!W17,'k2'!AA17,'k2'!AE17,'k2'!AI17,'k2'!AM17)</f>
         <v>6.93</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <f>AVERAGE('k2'!E17,'k2'!I17,'k2'!M17,'k2'!Q17,'k2'!U17,'k2'!Y17,'k2'!AC17,'k2'!AG17,'k2'!AK17,'k2'!AO17)</f>
         <v>82.974999999999994</v>
+      </c>
+      <c r="K48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48">
+        <v>54</v>
+      </c>
+      <c r="M48">
+        <v>54.9</v>
+      </c>
+      <c r="N48">
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2472,7 +2739,7 @@
         <v>62</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G49">
@@ -2483,17 +2750,25 @@
         <f>_xlfn.STDEV.P('k2'!B18,'k2'!F18,'k2'!J18,'k2'!N18,'k2'!R18,'k2'!V18,'k2'!Z18,'k2'!AD18,'k2'!AH18,'k2'!AL18)</f>
         <v>0.3</v>
       </c>
-      <c r="I49" s="5">
-        <f>COUNTIF('k2'!B18:'k2'!F18:'k2'!J18:'k2'!N18:'k2'!R18:'k2'!V18:'k2'!Z18:'k2'!AD18:'k2'!AH18:'k2'!AL18,"="&amp;E49)/10</f>
-        <v>0.9</v>
-      </c>
-      <c r="J49">
+      <c r="I49">
         <f>AVERAGE('k2'!C18,'k2'!G18,'k2'!K18,'k2'!O18,'k2'!S18,'k2'!W18,'k2'!AA18,'k2'!AE18,'k2'!AI18,'k2'!AM18)</f>
         <v>205.26500000000001</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <f>AVERAGE('k2'!E18,'k2'!I18,'k2'!M18,'k2'!Q18,'k2'!U18,'k2'!Y18,'k2'!AC18,'k2'!AG18,'k2'!AK18,'k2'!AO18)</f>
         <v>735.10300000000007</v>
+      </c>
+      <c r="K49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49">
+        <v>73</v>
+      </c>
+      <c r="M49">
+        <v>75</v>
+      </c>
+      <c r="N49">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2514,7 +2789,7 @@
         <v>84</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G50">
@@ -2525,17 +2800,25 @@
         <f>_xlfn.STDEV.P('k2'!B19,'k2'!F19,'k2'!J19,'k2'!N19,'k2'!R19,'k2'!V19,'k2'!Z19,'k2'!AD19,'k2'!AH19,'k2'!AL19)</f>
         <v>0.6403124237432849</v>
       </c>
-      <c r="I50" s="5">
-        <f>COUNTIF('k2'!B19:'k2'!F19:'k2'!J19:'k2'!N19:'k2'!R19:'k2'!V19:'k2'!Z19:'k2'!AD19:'k2'!AH19:'k2'!AL19,"="&amp;E50)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="J50">
+      <c r="I50">
         <f>AVERAGE('k2'!C19,'k2'!G19,'k2'!K19,'k2'!O19,'k2'!S19,'k2'!W19,'k2'!AA19,'k2'!AE19,'k2'!AI19,'k2'!AM19)</f>
         <v>289.04200000000003</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <f>AVERAGE('k2'!E19,'k2'!I19,'k2'!M19,'k2'!Q19,'k2'!U19,'k2'!Y19,'k2'!AC19,'k2'!AG19,'k2'!AK19,'k2'!AO19)</f>
         <v>1021.521</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50">
+        <v>97</v>
+      </c>
+      <c r="M50">
+        <v>98.9</v>
+      </c>
+      <c r="N50">
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2556,7 +2839,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G51">
@@ -2567,17 +2850,25 @@
         <f>_xlfn.STDEV.P('k2'!B20,'k2'!F20,'k2'!J20,'k2'!N20,'k2'!R20,'k2'!V20,'k2'!Z20,'k2'!AD20,'k2'!AH20,'k2'!AL20)</f>
         <v>0.3</v>
       </c>
-      <c r="I51" s="5">
-        <f>COUNTIF('k2'!B20:'k2'!F20:'k2'!J20:'k2'!N20:'k2'!R20:'k2'!V20:'k2'!Z20:'k2'!AD20:'k2'!AH20:'k2'!AL20,"="&amp;E51)/10</f>
-        <v>0.9</v>
-      </c>
-      <c r="J51">
+      <c r="I51">
         <f>AVERAGE('k2'!C20,'k2'!G20,'k2'!K20,'k2'!O20,'k2'!S20,'k2'!W20,'k2'!AA20,'k2'!AE20,'k2'!AI20,'k2'!AM20)</f>
         <v>147.78100000000001</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <f>AVERAGE('k2'!E20,'k2'!I20,'k2'!M20,'k2'!Q20,'k2'!U20,'k2'!Y20,'k2'!AC20,'k2'!AG20,'k2'!AK20,'k2'!AO20)</f>
         <v>315.90699999999998</v>
+      </c>
+      <c r="K51" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51">
+        <v>60</v>
+      </c>
+      <c r="M51">
+        <v>61.1</v>
+      </c>
+      <c r="N51">
+        <v>0.7</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2598,7 +2889,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G52">
@@ -2609,17 +2900,25 @@
         <f>_xlfn.STDEV.P('k2'!B21,'k2'!F21,'k2'!J21,'k2'!N21,'k2'!R21,'k2'!V21,'k2'!Z21,'k2'!AD21,'k2'!AH21,'k2'!AL21)</f>
         <v>0.45825756949558394</v>
       </c>
-      <c r="I52" s="5">
-        <f>COUNTIF('k2'!B21:'k2'!F21:'k2'!J21:'k2'!N21:'k2'!R21:'k2'!V21:'k2'!Z21:'k2'!AD21:'k2'!AH21:'k2'!AL21,"="&amp;E52)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J52">
+      <c r="I52">
         <f>AVERAGE('k2'!C21,'k2'!G21,'k2'!K21,'k2'!O21,'k2'!S21,'k2'!W21,'k2'!AA21,'k2'!AE21,'k2'!AI21,'k2'!AM21)</f>
         <v>187.46100000000001</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <f>AVERAGE('k2'!E21,'k2'!I21,'k2'!M21,'k2'!Q21,'k2'!U21,'k2'!Y21,'k2'!AC21,'k2'!AG21,'k2'!AK21,'k2'!AO21)</f>
         <v>754.20900000000006</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>87</v>
+      </c>
+      <c r="M52">
+        <v>89.1</v>
+      </c>
+      <c r="N52">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2640,7 +2939,7 @@
         <v>68</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>best</v>
       </c>
       <c r="G53">
@@ -2651,1031 +2950,1631 @@
         <f>_xlfn.STDEV.P('k2'!B22,'k2'!F22,'k2'!J22,'k2'!N22,'k2'!R22,'k2'!V22,'k2'!Z22,'k2'!AD22,'k2'!AH22,'k2'!AL22)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="5">
-        <f>COUNTIF('k2'!B22:'k2'!F22:'k2'!J22:'k2'!N22:'k2'!R22:'k2'!V22:'k2'!Z22:'k2'!AD22:'k2'!AH22:'k2'!AL22,"="&amp;E53)/10</f>
-        <v>1</v>
-      </c>
-      <c r="J53">
+      <c r="I53">
         <f>AVERAGE('k2'!C22,'k2'!G22,'k2'!K22,'k2'!O22,'k2'!S22,'k2'!W22,'k2'!AA22,'k2'!AE22,'k2'!AI22,'k2'!AM22)</f>
         <v>111.923</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <f>AVERAGE('k2'!E22,'k2'!I22,'k2'!M22,'k2'!Q22,'k2'!U22,'k2'!Y22,'k2'!AC22,'k2'!AG22,'k2'!AK22,'k2'!AO22)</f>
         <v>755.05500000000006</v>
       </c>
+      <c r="K53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53">
+        <v>77</v>
+      </c>
+      <c r="M53">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N53">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54">
+        <f>MIN('k2'!B23,'k2'!F23,'k2'!J23,'k2'!N23,'k2'!R23,'k2'!V23,'k2'!Z23,'k2'!AD23,'k2'!AH23,'k2'!AL23)</f>
+        <v>169</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G54">
+        <f>AVERAGE('k2'!B23,'k2'!F23,'k2'!J23,'k2'!N23,'k2'!R23,'k2'!V23,'k2'!Z23,'k2'!AD23,'k2'!AH23,'k2'!AL23)</f>
+        <v>172.3</v>
+      </c>
+      <c r="H54">
+        <f>_xlfn.STDEV.P('k2'!B23,'k2'!F23,'k2'!J23,'k2'!N23,'k2'!R23,'k2'!V23,'k2'!Z23,'k2'!AD23,'k2'!AH23,'k2'!AL23)</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE('k2'!C23,'k2'!G23,'k2'!K23,'k2'!O23,'k2'!S23,'k2'!W23,'k2'!AA23,'k2'!AE23,'k2'!AI23,'k2'!AM23)</f>
+        <v>3454.2159999999994</v>
+      </c>
+      <c r="J54">
+        <f>AVERAGE('k2'!E23,'k2'!I23,'k2'!M23,'k2'!Q23,'k2'!U23,'k2'!Y23,'k2'!AC23,'k2'!AG23,'k2'!AK23,'k2'!AO23)</f>
+        <v>3614.0619999999994</v>
+      </c>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54">
+        <v>197</v>
+      </c>
+      <c r="M54">
+        <v>197.5</v>
+      </c>
+      <c r="N54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <f>MIN('k2'!B24,'k2'!F24,'k2'!J24,'k2'!N24,'k2'!R24,'k2'!V24,'k2'!Z24,'k2'!AD24,'k2'!AH24,'k2'!AL24)</f>
+        <v>206</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G55">
+        <f>AVERAGE('k2'!B24,'k2'!F24,'k2'!J24,'k2'!N24,'k2'!R24,'k2'!V24,'k2'!Z24,'k2'!AD24,'k2'!AH24,'k2'!AL24)</f>
+        <v>207.1</v>
+      </c>
+      <c r="H55">
+        <f>_xlfn.STDEV.P('k2'!B24,'k2'!F24,'k2'!J24,'k2'!N24,'k2'!R24,'k2'!V24,'k2'!Z24,'k2'!AD24,'k2'!AH24,'k2'!AL24)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE('k2'!C24,'k2'!G24,'k2'!K24,'k2'!O24,'k2'!S24,'k2'!W24,'k2'!AA24,'k2'!AE24,'k2'!AI24,'k2'!AM24)</f>
+        <v>3363.7640000000006</v>
+      </c>
+      <c r="J55">
+        <f>AVERAGE('k2'!E24,'k2'!I24,'k2'!M24,'k2'!Q24,'k2'!U24,'k2'!Y24,'k2'!AC24,'k2'!AG24,'k2'!AK24,'k2'!AO24)</f>
+        <v>3611.5589999999997</v>
+      </c>
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55">
+        <v>268</v>
+      </c>
+      <c r="M55">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="N55">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <f>MIN('k2'!B25,'k2'!F25,'k2'!J25,'k2'!N25,'k2'!R25,'k2'!V25,'k2'!Z25,'k2'!AD25,'k2'!AH25,'k2'!AL25)</f>
+        <v>181</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G56">
+        <f>AVERAGE('k2'!B25,'k2'!F25,'k2'!J25,'k2'!N25,'k2'!R25,'k2'!V25,'k2'!Z25,'k2'!AD25,'k2'!AH25,'k2'!AL25)</f>
+        <v>194.6</v>
+      </c>
+      <c r="H56">
+        <f>_xlfn.STDEV.P('k2'!B25,'k2'!F25,'k2'!J25,'k2'!N25,'k2'!R25,'k2'!V25,'k2'!Z25,'k2'!AD25,'k2'!AH25,'k2'!AL25)</f>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE('k2'!C25,'k2'!G25,'k2'!K25,'k2'!O25,'k2'!S25,'k2'!W25,'k2'!AA25,'k2'!AE25,'k2'!AI25,'k2'!AM25)</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>AVERAGE('k2'!E25,'k2'!I25,'k2'!M25,'k2'!Q25,'k2'!U25,'k2'!Y25,'k2'!AC25,'k2'!AG25,'k2'!AK25,'k2'!AO25)</f>
+        <v>5707.7339999999995</v>
+      </c>
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>133</v>
+      </c>
+      <c r="M56">
+        <v>135</v>
+      </c>
+      <c r="N56">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57">
+        <f>MIN('k2'!B26,'k2'!F26,'k2'!J26,'k2'!N26,'k2'!R26,'k2'!V26,'k2'!Z26,'k2'!AD26,'k2'!AH26,'k2'!AL26)</f>
+        <v>181</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G57">
+        <f>AVERAGE('k2'!B26,'k2'!F26,'k2'!J26,'k2'!N26,'k2'!R26,'k2'!V26,'k2'!Z26,'k2'!AD26,'k2'!AH26,'k2'!AL26)</f>
+        <v>184.4</v>
+      </c>
+      <c r="H57">
+        <f>_xlfn.STDEV.P('k2'!B26,'k2'!F26,'k2'!J26,'k2'!N26,'k2'!R26,'k2'!V26,'k2'!Z26,'k2'!AD26,'k2'!AH26,'k2'!AL26)</f>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="I57">
+        <f>AVERAGE('k2'!C26,'k2'!G26,'k2'!K26,'k2'!O26,'k2'!S26,'k2'!W26,'k2'!AA26,'k2'!AE26,'k2'!AI26,'k2'!AM26)</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>AVERAGE('k2'!E26,'k2'!I26,'k2'!M26,'k2'!Q26,'k2'!U26,'k2'!Y26,'k2'!AC26,'k2'!AG26,'k2'!AK26,'k2'!AO26)</f>
+        <v>5190.116</v>
+      </c>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57">
+        <v>166</v>
+      </c>
+      <c r="M57">
+        <v>166.8</v>
+      </c>
+      <c r="N57">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <f>MIN('k2'!B27,'k2'!F27,'k2'!J27,'k2'!N27,'k2'!R27,'k2'!V27,'k2'!Z27,'k2'!AD27,'k2'!AH27,'k2'!AL27)</f>
+        <v>197</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G58">
+        <f>AVERAGE('k2'!B27,'k2'!F27,'k2'!J27,'k2'!N27,'k2'!R27,'k2'!V27,'k2'!Z27,'k2'!AD27,'k2'!AH27,'k2'!AL27)</f>
+        <v>201.1</v>
+      </c>
+      <c r="H58">
+        <f>_xlfn.STDEV.P('k2'!B27,'k2'!F27,'k2'!J27,'k2'!N27,'k2'!R27,'k2'!V27,'k2'!Z27,'k2'!AD27,'k2'!AH27,'k2'!AL27)</f>
+        <v>2.1656407827707715</v>
+      </c>
+      <c r="I58">
+        <f>AVERAGE('k2'!C27,'k2'!G27,'k2'!K27,'k2'!O27,'k2'!S27,'k2'!W27,'k2'!AA27,'k2'!AE27,'k2'!AI27,'k2'!AM27)</f>
+        <v>2864.2169999999996</v>
+      </c>
+      <c r="J58">
+        <f>AVERAGE('k2'!E27,'k2'!I27,'k2'!M27,'k2'!Q27,'k2'!U27,'k2'!Y27,'k2'!AC27,'k2'!AG27,'k2'!AK27,'k2'!AO27)</f>
+        <v>3602.3650000000002</v>
+      </c>
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58">
+        <v>265</v>
+      </c>
+      <c r="M58">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="N58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="1">
-        <f t="shared" ref="B54" si="4">AVERAGE(B34:B53)</f>
+      <c r="B59" s="1">
+        <f>AVERAGE(B34:B58)</f>
         <v>70.45</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" ref="C54" si="5">AVERAGE(C34:C53)</f>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:J59" si="6">AVERAGE(C34:C58)</f>
         <v>1</v>
       </c>
-      <c r="D54" s="1">
-        <f t="shared" ref="D54" si="6">AVERAGE(D34:D53)</f>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
         <v>2.9030000000000005</v>
       </c>
-      <c r="E54" s="1">
-        <f>AVERAGE(E34:E53)</f>
-        <v>71.05</v>
-      </c>
-      <c r="F54" s="1">
-        <f>COUNTIF(F34:F53, "best")</f>
+      <c r="E59" s="1">
+        <f t="shared" si="6"/>
+        <v>94.2</v>
+      </c>
+      <c r="F59" s="1">
+        <f>COUNTIF(F34:F58, "best")</f>
         <v>9</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" ref="G54" si="7">AVERAGE(G34:G53)</f>
-        <v>71.66</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" ref="H54" si="8">AVERAGE(H34:H53)</f>
-        <v>0.4437550114791195</v>
-      </c>
-      <c r="I54" s="6">
-        <f>AVERAGE(I34:I53)</f>
-        <v>0.52</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" ref="J54" si="9">AVERAGE(J34:J53)</f>
-        <v>395.89775000000003</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" ref="K54" si="10">AVERAGE(K34:K53)</f>
-        <v>1014.9231999999998</v>
-      </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
+      <c r="G59" s="1">
+        <f t="shared" si="6"/>
+        <v>95.707999999999998</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0976296404941266</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="6"/>
+        <v>704.00608000000011</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="6"/>
+        <v>1680.9719999999998</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1">
+        <f t="shared" ref="L59" si="7">AVERAGE(L34:L58)</f>
+        <v>109</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" ref="M59" si="8">AVERAGE(M34:M58)</f>
+        <v>110.63600000000001</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" ref="N59" si="9">AVERAGE(N34:N58)</f>
+        <v>1.0120000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="K63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>138</v>
       </c>
-      <c r="C59">
+      <c r="C64">
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>3608.26</v>
       </c>
-      <c r="E59">
+      <c r="E64">
         <f>MIN('k4'!B3,'k4'!F3,'k4'!J3,'k4'!N3,'k4'!R3,'k4'!V3,'k4'!Z3,'k4'!AD3,'k4'!AH3,'k4'!AL3)</f>
         <v>139</v>
       </c>
-      <c r="F59" t="str">
-        <f>IF(E59=$B59,"best","")</f>
+      <c r="F64" t="str">
+        <f>IF(E64=$B64,"best","")</f>
         <v/>
       </c>
-      <c r="G59">
+      <c r="G64">
         <f>AVERAGE('k4'!B3,'k4'!F3,'k4'!J3,'k4'!N3,'k4'!R3,'k4'!V3,'k4'!Z3,'k4'!AD3,'k4'!AH3,'k4'!AL3)</f>
         <v>140.4</v>
       </c>
-      <c r="H59">
+      <c r="H64">
         <f>_xlfn.STDEV.P('k4'!B3,'k4'!F3,'k4'!J3,'k4'!N3,'k4'!R3,'k4'!V3,'k4'!Z3,'k4'!AD3,'k4'!AH3,'k4'!AL3)</f>
         <v>1.1135528725660042</v>
       </c>
-      <c r="I59">
-        <f>COUNTIF('k4'!B3:'k4'!F3:'k4'!J3:'k4'!N3:'k4'!R3:'k4'!V3:'k4'!Z3:'k4'!AD3:'k4'!AH3:'k4'!AL3,"="&amp;E59)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J59">
+      <c r="I64">
         <f>AVERAGE('k4'!C3,'k4'!G3,'k4'!K3,'k4'!O3,'k4'!S3,'k4'!W3,'k4'!AA3,'k4'!AE3,'k4'!AI3,'k4'!AM3)</f>
         <v>285.74400000000003</v>
       </c>
-      <c r="K59">
+      <c r="J64">
         <f>AVERAGE('k4'!E3,'k4'!I3,'k4'!M3,'k4'!Q3,'k4'!U3,'k4'!Y3,'k4'!AC3,'k4'!AG3,'k4'!AK3,'k4'!AO3)</f>
         <v>434.81499999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64">
+        <v>159</v>
+      </c>
+      <c r="M64">
+        <v>160</v>
+      </c>
+      <c r="N64">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>144</v>
       </c>
-      <c r="C60">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>1985.8</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <f>MIN('k4'!B4,'k4'!F4,'k4'!J4,'k4'!N4,'k4'!R4,'k4'!V4,'k4'!Z4,'k4'!AD4,'k4'!AH4,'k4'!AL4)</f>
         <v>147</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" ref="F60:F78" si="11">IF(E60=$B60,"best","")</f>
+      <c r="F65" t="str">
+        <f t="shared" ref="F65:F88" si="10">IF(E65=$B65,"best","")</f>
         <v/>
       </c>
-      <c r="G60">
+      <c r="G65">
         <f>AVERAGE('k4'!B4,'k4'!F4,'k4'!J4,'k4'!N4,'k4'!R4,'k4'!V4,'k4'!Z4,'k4'!AD4,'k4'!AH4,'k4'!AL4)</f>
         <v>148.5</v>
       </c>
-      <c r="H60">
+      <c r="H65">
         <f>_xlfn.STDEV.P('k4'!B4,'k4'!F4,'k4'!J4,'k4'!N4,'k4'!R4,'k4'!V4,'k4'!Z4,'k4'!AD4,'k4'!AH4,'k4'!AL4)</f>
         <v>0.80622577482985502</v>
       </c>
-      <c r="I60">
-        <f>COUNTIF('k4'!B4:'k4'!F4:'k4'!J4:'k4'!N4:'k4'!R4:'k4'!V4:'k4'!Z4:'k4'!AD4:'k4'!AH4:'k4'!AL4,"="&amp;E60)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J60">
+      <c r="I65">
         <f>AVERAGE('k4'!C4,'k4'!G4,'k4'!K4,'k4'!O4,'k4'!S4,'k4'!W4,'k4'!AA4,'k4'!AE4,'k4'!AI4,'k4'!AM4)</f>
         <v>1800.3589999999999</v>
       </c>
-      <c r="K60">
+      <c r="J65">
         <f>AVERAGE('k4'!E4,'k4'!I4,'k4'!M4,'k4'!Q4,'k4'!U4,'k4'!Y4,'k4'!AC4,'k4'!AG4,'k4'!AK4,'k4'!AO4)</f>
         <v>2843.0770000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="K65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65">
+        <v>177</v>
+      </c>
+      <c r="M65">
+        <v>179.6</v>
+      </c>
+      <c r="N65">
         <v>2</v>
       </c>
-      <c r="B61">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
         <v>76</v>
       </c>
-      <c r="C61">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>179.16</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <f>MIN('k4'!B5,'k4'!F5,'k4'!J5,'k4'!N5,'k4'!R5,'k4'!V5,'k4'!Z5,'k4'!AD5,'k4'!AH5,'k4'!AL5)</f>
         <v>78</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="11"/>
+      <c r="F66" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G61">
+      <c r="G66">
         <f>AVERAGE('k4'!B5,'k4'!F5,'k4'!J5,'k4'!N5,'k4'!R5,'k4'!V5,'k4'!Z5,'k4'!AD5,'k4'!AH5,'k4'!AL5)</f>
         <v>79.3</v>
       </c>
-      <c r="H61">
+      <c r="H66">
         <f>_xlfn.STDEV.P('k4'!B5,'k4'!F5,'k4'!J5,'k4'!N5,'k4'!R5,'k4'!V5,'k4'!Z5,'k4'!AD5,'k4'!AH5,'k4'!AL5)</f>
         <v>0.64031242374328479</v>
       </c>
-      <c r="I61">
-        <f>COUNTIF('k4'!B5:'k4'!F5:'k4'!J5:'k4'!N5:'k4'!R5:'k4'!V5:'k4'!Z5:'k4'!AD5:'k4'!AH5:'k4'!AL5,"="&amp;E61)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J61">
+      <c r="I66">
         <f>AVERAGE('k4'!C5,'k4'!G5,'k4'!K5,'k4'!O5,'k4'!S5,'k4'!W5,'k4'!AA5,'k4'!AE5,'k4'!AI5,'k4'!AM5)</f>
         <v>858.97299999999996</v>
       </c>
-      <c r="K61">
+      <c r="J66">
         <f>AVERAGE('k4'!E5,'k4'!I5,'k4'!M5,'k4'!Q5,'k4'!U5,'k4'!Y5,'k4'!AC5,'k4'!AG5,'k4'!AK5,'k4'!AO5)</f>
         <v>1393.653</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66">
+        <v>92</v>
+      </c>
+      <c r="M66">
+        <v>94.8</v>
+      </c>
+      <c r="N66">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B62">
+      <c r="B67">
         <v>141</v>
       </c>
-      <c r="C62">
+      <c r="C67">
         <v>0</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>3631.76</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <f>MIN('k4'!B6,'k4'!F6,'k4'!J6,'k4'!N6,'k4'!R6,'k4'!V6,'k4'!Z6,'k4'!AD6,'k4'!AH6,'k4'!AL6)</f>
         <v>145</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="11"/>
+      <c r="F67" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G62">
+      <c r="G67">
         <f>AVERAGE('k4'!B6,'k4'!F6,'k4'!J6,'k4'!N6,'k4'!R6,'k4'!V6,'k4'!Z6,'k4'!AD6,'k4'!AH6,'k4'!AL6)</f>
         <v>146.69999999999999</v>
       </c>
-      <c r="H62">
+      <c r="H67">
         <f>_xlfn.STDEV.P('k4'!B6,'k4'!F6,'k4'!J6,'k4'!N6,'k4'!R6,'k4'!V6,'k4'!Z6,'k4'!AD6,'k4'!AH6,'k4'!AL6)</f>
         <v>1.3453624047073711</v>
       </c>
-      <c r="I62">
-        <f>COUNTIF('k4'!B6:'k4'!F6:'k4'!J6:'k4'!N6:'k4'!R6:'k4'!V6:'k4'!Z6:'k4'!AD6:'k4'!AH6:'k4'!AL6,"="&amp;E62)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J62">
+      <c r="I67">
         <f>AVERAGE('k4'!C6,'k4'!G6,'k4'!K6,'k4'!O6,'k4'!S6,'k4'!W6,'k4'!AA6,'k4'!AE6,'k4'!AI6,'k4'!AM6)</f>
         <v>638.25</v>
       </c>
-      <c r="K62">
+      <c r="J67">
         <f>AVERAGE('k4'!E6,'k4'!I6,'k4'!M6,'k4'!Q6,'k4'!U6,'k4'!Y6,'k4'!AC6,'k4'!AG6,'k4'!AK6,'k4'!AO6)</f>
         <v>979</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="K67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67">
+        <v>175</v>
+      </c>
+      <c r="M67">
+        <v>176.4</v>
+      </c>
+      <c r="N67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>155</v>
       </c>
-      <c r="C63">
+      <c r="C68">
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>911.98</v>
       </c>
-      <c r="E63">
+      <c r="E68">
         <f>MIN('k4'!B7,'k4'!F7,'k4'!J7,'k4'!N7,'k4'!R7,'k4'!V7,'k4'!Z7,'k4'!AD7,'k4'!AH7,'k4'!AL7)</f>
         <v>160</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="11"/>
+      <c r="F68" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G63">
+      <c r="G68">
         <f>AVERAGE('k4'!B7,'k4'!F7,'k4'!J7,'k4'!N7,'k4'!R7,'k4'!V7,'k4'!Z7,'k4'!AD7,'k4'!AH7,'k4'!AL7)</f>
         <v>161.9</v>
       </c>
-      <c r="H63">
+      <c r="H68">
         <f>_xlfn.STDEV.P('k4'!B7,'k4'!F7,'k4'!J7,'k4'!N7,'k4'!R7,'k4'!V7,'k4'!Z7,'k4'!AD7,'k4'!AH7,'k4'!AL7)</f>
         <v>1.0440306508910548</v>
       </c>
-      <c r="I63">
-        <f>COUNTIF('k4'!B7:'k4'!F7:'k4'!J7:'k4'!N7:'k4'!R7:'k4'!V7:'k4'!Z7:'k4'!AD7:'k4'!AH7:'k4'!AL7,"="&amp;E63)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J63">
+      <c r="I68">
         <f>AVERAGE('k4'!C7,'k4'!G7,'k4'!K7,'k4'!O7,'k4'!S7,'k4'!W7,'k4'!AA7,'k4'!AE7,'k4'!AI7,'k4'!AM7)</f>
         <v>679.32499999999993</v>
       </c>
-      <c r="K63">
+      <c r="J68">
         <f>AVERAGE('k4'!E7,'k4'!I7,'k4'!M7,'k4'!Q7,'k4'!U7,'k4'!Y7,'k4'!AC7,'k4'!AG7,'k4'!AK7,'k4'!AO7)</f>
         <v>1285.0130000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68">
+        <v>181</v>
+      </c>
+      <c r="M68">
+        <v>183.2</v>
+      </c>
+      <c r="N68">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>145</v>
       </c>
-      <c r="C64">
+      <c r="C69">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>3604.64</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <f>MIN('k4'!B8,'k4'!F8,'k4'!J8,'k4'!N8,'k4'!R8,'k4'!V8,'k4'!Z8,'k4'!AD8,'k4'!AH8,'k4'!AL8)</f>
         <v>150</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="11"/>
+      <c r="F69" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G64">
+      <c r="G69">
         <f>AVERAGE('k4'!B8,'k4'!F8,'k4'!J8,'k4'!N8,'k4'!R8,'k4'!V8,'k4'!Z8,'k4'!AD8,'k4'!AH8,'k4'!AL8)</f>
         <v>150.6</v>
       </c>
-      <c r="H64">
+      <c r="H69">
         <f>_xlfn.STDEV.P('k4'!B8,'k4'!F8,'k4'!J8,'k4'!N8,'k4'!R8,'k4'!V8,'k4'!Z8,'k4'!AD8,'k4'!AH8,'k4'!AL8)</f>
         <v>0.66332495807108005</v>
       </c>
-      <c r="I64">
-        <f>COUNTIF('k4'!B8:'k4'!F8:'k4'!J8:'k4'!N8:'k4'!R8:'k4'!V8:'k4'!Z8:'k4'!AD8:'k4'!AH8:'k4'!AL8,"="&amp;E64)/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="J64">
+      <c r="I69">
         <f>AVERAGE('k4'!C8,'k4'!G8,'k4'!K8,'k4'!O8,'k4'!S8,'k4'!W8,'k4'!AA8,'k4'!AE8,'k4'!AI8,'k4'!AM8)</f>
         <v>826.95299999999986</v>
       </c>
-      <c r="K64">
+      <c r="J69">
         <f>AVERAGE('k4'!E8,'k4'!I8,'k4'!M8,'k4'!Q8,'k4'!U8,'k4'!Y8,'k4'!AC8,'k4'!AG8,'k4'!AK8,'k4'!AO8)</f>
         <v>1394.2779999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="K69" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69">
+        <v>170</v>
+      </c>
+      <c r="M69">
+        <v>172.6</v>
+      </c>
+      <c r="N69">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>154</v>
       </c>
-      <c r="C65">
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>3655.54</v>
       </c>
-      <c r="E65">
+      <c r="E70">
         <f>MIN('k4'!B9,'k4'!F9,'k4'!J9,'k4'!N9,'k4'!R9,'k4'!V9,'k4'!Z9,'k4'!AD9,'k4'!AH9,'k4'!AL9)</f>
         <v>157</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="11"/>
+      <c r="F70" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G65">
+      <c r="G70">
         <f>AVERAGE('k4'!B9,'k4'!F9,'k4'!J9,'k4'!N9,'k4'!R9,'k4'!V9,'k4'!Z9,'k4'!AD9,'k4'!AH9,'k4'!AL9)</f>
         <v>158.30000000000001</v>
       </c>
-      <c r="H65">
+      <c r="H70">
         <f>_xlfn.STDEV.P('k4'!B9,'k4'!F9,'k4'!J9,'k4'!N9,'k4'!R9,'k4'!V9,'k4'!Z9,'k4'!AD9,'k4'!AH9,'k4'!AL9)</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="I65">
-        <f>COUNTIF('k4'!B9:'k4'!F9:'k4'!J9:'k4'!N9:'k4'!R9:'k4'!V9:'k4'!Z9:'k4'!AD9:'k4'!AH9:'k4'!AL9,"="&amp;E65)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J65">
+      <c r="I70">
         <f>AVERAGE('k4'!C9,'k4'!G9,'k4'!K9,'k4'!O9,'k4'!S9,'k4'!W9,'k4'!AA9,'k4'!AE9,'k4'!AI9,'k4'!AM9)</f>
         <v>387.58800000000008</v>
       </c>
-      <c r="K65">
+      <c r="J70">
         <f>AVERAGE('k4'!E9,'k4'!I9,'k4'!M9,'k4'!Q9,'k4'!U9,'k4'!Y9,'k4'!AC9,'k4'!AG9,'k4'!AK9,'k4'!AO9)</f>
         <v>633.97099999999989</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="K70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L70">
+        <v>181</v>
+      </c>
+      <c r="M70">
+        <v>182.3</v>
+      </c>
+      <c r="N70">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>170</v>
       </c>
-      <c r="C66">
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="D71">
         <v>3648.06</v>
       </c>
-      <c r="E66">
+      <c r="E71">
         <f>MIN('k4'!B10,'k4'!F10,'k4'!J10,'k4'!N10,'k4'!R10,'k4'!V10,'k4'!Z10,'k4'!AD10,'k4'!AH10,'k4'!AL10)</f>
         <v>174</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="11"/>
+      <c r="F71" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G66">
+      <c r="G71">
         <f>AVERAGE('k4'!B10,'k4'!F10,'k4'!J10,'k4'!N10,'k4'!R10,'k4'!V10,'k4'!Z10,'k4'!AD10,'k4'!AH10,'k4'!AL10)</f>
         <v>175.4</v>
       </c>
-      <c r="H66">
+      <c r="H71">
         <f>_xlfn.STDEV.P('k4'!B10,'k4'!F10,'k4'!J10,'k4'!N10,'k4'!R10,'k4'!V10,'k4'!Z10,'k4'!AD10,'k4'!AH10,'k4'!AL10)</f>
         <v>0.66332495807108005</v>
       </c>
-      <c r="I66">
-        <f>COUNTIF('k4'!B10:'k4'!F10:'k4'!J10:'k4'!N10:'k4'!R10:'k4'!V10:'k4'!Z10:'k4'!AD10:'k4'!AH10:'k4'!AL10,"="&amp;E66)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J66">
+      <c r="I71">
         <f>AVERAGE('k4'!C10,'k4'!G10,'k4'!K10,'k4'!O10,'k4'!S10,'k4'!W10,'k4'!AA10,'k4'!AE10,'k4'!AI10,'k4'!AM10)</f>
         <v>376.05700000000002</v>
       </c>
-      <c r="K66">
+      <c r="J71">
         <f>AVERAGE('k4'!E10,'k4'!I10,'k4'!M10,'k4'!Q10,'k4'!U10,'k4'!Y10,'k4'!AC10,'k4'!AG10,'k4'!AK10,'k4'!AO10)</f>
         <v>550.82300000000009</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="K71" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71">
+        <v>197</v>
+      </c>
+      <c r="M71">
+        <v>199.8</v>
+      </c>
+      <c r="N71">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>149</v>
       </c>
-      <c r="C67">
+      <c r="C72">
         <v>1</v>
       </c>
-      <c r="D67">
+      <c r="D72">
         <v>329.38</v>
       </c>
-      <c r="E67">
+      <c r="E72">
         <f>MIN('k4'!B11,'k4'!F11,'k4'!J11,'k4'!N11,'k4'!R11,'k4'!V11,'k4'!Z11,'k4'!AD11,'k4'!AH11,'k4'!AL11)</f>
         <v>152</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" si="11"/>
+      <c r="F72" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G67">
+      <c r="G72">
         <f>AVERAGE('k4'!B11,'k4'!F11,'k4'!J11,'k4'!N11,'k4'!R11,'k4'!V11,'k4'!Z11,'k4'!AD11,'k4'!AH11,'k4'!AL11)</f>
         <v>152.4</v>
       </c>
-      <c r="H67">
+      <c r="H72">
         <f>_xlfn.STDEV.P('k4'!B11,'k4'!F11,'k4'!J11,'k4'!N11,'k4'!R11,'k4'!V11,'k4'!Z11,'k4'!AD11,'k4'!AH11,'k4'!AL11)</f>
         <v>0.4898979485566356</v>
       </c>
-      <c r="I67">
-        <f>COUNTIF('k4'!B11:'k4'!F11:'k4'!J11:'k4'!N11:'k4'!R11:'k4'!V11:'k4'!Z11:'k4'!AD11:'k4'!AH11:'k4'!AL11,"="&amp;E67)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="J67">
+      <c r="I72">
         <f>AVERAGE('k4'!C11,'k4'!G11,'k4'!K11,'k4'!O11,'k4'!S11,'k4'!W11,'k4'!AA11,'k4'!AE11,'k4'!AI11,'k4'!AM11)</f>
         <v>1078.0520000000001</v>
       </c>
-      <c r="K67">
+      <c r="J72">
         <f>AVERAGE('k4'!E11,'k4'!I11,'k4'!M11,'k4'!Q11,'k4'!U11,'k4'!Y11,'k4'!AC11,'k4'!AG11,'k4'!AK11,'k4'!AO11)</f>
         <v>1737.1880000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72">
+        <v>186</v>
+      </c>
+      <c r="M72">
+        <v>187.1</v>
+      </c>
+      <c r="N72">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>145</v>
       </c>
-      <c r="C68">
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="D73">
         <v>3602.38</v>
       </c>
-      <c r="E68">
+      <c r="E73">
         <f>MIN('k4'!B12,'k4'!F12,'k4'!J12,'k4'!N12,'k4'!R12,'k4'!V12,'k4'!Z12,'k4'!AD12,'k4'!AH12,'k4'!AL12)</f>
         <v>151</v>
       </c>
-      <c r="F68" t="str">
-        <f t="shared" si="11"/>
+      <c r="F73" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G68">
+      <c r="G73">
         <f>AVERAGE('k4'!B12,'k4'!F12,'k4'!J12,'k4'!N12,'k4'!R12,'k4'!V12,'k4'!Z12,'k4'!AD12,'k4'!AH12,'k4'!AL12)</f>
         <v>152.6</v>
       </c>
-      <c r="H68">
+      <c r="H73">
         <f>_xlfn.STDEV.P('k4'!B12,'k4'!F12,'k4'!J12,'k4'!N12,'k4'!R12,'k4'!V12,'k4'!Z12,'k4'!AD12,'k4'!AH12,'k4'!AL12)</f>
         <v>1.0198039027185568</v>
       </c>
-      <c r="I68">
-        <f>COUNTIF('k4'!B12:'k4'!F12:'k4'!J12:'k4'!N12:'k4'!R12:'k4'!V12:'k4'!Z12:'k4'!AD12:'k4'!AH12:'k4'!AL12,"="&amp;E68)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J68">
+      <c r="I73">
         <f>AVERAGE('k4'!C12,'k4'!G12,'k4'!K12,'k4'!O12,'k4'!S12,'k4'!W12,'k4'!AA12,'k4'!AE12,'k4'!AI12,'k4'!AM12)</f>
         <v>1729.2720000000002</v>
       </c>
-      <c r="K68">
+      <c r="J73">
         <f>AVERAGE('k4'!E12,'k4'!I12,'k4'!M12,'k4'!Q12,'k4'!U12,'k4'!Y12,'k4'!AC12,'k4'!AG12,'k4'!AK12,'k4'!AO12)</f>
         <v>2846.0169999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="K73" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73">
+        <v>175</v>
+      </c>
+      <c r="M73">
+        <v>177.7</v>
+      </c>
+      <c r="N73">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <v>110</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>338.36</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <f>MIN('k4'!B13,'k4'!F13,'k4'!J13,'k4'!N13,'k4'!R13,'k4'!V13,'k4'!Z13,'k4'!AD13,'k4'!AH13,'k4'!AL13)</f>
         <v>112</v>
       </c>
-      <c r="F69" t="str">
-        <f t="shared" si="11"/>
+      <c r="F74" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G69">
+      <c r="G74">
         <f>AVERAGE('k4'!B13,'k4'!F13,'k4'!J13,'k4'!N13,'k4'!R13,'k4'!V13,'k4'!Z13,'k4'!AD13,'k4'!AH13,'k4'!AL13)</f>
         <v>114</v>
       </c>
-      <c r="H69">
+      <c r="H74">
         <f>_xlfn.STDEV.P('k4'!B13,'k4'!F13,'k4'!J13,'k4'!N13,'k4'!R13,'k4'!V13,'k4'!Z13,'k4'!AD13,'k4'!AH13,'k4'!AL13)</f>
         <v>1.1832159566199232</v>
       </c>
-      <c r="I69">
-        <f>COUNTIF('k4'!B13:'k4'!F13:'k4'!J13:'k4'!N13:'k4'!R13:'k4'!V13:'k4'!Z13:'k4'!AD13:'k4'!AH13:'k4'!AL13,"="&amp;E69)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J69">
+      <c r="I74">
         <f>AVERAGE('k4'!C13,'k4'!G13,'k4'!K13,'k4'!O13,'k4'!S13,'k4'!W13,'k4'!AA13,'k4'!AE13,'k4'!AI13,'k4'!AM13)</f>
         <v>981.00600000000009</v>
       </c>
-      <c r="K69">
+      <c r="J74">
         <f>AVERAGE('k4'!E13,'k4'!I13,'k4'!M13,'k4'!Q13,'k4'!U13,'k4'!Y13,'k4'!AC13,'k4'!AG13,'k4'!AK13,'k4'!AO13)</f>
         <v>1673.057</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="K74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74">
+        <v>132</v>
+      </c>
+      <c r="M74">
+        <v>133</v>
+      </c>
+      <c r="N74">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B70">
+      <c r="B75">
         <v>147</v>
       </c>
-      <c r="C70">
+      <c r="C75">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="D75">
         <v>3620.36</v>
       </c>
-      <c r="E70">
+      <c r="E75">
         <f>MIN('k4'!B14,'k4'!F14,'k4'!J14,'k4'!N14,'k4'!R14,'k4'!V14,'k4'!Z14,'k4'!AD14,'k4'!AH14,'k4'!AL14)</f>
         <v>154</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="11"/>
+      <c r="F75" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G70">
+      <c r="G75">
         <f>AVERAGE('k4'!B14,'k4'!F14,'k4'!J14,'k4'!N14,'k4'!R14,'k4'!V14,'k4'!Z14,'k4'!AD14,'k4'!AH14,'k4'!AL14)</f>
         <v>156.4</v>
       </c>
-      <c r="H70">
+      <c r="H75">
         <f>_xlfn.STDEV.P('k4'!B14,'k4'!F14,'k4'!J14,'k4'!N14,'k4'!R14,'k4'!V14,'k4'!Z14,'k4'!AD14,'k4'!AH14,'k4'!AL14)</f>
         <v>1.1135528725660042</v>
       </c>
-      <c r="I70">
-        <f>COUNTIF('k4'!B14:'k4'!F14:'k4'!J14:'k4'!N14:'k4'!R14:'k4'!V14:'k4'!Z14:'k4'!AD14:'k4'!AH14:'k4'!AL14,"="&amp;E70)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J70">
+      <c r="I75">
         <f>AVERAGE('k4'!C14,'k4'!G14,'k4'!K14,'k4'!O14,'k4'!S14,'k4'!W14,'k4'!AA14,'k4'!AE14,'k4'!AI14,'k4'!AM14)</f>
         <v>2584.7870000000007</v>
       </c>
-      <c r="K70">
+      <c r="J75">
         <f>AVERAGE('k4'!E14,'k4'!I14,'k4'!M14,'k4'!Q14,'k4'!U14,'k4'!Y14,'k4'!AC14,'k4'!AG14,'k4'!AK14,'k4'!AO14)</f>
         <v>3301.9650000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="K75" t="s">
+        <v>45</v>
+      </c>
+      <c r="L75">
+        <v>177</v>
+      </c>
+      <c r="M75">
+        <v>178.5</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>12</v>
       </c>
-      <c r="B71">
+      <c r="B76">
         <v>150</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>913.1</v>
       </c>
-      <c r="E71">
+      <c r="E76">
         <f>MIN('k4'!B15,'k4'!F15,'k4'!J15,'k4'!N15,'k4'!R15,'k4'!V15,'k4'!Z15,'k4'!AD15,'k4'!AH15,'k4'!AL15)</f>
         <v>153</v>
       </c>
-      <c r="F71" t="str">
-        <f t="shared" si="11"/>
+      <c r="F76" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G71">
+      <c r="G76">
         <f>AVERAGE('k4'!B15,'k4'!F15,'k4'!J15,'k4'!N15,'k4'!R15,'k4'!V15,'k4'!Z15,'k4'!AD15,'k4'!AH15,'k4'!AL15)</f>
         <v>154.80000000000001</v>
       </c>
-      <c r="H71">
+      <c r="H76">
         <f>_xlfn.STDEV.P('k4'!B15,'k4'!F15,'k4'!J15,'k4'!N15,'k4'!R15,'k4'!V15,'k4'!Z15,'k4'!AD15,'k4'!AH15,'k4'!AL15)</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="I71">
-        <f>COUNTIF('k4'!B15:'k4'!F15:'k4'!J15:'k4'!N15:'k4'!R15:'k4'!V15:'k4'!Z15:'k4'!AD15:'k4'!AH15:'k4'!AL15,"="&amp;E71)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J71">
+      <c r="I76">
         <f>AVERAGE('k4'!C15,'k4'!G15,'k4'!K15,'k4'!O15,'k4'!S15,'k4'!W15,'k4'!AA15,'k4'!AE15,'k4'!AI15,'k4'!AM15)</f>
         <v>1147.6460000000002</v>
       </c>
-      <c r="K71">
+      <c r="J76">
         <f>AVERAGE('k4'!E15,'k4'!I15,'k4'!M15,'k4'!Q15,'k4'!U15,'k4'!Y15,'k4'!AC15,'k4'!AG15,'k4'!AK15,'k4'!AO15)</f>
         <v>2103.5630000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="K76" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76">
+        <v>169</v>
+      </c>
+      <c r="M76">
+        <v>171.5</v>
+      </c>
+      <c r="N76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>13</v>
       </c>
-      <c r="B72">
+      <c r="B77">
         <v>160</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>236.64</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <f>MIN('k4'!B16,'k4'!F16,'k4'!J16,'k4'!N16,'k4'!R16,'k4'!V16,'k4'!Z16,'k4'!AD16,'k4'!AH16,'k4'!AL16)</f>
         <v>165</v>
       </c>
-      <c r="F72" t="str">
-        <f t="shared" si="11"/>
+      <c r="F77" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G72">
+      <c r="G77">
         <f>AVERAGE('k4'!B16,'k4'!F16,'k4'!J16,'k4'!N16,'k4'!R16,'k4'!V16,'k4'!Z16,'k4'!AD16,'k4'!AH16,'k4'!AL16)</f>
         <v>166.6</v>
       </c>
-      <c r="H72">
+      <c r="H77">
         <f>_xlfn.STDEV.P('k4'!B16,'k4'!F16,'k4'!J16,'k4'!N16,'k4'!R16,'k4'!V16,'k4'!Z16,'k4'!AD16,'k4'!AH16,'k4'!AL16)</f>
         <v>1.0198039027185568</v>
       </c>
-      <c r="I72">
-        <f>COUNTIF('k4'!B16:'k4'!F16:'k4'!J16:'k4'!N16:'k4'!R16:'k4'!V16:'k4'!Z16:'k4'!AD16:'k4'!AH16:'k4'!AL16,"="&amp;E72)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J72">
+      <c r="I77">
         <f>AVERAGE('k4'!C16,'k4'!G16,'k4'!K16,'k4'!O16,'k4'!S16,'k4'!W16,'k4'!AA16,'k4'!AE16,'k4'!AI16,'k4'!AM16)</f>
         <v>1827.64</v>
       </c>
-      <c r="K72">
+      <c r="J77">
         <f>AVERAGE('k4'!E16,'k4'!I16,'k4'!M16,'k4'!Q16,'k4'!U16,'k4'!Y16,'k4'!AC16,'k4'!AG16,'k4'!AK16,'k4'!AO16)</f>
         <v>2718.3130000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77">
+        <v>193</v>
+      </c>
+      <c r="M77">
+        <v>195.2</v>
+      </c>
+      <c r="N77">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>14</v>
       </c>
-      <c r="B73">
+      <c r="B78">
         <v>89</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>1</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>17.079999999999998</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <f>MIN('k4'!B17,'k4'!F17,'k4'!J17,'k4'!N17,'k4'!R17,'k4'!V17,'k4'!Z17,'k4'!AD17,'k4'!AH17,'k4'!AL17)</f>
         <v>89</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="11"/>
+      <c r="F78" t="str">
+        <f t="shared" si="10"/>
         <v>best</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <f>AVERAGE('k4'!B17,'k4'!F17,'k4'!J17,'k4'!N17,'k4'!R17,'k4'!V17,'k4'!Z17,'k4'!AD17,'k4'!AH17,'k4'!AL17)</f>
         <v>89.2</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <f>_xlfn.STDEV.P('k4'!B17,'k4'!F17,'k4'!J17,'k4'!N17,'k4'!R17,'k4'!V17,'k4'!Z17,'k4'!AD17,'k4'!AH17,'k4'!AL17)</f>
         <v>0.4</v>
       </c>
-      <c r="I73">
-        <f>COUNTIF('k4'!B17:'k4'!F17:'k4'!J17:'k4'!N17:'k4'!R17:'k4'!V17:'k4'!Z17:'k4'!AD17:'k4'!AH17:'k4'!AL17,"="&amp;E73)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="J73">
+      <c r="I78">
         <f>AVERAGE('k4'!C17,'k4'!G17,'k4'!K17,'k4'!O17,'k4'!S17,'k4'!W17,'k4'!AA17,'k4'!AE17,'k4'!AI17,'k4'!AM17)</f>
         <v>23.79</v>
       </c>
-      <c r="K73">
+      <c r="J78">
         <f>AVERAGE('k4'!E17,'k4'!I17,'k4'!M17,'k4'!Q17,'k4'!U17,'k4'!Y17,'k4'!AC17,'k4'!AG17,'k4'!AK17,'k4'!AO17)</f>
         <v>114.91800000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="K78" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78">
+        <v>99</v>
+      </c>
+      <c r="M78">
+        <v>100.8</v>
+      </c>
+      <c r="N78">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>15</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>115</v>
       </c>
-      <c r="C74">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>227.07</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <f>MIN('k4'!B18,'k4'!F18,'k4'!J18,'k4'!N18,'k4'!R18,'k4'!V18,'k4'!Z18,'k4'!AD18,'k4'!AH18,'k4'!AL18)</f>
         <v>115</v>
       </c>
-      <c r="F74" t="str">
-        <f>IF(E74=$B74,"best","")</f>
+      <c r="F79" t="str">
+        <f>IF(E79=$B79,"best","")</f>
         <v>best</v>
       </c>
-      <c r="G74">
+      <c r="G79">
         <f>AVERAGE('k4'!B18,'k4'!F18,'k4'!J18,'k4'!N18,'k4'!R18,'k4'!V18,'k4'!Z18,'k4'!AD18,'k4'!AH18,'k4'!AL18)</f>
         <v>116</v>
       </c>
-      <c r="H74">
+      <c r="H79">
         <f>_xlfn.STDEV.P('k4'!B18,'k4'!F18,'k4'!J18,'k4'!N18,'k4'!R18,'k4'!V18,'k4'!Z18,'k4'!AD18,'k4'!AH18,'k4'!AL18)</f>
         <v>0.89442719099991586</v>
       </c>
-      <c r="I74">
-        <f>COUNTIF('k4'!B18:'k4'!F18:'k4'!J18:'k4'!N18:'k4'!R18:'k4'!V18:'k4'!Z18:'k4'!AD18:'k4'!AH18:'k4'!AL18,"="&amp;E74)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J74">
+      <c r="I79">
         <f>AVERAGE('k4'!C18,'k4'!G18,'k4'!K18,'k4'!O18,'k4'!S18,'k4'!W18,'k4'!AA18,'k4'!AE18,'k4'!AI18,'k4'!AM18)</f>
         <v>919.92699999999991</v>
       </c>
-      <c r="K74">
+      <c r="J79">
         <f>AVERAGE('k4'!E18,'k4'!I18,'k4'!M18,'k4'!Q18,'k4'!U18,'k4'!Y18,'k4'!AC18,'k4'!AG18,'k4'!AK18,'k4'!AO18)</f>
         <v>1725.652</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="K79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L79">
+        <v>135</v>
+      </c>
+      <c r="M79">
+        <v>137</v>
+      </c>
+      <c r="N79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B75">
+      <c r="B80">
         <v>156</v>
       </c>
-      <c r="C75">
+      <c r="C80">
         <v>0</v>
       </c>
-      <c r="D75">
+      <c r="D80">
         <v>3650.96</v>
       </c>
-      <c r="E75">
+      <c r="E80">
         <f>MIN('k4'!B19,'k4'!F19,'k4'!J19,'k4'!N19,'k4'!R19,'k4'!V19,'k4'!Z19,'k4'!AD19,'k4'!AH19,'k4'!AL19)</f>
         <v>160</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="11"/>
+      <c r="F80" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G75">
+      <c r="G80">
         <f>AVERAGE('k4'!B19,'k4'!F19,'k4'!J19,'k4'!N19,'k4'!R19,'k4'!V19,'k4'!Z19,'k4'!AD19,'k4'!AH19,'k4'!AL19)</f>
         <v>161.6</v>
       </c>
-      <c r="H75">
+      <c r="H80">
         <f>_xlfn.STDEV.P('k4'!B19,'k4'!F19,'k4'!J19,'k4'!N19,'k4'!R19,'k4'!V19,'k4'!Z19,'k4'!AD19,'k4'!AH19,'k4'!AL19)</f>
         <v>1.0198039027185568</v>
       </c>
-      <c r="I75">
-        <f>COUNTIF('k4'!B19:'k4'!F19:'k4'!J19:'k4'!N19:'k4'!R19:'k4'!V19:'k4'!Z19:'k4'!AD19:'k4'!AH19:'k4'!AL19,"="&amp;E75)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J75">
+      <c r="I80">
         <f>AVERAGE('k4'!C19,'k4'!G19,'k4'!K19,'k4'!O19,'k4'!S19,'k4'!W19,'k4'!AA19,'k4'!AE19,'k4'!AI19,'k4'!AM19)</f>
         <v>850.46400000000017</v>
       </c>
-      <c r="K75">
+      <c r="J80">
         <f>AVERAGE('k4'!E19,'k4'!I19,'k4'!M19,'k4'!Q19,'k4'!U19,'k4'!Y19,'k4'!AC19,'k4'!AG19,'k4'!AK19,'k4'!AO19)</f>
         <v>1351.2440000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="K80" t="s">
+        <v>45</v>
+      </c>
+      <c r="L80">
+        <v>180</v>
+      </c>
+      <c r="M80">
+        <v>182.2</v>
+      </c>
+      <c r="N80">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>17</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>96</v>
       </c>
-      <c r="C76">
+      <c r="C81">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="D81">
         <v>53.23</v>
       </c>
-      <c r="E76">
+      <c r="E81">
         <f>MIN('k4'!B20,'k4'!F20,'k4'!J20,'k4'!N20,'k4'!R20,'k4'!V20,'k4'!Z20,'k4'!AD20,'k4'!AH20,'k4'!AL20)</f>
         <v>97</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="11"/>
+      <c r="F81" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G76">
+      <c r="G81">
         <f>AVERAGE('k4'!B20,'k4'!F20,'k4'!J20,'k4'!N20,'k4'!R20,'k4'!V20,'k4'!Z20,'k4'!AD20,'k4'!AH20,'k4'!AL20)</f>
         <v>97.8</v>
       </c>
-      <c r="H76">
+      <c r="H81">
         <f>_xlfn.STDEV.P('k4'!B20,'k4'!F20,'k4'!J20,'k4'!N20,'k4'!R20,'k4'!V20,'k4'!Z20,'k4'!AD20,'k4'!AH20,'k4'!AL20)</f>
         <v>0.4</v>
       </c>
-      <c r="I76">
-        <f>COUNTIF('k4'!B20:'k4'!F20:'k4'!J20:'k4'!N20:'k4'!R20:'k4'!V20:'k4'!Z20:'k4'!AD20:'k4'!AH20:'k4'!AL20,"="&amp;E76)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J76">
+      <c r="I81">
         <f>AVERAGE('k4'!C20,'k4'!G20,'k4'!K20,'k4'!O20,'k4'!S20,'k4'!W20,'k4'!AA20,'k4'!AE20,'k4'!AI20,'k4'!AM20)</f>
         <v>203.32399999999998</v>
       </c>
-      <c r="K76">
+      <c r="J81">
         <f>AVERAGE('k4'!E20,'k4'!I20,'k4'!M20,'k4'!Q20,'k4'!U20,'k4'!Y20,'k4'!AC20,'k4'!AG20,'k4'!AK20,'k4'!AO20)</f>
         <v>653.07200000000012</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="K81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81">
+        <v>112</v>
+      </c>
+      <c r="M81">
+        <v>113.2</v>
+      </c>
+      <c r="N81">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>18</v>
       </c>
-      <c r="B77">
+      <c r="B82">
         <v>138</v>
       </c>
-      <c r="C77">
+      <c r="C82">
         <v>0</v>
       </c>
-      <c r="D77">
+      <c r="D82">
         <v>3637.62</v>
       </c>
-      <c r="E77">
+      <c r="E82">
         <f>MIN('k4'!B21,'k4'!F21,'k4'!J21,'k4'!N21,'k4'!R21,'k4'!V21,'k4'!Z21,'k4'!AD21,'k4'!AH21,'k4'!AL21)</f>
         <v>142</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="11"/>
+      <c r="F82" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G77">
+      <c r="G82">
         <f>AVERAGE('k4'!B21,'k4'!F21,'k4'!J21,'k4'!N21,'k4'!R21,'k4'!V21,'k4'!Z21,'k4'!AD21,'k4'!AH21,'k4'!AL21)</f>
         <v>142.5</v>
       </c>
-      <c r="H77">
+      <c r="H82">
         <f>_xlfn.STDEV.P('k4'!B21,'k4'!F21,'k4'!J21,'k4'!N21,'k4'!R21,'k4'!V21,'k4'!Z21,'k4'!AD21,'k4'!AH21,'k4'!AL21)</f>
         <v>0.67082039324993692</v>
       </c>
-      <c r="I77">
-        <f>COUNTIF('k4'!B21:'k4'!F21:'k4'!J21:'k4'!N21:'k4'!R21:'k4'!V21:'k4'!Z21:'k4'!AD21:'k4'!AH21:'k4'!AL21,"="&amp;E77)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="J77">
+      <c r="I82">
         <f>AVERAGE('k4'!C21,'k4'!G21,'k4'!K21,'k4'!O21,'k4'!S21,'k4'!W21,'k4'!AA21,'k4'!AE21,'k4'!AI21,'k4'!AM21)</f>
         <v>2464.1019999999999</v>
       </c>
-      <c r="K77">
+      <c r="J82">
         <f>AVERAGE('k4'!E21,'k4'!I21,'k4'!M21,'k4'!Q21,'k4'!U21,'k4'!Y21,'k4'!AC21,'k4'!AG21,'k4'!AK21,'k4'!AO21)</f>
         <v>3539.1160000000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="K82" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82">
+        <v>162</v>
+      </c>
+      <c r="M82">
+        <v>163.6</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>19</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>129</v>
       </c>
-      <c r="C78">
+      <c r="C83">
         <v>1</v>
       </c>
-      <c r="D78">
+      <c r="D83">
         <v>31.71</v>
       </c>
-      <c r="E78">
+      <c r="E83">
         <f>MIN('k4'!B22,'k4'!F22,'k4'!J22,'k4'!N22,'k4'!R22,'k4'!V22,'k4'!Z22,'k4'!AD22,'k4'!AH22,'k4'!AL22)</f>
         <v>129</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="11"/>
+      <c r="F83" t="str">
+        <f t="shared" si="10"/>
         <v>best</v>
       </c>
-      <c r="G78">
+      <c r="G83">
         <f>AVERAGE('k4'!B22,'k4'!F22,'k4'!J22,'k4'!N22,'k4'!R22,'k4'!V22,'k4'!Z22,'k4'!AD22,'k4'!AH22,'k4'!AL22)</f>
         <v>130.1</v>
       </c>
-      <c r="H78">
+      <c r="H83">
         <f>_xlfn.STDEV.P('k4'!B22,'k4'!F22,'k4'!J22,'k4'!N22,'k4'!R22,'k4'!V22,'k4'!Z22,'k4'!AD22,'k4'!AH22,'k4'!AL22)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="I78">
-        <f>COUNTIF('k4'!B22:'k4'!F22:'k4'!J22:'k4'!N22:'k4'!R22:'k4'!V22:'k4'!Z22:'k4'!AD22:'k4'!AH22:'k4'!AL22,"="&amp;E78)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="J78">
+      <c r="I83">
         <f>AVERAGE('k4'!C22,'k4'!G22,'k4'!K22,'k4'!O22,'k4'!S22,'k4'!W22,'k4'!AA22,'k4'!AE22,'k4'!AI22,'k4'!AM22)</f>
         <v>359.89000000000004</v>
       </c>
-      <c r="K78">
+      <c r="J83">
         <f>AVERAGE('k4'!E22,'k4'!I22,'k4'!M22,'k4'!Q22,'k4'!U22,'k4'!Y22,'k4'!AC22,'k4'!AG22,'k4'!AK22,'k4'!AO22)</f>
         <v>630.53699999999992</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="K83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83">
+        <v>144</v>
+      </c>
+      <c r="M83">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="N83">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84">
+        <f>MIN('k4'!B23,'k4'!F23,'k4'!J23,'k4'!N23,'k4'!R23,'k4'!V23,'k4'!Z23,'k4'!AD23,'k4'!AH23,'k4'!AL23)</f>
+        <v>344</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G84">
+        <f>AVERAGE('k4'!B23,'k4'!F23,'k4'!J23,'k4'!N23,'k4'!R23,'k4'!V23,'k4'!Z23,'k4'!AD23,'k4'!AH23,'k4'!AL23)</f>
+        <v>346.3</v>
+      </c>
+      <c r="H84">
+        <f>_xlfn.STDEV.P('k4'!B23,'k4'!F23,'k4'!J23,'k4'!N23,'k4'!R23,'k4'!V23,'k4'!Z23,'k4'!AD23,'k4'!AH23,'k4'!AL23)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I84">
+        <f>AVERAGE('k4'!C23,'k4'!G23,'k4'!K23,'k4'!O23,'k4'!S23,'k4'!W23,'k4'!AA23,'k4'!AE23,'k4'!AI23,'k4'!AM23)</f>
+        <v>3441.4929999999995</v>
+      </c>
+      <c r="J84">
+        <f>AVERAGE('k4'!E23,'k4'!I23,'k4'!M23,'k4'!Q23,'k4'!U23,'k4'!Y23,'k4'!AC23,'k4'!AG23,'k4'!AK23,'k4'!AO23)</f>
+        <v>3610.9360000000001</v>
+      </c>
+      <c r="K84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L84">
+        <v>397</v>
+      </c>
+      <c r="M84">
+        <v>400.1</v>
+      </c>
+      <c r="N84">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85">
+        <f>MIN('k4'!B24,'k4'!F24,'k4'!J24,'k4'!N24,'k4'!R24,'k4'!V24,'k4'!Z24,'k4'!AD24,'k4'!AH24,'k4'!AL24)</f>
+        <v>408</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G85">
+        <f>AVERAGE('k4'!B24,'k4'!F24,'k4'!J24,'k4'!N24,'k4'!R24,'k4'!V24,'k4'!Z24,'k4'!AD24,'k4'!AH24,'k4'!AL24)</f>
+        <v>409.2</v>
+      </c>
+      <c r="H85">
+        <f>_xlfn.STDEV.P('k4'!B24,'k4'!F24,'k4'!J24,'k4'!N24,'k4'!R24,'k4'!V24,'k4'!Z24,'k4'!AD24,'k4'!AH24,'k4'!AL24)</f>
+        <v>0.74833147735478833</v>
+      </c>
+      <c r="I85">
+        <f>AVERAGE('k4'!C24,'k4'!G24,'k4'!K24,'k4'!O24,'k4'!S24,'k4'!W24,'k4'!AA24,'k4'!AE24,'k4'!AI24,'k4'!AM24)</f>
+        <v>2130.7840000000006</v>
+      </c>
+      <c r="J85">
+        <f>AVERAGE('k4'!E24,'k4'!I24,'k4'!M24,'k4'!Q24,'k4'!U24,'k4'!Y24,'k4'!AC24,'k4'!AG24,'k4'!AK24,'k4'!AO24)</f>
+        <v>3612.0430000000001</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85">
+        <v>501</v>
+      </c>
+      <c r="M85">
+        <v>503.4</v>
+      </c>
+      <c r="N85">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86">
+        <f>MIN('k4'!B25,'k4'!F25,'k4'!J25,'k4'!N25,'k4'!R25,'k4'!V25,'k4'!Z25,'k4'!AD25,'k4'!AH25,'k4'!AL25)</f>
+        <v>341</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G86">
+        <f>AVERAGE('k4'!B25,'k4'!F25,'k4'!J25,'k4'!N25,'k4'!R25,'k4'!V25,'k4'!Z25,'k4'!AD25,'k4'!AH25,'k4'!AL25)</f>
+        <v>341</v>
+      </c>
+      <c r="H86">
+        <f>_xlfn.STDEV.P('k4'!B25,'k4'!F25,'k4'!J25,'k4'!N25,'k4'!R25,'k4'!V25,'k4'!Z25,'k4'!AD25,'k4'!AH25,'k4'!AL25)</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>AVERAGE('k4'!C25,'k4'!G25,'k4'!K25,'k4'!O25,'k4'!S25,'k4'!W25,'k4'!AA25,'k4'!AE25,'k4'!AI25,'k4'!AM25)</f>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f>AVERAGE('k4'!E25,'k4'!I25,'k4'!M25,'k4'!Q25,'k4'!U25,'k4'!Y25,'k4'!AC25,'k4'!AG25,'k4'!AK25,'k4'!AO25)</f>
+        <v>9339.9700000000012</v>
+      </c>
+      <c r="K86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+      <c r="M86">
+        <v>255.4</v>
+      </c>
+      <c r="N86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87">
+        <f>MIN('k4'!B26,'k4'!F26,'k4'!J26,'k4'!N26,'k4'!R26,'k4'!V26,'k4'!Z26,'k4'!AD26,'k4'!AH26,'k4'!AL26)</f>
+        <v>363</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G87">
+        <f>AVERAGE('k4'!B26,'k4'!F26,'k4'!J26,'k4'!N26,'k4'!R26,'k4'!V26,'k4'!Z26,'k4'!AD26,'k4'!AH26,'k4'!AL26)</f>
+        <v>363</v>
+      </c>
+      <c r="H87">
+        <f>_xlfn.STDEV.P('k4'!B26,'k4'!F26,'k4'!J26,'k4'!N26,'k4'!R26,'k4'!V26,'k4'!Z26,'k4'!AD26,'k4'!AH26,'k4'!AL26)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>AVERAGE('k4'!C26,'k4'!G26,'k4'!K26,'k4'!O26,'k4'!S26,'k4'!W26,'k4'!AA26,'k4'!AE26,'k4'!AI26,'k4'!AM26)</f>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f>AVERAGE('k4'!E26,'k4'!I26,'k4'!M26,'k4'!Q26,'k4'!U26,'k4'!Y26,'k4'!AC26,'k4'!AG26,'k4'!AK26,'k4'!AO26)</f>
+        <v>10035.541000000001</v>
+      </c>
+      <c r="K87" t="s">
+        <v>48</v>
+      </c>
+      <c r="L87">
+        <v>317</v>
+      </c>
+      <c r="M87">
+        <v>318.5</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <f>MIN('k4'!B27,'k4'!F27,'k4'!J27,'k4'!N27,'k4'!R27,'k4'!V27,'k4'!Z27,'k4'!AD27,'k4'!AH27,'k4'!AL27)</f>
+        <v>387</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G88">
+        <f>AVERAGE('k4'!B27,'k4'!F27,'k4'!J27,'k4'!N27,'k4'!R27,'k4'!V27,'k4'!Z27,'k4'!AD27,'k4'!AH27,'k4'!AL27)</f>
+        <v>391.5</v>
+      </c>
+      <c r="H88">
+        <f>_xlfn.STDEV.P('k4'!B27,'k4'!F27,'k4'!J27,'k4'!N27,'k4'!R27,'k4'!V27,'k4'!Z27,'k4'!AD27,'k4'!AH27,'k4'!AL27)</f>
+        <v>2.2912878474779199</v>
+      </c>
+      <c r="I88">
+        <f>AVERAGE('k4'!C27,'k4'!G27,'k4'!K27,'k4'!O27,'k4'!S27,'k4'!W27,'k4'!AA27,'k4'!AE27,'k4'!AI27,'k4'!AM27)</f>
+        <v>3364.1230000000005</v>
+      </c>
+      <c r="J88">
+        <f>AVERAGE('k4'!E27,'k4'!I27,'k4'!M27,'k4'!Q27,'k4'!U27,'k4'!Y27,'k4'!AC27,'k4'!AG27,'k4'!AK27,'k4'!AO27)</f>
+        <v>3601.5949999999998</v>
+      </c>
+      <c r="K88" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88">
+        <v>506</v>
+      </c>
+      <c r="M88">
+        <v>509.4</v>
+      </c>
+      <c r="N88">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="1">
-        <f t="shared" ref="B79" si="12">AVERAGE(B59:B78)</f>
+      <c r="B89" s="1">
+        <f>AVERAGE(B64:B88)</f>
         <v>135.35</v>
       </c>
-      <c r="C79" s="1">
-        <f t="shared" ref="C79" si="13">AVERAGE(C59:C78)</f>
+      <c r="C89" s="1">
+        <f t="shared" ref="C89" si="11">AVERAGE(C64:C88)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D79" s="1">
-        <f t="shared" ref="D79" si="14">AVERAGE(D59:D78)</f>
+      <c r="D89" s="1">
+        <f t="shared" ref="D89" si="12">AVERAGE(D64:D88)</f>
         <v>1894.1545000000006</v>
       </c>
-      <c r="E79" s="1">
-        <f>AVERAGE(E59:E78)</f>
-        <v>138.44999999999999</v>
-      </c>
-      <c r="F79" s="1">
-        <f>COUNTIF(F59:F78, "best")</f>
+      <c r="E89" s="1">
+        <f t="shared" ref="E89" si="13">AVERAGE(E64:E88)</f>
+        <v>184.48</v>
+      </c>
+      <c r="F89" s="1">
+        <f>COUNTIF(F64:F88, "best")</f>
         <v>3</v>
       </c>
-      <c r="G79" s="1">
-        <f t="shared" ref="G79" si="15">AVERAGE(G59:G78)</f>
-        <v>139.755</v>
-      </c>
-      <c r="H79" s="1">
-        <f t="shared" ref="H79" si="16">AVERAGE(H59:H78)</f>
-        <v>0.87437300565139076</v>
-      </c>
-      <c r="I79" s="6">
-        <f>AVERAGE(I59:I78)</f>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="J79" s="1">
-        <f t="shared" ref="J79" si="17">AVERAGE(J59:J78)</f>
-        <v>1001.15745</v>
-      </c>
-      <c r="K79" s="1">
-        <f t="shared" ref="K79" si="18">AVERAGE(K59:K78)</f>
-        <v>1595.4636</v>
+      <c r="G89" s="1">
+        <f t="shared" ref="G89" si="14">AVERAGE(G64:G88)</f>
+        <v>185.84400000000002</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" ref="H89" si="15">AVERAGE(H64:H88)</f>
+        <v>0.8650831775144211</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" ref="I89" si="16">AVERAGE(I64:I88)</f>
+        <v>1158.3819599999999</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" ref="J89" si="17">AVERAGE(J64:J88)</f>
+        <v>2484.37428</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1">
+        <f t="shared" ref="L89" si="18">AVERAGE(L64:L88)</f>
+        <v>206.88</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" ref="M89" si="19">AVERAGE(M64:M88)</f>
+        <v>208.84399999999994</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" ref="N89" si="20">AVERAGE(N64:N88)</f>
+        <v>1.2959999999999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M1:P79">
-    <sortCondition ref="M1:M79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:O89">
+    <sortCondition ref="L1:L89"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="E2:J2"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E62:J62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3686,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A399-1392-421F-BE16-4A68D42F8610}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29:AH33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +7284,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>92</v>
@@ -6501,112 +7400,112 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C24">
-        <v>2165.84</v>
+        <v>3503.4</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24">
-        <v>3602.35</v>
+        <v>3609.77</v>
       </c>
       <c r="F24">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>3508.45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>3616.36</v>
+      </c>
+      <c r="J24">
+        <v>107</v>
+      </c>
+      <c r="K24">
+        <v>2574.02</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>3612.31</v>
+      </c>
+      <c r="N24">
         <v>103</v>
       </c>
-      <c r="G24">
-        <v>1083.24</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>3602.66</v>
-      </c>
-      <c r="J24">
+      <c r="O24">
+        <v>3561.51</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>3608.61</v>
+      </c>
+      <c r="R24">
+        <v>106</v>
+      </c>
+      <c r="S24">
+        <v>2947.78</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>3603.53</v>
+      </c>
+      <c r="V24">
         <v>104</v>
       </c>
-      <c r="K24">
-        <v>2571.86</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>3600.71</v>
-      </c>
-      <c r="N24">
-        <v>104</v>
-      </c>
-      <c r="O24">
-        <v>3189.09</v>
-      </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24">
-        <v>3600.79</v>
-      </c>
-      <c r="R24">
-        <v>102</v>
-      </c>
-      <c r="S24">
-        <v>1738.02</v>
-      </c>
-      <c r="T24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24">
-        <v>3606.54</v>
-      </c>
-      <c r="V24">
-        <v>101</v>
-      </c>
       <c r="W24">
-        <v>1558.53</v>
+        <v>3085.15</v>
       </c>
       <c r="X24" t="s">
         <v>25</v>
       </c>
       <c r="Y24">
-        <v>3600.27</v>
+        <v>3604.85</v>
       </c>
       <c r="Z24">
         <v>103</v>
       </c>
       <c r="AA24">
-        <v>2119.84</v>
+        <v>3507.11</v>
       </c>
       <c r="AB24" t="s">
         <v>25</v>
       </c>
       <c r="AC24">
-        <v>3600.51</v>
+        <v>3608.78</v>
       </c>
       <c r="AD24">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AE24">
-        <v>2749.35</v>
+        <v>3053.82</v>
       </c>
       <c r="AF24" t="s">
         <v>25</v>
       </c>
       <c r="AG24">
-        <v>3606.79</v>
+        <v>3615.13</v>
       </c>
       <c r="AH24">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AI24">
-        <v>3591.41</v>
+        <v>3589.31</v>
       </c>
       <c r="AJ24" t="s">
         <v>25</v>
       </c>
       <c r="AK24">
-        <v>3600.28</v>
+        <v>3605.74</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -6614,112 +7513,112 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C25">
-        <v>3503.4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3609.77</v>
+        <v>3811.6</v>
       </c>
       <c r="F25">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G25">
-        <v>3508.45</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25">
-        <v>3616.36</v>
+        <v>3788.09</v>
       </c>
       <c r="J25">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K25">
-        <v>2574.02</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
       </c>
       <c r="M25">
-        <v>3612.31</v>
+        <v>3749.63</v>
       </c>
       <c r="N25">
+        <v>99</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>3656.19</v>
+      </c>
+      <c r="R25">
+        <v>102</v>
+      </c>
+      <c r="S25">
+        <v>3466.99</v>
+      </c>
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25">
+        <v>3607.68</v>
+      </c>
+      <c r="V25">
         <v>103</v>
       </c>
-      <c r="O25">
-        <v>3561.51</v>
-      </c>
-      <c r="P25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25">
-        <v>3608.61</v>
-      </c>
-      <c r="R25">
-        <v>106</v>
-      </c>
-      <c r="S25">
-        <v>2947.78</v>
-      </c>
-      <c r="T25" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25">
-        <v>3603.53</v>
-      </c>
-      <c r="V25">
-        <v>104</v>
-      </c>
       <c r="W25">
-        <v>3085.15</v>
+        <v>0</v>
       </c>
       <c r="X25" t="s">
         <v>25</v>
       </c>
       <c r="Y25">
-        <v>3604.85</v>
+        <v>3654.3</v>
       </c>
       <c r="Z25">
         <v>103</v>
       </c>
       <c r="AA25">
-        <v>3507.11</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="s">
         <v>25</v>
       </c>
       <c r="AC25">
-        <v>3608.78</v>
+        <v>3626.92</v>
       </c>
       <c r="AD25">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE25">
-        <v>3053.82</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="s">
         <v>25</v>
       </c>
       <c r="AG25">
-        <v>3615.13</v>
+        <v>3620.35</v>
       </c>
       <c r="AH25">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AI25">
-        <v>3589.31</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="s">
         <v>25</v>
       </c>
       <c r="AK25">
-        <v>3605.74</v>
+        <v>3655.39</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -6727,7 +7626,7 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6736,10 +7635,10 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>3811.6</v>
+        <v>4050.57</v>
       </c>
       <c r="F26">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -6748,10 +7647,10 @@
         <v>25</v>
       </c>
       <c r="I26">
-        <v>3788.09</v>
+        <v>3954.61</v>
       </c>
       <c r="J26">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -6760,10 +7659,10 @@
         <v>25</v>
       </c>
       <c r="M26">
-        <v>3749.63</v>
+        <v>3991.56</v>
       </c>
       <c r="N26">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6772,180 +7671,180 @@
         <v>25</v>
       </c>
       <c r="Q26">
-        <v>3656.19</v>
+        <v>3842.64</v>
       </c>
       <c r="R26">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S26">
-        <v>3466.99</v>
+        <v>3680.4</v>
       </c>
       <c r="T26" t="s">
         <v>25</v>
       </c>
       <c r="U26">
-        <v>3607.68</v>
+        <v>3680.4</v>
       </c>
       <c r="V26">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3336.68</v>
       </c>
       <c r="X26" t="s">
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>3654.3</v>
+        <v>3740.07</v>
       </c>
       <c r="Z26">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2944.01</v>
       </c>
       <c r="AB26" t="s">
         <v>25</v>
       </c>
       <c r="AC26">
-        <v>3626.92</v>
+        <v>3610.89</v>
       </c>
       <c r="AD26">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>3600.52</v>
       </c>
       <c r="AF26" t="s">
         <v>25</v>
       </c>
       <c r="AG26">
-        <v>3620.35</v>
+        <v>3600.52</v>
       </c>
       <c r="AH26">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3523.76</v>
       </c>
       <c r="AJ26" t="s">
         <v>25</v>
       </c>
       <c r="AK26">
-        <v>3655.39</v>
+        <v>3641.01</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2165.84</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27">
-        <v>4050.57</v>
+        <v>3602.35</v>
       </c>
       <c r="F27">
         <v>103</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1083.24</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
       </c>
       <c r="I27">
-        <v>3954.61</v>
+        <v>3602.66</v>
       </c>
       <c r="J27">
+        <v>104</v>
+      </c>
+      <c r="K27">
+        <v>2571.86</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>3600.71</v>
+      </c>
+      <c r="N27">
+        <v>104</v>
+      </c>
+      <c r="O27">
+        <v>3189.09</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>3600.79</v>
+      </c>
+      <c r="R27">
+        <v>102</v>
+      </c>
+      <c r="S27">
+        <v>1738.02</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <v>3606.54</v>
+      </c>
+      <c r="V27">
+        <v>101</v>
+      </c>
+      <c r="W27">
+        <v>1558.53</v>
+      </c>
+      <c r="X27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27">
+        <v>3600.27</v>
+      </c>
+      <c r="Z27">
         <v>103</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>3991.56</v>
-      </c>
-      <c r="N27">
-        <v>103</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27">
-        <v>3842.64</v>
-      </c>
-      <c r="R27">
-        <v>97</v>
-      </c>
-      <c r="S27">
-        <v>3680.4</v>
-      </c>
-      <c r="T27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27">
-        <v>3680.4</v>
-      </c>
-      <c r="V27">
-        <v>97</v>
-      </c>
-      <c r="W27">
-        <v>3336.68</v>
-      </c>
-      <c r="X27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27">
-        <v>3740.07</v>
-      </c>
-      <c r="Z27">
-        <v>96</v>
-      </c>
       <c r="AA27">
-        <v>2944.01</v>
+        <v>2119.84</v>
       </c>
       <c r="AB27" t="s">
         <v>25</v>
       </c>
       <c r="AC27">
-        <v>3610.89</v>
+        <v>3600.51</v>
       </c>
       <c r="AD27">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE27">
-        <v>3600.52</v>
+        <v>2749.35</v>
       </c>
       <c r="AF27" t="s">
         <v>25</v>
       </c>
       <c r="AG27">
-        <v>3600.52</v>
+        <v>3606.79</v>
       </c>
       <c r="AH27">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AI27">
-        <v>3523.76</v>
+        <v>3591.41</v>
       </c>
       <c r="AJ27" t="s">
         <v>25</v>
       </c>
       <c r="AK27">
-        <v>3641.01</v>
+        <v>3600.28</v>
       </c>
     </row>
   </sheetData>
@@ -6967,10 +7866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1899936-B5F7-44DD-83C8-1FC6D40F114A}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9660,6 +10559,631 @@
       </c>
       <c r="AO22">
         <v>760.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>169</v>
+      </c>
+      <c r="C23">
+        <v>3565.8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>3620.72</v>
+      </c>
+      <c r="F23">
+        <v>171</v>
+      </c>
+      <c r="G23">
+        <v>3443.38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>3613.59</v>
+      </c>
+      <c r="J23">
+        <v>175</v>
+      </c>
+      <c r="K23">
+        <v>3457.87</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>3603.99</v>
+      </c>
+      <c r="N23">
+        <v>173</v>
+      </c>
+      <c r="O23">
+        <v>3344.65</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>3627.95</v>
+      </c>
+      <c r="R23">
+        <v>172</v>
+      </c>
+      <c r="S23">
+        <v>3621.66</v>
+      </c>
+      <c r="T23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23">
+        <v>3621.66</v>
+      </c>
+      <c r="V23">
+        <v>171</v>
+      </c>
+      <c r="W23">
+        <v>3396.92</v>
+      </c>
+      <c r="X23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>3620.34</v>
+      </c>
+      <c r="Z23">
+        <v>176</v>
+      </c>
+      <c r="AA23">
+        <v>3388.04</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23">
+        <v>3601.82</v>
+      </c>
+      <c r="AD23">
+        <v>174</v>
+      </c>
+      <c r="AE23">
+        <v>3254.8</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23">
+        <v>3616.28</v>
+      </c>
+      <c r="AH23">
+        <v>172</v>
+      </c>
+      <c r="AI23">
+        <v>3509.27</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK23">
+        <v>3610.14</v>
+      </c>
+      <c r="AL23">
+        <v>170</v>
+      </c>
+      <c r="AM23">
+        <v>3559.77</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO23">
+        <v>3604.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>207</v>
+      </c>
+      <c r="C24">
+        <v>3410.38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>3605.35</v>
+      </c>
+      <c r="F24">
+        <v>208</v>
+      </c>
+      <c r="G24">
+        <v>3461.7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>3609.12</v>
+      </c>
+      <c r="J24">
+        <v>206</v>
+      </c>
+      <c r="K24">
+        <v>3449.28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>3612.14</v>
+      </c>
+      <c r="N24">
+        <v>207</v>
+      </c>
+      <c r="O24">
+        <v>3164.39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>3614.89</v>
+      </c>
+      <c r="R24">
+        <v>207</v>
+      </c>
+      <c r="S24">
+        <v>3437.39</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>3618</v>
+      </c>
+      <c r="V24">
+        <v>207</v>
+      </c>
+      <c r="W24">
+        <v>3425.4</v>
+      </c>
+      <c r="X24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>3604.39</v>
+      </c>
+      <c r="Z24">
+        <v>208</v>
+      </c>
+      <c r="AA24">
+        <v>3122.26</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <v>3609.18</v>
+      </c>
+      <c r="AD24">
+        <v>207</v>
+      </c>
+      <c r="AE24">
+        <v>3397.3</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG24">
+        <v>3609.53</v>
+      </c>
+      <c r="AH24">
+        <v>208</v>
+      </c>
+      <c r="AI24">
+        <v>3392.56</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>3606.37</v>
+      </c>
+      <c r="AL24">
+        <v>206</v>
+      </c>
+      <c r="AM24">
+        <v>3376.98</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO24">
+        <v>3626.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>181</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>5086.37</v>
+      </c>
+      <c r="F25">
+        <v>181</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>5177.62</v>
+      </c>
+      <c r="J25">
+        <v>198</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>5881.25</v>
+      </c>
+      <c r="N25">
+        <v>198</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>5721.34</v>
+      </c>
+      <c r="R25">
+        <v>198</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25">
+        <v>5865.35</v>
+      </c>
+      <c r="V25">
+        <v>198</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>5897.13</v>
+      </c>
+      <c r="Z25">
+        <v>198</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25">
+        <v>5918.35</v>
+      </c>
+      <c r="AD25">
+        <v>198</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG25">
+        <v>5891.93</v>
+      </c>
+      <c r="AH25">
+        <v>198</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK25">
+        <v>5809.67</v>
+      </c>
+      <c r="AL25">
+        <v>198</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO25">
+        <v>5828.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>198</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>5653.98</v>
+      </c>
+      <c r="F26">
+        <v>198</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>5628</v>
+      </c>
+      <c r="J26">
+        <v>181</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>5081.37</v>
+      </c>
+      <c r="N26">
+        <v>181</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <v>5056.53</v>
+      </c>
+      <c r="R26">
+        <v>181</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26">
+        <v>5117.76</v>
+      </c>
+      <c r="V26">
+        <v>181</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <v>5087.2700000000004</v>
+      </c>
+      <c r="Z26">
+        <v>181</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>5065.68</v>
+      </c>
+      <c r="AD26">
+        <v>181</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26">
+        <v>5129.88</v>
+      </c>
+      <c r="AH26">
+        <v>181</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK26">
+        <v>5062.8599999999997</v>
+      </c>
+      <c r="AL26">
+        <v>181</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO26">
+        <v>5017.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>202</v>
+      </c>
+      <c r="C27">
+        <v>3502.73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>3600.56</v>
+      </c>
+      <c r="F27">
+        <v>199</v>
+      </c>
+      <c r="G27">
+        <v>2434.4299999999998</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>3602.17</v>
+      </c>
+      <c r="J27">
+        <v>203</v>
+      </c>
+      <c r="K27">
+        <v>2135.4499999999998</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>3600.86</v>
+      </c>
+      <c r="N27">
+        <v>205</v>
+      </c>
+      <c r="O27">
+        <v>3372.19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>3606.03</v>
+      </c>
+      <c r="R27">
+        <v>200</v>
+      </c>
+      <c r="S27">
+        <v>2760.95</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <v>3608.56</v>
+      </c>
+      <c r="V27">
+        <v>201</v>
+      </c>
+      <c r="W27">
+        <v>2313.71</v>
+      </c>
+      <c r="X27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27">
+        <v>3601.53</v>
+      </c>
+      <c r="Z27">
+        <v>203</v>
+      </c>
+      <c r="AA27">
+        <v>2141.46</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27">
+        <v>3602.07</v>
+      </c>
+      <c r="AD27">
+        <v>201</v>
+      </c>
+      <c r="AE27">
+        <v>3153.98</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27">
+        <v>3600.09</v>
+      </c>
+      <c r="AH27">
+        <v>197</v>
+      </c>
+      <c r="AI27">
+        <v>3386.32</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK27">
+        <v>3601.72</v>
+      </c>
+      <c r="AL27">
+        <v>200</v>
+      </c>
+      <c r="AM27">
+        <v>3440.95</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO27">
+        <v>3600.06</v>
       </c>
     </row>
   </sheetData>
@@ -9681,10 +11205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005DE69-62B8-4E9D-ACDF-70327098D6E2}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12374,6 +13898,631 @@
       </c>
       <c r="AO22">
         <v>726.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>347</v>
+      </c>
+      <c r="C23">
+        <v>3242.26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>3625.46</v>
+      </c>
+      <c r="F23">
+        <v>346</v>
+      </c>
+      <c r="G23">
+        <v>3506.44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>3601.59</v>
+      </c>
+      <c r="J23">
+        <v>347</v>
+      </c>
+      <c r="K23">
+        <v>3363.28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>3601.4</v>
+      </c>
+      <c r="N23">
+        <v>345</v>
+      </c>
+      <c r="O23">
+        <v>3543.14</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>3610.75</v>
+      </c>
+      <c r="R23">
+        <v>347</v>
+      </c>
+      <c r="S23">
+        <v>3214.66</v>
+      </c>
+      <c r="T23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23">
+        <v>3610.99</v>
+      </c>
+      <c r="V23">
+        <v>346</v>
+      </c>
+      <c r="W23">
+        <v>3507.42</v>
+      </c>
+      <c r="X23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>3608.79</v>
+      </c>
+      <c r="Z23">
+        <v>346</v>
+      </c>
+      <c r="AA23">
+        <v>3586.93</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23">
+        <v>3618.1</v>
+      </c>
+      <c r="AD23">
+        <v>347</v>
+      </c>
+      <c r="AE23">
+        <v>3559.57</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23">
+        <v>3603.47</v>
+      </c>
+      <c r="AH23">
+        <v>344</v>
+      </c>
+      <c r="AI23">
+        <v>3391.62</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK23">
+        <v>3609.22</v>
+      </c>
+      <c r="AL23">
+        <v>348</v>
+      </c>
+      <c r="AM23">
+        <v>3499.61</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO23">
+        <v>3619.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>408</v>
+      </c>
+      <c r="C24">
+        <v>3581.57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>3617.18</v>
+      </c>
+      <c r="F24">
+        <v>410</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>3612.5</v>
+      </c>
+      <c r="J24">
+        <v>409</v>
+      </c>
+      <c r="K24">
+        <v>3532.78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>3615.01</v>
+      </c>
+      <c r="N24">
+        <v>409</v>
+      </c>
+      <c r="O24">
+        <v>3542.85</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>3623.72</v>
+      </c>
+      <c r="R24">
+        <v>410</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>3609.51</v>
+      </c>
+      <c r="V24">
+        <v>410</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>3609.93</v>
+      </c>
+      <c r="Z24">
+        <v>409</v>
+      </c>
+      <c r="AA24">
+        <v>3567.44</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <v>3602.38</v>
+      </c>
+      <c r="AD24">
+        <v>408</v>
+      </c>
+      <c r="AE24">
+        <v>3558.16</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG24">
+        <v>3620.64</v>
+      </c>
+      <c r="AH24">
+        <v>409</v>
+      </c>
+      <c r="AI24">
+        <v>3525.04</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>3604.46</v>
+      </c>
+      <c r="AL24">
+        <v>410</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO24">
+        <v>3605.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>341</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>10112.26</v>
+      </c>
+      <c r="F25">
+        <v>341</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>9317.68</v>
+      </c>
+      <c r="J25">
+        <v>341</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>9055.93</v>
+      </c>
+      <c r="N25">
+        <v>341</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>9113.1200000000008</v>
+      </c>
+      <c r="R25">
+        <v>341</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25">
+        <v>9378.33</v>
+      </c>
+      <c r="V25">
+        <v>341</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>9287.08</v>
+      </c>
+      <c r="Z25">
+        <v>341</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25">
+        <v>9443.82</v>
+      </c>
+      <c r="AD25">
+        <v>341</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG25">
+        <v>9190.14</v>
+      </c>
+      <c r="AH25">
+        <v>341</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK25">
+        <v>9238.5499999999993</v>
+      </c>
+      <c r="AL25">
+        <v>341</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO25">
+        <v>9262.7900000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>363</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>10567.7</v>
+      </c>
+      <c r="F26">
+        <v>363</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>9872.4</v>
+      </c>
+      <c r="J26">
+        <v>363</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>9883.2099999999991</v>
+      </c>
+      <c r="N26">
+        <v>363</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <v>10323.629999999999</v>
+      </c>
+      <c r="R26">
+        <v>363</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26">
+        <v>10033.73</v>
+      </c>
+      <c r="V26">
+        <v>363</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <v>9965.84</v>
+      </c>
+      <c r="Z26">
+        <v>363</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>10115.44</v>
+      </c>
+      <c r="AD26">
+        <v>363</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26">
+        <v>10063.56</v>
+      </c>
+      <c r="AH26">
+        <v>363</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK26">
+        <v>9903.3799999999992</v>
+      </c>
+      <c r="AL26">
+        <v>363</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO26">
+        <v>9626.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>393</v>
+      </c>
+      <c r="C27">
+        <v>3546.25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>3603.76</v>
+      </c>
+      <c r="F27">
+        <v>393</v>
+      </c>
+      <c r="G27">
+        <v>3466.8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>3600.48</v>
+      </c>
+      <c r="J27">
+        <v>390</v>
+      </c>
+      <c r="K27">
+        <v>3345.01</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>3601.74</v>
+      </c>
+      <c r="N27">
+        <v>393</v>
+      </c>
+      <c r="O27">
+        <v>3390.73</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>3600.24</v>
+      </c>
+      <c r="R27">
+        <v>390</v>
+      </c>
+      <c r="S27">
+        <v>3110.45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <v>3600.21</v>
+      </c>
+      <c r="V27">
+        <v>395</v>
+      </c>
+      <c r="W27">
+        <v>3345.34</v>
+      </c>
+      <c r="X27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27">
+        <v>3602.09</v>
+      </c>
+      <c r="Z27">
+        <v>387</v>
+      </c>
+      <c r="AA27">
+        <v>3219.9</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27">
+        <v>3602.58</v>
+      </c>
+      <c r="AD27">
+        <v>389</v>
+      </c>
+      <c r="AE27">
+        <v>3463.88</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27">
+        <v>3600.8</v>
+      </c>
+      <c r="AH27">
+        <v>393</v>
+      </c>
+      <c r="AI27">
+        <v>3431.12</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK27">
+        <v>3602.24</v>
+      </c>
+      <c r="AL27">
+        <v>392</v>
+      </c>
+      <c r="AM27">
+        <v>3321.75</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO27">
+        <v>3601.81</v>
       </c>
     </row>
   </sheetData>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15D012-707E-4C26-B0A5-EAD0C4CFAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557385E-6F16-4B7F-90B9-A4D7AFF0941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="77">
   <si>
     <t>bath.txt</t>
   </si>
@@ -189,6 +189,87 @@
   </si>
   <si>
     <t>SG</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t>City &amp; Best &amp; Avg. &amp; T &amp; Alg. &amp; Best &amp; Avg. \\ \hline</t>
   </si>
 </sst>
 </file>
@@ -555,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64:P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +649,7 @@
     <col min="5" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -580,7 +661,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -596,7 +677,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -639,10 +720,13 @@
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>38</v>
@@ -689,10 +773,14 @@
       <c r="N4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="str">
+        <f>A4&amp;"&amp;"&amp;IF(E4&lt;=L4,"\bf{"&amp;E4&amp;"}",E4)&amp;"&amp;"&amp;ROUND(G4,1)&amp;"&amp;"&amp;ROUND(J4,1)&amp;"&amp;"&amp;K4&amp;"&amp;"&amp;IF(L4&lt;=E4,"\bf{"&amp;L4&amp;"}",L4)&amp;"&amp;"&amp;ROUND(M4,1)&amp;"\\"</f>
+        <v>Bath&amp;\bf{38}&amp;38&amp;445.5&amp;BS4&amp;43&amp;44.6\\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -739,10 +827,14 @@
       <c r="N5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P28" si="1">A5&amp;"&amp;"&amp;IF(E5&lt;=L5,"\bf{"&amp;E5&amp;"}",E5)&amp;"&amp;"&amp;ROUND(G5,1)&amp;"&amp;"&amp;ROUND(J5,1)&amp;"&amp;"&amp;K5&amp;"&amp;"&amp;IF(L5&lt;=E5,"\bf{"&amp;L5&amp;"}",L5)&amp;"&amp;"&amp;ROUND(M5,1)&amp;"\\"</f>
+        <v>Belfast&amp;\bf{39}&amp;39&amp;838.3&amp;BS4&amp;48&amp;50.2\\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -789,10 +881,14 @@
       <c r="N6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>Brighton&amp;\bf{21}&amp;21&amp;463.4&amp;BS4&amp;28&amp;28.2\\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>37</v>
@@ -839,10 +935,14 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bristol&amp;\bf{37}&amp;37&amp;791.3&amp;BS2&amp;46&amp;47.4\\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -889,10 +989,14 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>Cardiff&amp;\bf{39}&amp;39&amp;419.5&amp;BS4&amp;48&amp;50.6\\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>38</v>
@@ -939,10 +1043,14 @@
       <c r="N9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>Coventry&amp;\bf{38}&amp;38.2&amp;438.4&amp;BS4&amp;170&amp;172.6\\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>38</v>
@@ -989,10 +1097,14 @@
       <c r="N10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>Exeter&amp;\bf{38}&amp;38&amp;514.2&amp;BS4&amp;181&amp;182.3\\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -1039,10 +1151,14 @@
       <c r="N11">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>Glasgow&amp;\bf{50}&amp;50.2&amp;416&amp;BS4&amp;197&amp;199.8\\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1089,10 +1205,14 @@
       <c r="N12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>Leeds&amp;\bf{40}&amp;40&amp;685.6&amp;BS4&amp;186&amp;187.1\\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -1139,10 +1259,14 @@
       <c r="N13">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>Leicester&amp;\bf{38}&amp;38&amp;1010.4&amp;BS4&amp;175&amp;177.7\\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -1189,10 +1313,14 @@
       <c r="N14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>Liverpool&amp;\bf{28}&amp;28&amp;700.5&amp;BS4&amp;132&amp;133\\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -1239,10 +1367,14 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>Manchester&amp;\bf{38}&amp;38.8&amp;2071.7&amp;BS4&amp;177&amp;178.5\\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>44</v>
@@ -1289,10 +1421,14 @@
       <c r="N16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>Newcastle&amp;\bf{44}&amp;44&amp;611.7&amp;BS2&amp;169&amp;171.5\\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>44</v>
@@ -1339,10 +1475,14 @@
       <c r="N17">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>Nottingham&amp;\bf{44}&amp;44&amp;1211&amp;BS4&amp;193&amp;195.2\\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -1389,10 +1529,14 @@
       <c r="N18">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>Oxford&amp;\bf{24}&amp;24&amp;63.1&amp;BS2&amp;99&amp;100.8\\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>31</v>
@@ -1439,10 +1583,14 @@
       <c r="N19">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>Plymouth&amp;\bf{31}&amp;31&amp;707.2&amp;BS4&amp;135&amp;137\\</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>42</v>
@@ -1489,10 +1637,14 @@
       <c r="N20">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sheffield&amp;\bf{42}&amp;42&amp;878.2&amp;BS4&amp;180&amp;182.2\\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -1539,10 +1691,14 @@
       <c r="N21">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>Southampton&amp;\bf{25}&amp;25&amp;277.5&amp;BS4&amp;112&amp;113.2\\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>36</v>
@@ -1589,10 +1745,14 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunderland&amp;\bf{36}&amp;36&amp;688.6&amp;BS4&amp;162&amp;163.6\\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -1639,10 +1799,14 @@
       <c r="N23">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>York&amp;\bf{32}&amp;32&amp;324.6&amp;BS4&amp;144&amp;145.8\\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <f>MIN('k1'!B23,'k1'!F23,'k1'!J23,'k1'!N23,'k1'!R23,'k1'!V23,'k1'!Z23,'k1'!AD23,'k1'!AH23,'k1'!AL23)</f>
@@ -1680,10 +1844,14 @@
       <c r="N24">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>Belgrade&amp;\bf{85}&amp;88.7&amp;3610.8&amp;PG&amp;99&amp;100.3\\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <f>MIN('k1'!B24,'k1'!F24,'k1'!J24,'k1'!N24,'k1'!R24,'k1'!V24,'k1'!Z24,'k1'!AD24,'k1'!AH24,'k1'!AL24)</f>
@@ -1721,10 +1889,14 @@
       <c r="N25">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>Berlin&amp;\bf{102}&amp;104.7&amp;3609.5&amp;SG&amp;146&amp;147\\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <f>MIN('k1'!B25,'k1'!F25,'k1'!J25,'k1'!N25,'k1'!R25,'k1'!V25,'k1'!Z25,'k1'!AD25,'k1'!AH25,'k1'!AL25)</f>
@@ -1762,10 +1934,14 @@
       <c r="N26">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>Boston&amp;99&amp;101.1&amp;3685.6&amp;SG&amp;\bf{71}&amp;72.6\\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <f>MIN('k1'!B26,'k1'!F26,'k1'!J26,'k1'!N26,'k1'!R26,'k1'!V26,'k1'!Z26,'k1'!AD26,'k1'!AH26,'k1'!AL26)</f>
@@ -1803,10 +1979,14 @@
       <c r="N27">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>Dublin&amp;96&amp;99.7&amp;3790.3&amp;PG&amp;\bf{88}&amp;90.2\\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <f>MIN('k1'!B27,'k1'!F27,'k1'!J27,'k1'!N27,'k1'!R27,'k1'!V27,'k1'!Z27,'k1'!AD27,'k1'!AH27,'k1'!AL27)</f>
@@ -1844,21 +2024,25 @@
       <c r="N28">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>Minsk&amp;\bf{100}&amp;102.2&amp;3602.3&amp;SG&amp;138&amp;139.3\\</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:D29" si="1">AVERAGE(B4:B23)</f>
+        <f t="shared" ref="B29:D29" si="2">AVERAGE(B4:B23)</f>
         <v>36.1</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37649999999999995</v>
       </c>
       <c r="E29" s="1">
@@ -1874,32 +2058,35 @@
         <v>48.781333333333329</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:L29" si="2">AVERAGE(H4:H28)</f>
+        <f t="shared" ref="H29:L29" si="3">AVERAGE(H4:H28)</f>
         <v>0.4533028710235677</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>528.7252666666667</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1274.2051777777776</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126.68</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29" si="3">AVERAGE(M4:M28)</f>
+        <f t="shared" ref="M29" si="4">AVERAGE(M4:M28)</f>
         <v>128.428</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29" si="4">AVERAGE(N4:N28)</f>
+        <f t="shared" ref="N29" si="5">AVERAGE(N4:N28)</f>
         <v>1.1239999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1911,7 +2098,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -1927,7 +2114,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1970,10 +2157,13 @@
       <c r="N33" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>71</v>
@@ -2020,10 +2210,14 @@
       <c r="N34">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" t="str">
+        <f>A34&amp;"&amp;"&amp;IF(E34&lt;=L34,"\bf{"&amp;E34&amp;"}",E34)&amp;"&amp;"&amp;ROUND(G34,1)&amp;"&amp;"&amp;ROUND(J34,1)&amp;"&amp;"&amp;K34&amp;"&amp;"&amp;IF(L34&lt;=E34,"\bf{"&amp;L34&amp;"}",L34)&amp;"&amp;"&amp;ROUND(M34,1)&amp;"\\"</f>
+        <v>Bath&amp;\bf{71}&amp;71.8&amp;634.1&amp;BS1&amp;86&amp;89\\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>76</v>
@@ -2039,7 +2233,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F58" si="5">IF(E35=$B35,"best","")</f>
+        <f t="shared" ref="F35:F58" si="6">IF(E35=$B35,"best","")</f>
         <v>best</v>
       </c>
       <c r="G35">
@@ -2070,10 +2264,14 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P35" t="str">
+        <f t="shared" ref="P35:P58" si="7">A35&amp;"&amp;"&amp;IF(E35&lt;=L35,"\bf{"&amp;E35&amp;"}",E35)&amp;"&amp;"&amp;ROUND(G35,1)&amp;"&amp;"&amp;ROUND(J35,1)&amp;"&amp;"&amp;K35&amp;"&amp;"&amp;IF(L35&lt;=E35,"\bf{"&amp;L35&amp;"}",L35)&amp;"&amp;"&amp;ROUND(M35,1)&amp;"\\"</f>
+        <v>Belfast&amp;\bf{76}&amp;76.2&amp;1675.3&amp;BS4&amp;96&amp;97.6\\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>40</v>
@@ -2089,7 +2287,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G36">
@@ -2120,10 +2318,14 @@
       <c r="N36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P36" t="str">
+        <f t="shared" si="7"/>
+        <v>Brighton&amp;\bf{40}&amp;41.1&amp;574.7&amp;BS4&amp;49&amp;49.4\\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>72</v>
@@ -2139,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G37">
@@ -2170,10 +2372,14 @@
       <c r="N37">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P37" t="str">
+        <f t="shared" si="7"/>
+        <v>Bristol&amp;\bf{73}&amp;73.7&amp;1588.6&amp;BS4&amp;91&amp;94\\</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>78</v>
@@ -2189,7 +2395,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G38">
@@ -2220,10 +2426,14 @@
       <c r="N38">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P38" t="str">
+        <f t="shared" si="7"/>
+        <v>Cardiff&amp;\bf{79}&amp;79.4&amp;897&amp;BS4&amp;92&amp;95.9\\</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>72</v>
@@ -2239,7 +2449,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G39">
@@ -2270,10 +2480,14 @@
       <c r="N39">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P39" t="str">
+        <f t="shared" si="7"/>
+        <v>Coventry&amp;\bf{73}&amp;73.2&amp;937.9&amp;BS4&amp;84&amp;85.1\\</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>76</v>
@@ -2289,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G40">
@@ -2320,10 +2534,14 @@
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P40" t="str">
+        <f t="shared" si="7"/>
+        <v>Exeter&amp;\bf{77}&amp;77.3&amp;582.5&amp;BS4&amp;94&amp;95.7\\</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>93</v>
@@ -2339,7 +2557,7 @@
         <v>93</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G41">
@@ -2370,10 +2588,14 @@
       <c r="N41">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P41" t="str">
+        <f t="shared" si="7"/>
+        <v>Glasgow&amp;\bf{93}&amp;94.2&amp;671&amp;BS4&amp;108&amp;110.6\\</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>78</v>
@@ -2389,7 +2611,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G42">
@@ -2420,10 +2642,14 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P42" t="str">
+        <f t="shared" si="7"/>
+        <v>Leeds&amp;\bf{79}&amp;80.5&amp;815&amp;BS4&amp;98&amp;99.6\\</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>75</v>
@@ -2439,7 +2665,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G43">
@@ -2470,10 +2696,14 @@
       <c r="N43">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P43" t="str">
+        <f t="shared" si="7"/>
+        <v>Leicester&amp;\bf{75}&amp;75.2&amp;1056.6&amp;BS4&amp;93&amp;94.1\\</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>56</v>
@@ -2489,7 +2719,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G44">
@@ -2520,10 +2750,14 @@
       <c r="N44">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P44" t="str">
+        <f t="shared" si="7"/>
+        <v>Liverpool&amp;\bf{57}&amp;57&amp;1157.7&amp;BS4&amp;71&amp;72\\</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>76</v>
@@ -2539,7 +2773,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G45">
@@ -2570,10 +2804,14 @@
       <c r="N45">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P45" t="str">
+        <f t="shared" si="7"/>
+        <v>Manchester&amp;\bf{77}&amp;78.4&amp;3053.1&amp;BS4&amp;90&amp;91.5\\</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>83</v>
@@ -2589,7 +2827,7 @@
         <v>83</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G46">
@@ -2620,10 +2858,14 @@
       <c r="N46">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P46" t="str">
+        <f t="shared" si="7"/>
+        <v>Newcastle&amp;\bf{83}&amp;84.3&amp;823.1&amp;BS4&amp;94&amp;95.4\\</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>83</v>
@@ -2639,7 +2881,7 @@
         <v>84</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G47">
@@ -2670,10 +2912,14 @@
       <c r="N47">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P47" t="str">
+        <f t="shared" si="7"/>
+        <v>Nottingham&amp;\bf{84}&amp;85.3&amp;2167.1&amp;BS4&amp;102&amp;103.3\\</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -2689,7 +2935,7 @@
         <v>47</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G48">
@@ -2720,10 +2966,14 @@
       <c r="N48">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P48" t="str">
+        <f t="shared" si="7"/>
+        <v>Oxford&amp;\bf{47}&amp;47&amp;83&amp;BS4&amp;54&amp;54.9\\</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>60</v>
@@ -2739,7 +2989,7 @@
         <v>62</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G49">
@@ -2770,10 +3020,14 @@
       <c r="N49">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P49" t="str">
+        <f t="shared" si="7"/>
+        <v>Plymouth&amp;\bf{62}&amp;62.1&amp;735.1&amp;BS4&amp;73&amp;75\\</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>83</v>
@@ -2789,7 +3043,7 @@
         <v>84</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G50">
@@ -2820,10 +3074,14 @@
       <c r="N50">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P50" t="str">
+        <f t="shared" si="7"/>
+        <v>Sheffield&amp;\bf{84}&amp;84.7&amp;1021.5&amp;BS4&amp;97&amp;98.9\\</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -2839,7 +3097,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G51">
@@ -2870,10 +3128,14 @@
       <c r="N51">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P51" t="str">
+        <f t="shared" si="7"/>
+        <v>Southampton&amp;\bf{50}&amp;50.1&amp;315.9&amp;BS4&amp;60&amp;61.1\\</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>73</v>
@@ -2889,7 +3151,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G52">
@@ -2920,10 +3182,14 @@
       <c r="N52">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P52" t="str">
+        <f t="shared" si="7"/>
+        <v>Sunderland&amp;\bf{73}&amp;73.7&amp;754.2&amp;BS4&amp;87&amp;89.1\\</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>68</v>
@@ -2939,7 +3205,7 @@
         <v>68</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>best</v>
       </c>
       <c r="G53">
@@ -2970,17 +3236,21 @@
       <c r="N53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P53" t="str">
+        <f t="shared" si="7"/>
+        <v>York&amp;\bf{68}&amp;68&amp;755.1&amp;BS4&amp;77&amp;77.6\\</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <f>MIN('k2'!B23,'k2'!F23,'k2'!J23,'k2'!N23,'k2'!R23,'k2'!V23,'k2'!Z23,'k2'!AD23,'k2'!AH23,'k2'!AL23)</f>
         <v>169</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G54">
@@ -3011,17 +3281,21 @@
       <c r="N54">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P54" t="str">
+        <f t="shared" si="7"/>
+        <v>Belgrade&amp;\bf{169}&amp;172.3&amp;3614.1&amp;PG&amp;197&amp;197.5\\</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <f>MIN('k2'!B24,'k2'!F24,'k2'!J24,'k2'!N24,'k2'!R24,'k2'!V24,'k2'!Z24,'k2'!AD24,'k2'!AH24,'k2'!AL24)</f>
         <v>206</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G55">
@@ -3052,17 +3326,21 @@
       <c r="N55">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P55" t="str">
+        <f t="shared" si="7"/>
+        <v>Berlin&amp;\bf{206}&amp;207.1&amp;3611.6&amp;PG&amp;268&amp;270.4\\</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <f>MIN('k2'!B25,'k2'!F25,'k2'!J25,'k2'!N25,'k2'!R25,'k2'!V25,'k2'!Z25,'k2'!AD25,'k2'!AH25,'k2'!AL25)</f>
         <v>181</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G56">
@@ -3093,17 +3371,21 @@
       <c r="N56">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P56" t="str">
+        <f t="shared" si="7"/>
+        <v>Boston&amp;181&amp;194.6&amp;5707.7&amp;PG&amp;\bf{133}&amp;135\\</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <f>MIN('k2'!B26,'k2'!F26,'k2'!J26,'k2'!N26,'k2'!R26,'k2'!V26,'k2'!Z26,'k2'!AD26,'k2'!AH26,'k2'!AL26)</f>
         <v>181</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G57">
@@ -3134,17 +3416,21 @@
       <c r="N57">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P57" t="str">
+        <f t="shared" si="7"/>
+        <v>Dublin&amp;181&amp;184.4&amp;5190.1&amp;PG&amp;\bf{166}&amp;166.8\\</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <f>MIN('k2'!B27,'k2'!F27,'k2'!J27,'k2'!N27,'k2'!R27,'k2'!V27,'k2'!Z27,'k2'!AD27,'k2'!AH27,'k2'!AL27)</f>
         <v>197</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G58">
@@ -3175,8 +3461,12 @@
       <c r="N58">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P58" t="str">
+        <f t="shared" si="7"/>
+        <v>Minsk&amp;\bf{197}&amp;201.1&amp;3602.4&amp;PG&amp;265&amp;266.4\\</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -3185,15 +3475,15 @@
         <v>70.45</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:J59" si="6">AVERAGE(C34:C58)</f>
+        <f t="shared" ref="C59:J59" si="8">AVERAGE(C34:C58)</f>
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9030000000000005</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94.2</v>
       </c>
       <c r="F59" s="1">
@@ -3201,36 +3491,39 @@
         <v>9</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95.707999999999998</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0976296404941266</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>704.00608000000011</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1680.9719999999998</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
-        <f t="shared" ref="L59" si="7">AVERAGE(L34:L58)</f>
+        <f t="shared" ref="L59" si="9">AVERAGE(L34:L58)</f>
         <v>109</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" ref="M59" si="8">AVERAGE(M34:M58)</f>
+        <f t="shared" ref="M59" si="10">AVERAGE(M34:M58)</f>
         <v>110.63600000000001</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ref="N59" si="9">AVERAGE(N34:N58)</f>
+        <f t="shared" ref="N59" si="11">AVERAGE(N34:N58)</f>
         <v>1.0120000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3242,7 +3535,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>31</v>
@@ -3258,7 +3551,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
@@ -3301,10 +3594,13 @@
       <c r="N63" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>138</v>
@@ -3351,10 +3647,14 @@
       <c r="N64">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P64" t="str">
+        <f>A64&amp;"&amp;"&amp;IF(E64&lt;=L64,"\bf{"&amp;E64&amp;"}",E64)&amp;"&amp;"&amp;ROUND(G64,1)&amp;"&amp;"&amp;ROUND(J64,1)&amp;"&amp;"&amp;K64&amp;"&amp;"&amp;IF(L64&lt;=E64,"\bf{"&amp;L64&amp;"}",L64)&amp;"&amp;"&amp;ROUND(M64,1)&amp;"\\"</f>
+        <v>Bath&amp;\bf{139}&amp;140.4&amp;434.8&amp;BS4&amp;159&amp;160\\</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>144</v>
@@ -3370,7 +3670,7 @@
         <v>147</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" ref="F65:F88" si="10">IF(E65=$B65,"best","")</f>
+        <f t="shared" ref="F65:F88" si="12">IF(E65=$B65,"best","")</f>
         <v/>
       </c>
       <c r="G65">
@@ -3401,10 +3701,14 @@
       <c r="N65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P65" t="str">
+        <f t="shared" ref="P65:P88" si="13">A65&amp;"&amp;"&amp;IF(E65&lt;=L65,"\bf{"&amp;E65&amp;"}",E65)&amp;"&amp;"&amp;ROUND(G65,1)&amp;"&amp;"&amp;ROUND(J65,1)&amp;"&amp;"&amp;K65&amp;"&amp;"&amp;IF(L65&lt;=E65,"\bf{"&amp;L65&amp;"}",L65)&amp;"&amp;"&amp;ROUND(M65,1)&amp;"\\"</f>
+        <v>Belfast&amp;\bf{147}&amp;148.5&amp;2843.1&amp;BS4&amp;177&amp;179.6\\</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B66">
         <v>76</v>
@@ -3420,7 +3724,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G66">
@@ -3451,10 +3755,14 @@
       <c r="N66">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P66" t="str">
+        <f t="shared" si="13"/>
+        <v>Brighton&amp;\bf{78}&amp;79.3&amp;1393.7&amp;BS4&amp;92&amp;94.8\\</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>141</v>
@@ -3470,7 +3778,7 @@
         <v>145</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G67">
@@ -3501,10 +3809,14 @@
       <c r="N67">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P67" t="str">
+        <f t="shared" si="13"/>
+        <v>Bristol&amp;\bf{145}&amp;146.7&amp;979&amp;BS4&amp;175&amp;176.4\\</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B68">
         <v>155</v>
@@ -3520,7 +3832,7 @@
         <v>160</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G68">
@@ -3551,10 +3863,14 @@
       <c r="N68">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P68" t="str">
+        <f t="shared" si="13"/>
+        <v>Cardiff&amp;\bf{160}&amp;161.9&amp;1285&amp;BS4&amp;181&amp;183.2\\</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>145</v>
@@ -3570,7 +3886,7 @@
         <v>150</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69">
@@ -3601,10 +3917,14 @@
       <c r="N69">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P69" t="str">
+        <f t="shared" si="13"/>
+        <v>Coventry&amp;\bf{150}&amp;150.6&amp;1394.3&amp;BS4&amp;170&amp;172.6\\</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>154</v>
@@ -3620,7 +3940,7 @@
         <v>157</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G70">
@@ -3651,10 +3971,14 @@
       <c r="N70">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P70" t="str">
+        <f t="shared" si="13"/>
+        <v>Exeter&amp;\bf{157}&amp;158.3&amp;634&amp;BS4&amp;181&amp;182.3\\</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>170</v>
@@ -3670,7 +3994,7 @@
         <v>174</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G71">
@@ -3701,10 +4025,14 @@
       <c r="N71">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P71" t="str">
+        <f t="shared" si="13"/>
+        <v>Glasgow&amp;\bf{174}&amp;175.4&amp;550.8&amp;BS4&amp;197&amp;199.8\\</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>149</v>
@@ -3720,7 +4048,7 @@
         <v>152</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G72">
@@ -3751,10 +4079,14 @@
       <c r="N72">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P72" t="str">
+        <f t="shared" si="13"/>
+        <v>Leeds&amp;\bf{152}&amp;152.4&amp;1737.2&amp;BS4&amp;186&amp;187.1\\</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B73">
         <v>145</v>
@@ -3770,7 +4102,7 @@
         <v>151</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G73">
@@ -3801,10 +4133,14 @@
       <c r="N73">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P73" t="str">
+        <f t="shared" si="13"/>
+        <v>Leicester&amp;\bf{151}&amp;152.6&amp;2846&amp;BS4&amp;175&amp;177.7\\</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B74">
         <v>110</v>
@@ -3820,7 +4156,7 @@
         <v>112</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G74">
@@ -3851,10 +4187,14 @@
       <c r="N74">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P74" t="str">
+        <f t="shared" si="13"/>
+        <v>Liverpool&amp;\bf{112}&amp;114&amp;1673.1&amp;BS4&amp;132&amp;133\\</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B75">
         <v>147</v>
@@ -3870,7 +4210,7 @@
         <v>154</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G75">
@@ -3901,10 +4241,14 @@
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P75" t="str">
+        <f t="shared" si="13"/>
+        <v>Manchester&amp;\bf{154}&amp;156.4&amp;3302&amp;BS4&amp;177&amp;178.5\\</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B76">
         <v>150</v>
@@ -3920,7 +4264,7 @@
         <v>153</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G76">
@@ -3951,10 +4295,14 @@
       <c r="N76">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P76" t="str">
+        <f t="shared" si="13"/>
+        <v>Newcastle&amp;\bf{153}&amp;154.8&amp;2103.6&amp;BS2&amp;169&amp;171.5\\</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B77">
         <v>160</v>
@@ -3970,7 +4318,7 @@
         <v>165</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G77">
@@ -4001,10 +4349,14 @@
       <c r="N77">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P77" t="str">
+        <f t="shared" si="13"/>
+        <v>Nottingham&amp;\bf{165}&amp;166.6&amp;2718.3&amp;BS4&amp;193&amp;195.2\\</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B78">
         <v>89</v>
@@ -4020,7 +4372,7 @@
         <v>89</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>best</v>
       </c>
       <c r="G78">
@@ -4051,10 +4403,14 @@
       <c r="N78">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P78" t="str">
+        <f t="shared" si="13"/>
+        <v>Oxford&amp;\bf{89}&amp;89.2&amp;114.9&amp;BS2&amp;99&amp;100.8\\</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B79">
         <v>115</v>
@@ -4101,10 +4457,14 @@
       <c r="N79">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79" t="str">
+        <f t="shared" si="13"/>
+        <v>Plymouth&amp;\bf{115}&amp;116&amp;1725.7&amp;BS4&amp;135&amp;137\\</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B80">
         <v>156</v>
@@ -4120,7 +4480,7 @@
         <v>160</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G80">
@@ -4151,10 +4511,14 @@
       <c r="N80">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P80" t="str">
+        <f t="shared" si="13"/>
+        <v>Sheffield&amp;\bf{160}&amp;161.6&amp;1351.2&amp;BS4&amp;180&amp;182.2\\</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B81">
         <v>96</v>
@@ -4170,7 +4534,7 @@
         <v>97</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G81">
@@ -4201,10 +4565,14 @@
       <c r="N81">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P81" t="str">
+        <f t="shared" si="13"/>
+        <v>Southampton&amp;\bf{97}&amp;97.8&amp;653.1&amp;BS4&amp;112&amp;113.2\\</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>138</v>
@@ -4220,7 +4588,7 @@
         <v>142</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G82">
@@ -4251,10 +4619,14 @@
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P82" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunderland&amp;\bf{142}&amp;142.5&amp;3539.1&amp;BS4&amp;162&amp;163.6\\</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B83">
         <v>129</v>
@@ -4270,7 +4642,7 @@
         <v>129</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>best</v>
       </c>
       <c r="G83">
@@ -4301,17 +4673,21 @@
       <c r="N83">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P83" t="str">
+        <f t="shared" si="13"/>
+        <v>York&amp;\bf{129}&amp;130.1&amp;630.5&amp;BS4&amp;144&amp;145.8\\</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E84">
         <f>MIN('k4'!B23,'k4'!F23,'k4'!J23,'k4'!N23,'k4'!R23,'k4'!V23,'k4'!Z23,'k4'!AD23,'k4'!AH23,'k4'!AL23)</f>
         <v>344</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G84">
@@ -4342,17 +4718,21 @@
       <c r="N84">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P84" t="str">
+        <f t="shared" si="13"/>
+        <v>Belgrade&amp;\bf{344}&amp;346.3&amp;3610.9&amp;SG&amp;397&amp;400.1\\</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E85">
         <f>MIN('k4'!B24,'k4'!F24,'k4'!J24,'k4'!N24,'k4'!R24,'k4'!V24,'k4'!Z24,'k4'!AD24,'k4'!AH24,'k4'!AL24)</f>
         <v>408</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85">
@@ -4383,17 +4763,21 @@
       <c r="N85">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P85" t="str">
+        <f t="shared" si="13"/>
+        <v>Berlin&amp;\bf{408}&amp;409.2&amp;3612&amp;PG&amp;501&amp;503.4\\</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E86">
         <f>MIN('k4'!B25,'k4'!F25,'k4'!J25,'k4'!N25,'k4'!R25,'k4'!V25,'k4'!Z25,'k4'!AD25,'k4'!AH25,'k4'!AL25)</f>
         <v>341</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G86">
@@ -4424,17 +4808,21 @@
       <c r="N86">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P86" t="str">
+        <f t="shared" si="13"/>
+        <v>Boston&amp;341&amp;341&amp;9340&amp;PG&amp;\bf{255}&amp;255.4\\</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E87">
         <f>MIN('k4'!B26,'k4'!F26,'k4'!J26,'k4'!N26,'k4'!R26,'k4'!V26,'k4'!Z26,'k4'!AD26,'k4'!AH26,'k4'!AL26)</f>
         <v>363</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G87">
@@ -4465,17 +4853,21 @@
       <c r="N87">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P87" t="str">
+        <f t="shared" si="13"/>
+        <v>Dublin&amp;363&amp;363&amp;10035.5&amp;PG&amp;\bf{317}&amp;318.5\\</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E88">
         <f>MIN('k4'!B27,'k4'!F27,'k4'!J27,'k4'!N27,'k4'!R27,'k4'!V27,'k4'!Z27,'k4'!AD27,'k4'!AH27,'k4'!AL27)</f>
         <v>387</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G88">
@@ -4506,8 +4898,12 @@
       <c r="N88">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P88" t="str">
+        <f t="shared" si="13"/>
+        <v>Minsk&amp;\bf{387}&amp;391.5&amp;3601.6&amp;PG&amp;506&amp;509.4\\</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -4516,15 +4912,15 @@
         <v>135.35</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ref="C89" si="11">AVERAGE(C64:C88)</f>
+        <f t="shared" ref="C89" si="14">AVERAGE(C64:C88)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ref="D89" si="12">AVERAGE(D64:D88)</f>
+        <f t="shared" ref="D89" si="15">AVERAGE(D64:D88)</f>
         <v>1894.1545000000006</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" ref="E89" si="13">AVERAGE(E64:E88)</f>
+        <f t="shared" ref="E89" si="16">AVERAGE(E64:E88)</f>
         <v>184.48</v>
       </c>
       <c r="F89" s="1">
@@ -4532,33 +4928,36 @@
         <v>3</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" ref="G89" si="14">AVERAGE(G64:G88)</f>
+        <f t="shared" ref="G89" si="17">AVERAGE(G64:G88)</f>
         <v>185.84400000000002</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" ref="H89" si="15">AVERAGE(H64:H88)</f>
+        <f t="shared" ref="H89" si="18">AVERAGE(H64:H88)</f>
         <v>0.8650831775144211</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" ref="I89" si="16">AVERAGE(I64:I88)</f>
+        <f t="shared" ref="I89" si="19">AVERAGE(I64:I88)</f>
         <v>1158.3819599999999</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" ref="J89" si="17">AVERAGE(J64:J88)</f>
+        <f t="shared" ref="J89" si="20">AVERAGE(J64:J88)</f>
         <v>2484.37428</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1">
-        <f t="shared" ref="L89" si="18">AVERAGE(L64:L88)</f>
+        <f t="shared" ref="L89" si="21">AVERAGE(L64:L88)</f>
         <v>206.88</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" ref="M89" si="19">AVERAGE(M64:M88)</f>
+        <f t="shared" ref="M89" si="22">AVERAGE(M64:M88)</f>
         <v>208.84399999999994</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" ref="N89" si="20">AVERAGE(N64:N88)</f>
+        <f t="shared" ref="N89" si="23">AVERAGE(N64:N88)</f>
         <v>1.2959999999999996</v>
+      </c>
+      <c r="P89" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2317114-69DA-4AED-9C97-34A34628966A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E402D7-8BF2-4265-BDD9-F03DCD7FE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
+    <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
@@ -5006,24 +5006,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7833E92D-83B8-4848-83C5-FC9D01B5B689}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>79</v>
@@ -5039,14 +5039,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>21630466</v>
+      </c>
+      <c r="B2">
+        <v>37982</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2">
-        <v>21630466</v>
-      </c>
-      <c r="C2">
-        <v>37982</v>
       </c>
       <c r="D2">
         <f>Summary!I27</f>
@@ -5066,14 +5066,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>28164740</v>
+      </c>
+      <c r="B3">
+        <v>44797</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3">
-        <v>28164740</v>
-      </c>
-      <c r="C3">
-        <v>44797</v>
       </c>
       <c r="D3">
         <f>Summary!I26</f>
@@ -5093,14 +5093,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>9944851</v>
+      </c>
+      <c r="B4">
+        <v>29461</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
-      </c>
-      <c r="B4">
-        <v>9944851</v>
-      </c>
-      <c r="C4">
-        <v>29461</v>
       </c>
       <c r="D4">
         <f>Summary!I25</f>
@@ -5120,14 +5120,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>7561185</v>
+      </c>
+      <c r="B5">
+        <v>19586</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5">
-        <v>7561185</v>
-      </c>
-      <c r="C5">
-        <v>19586</v>
       </c>
       <c r="D5">
         <f>Summary!I24</f>
@@ -5147,14 +5147,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>1375618</v>
+      </c>
+      <c r="B6">
+        <v>10487</v>
+      </c>
+      <c r="C6" t="s">
         <v>74</v>
-      </c>
-      <c r="B6">
-        <v>1375618</v>
-      </c>
-      <c r="C6">
-        <v>10487</v>
       </c>
       <c r="D6">
         <f>Summary!I28</f>
@@ -5174,14 +5174,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>77286</v>
+      </c>
+      <c r="B7">
+        <v>1991</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7">
-        <v>77286</v>
-      </c>
-      <c r="C7">
-        <v>1991</v>
       </c>
       <c r="D7">
         <f>Summary!I15</f>
@@ -5201,14 +5201,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>51595</v>
+      </c>
+      <c r="B8">
+        <v>1739</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8">
-        <v>51595</v>
-      </c>
-      <c r="C8">
-        <v>1739</v>
       </c>
       <c r="D8">
         <f>Summary!I17</f>
@@ -5228,14 +5228,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>62617</v>
+      </c>
+      <c r="B9">
+        <v>1700</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
-      </c>
-      <c r="B9">
-        <v>62617</v>
-      </c>
-      <c r="C9">
-        <v>1700</v>
       </c>
       <c r="D9">
         <f>Summary!I5</f>
@@ -5255,14 +5255,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>42013</v>
+      </c>
+      <c r="B10">
+        <v>1346</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
-      </c>
-      <c r="B10">
-        <v>42013</v>
-      </c>
-      <c r="C10">
-        <v>1346</v>
       </c>
       <c r="D10">
         <f>Summary!I22</f>
@@ -5282,14 +5282,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>48219</v>
+      </c>
+      <c r="B11">
+        <v>1531</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11">
-        <v>48219</v>
-      </c>
-      <c r="C11">
-        <v>1531</v>
       </c>
       <c r="D11">
         <f>Summary!I13</f>
@@ -5309,14 +5309,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>26614</v>
+      </c>
+      <c r="B12">
+        <v>1109</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
-      </c>
-      <c r="B12">
-        <v>26614</v>
-      </c>
-      <c r="C12">
-        <v>1109</v>
       </c>
       <c r="D12">
         <f>Summary!I16</f>
@@ -5336,14 +5336,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>56511</v>
+      </c>
+      <c r="B13">
+        <v>1647</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13">
-        <v>56511</v>
-      </c>
-      <c r="C13">
-        <v>1647</v>
       </c>
       <c r="D13">
         <f>Summary!I12</f>
@@ -5363,14 +5363,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>42564</v>
+      </c>
+      <c r="B14">
+        <v>1273</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14">
-        <v>42564</v>
-      </c>
-      <c r="C14">
-        <v>1273</v>
       </c>
       <c r="D14">
         <f>Summary!I14</f>
@@ -5390,14 +5390,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>47522</v>
+      </c>
+      <c r="B15">
+        <v>1569</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15">
-        <v>47522</v>
-      </c>
-      <c r="C15">
-        <v>1569</v>
       </c>
       <c r="D15">
         <f>Summary!I7</f>
@@ -5417,14 +5417,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>26689</v>
+      </c>
+      <c r="B16">
+        <v>1175</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16">
-        <v>26689</v>
-      </c>
-      <c r="C16">
-        <v>1175</v>
       </c>
       <c r="D16">
         <f>Summary!I9</f>
@@ -5444,14 +5444,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>35012</v>
+      </c>
+      <c r="B17">
+        <v>976</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17">
-        <v>35012</v>
-      </c>
-      <c r="C17">
-        <v>976</v>
       </c>
       <c r="D17">
         <f>Summary!I6</f>
@@ -5471,14 +5471,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>50534</v>
+      </c>
+      <c r="B18">
+        <v>1582</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18">
-        <v>50534</v>
-      </c>
-      <c r="C18">
-        <v>1582</v>
       </c>
       <c r="D18">
         <f>Summary!I20</f>
@@ -5498,14 +5498,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>35070</v>
+      </c>
+      <c r="B19">
+        <v>1122</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
-      </c>
-      <c r="B19">
-        <v>35070</v>
-      </c>
-      <c r="C19">
-        <v>1122</v>
       </c>
       <c r="D19">
         <f>Summary!I19</f>
@@ -5525,14 +5525,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>23155</v>
+      </c>
+      <c r="B20">
+        <v>1127</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
-      </c>
-      <c r="B20">
-        <v>23155</v>
-      </c>
-      <c r="C20">
-        <v>1127</v>
       </c>
       <c r="D20">
         <f>Summary!I8</f>
@@ -5552,14 +5552,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>31997</v>
+      </c>
+      <c r="B21">
+        <v>1250</v>
+      </c>
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="B21">
-        <v>31997</v>
-      </c>
-      <c r="C21">
-        <v>1250</v>
       </c>
       <c r="D21">
         <f>Summary!I10</f>
@@ -5579,14 +5579,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>18560</v>
+      </c>
+      <c r="B22">
+        <v>910</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22">
-        <v>18560</v>
-      </c>
-      <c r="C22">
-        <v>910</v>
       </c>
       <c r="D22">
         <f>Summary!I4</f>
@@ -5606,14 +5606,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>24323</v>
+      </c>
+      <c r="B23">
+        <v>1137</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23">
-        <v>24323</v>
-      </c>
-      <c r="C23">
-        <v>1137</v>
       </c>
       <c r="D23">
         <f>Summary!I11</f>
@@ -5633,14 +5633,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>23774</v>
+      </c>
+      <c r="B24">
+        <v>1044</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24">
-        <v>23774</v>
-      </c>
-      <c r="C24">
-        <v>1044</v>
       </c>
       <c r="D24">
         <f>Summary!I23</f>
@@ -5660,14 +5660,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>19942</v>
+      </c>
+      <c r="B25">
+        <v>796</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25">
-        <v>19942</v>
-      </c>
-      <c r="C25">
-        <v>796</v>
       </c>
       <c r="D25">
         <f>Summary!I21</f>
@@ -5687,14 +5687,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>8396</v>
+      </c>
+      <c r="B26">
+        <v>479</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
-      </c>
-      <c r="B26">
-        <v>8396</v>
-      </c>
-      <c r="C26">
-        <v>479</v>
       </c>
       <c r="D26">
         <f>Summary!I18</f>
@@ -5714,7 +5714,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:G26">
     <sortCondition descending="1" ref="G1:G26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\k-domination\algorithms\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\radovi\K-domination\k-domination\algorithms\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E402D7-8BF2-4265-BDD9-F03DCD7FE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840" xr2:uid="{9811A06C-B274-406A-BE4D-18F0FA4A89B1}"/>
+    <workbookView xWindow="-28920" yWindow="-3555" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="k2" sheetId="3" r:id="rId4"/>
     <sheet name="k4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -297,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -335,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -344,9 +349,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalan" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C114BA-E20E-4760-908C-9E2FAA6D010C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,17 +1865,17 @@
         <v>48</v>
       </c>
       <c r="L24">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M24">
-        <v>100.3</v>
+        <v>103.4</v>
       </c>
       <c r="N24">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>Belgrade&amp;\bf{85}&amp;88.4&amp;PG&amp;99&amp;100.3\\</v>
+        <v>Belgrade&amp;\bf{85}&amp;88.4&amp;PG&amp;103&amp;103.4\\</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1900,20 +1907,20 @@
         <v>3609.4533333333334</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M25">
-        <v>147</v>
+        <v>125.9</v>
       </c>
       <c r="N25">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>Berlin&amp;\bf{102}&amp;104.5&amp;SG&amp;146&amp;147\\</v>
+        <v>Berlin&amp;\bf{102}&amp;104.5&amp;PG&amp;125&amp;125.9\\</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1945,20 +1952,20 @@
         <v>3685.5722222222216</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="M26">
-        <v>72.599999999999994</v>
+        <v>102.7</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>Boston&amp;99&amp;101.2&amp;SG&amp;\bf{71}&amp;72.6\\</v>
+        <v>Boston&amp;\bf{99}&amp;101.2&amp;PG&amp;101&amp;102.7\\</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1993,17 +2000,17 @@
         <v>48</v>
       </c>
       <c r="L27">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M27">
-        <v>90.2</v>
+        <v>113.8</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>Dublin&amp;93&amp;99&amp;PG&amp;\bf{88}&amp;90.2\\</v>
+        <v>Dublin&amp;\bf{93}&amp;99&amp;PG&amp;112&amp;113.8\\</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2035,20 +2042,21 @@
         <v>3602.3222222222225</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28">
+        <v>48</v>
+      </c>
+      <c r="L28" s="4">
         <v>138</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>139.30000000000001</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>1.1000000000000001</v>
       </c>
+      <c r="O28" s="5"/>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>Minsk&amp;\bf{100}&amp;102&amp;SG&amp;138&amp;139.3\\</v>
+        <v>Minsk&amp;\bf{100}&amp;102&amp;PG&amp;138&amp;139.3\\</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2094,15 +2102,15 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>126.68</v>
+        <v>128.16</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ref="M29" si="4">AVERAGE(M4:M28)</f>
-        <v>128.428</v>
+        <v>129.85599999999999</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ref="N29" si="5">AVERAGE(N4:N28)</f>
-        <v>1.1239999999999997</v>
+        <v>1.0719999999999998</v>
       </c>
       <c r="P29" t="s">
         <v>75</v>
@@ -3295,17 +3303,17 @@
         <v>48</v>
       </c>
       <c r="L54">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M54">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="N54">
         <v>0.9</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="7"/>
-        <v>Belgrade&amp;\bf{169}&amp;172.3&amp;PG&amp;197&amp;197.5\\</v>
+        <v>Belgrade&amp;\bf{169}&amp;172.3&amp;PG&amp;196&amp;197.3\\</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3340,17 +3348,17 @@
         <v>48</v>
       </c>
       <c r="L55">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="M55">
-        <v>270.39999999999998</v>
+        <v>240.1</v>
       </c>
       <c r="N55">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P55" t="str">
         <f t="shared" si="7"/>
-        <v>Berlin&amp;\bf{206}&amp;207.1&amp;PG&amp;268&amp;270.4\\</v>
+        <v>Berlin&amp;\bf{206}&amp;207.1&amp;PG&amp;239&amp;240.1\\</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3385,17 +3393,17 @@
         <v>48</v>
       </c>
       <c r="L56">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="M56">
-        <v>135</v>
+        <v>191.6</v>
       </c>
       <c r="N56">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="P56" t="str">
         <f t="shared" si="7"/>
-        <v>Boston&amp;181&amp;194.6&amp;PG&amp;\bf{133}&amp;135\\</v>
+        <v>Boston&amp;\bf{181}&amp;194.6&amp;PG&amp;190&amp;191.6\\</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3430,17 +3438,17 @@
         <v>48</v>
       </c>
       <c r="L57">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="M57">
-        <v>166.8</v>
+        <v>211.3</v>
       </c>
       <c r="N57">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="P57" t="str">
         <f t="shared" si="7"/>
-        <v>Dublin&amp;181&amp;184.4&amp;PG&amp;\bf{166}&amp;166.8\\</v>
+        <v>Dublin&amp;\bf{181}&amp;184.4&amp;PG&amp;209&amp;211.3\\</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3474,13 +3482,13 @@
       <c r="K58" t="s">
         <v>48</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="4">
         <v>265</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="4">
         <v>266.39999999999998</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="4">
         <v>1.3</v>
       </c>
       <c r="P58" t="str">
@@ -3531,15 +3539,15 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1">
         <f t="shared" ref="L59" si="9">AVERAGE(L34:L58)</f>
-        <v>109</v>
+        <v>111.8</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" ref="M59" si="10">AVERAGE(M34:M58)</f>
-        <v>110.63600000000001</v>
+        <v>113.46</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ref="N59" si="11">AVERAGE(N34:N58)</f>
-        <v>1.0120000000000002</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="P59" t="s">
         <v>75</v>
@@ -4732,17 +4740,17 @@
         <v>49</v>
       </c>
       <c r="L84">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="M84">
-        <v>400.1</v>
+        <v>374.5</v>
       </c>
       <c r="N84">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P84" t="str">
         <f t="shared" si="13"/>
-        <v>Belgrade&amp;\bf{344}&amp;346.3&amp;SG&amp;397&amp;400.1\\</v>
+        <v>Belgrade&amp;\bf{344}&amp;346.3&amp;SG&amp;372&amp;374.5\\</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -4777,17 +4785,17 @@
         <v>48</v>
       </c>
       <c r="L85">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="M85">
-        <v>503.4</v>
+        <v>446.2</v>
       </c>
       <c r="N85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P85" t="str">
         <f t="shared" si="13"/>
-        <v>Berlin&amp;\bf{408}&amp;409.2&amp;PG&amp;501&amp;503.4\\</v>
+        <v>Berlin&amp;\bf{408}&amp;409.2&amp;PG&amp;444&amp;446.2\\</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -4822,17 +4830,17 @@
         <v>48</v>
       </c>
       <c r="L86">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="M86">
-        <v>255.4</v>
+        <v>368.7</v>
       </c>
       <c r="N86">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="str">
         <f t="shared" si="13"/>
-        <v>Boston&amp;341&amp;341&amp;PG&amp;\bf{255}&amp;255.4\\</v>
+        <v>Boston&amp;\bf{341}&amp;341&amp;PG&amp;367&amp;368.7\\</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -4866,13 +4874,13 @@
       <c r="K87" t="s">
         <v>48</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="4">
         <v>317</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="4">
         <v>318.5</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="4">
         <v>1.5</v>
       </c>
       <c r="P87" t="str">
@@ -4911,13 +4919,13 @@
       <c r="K88" t="s">
         <v>48</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="4">
         <v>506</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="4">
         <v>509.4</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="4">
         <v>2.9</v>
       </c>
       <c r="P88" t="str">
@@ -4968,34 +4976,34 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1">
         <f t="shared" ref="L89" si="21">AVERAGE(L64:L88)</f>
-        <v>206.88</v>
+        <v>208.08</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" ref="M89" si="22">AVERAGE(M64:M88)</f>
-        <v>208.84399999999994</v>
+        <v>210.06399999999996</v>
       </c>
       <c r="N89" s="1">
         <f t="shared" ref="N89" si="23">AVERAGE(N64:N88)</f>
-        <v>1.2959999999999996</v>
+        <v>1.3359999999999996</v>
       </c>
       <c r="P89" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:O89">
+  <sortState ref="L1:O89">
     <sortCondition ref="L1:L89"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B61:J61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E62:J62"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5003,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7833E92D-83B8-4848-83C5-FC9D01B5B689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5061,7 +5069,7 @@
         <v>10035.541000000001</v>
       </c>
       <c r="G2">
-        <f>SUM(D2:F2)</f>
+        <f t="shared" ref="G2:G26" si="0">SUM(D2:F2)</f>
         <v>18527.432000000001</v>
       </c>
     </row>
@@ -5088,7 +5096,7 @@
         <v>9339.9700000000012</v>
       </c>
       <c r="G3">
-        <f>SUM(D3:F3)</f>
+        <f t="shared" si="0"/>
         <v>18360.849999999999</v>
       </c>
     </row>
@@ -5115,7 +5123,7 @@
         <v>3574.4879999999998</v>
       </c>
       <c r="G4">
-        <f>SUM(D4:F4)</f>
+        <f t="shared" si="0"/>
         <v>9881.607</v>
       </c>
     </row>
@@ -5142,7 +5150,7 @@
         <v>3441.4929999999995</v>
       </c>
       <c r="G5">
-        <f>SUM(D5:F5)</f>
+        <f t="shared" si="0"/>
         <v>9499.7439999999988</v>
       </c>
     </row>
@@ -5169,7 +5177,7 @@
         <v>3364.1230000000005</v>
       </c>
       <c r="G6">
-        <f>SUM(D6:F6)</f>
+        <f t="shared" si="0"/>
         <v>8315.0580000000009</v>
       </c>
     </row>
@@ -5196,7 +5204,7 @@
         <v>2584.7870000000007</v>
       </c>
       <c r="G7">
-        <f>SUM(D7:F7)</f>
+        <f t="shared" si="0"/>
         <v>5037.5600000000004</v>
       </c>
     </row>
@@ -5223,7 +5231,7 @@
         <v>1827.64</v>
       </c>
       <c r="G8">
-        <f>SUM(D8:F8)</f>
+        <f t="shared" si="0"/>
         <v>3038.076</v>
       </c>
     </row>
@@ -5250,7 +5258,7 @@
         <v>1800.3589999999999</v>
       </c>
       <c r="G9">
-        <f>SUM(D9:F9)</f>
+        <f t="shared" si="0"/>
         <v>2732.4830000000002</v>
       </c>
     </row>
@@ -5277,7 +5285,7 @@
         <v>2464.1019999999999</v>
       </c>
       <c r="G10">
-        <f>SUM(D10:F10)</f>
+        <f t="shared" si="0"/>
         <v>2695.9579999999996</v>
       </c>
     </row>
@@ -5304,7 +5312,7 @@
         <v>1729.2720000000002</v>
       </c>
       <c r="G11">
-        <f>SUM(D11:F11)</f>
+        <f t="shared" si="0"/>
         <v>2424.71</v>
       </c>
     </row>
@@ -5331,7 +5339,7 @@
         <v>1147.6460000000002</v>
       </c>
       <c r="G12">
-        <f>SUM(D12:F12)</f>
+        <f t="shared" si="0"/>
         <v>1614.8010000000002</v>
       </c>
     </row>
@@ -5358,7 +5366,7 @@
         <v>1078.0520000000001</v>
       </c>
       <c r="G13">
-        <f>SUM(D13:F13)</f>
+        <f t="shared" si="0"/>
         <v>1502.145</v>
       </c>
     </row>
@@ -5385,7 +5393,7 @@
         <v>981.00600000000009</v>
       </c>
       <c r="G14">
-        <f>SUM(D14:F14)</f>
+        <f t="shared" si="0"/>
         <v>1413.259</v>
       </c>
     </row>
@@ -5412,7 +5420,7 @@
         <v>638.25</v>
       </c>
       <c r="G15">
-        <f>SUM(D15:F15)</f>
+        <f t="shared" si="0"/>
         <v>1339.1009999999999</v>
       </c>
     </row>
@@ -5439,7 +5447,7 @@
         <v>826.95299999999986</v>
       </c>
       <c r="G16">
-        <f>SUM(D16:F16)</f>
+        <f t="shared" si="0"/>
         <v>1271.9449999999999</v>
       </c>
     </row>
@@ -5466,7 +5474,7 @@
         <v>858.97299999999996</v>
       </c>
       <c r="G17">
-        <f>SUM(D17:F17)</f>
+        <f t="shared" si="0"/>
         <v>1240.1619999999998</v>
       </c>
     </row>
@@ -5493,7 +5501,7 @@
         <v>850.46400000000017</v>
       </c>
       <c r="G18">
-        <f>SUM(D18:F18)</f>
+        <f t="shared" si="0"/>
         <v>1217.7160000000001</v>
       </c>
     </row>
@@ -5520,7 +5528,7 @@
         <v>919.92699999999991</v>
       </c>
       <c r="G19">
-        <f>SUM(D19:F19)</f>
+        <f t="shared" si="0"/>
         <v>1180.1949999999999</v>
       </c>
     </row>
@@ -5547,7 +5555,7 @@
         <v>679.32499999999993</v>
       </c>
       <c r="G20">
-        <f>SUM(D20:F20)</f>
+        <f t="shared" si="0"/>
         <v>903.16899999999987</v>
       </c>
     </row>
@@ -5574,7 +5582,7 @@
         <v>387.58800000000008</v>
       </c>
       <c r="G21">
-        <f>SUM(D21:F21)</f>
+        <f t="shared" si="0"/>
         <v>725.13700000000006</v>
       </c>
     </row>
@@ -5601,7 +5609,7 @@
         <v>285.74400000000003</v>
       </c>
       <c r="G22">
-        <f>SUM(D22:F22)</f>
+        <f t="shared" si="0"/>
         <v>603.36400000000003</v>
       </c>
     </row>
@@ -5628,7 +5636,7 @@
         <v>376.05700000000002</v>
       </c>
       <c r="G23">
-        <f>SUM(D23:F23)</f>
+        <f t="shared" si="0"/>
         <v>577.053</v>
       </c>
     </row>
@@ -5655,7 +5663,7 @@
         <v>359.89000000000004</v>
       </c>
       <c r="G24">
-        <f>SUM(D24:F24)</f>
+        <f t="shared" si="0"/>
         <v>500.21400000000006</v>
       </c>
     </row>
@@ -5682,7 +5690,7 @@
         <v>203.32399999999998</v>
       </c>
       <c r="G25">
-        <f>SUM(D25:F25)</f>
+        <f t="shared" si="0"/>
         <v>358.88299999999998</v>
       </c>
     </row>
@@ -5709,12 +5717,12 @@
         <v>23.79</v>
       </c>
       <c r="G26">
-        <f>SUM(D26:F26)</f>
+        <f t="shared" si="0"/>
         <v>49.478000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:G26">
+  <sortState ref="C2:G26">
     <sortCondition descending="1" ref="G1:G26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5722,7 +5730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A399-1392-421F-BE16-4A68D42F8610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -9065,7 +9073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1899936-B5F7-44DD-83C8-1FC6D40F114A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12404,7 +12412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005DE69-62B8-4E9D-ACDF-70327098D6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -297,6 +297,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,10 +331,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -340,17 +352,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalan" xfId="0" builtinId="0"/>
@@ -667,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,31 +696,31 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -796,7 +812,7 @@
       <c r="L4">
         <v>43</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>44.6</v>
       </c>
       <c r="N4">
@@ -850,7 +866,7 @@
       <c r="L5">
         <v>48</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>50.2</v>
       </c>
       <c r="N5">
@@ -904,7 +920,7 @@
       <c r="L6">
         <v>28</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>28.2</v>
       </c>
       <c r="N6">
@@ -958,7 +974,7 @@
       <c r="L7">
         <v>46</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>47.4</v>
       </c>
       <c r="N7">
@@ -1012,7 +1028,7 @@
       <c r="L8">
         <v>48</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>50.6</v>
       </c>
       <c r="N8">
@@ -1064,17 +1080,17 @@
         <v>45</v>
       </c>
       <c r="L9">
-        <v>170</v>
-      </c>
-      <c r="M9">
-        <v>172.6</v>
+        <v>44</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44.8</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>Coventry&amp;\bf{38}&amp;38.2&amp;BS4&amp;170&amp;172.6\\</v>
+        <v>Coventry&amp;\bf{38}&amp;38.2&amp;BS4&amp;44&amp;44.8\\</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1118,17 +1134,17 @@
         <v>45</v>
       </c>
       <c r="L10">
-        <v>181</v>
-      </c>
-      <c r="M10">
-        <v>182.3</v>
+        <v>50</v>
+      </c>
+      <c r="M10" s="7">
+        <v>50.6</v>
       </c>
       <c r="N10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>Exeter&amp;\bf{38}&amp;38&amp;BS4&amp;181&amp;182.3\\</v>
+        <v>Exeter&amp;\bf{38}&amp;38&amp;BS4&amp;50&amp;50.6\\</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1172,17 +1188,17 @@
         <v>45</v>
       </c>
       <c r="L11">
-        <v>197</v>
-      </c>
-      <c r="M11">
-        <v>199.8</v>
+        <v>58</v>
+      </c>
+      <c r="M11" s="7">
+        <v>59.2</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>Glasgow&amp;\bf{50}&amp;50.2&amp;BS4&amp;197&amp;199.8\\</v>
+        <v>Glasgow&amp;\bf{50}&amp;50.2&amp;BS4&amp;58&amp;59.2\\</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1226,17 +1242,17 @@
         <v>45</v>
       </c>
       <c r="L12">
-        <v>186</v>
-      </c>
-      <c r="M12">
-        <v>187.1</v>
+        <v>51</v>
+      </c>
+      <c r="M12" s="7">
+        <v>52.4</v>
       </c>
       <c r="N12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>Leeds&amp;\bf{40}&amp;40&amp;BS4&amp;186&amp;187.1\\</v>
+        <v>Leeds&amp;\bf{40}&amp;40&amp;BS4&amp;51&amp;52.4\\</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1280,17 +1296,17 @@
         <v>45</v>
       </c>
       <c r="L13">
-        <v>175</v>
-      </c>
-      <c r="M13">
-        <v>177.7</v>
+        <v>51</v>
+      </c>
+      <c r="M13" s="7">
+        <v>51.5</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>Leicester&amp;\bf{38}&amp;38&amp;BS4&amp;175&amp;177.7\\</v>
+        <v>Leicester&amp;\bf{38}&amp;38&amp;BS4&amp;51&amp;51.5\\</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1334,17 +1350,17 @@
         <v>45</v>
       </c>
       <c r="L14">
-        <v>132</v>
-      </c>
-      <c r="M14">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="M14" s="7">
+        <v>38.4</v>
       </c>
       <c r="N14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>Liverpool&amp;\bf{28}&amp;28&amp;BS4&amp;132&amp;133\\</v>
+        <v>Liverpool&amp;\bf{28}&amp;28&amp;BS4&amp;38&amp;38.4\\</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1388,17 +1404,17 @@
         <v>45</v>
       </c>
       <c r="L15">
-        <v>177</v>
-      </c>
-      <c r="M15">
-        <v>178.5</v>
+        <v>45</v>
+      </c>
+      <c r="M15" s="7">
+        <v>45.9</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>Manchester&amp;\bf{38}&amp;38.8&amp;BS4&amp;177&amp;178.5\\</v>
+        <v>Manchester&amp;\bf{38}&amp;38.8&amp;BS4&amp;45&amp;45.9\\</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1439,20 +1455,20 @@
         <v>611.70399999999995</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L16">
-        <v>169</v>
-      </c>
-      <c r="M16">
-        <v>171.5</v>
+        <v>51</v>
+      </c>
+      <c r="M16" s="7">
+        <v>52.6</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>Newcastle&amp;\bf{44}&amp;44&amp;BS2&amp;169&amp;171.5\\</v>
+        <v>Newcastle&amp;\bf{44}&amp;44&amp;BS4&amp;51&amp;52.6\\</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1496,17 +1512,17 @@
         <v>45</v>
       </c>
       <c r="L17">
-        <v>193</v>
-      </c>
-      <c r="M17">
-        <v>195.2</v>
+        <v>55</v>
+      </c>
+      <c r="M17" s="7">
+        <v>56.6</v>
       </c>
       <c r="N17">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>Nottingham&amp;\bf{44}&amp;44&amp;BS4&amp;193&amp;195.2\\</v>
+        <v>Nottingham&amp;\bf{44}&amp;44&amp;BS4&amp;55&amp;56.6\\</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1547,20 +1563,20 @@
         <v>63.146000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18">
-        <v>99</v>
-      </c>
-      <c r="M18">
-        <v>100.8</v>
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>27.9</v>
       </c>
       <c r="N18">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
-        <v>Oxford&amp;\bf{24}&amp;24&amp;BS2&amp;99&amp;100.8\\</v>
+        <v>Oxford&amp;\bf{24}&amp;24&amp;BS4&amp;27&amp;27.9\\</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1604,17 +1620,17 @@
         <v>45</v>
       </c>
       <c r="L19">
-        <v>135</v>
-      </c>
-      <c r="M19">
-        <v>137</v>
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>40.299999999999997</v>
       </c>
       <c r="N19">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="1"/>
-        <v>Plymouth&amp;\bf{31}&amp;31&amp;BS4&amp;135&amp;137\\</v>
+        <v>Plymouth&amp;\bf{31}&amp;31&amp;BS4&amp;39&amp;40.3\\</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1658,17 +1674,17 @@
         <v>45</v>
       </c>
       <c r="L20">
-        <v>180</v>
-      </c>
-      <c r="M20">
-        <v>182.2</v>
+        <v>51</v>
+      </c>
+      <c r="M20" s="7">
+        <v>52.5</v>
       </c>
       <c r="N20">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
-        <v>Sheffield&amp;\bf{42}&amp;42&amp;BS4&amp;180&amp;182.2\\</v>
+        <v>Sheffield&amp;\bf{42}&amp;42&amp;BS4&amp;51&amp;52.5\\</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1712,17 +1728,17 @@
         <v>45</v>
       </c>
       <c r="L21">
-        <v>112</v>
-      </c>
-      <c r="M21">
-        <v>113.2</v>
+        <v>28</v>
+      </c>
+      <c r="M21" s="7">
+        <v>29.6</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
-        <v>Southampton&amp;\bf{25}&amp;25&amp;BS4&amp;112&amp;113.2\\</v>
+        <v>Southampton&amp;\bf{25}&amp;25&amp;BS4&amp;28&amp;29.6\\</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1766,17 +1782,17 @@
         <v>45</v>
       </c>
       <c r="L22">
-        <v>162</v>
-      </c>
-      <c r="M22">
-        <v>163.6</v>
+        <v>46</v>
+      </c>
+      <c r="M22" s="7">
+        <v>46.3</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>Sunderland&amp;\bf{36}&amp;36&amp;BS4&amp;162&amp;163.6\\</v>
+        <v>Sunderland&amp;\bf{36}&amp;36&amp;BS4&amp;46&amp;46.3\\</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1820,17 +1836,17 @@
         <v>45</v>
       </c>
       <c r="L23">
-        <v>144</v>
-      </c>
-      <c r="M23">
-        <v>145.80000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
+        <v>39.1</v>
       </c>
       <c r="N23">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>York&amp;\bf{32}&amp;32&amp;BS4&amp;144&amp;145.8\\</v>
+        <v>York&amp;\bf{32}&amp;32&amp;BS4&amp;39&amp;39.1\\</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2044,16 +2060,16 @@
       <c r="K28" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>138</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="2">
         <v>139.30000000000001</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="3"/>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v>Minsk&amp;\bf{100}&amp;102&amp;PG&amp;138&amp;139.3\\</v>
@@ -2102,15 +2118,15 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>128.16</v>
+        <v>58.6</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ref="M29" si="4">AVERAGE(M4:M28)</f>
-        <v>129.85599999999999</v>
+        <v>59.751999999999995</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ref="N29" si="5">AVERAGE(N4:N28)</f>
-        <v>1.0719999999999998</v>
+        <v>0.75600000000000012</v>
       </c>
       <c r="P29" t="s">
         <v>75</v>
@@ -2118,31 +2134,31 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2288,7 +2304,7 @@
       <c r="L35">
         <v>96</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="6">
         <v>97.6</v>
       </c>
       <c r="N35">
@@ -2342,7 +2358,7 @@
       <c r="L36">
         <v>49</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="6">
         <v>49.4</v>
       </c>
       <c r="N36">
@@ -2396,7 +2412,7 @@
       <c r="L37">
         <v>91</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="6">
         <v>94</v>
       </c>
       <c r="N37">
@@ -2450,15 +2466,15 @@
       <c r="L38">
         <v>92</v>
       </c>
-      <c r="M38">
-        <v>95.9</v>
+      <c r="M38" s="6">
+        <v>95.6</v>
       </c>
       <c r="N38">
         <v>1.6</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="7"/>
-        <v>Cardiff&amp;\bf{79}&amp;79.4&amp;BS4&amp;92&amp;95.9\\</v>
+        <v>Cardiff&amp;\bf{79}&amp;79.4&amp;BS4&amp;92&amp;95.6\\</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2504,7 +2520,7 @@
       <c r="L39">
         <v>84</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="8">
         <v>85.1</v>
       </c>
       <c r="N39">
@@ -2558,7 +2574,7 @@
       <c r="L40">
         <v>94</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="8">
         <v>95.7</v>
       </c>
       <c r="N40">
@@ -2612,7 +2628,7 @@
       <c r="L41">
         <v>108</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="8">
         <v>110.6</v>
       </c>
       <c r="N41">
@@ -2666,7 +2682,7 @@
       <c r="L42">
         <v>98</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="6">
         <v>99.6</v>
       </c>
       <c r="N42">
@@ -2720,7 +2736,7 @@
       <c r="L43">
         <v>93</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="9">
         <v>94.1</v>
       </c>
       <c r="N43">
@@ -2774,7 +2790,7 @@
       <c r="L44">
         <v>71</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="9">
         <v>72</v>
       </c>
       <c r="N44">
@@ -2828,7 +2844,7 @@
       <c r="L45">
         <v>90</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="9">
         <v>91.5</v>
       </c>
       <c r="N45">
@@ -2882,7 +2898,7 @@
       <c r="L46">
         <v>94</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="9">
         <v>95.4</v>
       </c>
       <c r="N46">
@@ -2936,7 +2952,7 @@
       <c r="L47">
         <v>102</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="9">
         <v>103.3</v>
       </c>
       <c r="N47">
@@ -2990,7 +3006,7 @@
       <c r="L48">
         <v>54</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="9">
         <v>54.9</v>
       </c>
       <c r="N48">
@@ -3044,7 +3060,7 @@
       <c r="L49">
         <v>73</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="9">
         <v>75</v>
       </c>
       <c r="N49">
@@ -3098,7 +3114,7 @@
       <c r="L50">
         <v>97</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="9">
         <v>98.9</v>
       </c>
       <c r="N50">
@@ -3152,7 +3168,7 @@
       <c r="L51">
         <v>60</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="9">
         <v>61.1</v>
       </c>
       <c r="N51">
@@ -3206,7 +3222,7 @@
       <c r="L52">
         <v>87</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="9">
         <v>89.1</v>
       </c>
       <c r="N52">
@@ -3260,7 +3276,7 @@
       <c r="L53">
         <v>77</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="9">
         <v>77.599999999999994</v>
       </c>
       <c r="N53">
@@ -3482,13 +3498,13 @@
       <c r="K58" t="s">
         <v>48</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="2">
         <v>265</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="2">
         <v>266.39999999999998</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="2">
         <v>1.3</v>
       </c>
       <c r="P58" t="str">
@@ -3543,7 +3559,7 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ref="M59" si="10">AVERAGE(M34:M58)</f>
-        <v>113.46</v>
+        <v>113.44800000000001</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ref="N59" si="11">AVERAGE(N34:N58)</f>
@@ -3555,31 +3571,31 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3891,7 +3907,7 @@
         <v>183.2</v>
       </c>
       <c r="N68">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="13"/>
@@ -4874,13 +4890,13 @@
       <c r="K87" t="s">
         <v>48</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="2">
         <v>317</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="2">
         <v>318.5</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="2">
         <v>1.5</v>
       </c>
       <c r="P87" t="str">
@@ -4919,13 +4935,13 @@
       <c r="K88" t="s">
         <v>48</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="2">
         <v>506</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="2">
         <v>509.4</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="2">
         <v>2.9</v>
       </c>
       <c r="P88" t="str">
@@ -4984,7 +5000,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ref="N89" si="23">AVERAGE(N64:N88)</f>
-        <v>1.3359999999999996</v>
+        <v>1.3399999999999996</v>
       </c>
       <c r="P89" t="s">
         <v>75</v>
@@ -4995,15 +5011,15 @@
     <sortCondition ref="L1:L89"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5744,66 +5760,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="5">
         <v>12345</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>22411</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>25233</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>52331</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
         <v>54278</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5">
         <v>54433</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5">
         <v>66655</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5">
         <v>68531</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5">
         <v>87744</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5">
         <v>98811</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9083,66 +9099,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="5">
         <v>12345</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>22411</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>25233</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>52331</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
         <v>54278</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5">
         <v>54433</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5">
         <v>66655</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5">
         <v>68531</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5">
         <v>87744</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5">
         <v>98811</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -12422,66 +12438,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="5">
         <v>12345</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>22411</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>25233</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>52331</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
         <v>54278</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5">
         <v>54433</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5">
         <v>66655</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5">
         <v>68531</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5">
         <v>87744</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5">
         <v>98811</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/algorithms/results/comparison.xlsx
+++ b/algorithms/results/comparison.xlsx
@@ -317,18 +317,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -352,21 +346,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalan" xfId="0" builtinId="0"/>
@@ -683,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,31 +689,31 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -812,7 +805,7 @@
       <c r="L4">
         <v>43</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>44.6</v>
       </c>
       <c r="N4">
@@ -866,7 +859,7 @@
       <c r="L5">
         <v>48</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>50.2</v>
       </c>
       <c r="N5">
@@ -920,7 +913,7 @@
       <c r="L6">
         <v>28</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>28.2</v>
       </c>
       <c r="N6">
@@ -974,7 +967,7 @@
       <c r="L7">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>47.4</v>
       </c>
       <c r="N7">
@@ -1028,7 +1021,7 @@
       <c r="L8">
         <v>48</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>50.6</v>
       </c>
       <c r="N8">
@@ -1082,7 +1075,7 @@
       <c r="L9">
         <v>44</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>44.8</v>
       </c>
       <c r="N9">
@@ -1136,7 +1129,7 @@
       <c r="L10">
         <v>50</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <v>50.6</v>
       </c>
       <c r="N10">
@@ -1190,7 +1183,7 @@
       <c r="L11">
         <v>58</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <v>59.2</v>
       </c>
       <c r="N11">
@@ -1244,7 +1237,7 @@
       <c r="L12">
         <v>51</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>52.4</v>
       </c>
       <c r="N12">
@@ -1298,7 +1291,7 @@
       <c r="L13">
         <v>51</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>51.5</v>
       </c>
       <c r="N13">
@@ -1352,7 +1345,7 @@
       <c r="L14">
         <v>38</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>38.4</v>
       </c>
       <c r="N14">
@@ -1406,7 +1399,7 @@
       <c r="L15">
         <v>45</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <v>45.9</v>
       </c>
       <c r="N15">
@@ -1460,7 +1453,7 @@
       <c r="L16">
         <v>51</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>52.6</v>
       </c>
       <c r="N16">
@@ -1514,7 +1507,7 @@
       <c r="L17">
         <v>55</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>56.6</v>
       </c>
       <c r="N17">
@@ -1568,7 +1561,7 @@
       <c r="L18">
         <v>27</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>27.9</v>
       </c>
       <c r="N18">
@@ -1622,7 +1615,7 @@
       <c r="L19">
         <v>39</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>40.299999999999997</v>
       </c>
       <c r="N19">
@@ -1676,7 +1669,7 @@
       <c r="L20">
         <v>51</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>52.5</v>
       </c>
       <c r="N20">
@@ -1730,7 +1723,7 @@
       <c r="L21">
         <v>28</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>29.6</v>
       </c>
       <c r="N21">
@@ -1784,7 +1777,7 @@
       <c r="L22">
         <v>46</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <v>46.3</v>
       </c>
       <c r="N22">
@@ -1838,7 +1831,7 @@
       <c r="L23">
         <v>39</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <v>39.1</v>
       </c>
       <c r="N23">
@@ -2061,18 +2054,18 @@
         <v>48</v>
       </c>
       <c r="L28" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M28" s="2">
-        <v>139.30000000000001</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O28" s="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>Minsk&amp;\bf{100}&amp;102&amp;PG&amp;138&amp;139.3\\</v>
+        <v>Minsk&amp;\bf{100}&amp;102&amp;PG&amp;125&amp;126\\</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2118,15 +2111,15 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>58.6</v>
+        <v>58.08</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ref="M29" si="4">AVERAGE(M4:M28)</f>
-        <v>59.751999999999995</v>
+        <v>59.22</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ref="N29" si="5">AVERAGE(N4:N28)</f>
-        <v>0.75600000000000012</v>
+        <v>0.748</v>
       </c>
       <c r="P29" t="s">
         <v>75</v>
@@ -2134,31 +2127,31 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2304,7 +2297,7 @@
       <c r="L35">
         <v>96</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="3">
         <v>97.6</v>
       </c>
       <c r="N35">
@@ -2358,7 +2351,7 @@
       <c r="L36">
         <v>49</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="3">
         <v>49.4</v>
       </c>
       <c r="N36">
@@ -2412,7 +2405,7 @@
       <c r="L37">
         <v>91</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="3">
         <v>94</v>
       </c>
       <c r="N37">
@@ -2466,7 +2459,7 @@
       <c r="L38">
         <v>92</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="3">
         <v>95.6</v>
       </c>
       <c r="N38">
@@ -2520,7 +2513,7 @@
       <c r="L39">
         <v>84</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="5">
         <v>85.1</v>
       </c>
       <c r="N39">
@@ -2574,7 +2567,7 @@
       <c r="L40">
         <v>94</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="5">
         <v>95.7</v>
       </c>
       <c r="N40">
@@ -2628,7 +2621,7 @@
       <c r="L41">
         <v>108</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="5">
         <v>110.6</v>
       </c>
       <c r="N41">
@@ -2682,7 +2675,7 @@
       <c r="L42">
         <v>98</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="3">
         <v>99.6</v>
       </c>
       <c r="N42">
@@ -2736,7 +2729,7 @@
       <c r="L43">
         <v>93</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="6">
         <v>94.1</v>
       </c>
       <c r="N43">
@@ -2790,7 +2783,7 @@
       <c r="L44">
         <v>71</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="6">
         <v>72</v>
       </c>
       <c r="N44">
@@ -2844,7 +2837,7 @@
       <c r="L45">
         <v>90</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="6">
         <v>91.5</v>
       </c>
       <c r="N45">
@@ -2898,7 +2891,7 @@
       <c r="L46">
         <v>94</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="6">
         <v>95.4</v>
       </c>
       <c r="N46">
@@ -2952,7 +2945,7 @@
       <c r="L47">
         <v>102</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="6">
         <v>103.3</v>
       </c>
       <c r="N47">
@@ -3006,7 +2999,7 @@
       <c r="L48">
         <v>54</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="6">
         <v>54.9</v>
       </c>
       <c r="N48">
@@ -3060,7 +3053,7 @@
       <c r="L49">
         <v>73</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="6">
         <v>75</v>
       </c>
       <c r="N49">
@@ -3114,7 +3107,7 @@
       <c r="L50">
         <v>97</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="6">
         <v>98.9</v>
       </c>
       <c r="N50">
@@ -3168,7 +3161,7 @@
       <c r="L51">
         <v>60</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="6">
         <v>61.1</v>
       </c>
       <c r="N51">
@@ -3222,7 +3215,7 @@
       <c r="L52">
         <v>87</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="6">
         <v>89.1</v>
       </c>
       <c r="N52">
@@ -3276,7 +3269,7 @@
       <c r="L53">
         <v>77</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="6">
         <v>77.599999999999994</v>
       </c>
       <c r="N53">
@@ -3499,17 +3492,17 @@
         <v>48</v>
       </c>
       <c r="L58" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="M58" s="2">
-        <v>266.39999999999998</v>
+        <v>240.4</v>
       </c>
       <c r="N58" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="str">
         <f t="shared" si="7"/>
-        <v>Minsk&amp;\bf{197}&amp;201.1&amp;PG&amp;265&amp;266.4\\</v>
+        <v>Minsk&amp;\bf{197}&amp;201.1&amp;PG&amp;238&amp;240.4\\</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3555,15 +3548,15 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1">
         <f t="shared" ref="L59" si="9">AVERAGE(L34:L58)</f>
-        <v>111.8</v>
+        <v>110.72</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" ref="M59" si="10">AVERAGE(M34:M58)</f>
-        <v>113.44800000000001</v>
+        <v>112.40800000000002</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ref="N59" si="11">AVERAGE(N34:N58)</f>
-        <v>1.0880000000000001</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="P59" t="s">
         <v>75</v>
@@ -3571,31 +3564,31 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -4891,17 +4884,17 @@
         <v>48</v>
       </c>
       <c r="L87" s="2">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="M87" s="2">
-        <v>318.5</v>
+        <v>390.2</v>
       </c>
       <c r="N87" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P87" t="str">
         <f t="shared" si="13"/>
-        <v>Dublin&amp;363&amp;363&amp;PG&amp;\bf{317}&amp;318.5\\</v>
+        <v>Dublin&amp;\bf{363}&amp;363&amp;PG&amp;388&amp;390.2\\</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4936,17 +4929,17 @@
         <v>48</v>
       </c>
       <c r="L88" s="2">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="M88" s="2">
-        <v>509.4</v>
+        <v>457.6</v>
       </c>
       <c r="N88" s="2">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P88" t="str">
         <f t="shared" si="13"/>
-        <v>Minsk&amp;\bf{387}&amp;391.5&amp;PG&amp;506&amp;509.4\\</v>
+        <v>Minsk&amp;\bf{387}&amp;391.5&amp;PG&amp;454&amp;457.6\\</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -4992,11 +4985,11 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1">
         <f t="shared" ref="L89" si="21">AVERAGE(L64:L88)</f>
-        <v>208.08</v>
+        <v>208.84</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" ref="M89" si="22">AVERAGE(M64:M88)</f>
-        <v>210.06399999999996</v>
+        <v>210.86</v>
       </c>
       <c r="N89" s="1">
         <f t="shared" ref="N89" si="23">AVERAGE(N64:N88)</f>
@@ -5760,66 +5753,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="5">
+      <c r="B1" s="8">
         <v>12345</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8">
         <v>22411</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8">
         <v>25233</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
         <v>52331</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8">
         <v>54278</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8">
         <v>54433</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8">
         <v>66655</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8">
         <v>68531</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8">
         <v>87744</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8">
         <v>98811</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9099,66 +9092,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="5">
+      <c r="B1" s="8">
         <v>12345</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8">
         <v>22411</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8">
         <v>25233</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
         <v>52331</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8">
         <v>54278</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8">
         <v>54433</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8">
         <v>66655</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8">
         <v>68531</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8">
         <v>87744</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8">
         <v>98811</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -12438,66 +12431,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="5">
+      <c r="B1" s="8">
         <v>12345</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8">
         <v>22411</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8">
         <v>25233</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
         <v>52331</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8">
         <v>54278</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8">
         <v>54433</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8">
         <v>66655</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8">
         <v>68531</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8">
         <v>87744</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8">
         <v>98811</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
